--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\Dropbox\Hogeschool Rotterdam - Giulia\2015-16 - OP2 - Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\....HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -208,11 +208,14 @@
 - Clicks not on the button area have no effect on quit program 
 - Clicks on the button area make the program quit</t>
   </si>
+  <si>
+    <t>Instructions show on first start up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -506,17 +509,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,6 +615,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -647,6 +667,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -801,11 +838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,10 +858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="2"/>
@@ -1846,10 +1883,18 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -31229,7 +31274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -31244,10 +31289,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31263,7 +31308,7 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -31301,10 +31346,10 @@
       <c r="B6" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -31320,7 +31365,7 @@
       <c r="C11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="21" t="s">

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\....HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\Jaar 1\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -839,25 +839,25 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="85.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="28" width="8.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1950,7 +1950,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1980,7 +1980,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2010,7 +2010,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2040,7 +2040,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2070,7 +2070,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2100,7 +2100,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2130,7 +2130,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2160,7 +2160,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2190,7 +2190,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2220,7 +2220,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2250,7 +2250,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2280,7 +2280,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2310,7 +2310,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2340,7 +2340,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2370,7 +2370,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2400,7 +2400,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2430,7 +2430,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2460,7 +2460,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2490,7 +2490,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2520,7 +2520,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2550,7 +2550,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2580,7 +2580,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2610,7 +2610,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2640,7 +2640,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2670,7 +2670,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2700,7 +2700,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2730,7 +2730,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2760,7 +2760,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2790,7 +2790,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2820,7 +2820,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2850,7 +2850,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2880,7 +2880,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2910,7 +2910,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2940,7 +2940,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2970,7 +2970,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3000,7 +3000,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3030,7 +3030,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3060,7 +3060,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3090,7 +3090,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3120,7 +3120,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3150,7 +3150,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3180,7 +3180,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3210,7 +3210,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3240,7 +3240,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3270,7 +3270,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3300,7 +3300,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3330,7 +3330,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3360,7 +3360,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3390,7 +3390,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3420,7 +3420,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3450,7 +3450,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3480,7 +3480,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3510,7 +3510,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3540,7 +3540,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3570,7 +3570,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3600,7 +3600,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3630,7 +3630,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3660,7 +3660,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3690,7 +3690,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3720,7 +3720,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -3750,7 +3750,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3780,7 +3780,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3810,7 +3810,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3840,7 +3840,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3870,7 +3870,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3900,7 +3900,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3930,7 +3930,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3960,7 +3960,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3990,7 +3990,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4020,7 +4020,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4050,7 +4050,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4080,7 +4080,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4110,7 +4110,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4140,7 +4140,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4170,7 +4170,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4200,7 +4200,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4230,7 +4230,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4260,7 +4260,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4290,7 +4290,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4320,7 +4320,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4350,7 +4350,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4380,7 +4380,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4410,7 +4410,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4440,7 +4440,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4470,7 +4470,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4500,7 +4500,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4530,7 +4530,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4560,7 +4560,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4590,7 +4590,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4620,7 +4620,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -4650,7 +4650,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -4680,7 +4680,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -4710,7 +4710,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -4740,7 +4740,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -4770,7 +4770,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -4800,7 +4800,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4830,7 +4830,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -4860,7 +4860,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -4890,7 +4890,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -4920,7 +4920,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -4950,7 +4950,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -4980,7 +4980,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5010,7 +5010,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5040,7 +5040,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5070,7 +5070,7 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5100,7 +5100,7 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5130,7 +5130,7 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5160,7 +5160,7 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5190,7 +5190,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5220,7 +5220,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -5250,7 +5250,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5280,7 +5280,7 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5310,7 +5310,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5340,7 +5340,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5370,7 +5370,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5400,7 +5400,7 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5430,7 +5430,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5460,7 +5460,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5490,7 +5490,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5520,7 +5520,7 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5550,7 +5550,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5580,7 +5580,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5610,7 +5610,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5640,7 +5640,7 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5670,7 +5670,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -5700,7 +5700,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5730,7 +5730,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -5760,7 +5760,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5790,7 +5790,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5820,7 +5820,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5850,7 +5850,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5880,7 +5880,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5910,7 +5910,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5940,7 +5940,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5970,7 +5970,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -6000,7 +6000,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -6030,7 +6030,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -6060,7 +6060,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -6090,7 +6090,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -6120,7 +6120,7 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6150,7 +6150,7 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6180,7 +6180,7 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6210,7 +6210,7 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6240,7 +6240,7 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -6270,7 +6270,7 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6300,7 +6300,7 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -6330,7 +6330,7 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6360,7 +6360,7 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6390,7 +6390,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6420,7 +6420,7 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6450,7 +6450,7 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6480,7 +6480,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6510,7 +6510,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6540,7 +6540,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6570,7 +6570,7 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6600,7 +6600,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6630,7 +6630,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6660,7 +6660,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6690,7 +6690,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6720,7 +6720,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6750,7 +6750,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6780,7 +6780,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6810,7 +6810,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6840,7 +6840,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6870,7 +6870,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6900,7 +6900,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6930,7 +6930,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6960,7 +6960,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -6990,7 +6990,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -7020,7 +7020,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -7050,7 +7050,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -7080,7 +7080,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -7110,7 +7110,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -7140,7 +7140,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7170,7 +7170,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -7200,7 +7200,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7230,7 +7230,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7260,7 +7260,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7290,7 +7290,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7320,7 +7320,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7350,7 +7350,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7380,7 +7380,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7410,7 +7410,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7440,7 +7440,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -7470,7 +7470,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7500,7 +7500,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -7530,7 +7530,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7560,7 +7560,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7590,7 +7590,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7620,7 +7620,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7650,7 +7650,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -7680,7 +7680,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7710,7 +7710,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7740,7 +7740,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7770,7 +7770,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7800,7 +7800,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7830,7 +7830,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7860,7 +7860,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7890,7 +7890,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7920,7 +7920,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -7950,7 +7950,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7980,7 +7980,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -8010,7 +8010,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -8040,7 +8040,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -8070,7 +8070,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -8100,7 +8100,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -8130,7 +8130,7 @@
       <c r="AA235" s="2"/>
       <c r="AB235" s="2"/>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -8160,7 +8160,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -8190,7 +8190,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -8220,7 +8220,7 @@
       <c r="AA238" s="2"/>
       <c r="AB238" s="2"/>
     </row>
-    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -8250,7 +8250,7 @@
       <c r="AA239" s="2"/>
       <c r="AB239" s="2"/>
     </row>
-    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -8280,7 +8280,7 @@
       <c r="AA240" s="2"/>
       <c r="AB240" s="2"/>
     </row>
-    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8310,7 +8310,7 @@
       <c r="AA241" s="2"/>
       <c r="AB241" s="2"/>
     </row>
-    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8340,7 +8340,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
     </row>
-    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8370,7 +8370,7 @@
       <c r="AA243" s="2"/>
       <c r="AB243" s="2"/>
     </row>
-    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -8400,7 +8400,7 @@
       <c r="AA244" s="2"/>
       <c r="AB244" s="2"/>
     </row>
-    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8430,7 +8430,7 @@
       <c r="AA245" s="2"/>
       <c r="AB245" s="2"/>
     </row>
-    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8460,7 +8460,7 @@
       <c r="AA246" s="2"/>
       <c r="AB246" s="2"/>
     </row>
-    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8490,7 +8490,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
     </row>
-    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -8520,7 +8520,7 @@
       <c r="AA248" s="2"/>
       <c r="AB248" s="2"/>
     </row>
-    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -8550,7 +8550,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
     </row>
-    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8580,7 +8580,7 @@
       <c r="AA250" s="2"/>
       <c r="AB250" s="2"/>
     </row>
-    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8610,7 +8610,7 @@
       <c r="AA251" s="2"/>
       <c r="AB251" s="2"/>
     </row>
-    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8640,7 +8640,7 @@
       <c r="AA252" s="2"/>
       <c r="AB252" s="2"/>
     </row>
-    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8670,7 +8670,7 @@
       <c r="AA253" s="2"/>
       <c r="AB253" s="2"/>
     </row>
-    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8700,7 +8700,7 @@
       <c r="AA254" s="2"/>
       <c r="AB254" s="2"/>
     </row>
-    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8730,7 +8730,7 @@
       <c r="AA255" s="2"/>
       <c r="AB255" s="2"/>
     </row>
-    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -8760,7 +8760,7 @@
       <c r="AA256" s="2"/>
       <c r="AB256" s="2"/>
     </row>
-    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8790,7 +8790,7 @@
       <c r="AA257" s="2"/>
       <c r="AB257" s="2"/>
     </row>
-    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8820,7 +8820,7 @@
       <c r="AA258" s="2"/>
       <c r="AB258" s="2"/>
     </row>
-    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -8850,7 +8850,7 @@
       <c r="AA259" s="2"/>
       <c r="AB259" s="2"/>
     </row>
-    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8880,7 +8880,7 @@
       <c r="AA260" s="2"/>
       <c r="AB260" s="2"/>
     </row>
-    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8910,7 +8910,7 @@
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
     </row>
-    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8940,7 +8940,7 @@
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
     </row>
-    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8970,7 +8970,7 @@
       <c r="AA263" s="2"/>
       <c r="AB263" s="2"/>
     </row>
-    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -9000,7 +9000,7 @@
       <c r="AA264" s="2"/>
       <c r="AB264" s="2"/>
     </row>
-    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -9030,7 +9030,7 @@
       <c r="AA265" s="2"/>
       <c r="AB265" s="2"/>
     </row>
-    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -9060,7 +9060,7 @@
       <c r="AA266" s="2"/>
       <c r="AB266" s="2"/>
     </row>
-    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -9090,7 +9090,7 @@
       <c r="AA267" s="2"/>
       <c r="AB267" s="2"/>
     </row>
-    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -9120,7 +9120,7 @@
       <c r="AA268" s="2"/>
       <c r="AB268" s="2"/>
     </row>
-    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -9150,7 +9150,7 @@
       <c r="AA269" s="2"/>
       <c r="AB269" s="2"/>
     </row>
-    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -9180,7 +9180,7 @@
       <c r="AA270" s="2"/>
       <c r="AB270" s="2"/>
     </row>
-    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -9210,7 +9210,7 @@
       <c r="AA271" s="2"/>
       <c r="AB271" s="2"/>
     </row>
-    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -9240,7 +9240,7 @@
       <c r="AA272" s="2"/>
       <c r="AB272" s="2"/>
     </row>
-    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -9270,7 +9270,7 @@
       <c r="AA273" s="2"/>
       <c r="AB273" s="2"/>
     </row>
-    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -9300,7 +9300,7 @@
       <c r="AA274" s="2"/>
       <c r="AB274" s="2"/>
     </row>
-    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -9330,7 +9330,7 @@
       <c r="AA275" s="2"/>
       <c r="AB275" s="2"/>
     </row>
-    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9360,7 +9360,7 @@
       <c r="AA276" s="2"/>
       <c r="AB276" s="2"/>
     </row>
-    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -9390,7 +9390,7 @@
       <c r="AA277" s="2"/>
       <c r="AB277" s="2"/>
     </row>
-    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -9420,7 +9420,7 @@
       <c r="AA278" s="2"/>
       <c r="AB278" s="2"/>
     </row>
-    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -9450,7 +9450,7 @@
       <c r="AA279" s="2"/>
       <c r="AB279" s="2"/>
     </row>
-    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -9480,7 +9480,7 @@
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
     </row>
-    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -9510,7 +9510,7 @@
       <c r="AA281" s="2"/>
       <c r="AB281" s="2"/>
     </row>
-    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9540,7 +9540,7 @@
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
     </row>
-    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -9570,7 +9570,7 @@
       <c r="AA283" s="2"/>
       <c r="AB283" s="2"/>
     </row>
-    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -9600,7 +9600,7 @@
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
     </row>
-    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9630,7 +9630,7 @@
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
     </row>
-    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9660,7 +9660,7 @@
       <c r="AA286" s="2"/>
       <c r="AB286" s="2"/>
     </row>
-    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9690,7 +9690,7 @@
       <c r="AA287" s="2"/>
       <c r="AB287" s="2"/>
     </row>
-    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9720,7 +9720,7 @@
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
     </row>
-    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9750,7 +9750,7 @@
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
     </row>
-    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9780,7 +9780,7 @@
       <c r="AA290" s="2"/>
       <c r="AB290" s="2"/>
     </row>
-    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9810,7 +9810,7 @@
       <c r="AA291" s="2"/>
       <c r="AB291" s="2"/>
     </row>
-    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9840,7 +9840,7 @@
       <c r="AA292" s="2"/>
       <c r="AB292" s="2"/>
     </row>
-    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9870,7 +9870,7 @@
       <c r="AA293" s="2"/>
       <c r="AB293" s="2"/>
     </row>
-    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -9900,7 +9900,7 @@
       <c r="AA294" s="2"/>
       <c r="AB294" s="2"/>
     </row>
-    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -9930,7 +9930,7 @@
       <c r="AA295" s="2"/>
       <c r="AB295" s="2"/>
     </row>
-    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -9960,7 +9960,7 @@
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
     </row>
-    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -9990,7 +9990,7 @@
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
     </row>
-    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -10020,7 +10020,7 @@
       <c r="AA298" s="2"/>
       <c r="AB298" s="2"/>
     </row>
-    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -10050,7 +10050,7 @@
       <c r="AA299" s="2"/>
       <c r="AB299" s="2"/>
     </row>
-    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -10080,7 +10080,7 @@
       <c r="AA300" s="2"/>
       <c r="AB300" s="2"/>
     </row>
-    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -10110,7 +10110,7 @@
       <c r="AA301" s="2"/>
       <c r="AB301" s="2"/>
     </row>
-    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -10140,7 +10140,7 @@
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
     </row>
-    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -10170,7 +10170,7 @@
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
     </row>
-    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -10200,7 +10200,7 @@
       <c r="AA304" s="2"/>
       <c r="AB304" s="2"/>
     </row>
-    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -10230,7 +10230,7 @@
       <c r="AA305" s="2"/>
       <c r="AB305" s="2"/>
     </row>
-    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -10260,7 +10260,7 @@
       <c r="AA306" s="2"/>
       <c r="AB306" s="2"/>
     </row>
-    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -10290,7 +10290,7 @@
       <c r="AA307" s="2"/>
       <c r="AB307" s="2"/>
     </row>
-    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -10320,7 +10320,7 @@
       <c r="AA308" s="2"/>
       <c r="AB308" s="2"/>
     </row>
-    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -10350,7 +10350,7 @@
       <c r="AA309" s="2"/>
       <c r="AB309" s="2"/>
     </row>
-    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -10380,7 +10380,7 @@
       <c r="AA310" s="2"/>
       <c r="AB310" s="2"/>
     </row>
-    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -10410,7 +10410,7 @@
       <c r="AA311" s="2"/>
       <c r="AB311" s="2"/>
     </row>
-    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -10440,7 +10440,7 @@
       <c r="AA312" s="2"/>
       <c r="AB312" s="2"/>
     </row>
-    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10470,7 +10470,7 @@
       <c r="AA313" s="2"/>
       <c r="AB313" s="2"/>
     </row>
-    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -10500,7 +10500,7 @@
       <c r="AA314" s="2"/>
       <c r="AB314" s="2"/>
     </row>
-    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10530,7 +10530,7 @@
       <c r="AA315" s="2"/>
       <c r="AB315" s="2"/>
     </row>
-    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10560,7 +10560,7 @@
       <c r="AA316" s="2"/>
       <c r="AB316" s="2"/>
     </row>
-    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10590,7 +10590,7 @@
       <c r="AA317" s="2"/>
       <c r="AB317" s="2"/>
     </row>
-    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10620,7 +10620,7 @@
       <c r="AA318" s="2"/>
       <c r="AB318" s="2"/>
     </row>
-    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10650,7 +10650,7 @@
       <c r="AA319" s="2"/>
       <c r="AB319" s="2"/>
     </row>
-    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10680,7 +10680,7 @@
       <c r="AA320" s="2"/>
       <c r="AB320" s="2"/>
     </row>
-    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10710,7 +10710,7 @@
       <c r="AA321" s="2"/>
       <c r="AB321" s="2"/>
     </row>
-    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10740,7 +10740,7 @@
       <c r="AA322" s="2"/>
       <c r="AB322" s="2"/>
     </row>
-    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10770,7 +10770,7 @@
       <c r="AA323" s="2"/>
       <c r="AB323" s="2"/>
     </row>
-    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10800,7 +10800,7 @@
       <c r="AA324" s="2"/>
       <c r="AB324" s="2"/>
     </row>
-    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10830,7 +10830,7 @@
       <c r="AA325" s="2"/>
       <c r="AB325" s="2"/>
     </row>
-    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10860,7 +10860,7 @@
       <c r="AA326" s="2"/>
       <c r="AB326" s="2"/>
     </row>
-    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10890,7 +10890,7 @@
       <c r="AA327" s="2"/>
       <c r="AB327" s="2"/>
     </row>
-    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10920,7 +10920,7 @@
       <c r="AA328" s="2"/>
       <c r="AB328" s="2"/>
     </row>
-    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10950,7 +10950,7 @@
       <c r="AA329" s="2"/>
       <c r="AB329" s="2"/>
     </row>
-    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10980,7 +10980,7 @@
       <c r="AA330" s="2"/>
       <c r="AB330" s="2"/>
     </row>
-    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -11010,7 +11010,7 @@
       <c r="AA331" s="2"/>
       <c r="AB331" s="2"/>
     </row>
-    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -11040,7 +11040,7 @@
       <c r="AA332" s="2"/>
       <c r="AB332" s="2"/>
     </row>
-    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -11070,7 +11070,7 @@
       <c r="AA333" s="2"/>
       <c r="AB333" s="2"/>
     </row>
-    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -11100,7 +11100,7 @@
       <c r="AA334" s="2"/>
       <c r="AB334" s="2"/>
     </row>
-    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -11130,7 +11130,7 @@
       <c r="AA335" s="2"/>
       <c r="AB335" s="2"/>
     </row>
-    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -11160,7 +11160,7 @@
       <c r="AA336" s="2"/>
       <c r="AB336" s="2"/>
     </row>
-    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -11190,7 +11190,7 @@
       <c r="AA337" s="2"/>
       <c r="AB337" s="2"/>
     </row>
-    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -11220,7 +11220,7 @@
       <c r="AA338" s="2"/>
       <c r="AB338" s="2"/>
     </row>
-    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -11250,7 +11250,7 @@
       <c r="AA339" s="2"/>
       <c r="AB339" s="2"/>
     </row>
-    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -11280,7 +11280,7 @@
       <c r="AA340" s="2"/>
       <c r="AB340" s="2"/>
     </row>
-    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -11310,7 +11310,7 @@
       <c r="AA341" s="2"/>
       <c r="AB341" s="2"/>
     </row>
-    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -11340,7 +11340,7 @@
       <c r="AA342" s="2"/>
       <c r="AB342" s="2"/>
     </row>
-    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -11370,7 +11370,7 @@
       <c r="AA343" s="2"/>
       <c r="AB343" s="2"/>
     </row>
-    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -11400,7 +11400,7 @@
       <c r="AA344" s="2"/>
       <c r="AB344" s="2"/>
     </row>
-    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -11430,7 +11430,7 @@
       <c r="AA345" s="2"/>
       <c r="AB345" s="2"/>
     </row>
-    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -11460,7 +11460,7 @@
       <c r="AA346" s="2"/>
       <c r="AB346" s="2"/>
     </row>
-    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -11490,7 +11490,7 @@
       <c r="AA347" s="2"/>
       <c r="AB347" s="2"/>
     </row>
-    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -11520,7 +11520,7 @@
       <c r="AA348" s="2"/>
       <c r="AB348" s="2"/>
     </row>
-    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -11550,7 +11550,7 @@
       <c r="AA349" s="2"/>
       <c r="AB349" s="2"/>
     </row>
-    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -11580,7 +11580,7 @@
       <c r="AA350" s="2"/>
       <c r="AB350" s="2"/>
     </row>
-    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11610,7 +11610,7 @@
       <c r="AA351" s="2"/>
       <c r="AB351" s="2"/>
     </row>
-    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11640,7 +11640,7 @@
       <c r="AA352" s="2"/>
       <c r="AB352" s="2"/>
     </row>
-    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11670,7 +11670,7 @@
       <c r="AA353" s="2"/>
       <c r="AB353" s="2"/>
     </row>
-    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11700,7 +11700,7 @@
       <c r="AA354" s="2"/>
       <c r="AB354" s="2"/>
     </row>
-    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11730,7 +11730,7 @@
       <c r="AA355" s="2"/>
       <c r="AB355" s="2"/>
     </row>
-    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11760,7 +11760,7 @@
       <c r="AA356" s="2"/>
       <c r="AB356" s="2"/>
     </row>
-    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11790,7 +11790,7 @@
       <c r="AA357" s="2"/>
       <c r="AB357" s="2"/>
     </row>
-    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11820,7 +11820,7 @@
       <c r="AA358" s="2"/>
       <c r="AB358" s="2"/>
     </row>
-    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11850,7 +11850,7 @@
       <c r="AA359" s="2"/>
       <c r="AB359" s="2"/>
     </row>
-    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11880,7 +11880,7 @@
       <c r="AA360" s="2"/>
       <c r="AB360" s="2"/>
     </row>
-    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11910,7 +11910,7 @@
       <c r="AA361" s="2"/>
       <c r="AB361" s="2"/>
     </row>
-    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11940,7 +11940,7 @@
       <c r="AA362" s="2"/>
       <c r="AB362" s="2"/>
     </row>
-    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11970,7 +11970,7 @@
       <c r="AA363" s="2"/>
       <c r="AB363" s="2"/>
     </row>
-    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -12000,7 +12000,7 @@
       <c r="AA364" s="2"/>
       <c r="AB364" s="2"/>
     </row>
-    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -12030,7 +12030,7 @@
       <c r="AA365" s="2"/>
       <c r="AB365" s="2"/>
     </row>
-    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -12060,7 +12060,7 @@
       <c r="AA366" s="2"/>
       <c r="AB366" s="2"/>
     </row>
-    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -12090,7 +12090,7 @@
       <c r="AA367" s="2"/>
       <c r="AB367" s="2"/>
     </row>
-    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -12120,7 +12120,7 @@
       <c r="AA368" s="2"/>
       <c r="AB368" s="2"/>
     </row>
-    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -12150,7 +12150,7 @@
       <c r="AA369" s="2"/>
       <c r="AB369" s="2"/>
     </row>
-    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -12180,7 +12180,7 @@
       <c r="AA370" s="2"/>
       <c r="AB370" s="2"/>
     </row>
-    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -12210,7 +12210,7 @@
       <c r="AA371" s="2"/>
       <c r="AB371" s="2"/>
     </row>
-    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -12240,7 +12240,7 @@
       <c r="AA372" s="2"/>
       <c r="AB372" s="2"/>
     </row>
-    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -12270,7 +12270,7 @@
       <c r="AA373" s="2"/>
       <c r="AB373" s="2"/>
     </row>
-    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -12300,7 +12300,7 @@
       <c r="AA374" s="2"/>
       <c r="AB374" s="2"/>
     </row>
-    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -12330,7 +12330,7 @@
       <c r="AA375" s="2"/>
       <c r="AB375" s="2"/>
     </row>
-    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -12360,7 +12360,7 @@
       <c r="AA376" s="2"/>
       <c r="AB376" s="2"/>
     </row>
-    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -12390,7 +12390,7 @@
       <c r="AA377" s="2"/>
       <c r="AB377" s="2"/>
     </row>
-    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -12420,7 +12420,7 @@
       <c r="AA378" s="2"/>
       <c r="AB378" s="2"/>
     </row>
-    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -12450,7 +12450,7 @@
       <c r="AA379" s="2"/>
       <c r="AB379" s="2"/>
     </row>
-    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -12480,7 +12480,7 @@
       <c r="AA380" s="2"/>
       <c r="AB380" s="2"/>
     </row>
-    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -12510,7 +12510,7 @@
       <c r="AA381" s="2"/>
       <c r="AB381" s="2"/>
     </row>
-    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -12540,7 +12540,7 @@
       <c r="AA382" s="2"/>
       <c r="AB382" s="2"/>
     </row>
-    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -12570,7 +12570,7 @@
       <c r="AA383" s="2"/>
       <c r="AB383" s="2"/>
     </row>
-    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -12600,7 +12600,7 @@
       <c r="AA384" s="2"/>
       <c r="AB384" s="2"/>
     </row>
-    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -12630,7 +12630,7 @@
       <c r="AA385" s="2"/>
       <c r="AB385" s="2"/>
     </row>
-    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -12660,7 +12660,7 @@
       <c r="AA386" s="2"/>
       <c r="AB386" s="2"/>
     </row>
-    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -12690,7 +12690,7 @@
       <c r="AA387" s="2"/>
       <c r="AB387" s="2"/>
     </row>
-    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -12720,7 +12720,7 @@
       <c r="AA388" s="2"/>
       <c r="AB388" s="2"/>
     </row>
-    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12750,7 +12750,7 @@
       <c r="AA389" s="2"/>
       <c r="AB389" s="2"/>
     </row>
-    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12780,7 +12780,7 @@
       <c r="AA390" s="2"/>
       <c r="AB390" s="2"/>
     </row>
-    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12810,7 +12810,7 @@
       <c r="AA391" s="2"/>
       <c r="AB391" s="2"/>
     </row>
-    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12840,7 +12840,7 @@
       <c r="AA392" s="2"/>
       <c r="AB392" s="2"/>
     </row>
-    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12870,7 +12870,7 @@
       <c r="AA393" s="2"/>
       <c r="AB393" s="2"/>
     </row>
-    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12900,7 +12900,7 @@
       <c r="AA394" s="2"/>
       <c r="AB394" s="2"/>
     </row>
-    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12930,7 +12930,7 @@
       <c r="AA395" s="2"/>
       <c r="AB395" s="2"/>
     </row>
-    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12960,7 +12960,7 @@
       <c r="AA396" s="2"/>
       <c r="AB396" s="2"/>
     </row>
-    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -12990,7 +12990,7 @@
       <c r="AA397" s="2"/>
       <c r="AB397" s="2"/>
     </row>
-    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -13020,7 +13020,7 @@
       <c r="AA398" s="2"/>
       <c r="AB398" s="2"/>
     </row>
-    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -13050,7 +13050,7 @@
       <c r="AA399" s="2"/>
       <c r="AB399" s="2"/>
     </row>
-    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -13080,7 +13080,7 @@
       <c r="AA400" s="2"/>
       <c r="AB400" s="2"/>
     </row>
-    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -13110,7 +13110,7 @@
       <c r="AA401" s="2"/>
       <c r="AB401" s="2"/>
     </row>
-    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -13140,7 +13140,7 @@
       <c r="AA402" s="2"/>
       <c r="AB402" s="2"/>
     </row>
-    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -13170,7 +13170,7 @@
       <c r="AA403" s="2"/>
       <c r="AB403" s="2"/>
     </row>
-    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -13200,7 +13200,7 @@
       <c r="AA404" s="2"/>
       <c r="AB404" s="2"/>
     </row>
-    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -13230,7 +13230,7 @@
       <c r="AA405" s="2"/>
       <c r="AB405" s="2"/>
     </row>
-    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -13260,7 +13260,7 @@
       <c r="AA406" s="2"/>
       <c r="AB406" s="2"/>
     </row>
-    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -13290,7 +13290,7 @@
       <c r="AA407" s="2"/>
       <c r="AB407" s="2"/>
     </row>
-    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -13320,7 +13320,7 @@
       <c r="AA408" s="2"/>
       <c r="AB408" s="2"/>
     </row>
-    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -13350,7 +13350,7 @@
       <c r="AA409" s="2"/>
       <c r="AB409" s="2"/>
     </row>
-    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -13380,7 +13380,7 @@
       <c r="AA410" s="2"/>
       <c r="AB410" s="2"/>
     </row>
-    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -13410,7 +13410,7 @@
       <c r="AA411" s="2"/>
       <c r="AB411" s="2"/>
     </row>
-    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -13440,7 +13440,7 @@
       <c r="AA412" s="2"/>
       <c r="AB412" s="2"/>
     </row>
-    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -13470,7 +13470,7 @@
       <c r="AA413" s="2"/>
       <c r="AB413" s="2"/>
     </row>
-    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -13500,7 +13500,7 @@
       <c r="AA414" s="2"/>
       <c r="AB414" s="2"/>
     </row>
-    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -13530,7 +13530,7 @@
       <c r="AA415" s="2"/>
       <c r="AB415" s="2"/>
     </row>
-    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -13560,7 +13560,7 @@
       <c r="AA416" s="2"/>
       <c r="AB416" s="2"/>
     </row>
-    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -13590,7 +13590,7 @@
       <c r="AA417" s="2"/>
       <c r="AB417" s="2"/>
     </row>
-    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -13620,7 +13620,7 @@
       <c r="AA418" s="2"/>
       <c r="AB418" s="2"/>
     </row>
-    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -13650,7 +13650,7 @@
       <c r="AA419" s="2"/>
       <c r="AB419" s="2"/>
     </row>
-    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -13680,7 +13680,7 @@
       <c r="AA420" s="2"/>
       <c r="AB420" s="2"/>
     </row>
-    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -13710,7 +13710,7 @@
       <c r="AA421" s="2"/>
       <c r="AB421" s="2"/>
     </row>
-    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -13740,7 +13740,7 @@
       <c r="AA422" s="2"/>
       <c r="AB422" s="2"/>
     </row>
-    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -13770,7 +13770,7 @@
       <c r="AA423" s="2"/>
       <c r="AB423" s="2"/>
     </row>
-    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -13800,7 +13800,7 @@
       <c r="AA424" s="2"/>
       <c r="AB424" s="2"/>
     </row>
-    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -13830,7 +13830,7 @@
       <c r="AA425" s="2"/>
       <c r="AB425" s="2"/>
     </row>
-    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -13860,7 +13860,7 @@
       <c r="AA426" s="2"/>
       <c r="AB426" s="2"/>
     </row>
-    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13890,7 +13890,7 @@
       <c r="AA427" s="2"/>
       <c r="AB427" s="2"/>
     </row>
-    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13920,7 +13920,7 @@
       <c r="AA428" s="2"/>
       <c r="AB428" s="2"/>
     </row>
-    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13950,7 +13950,7 @@
       <c r="AA429" s="2"/>
       <c r="AB429" s="2"/>
     </row>
-    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13980,7 +13980,7 @@
       <c r="AA430" s="2"/>
       <c r="AB430" s="2"/>
     </row>
-    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -14010,7 +14010,7 @@
       <c r="AA431" s="2"/>
       <c r="AB431" s="2"/>
     </row>
-    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -14040,7 +14040,7 @@
       <c r="AA432" s="2"/>
       <c r="AB432" s="2"/>
     </row>
-    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -14070,7 +14070,7 @@
       <c r="AA433" s="2"/>
       <c r="AB433" s="2"/>
     </row>
-    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -14100,7 +14100,7 @@
       <c r="AA434" s="2"/>
       <c r="AB434" s="2"/>
     </row>
-    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -14130,7 +14130,7 @@
       <c r="AA435" s="2"/>
       <c r="AB435" s="2"/>
     </row>
-    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -14160,7 +14160,7 @@
       <c r="AA436" s="2"/>
       <c r="AB436" s="2"/>
     </row>
-    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -14190,7 +14190,7 @@
       <c r="AA437" s="2"/>
       <c r="AB437" s="2"/>
     </row>
-    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -14220,7 +14220,7 @@
       <c r="AA438" s="2"/>
       <c r="AB438" s="2"/>
     </row>
-    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -14250,7 +14250,7 @@
       <c r="AA439" s="2"/>
       <c r="AB439" s="2"/>
     </row>
-    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -14280,7 +14280,7 @@
       <c r="AA440" s="2"/>
       <c r="AB440" s="2"/>
     </row>
-    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -14310,7 +14310,7 @@
       <c r="AA441" s="2"/>
       <c r="AB441" s="2"/>
     </row>
-    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -14340,7 +14340,7 @@
       <c r="AA442" s="2"/>
       <c r="AB442" s="2"/>
     </row>
-    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -14370,7 +14370,7 @@
       <c r="AA443" s="2"/>
       <c r="AB443" s="2"/>
     </row>
-    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -14400,7 +14400,7 @@
       <c r="AA444" s="2"/>
       <c r="AB444" s="2"/>
     </row>
-    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -14430,7 +14430,7 @@
       <c r="AA445" s="2"/>
       <c r="AB445" s="2"/>
     </row>
-    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -14460,7 +14460,7 @@
       <c r="AA446" s="2"/>
       <c r="AB446" s="2"/>
     </row>
-    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -14490,7 +14490,7 @@
       <c r="AA447" s="2"/>
       <c r="AB447" s="2"/>
     </row>
-    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -14520,7 +14520,7 @@
       <c r="AA448" s="2"/>
       <c r="AB448" s="2"/>
     </row>
-    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -14550,7 +14550,7 @@
       <c r="AA449" s="2"/>
       <c r="AB449" s="2"/>
     </row>
-    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -14580,7 +14580,7 @@
       <c r="AA450" s="2"/>
       <c r="AB450" s="2"/>
     </row>
-    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -14610,7 +14610,7 @@
       <c r="AA451" s="2"/>
       <c r="AB451" s="2"/>
     </row>
-    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -14640,7 +14640,7 @@
       <c r="AA452" s="2"/>
       <c r="AB452" s="2"/>
     </row>
-    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -14670,7 +14670,7 @@
       <c r="AA453" s="2"/>
       <c r="AB453" s="2"/>
     </row>
-    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -14700,7 +14700,7 @@
       <c r="AA454" s="2"/>
       <c r="AB454" s="2"/>
     </row>
-    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -14730,7 +14730,7 @@
       <c r="AA455" s="2"/>
       <c r="AB455" s="2"/>
     </row>
-    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -14760,7 +14760,7 @@
       <c r="AA456" s="2"/>
       <c r="AB456" s="2"/>
     </row>
-    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -14790,7 +14790,7 @@
       <c r="AA457" s="2"/>
       <c r="AB457" s="2"/>
     </row>
-    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -14820,7 +14820,7 @@
       <c r="AA458" s="2"/>
       <c r="AB458" s="2"/>
     </row>
-    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -14850,7 +14850,7 @@
       <c r="AA459" s="2"/>
       <c r="AB459" s="2"/>
     </row>
-    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -14880,7 +14880,7 @@
       <c r="AA460" s="2"/>
       <c r="AB460" s="2"/>
     </row>
-    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -14910,7 +14910,7 @@
       <c r="AA461" s="2"/>
       <c r="AB461" s="2"/>
     </row>
-    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -14940,7 +14940,7 @@
       <c r="AA462" s="2"/>
       <c r="AB462" s="2"/>
     </row>
-    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -14970,7 +14970,7 @@
       <c r="AA463" s="2"/>
       <c r="AB463" s="2"/>
     </row>
-    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -15000,7 +15000,7 @@
       <c r="AA464" s="2"/>
       <c r="AB464" s="2"/>
     </row>
-    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -15030,7 +15030,7 @@
       <c r="AA465" s="2"/>
       <c r="AB465" s="2"/>
     </row>
-    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -15060,7 +15060,7 @@
       <c r="AA466" s="2"/>
       <c r="AB466" s="2"/>
     </row>
-    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -15090,7 +15090,7 @@
       <c r="AA467" s="2"/>
       <c r="AB467" s="2"/>
     </row>
-    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -15120,7 +15120,7 @@
       <c r="AA468" s="2"/>
       <c r="AB468" s="2"/>
     </row>
-    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -15150,7 +15150,7 @@
       <c r="AA469" s="2"/>
       <c r="AB469" s="2"/>
     </row>
-    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -15180,7 +15180,7 @@
       <c r="AA470" s="2"/>
       <c r="AB470" s="2"/>
     </row>
-    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -15210,7 +15210,7 @@
       <c r="AA471" s="2"/>
       <c r="AB471" s="2"/>
     </row>
-    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -15240,7 +15240,7 @@
       <c r="AA472" s="2"/>
       <c r="AB472" s="2"/>
     </row>
-    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -15270,7 +15270,7 @@
       <c r="AA473" s="2"/>
       <c r="AB473" s="2"/>
     </row>
-    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -15300,7 +15300,7 @@
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
     </row>
-    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -15330,7 +15330,7 @@
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
     </row>
-    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -15360,7 +15360,7 @@
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
     </row>
-    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -15390,7 +15390,7 @@
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
     </row>
-    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -15420,7 +15420,7 @@
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
     </row>
-    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -15450,7 +15450,7 @@
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
     </row>
-    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -15480,7 +15480,7 @@
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
     </row>
-    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -15510,7 +15510,7 @@
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
     </row>
-    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -15540,7 +15540,7 @@
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
     </row>
-    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -15570,7 +15570,7 @@
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
     </row>
-    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -15600,7 +15600,7 @@
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
     </row>
-    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -15630,7 +15630,7 @@
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
     </row>
-    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -15660,7 +15660,7 @@
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
     </row>
-    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -15690,7 +15690,7 @@
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
     </row>
-    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -15720,7 +15720,7 @@
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
     </row>
-    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -15750,7 +15750,7 @@
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
     </row>
-    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -15780,7 +15780,7 @@
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
     </row>
-    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -15810,7 +15810,7 @@
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
     </row>
-    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -15840,7 +15840,7 @@
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
     </row>
-    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -15870,7 +15870,7 @@
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
     </row>
-    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -15900,7 +15900,7 @@
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
     </row>
-    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -15930,7 +15930,7 @@
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
     </row>
-    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -15960,7 +15960,7 @@
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
     </row>
-    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -15990,7 +15990,7 @@
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
     </row>
-    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -16020,7 +16020,7 @@
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
     </row>
-    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -16050,7 +16050,7 @@
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
     </row>
-    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -16080,7 +16080,7 @@
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
     </row>
-    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -16110,7 +16110,7 @@
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
     </row>
-    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -16140,7 +16140,7 @@
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
     </row>
-    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -16170,7 +16170,7 @@
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
     </row>
-    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -16200,7 +16200,7 @@
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
     </row>
-    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -16230,7 +16230,7 @@
       <c r="AA505" s="2"/>
       <c r="AB505" s="2"/>
     </row>
-    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -16260,7 +16260,7 @@
       <c r="AA506" s="2"/>
       <c r="AB506" s="2"/>
     </row>
-    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -16290,7 +16290,7 @@
       <c r="AA507" s="2"/>
       <c r="AB507" s="2"/>
     </row>
-    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -16320,7 +16320,7 @@
       <c r="AA508" s="2"/>
       <c r="AB508" s="2"/>
     </row>
-    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -16350,7 +16350,7 @@
       <c r="AA509" s="2"/>
       <c r="AB509" s="2"/>
     </row>
-    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -16380,7 +16380,7 @@
       <c r="AA510" s="2"/>
       <c r="AB510" s="2"/>
     </row>
-    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -16410,7 +16410,7 @@
       <c r="AA511" s="2"/>
       <c r="AB511" s="2"/>
     </row>
-    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -16440,7 +16440,7 @@
       <c r="AA512" s="2"/>
       <c r="AB512" s="2"/>
     </row>
-    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -16470,7 +16470,7 @@
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
     </row>
-    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -16500,7 +16500,7 @@
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
     </row>
-    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -16530,7 +16530,7 @@
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
     </row>
-    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -16560,7 +16560,7 @@
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
     </row>
-    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -16590,7 +16590,7 @@
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -16620,7 +16620,7 @@
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
     </row>
-    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -16650,7 +16650,7 @@
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
     </row>
-    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -16680,7 +16680,7 @@
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
     </row>
-    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -16710,7 +16710,7 @@
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
     </row>
-    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -16740,7 +16740,7 @@
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
     </row>
-    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -16770,7 +16770,7 @@
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
     </row>
-    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -16800,7 +16800,7 @@
       <c r="AA524" s="2"/>
       <c r="AB524" s="2"/>
     </row>
-    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -16830,7 +16830,7 @@
       <c r="AA525" s="2"/>
       <c r="AB525" s="2"/>
     </row>
-    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -16860,7 +16860,7 @@
       <c r="AA526" s="2"/>
       <c r="AB526" s="2"/>
     </row>
-    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -16890,7 +16890,7 @@
       <c r="AA527" s="2"/>
       <c r="AB527" s="2"/>
     </row>
-    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -16920,7 +16920,7 @@
       <c r="AA528" s="2"/>
       <c r="AB528" s="2"/>
     </row>
-    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -16950,7 +16950,7 @@
       <c r="AA529" s="2"/>
       <c r="AB529" s="2"/>
     </row>
-    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -16980,7 +16980,7 @@
       <c r="AA530" s="2"/>
       <c r="AB530" s="2"/>
     </row>
-    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -17010,7 +17010,7 @@
       <c r="AA531" s="2"/>
       <c r="AB531" s="2"/>
     </row>
-    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -17040,7 +17040,7 @@
       <c r="AA532" s="2"/>
       <c r="AB532" s="2"/>
     </row>
-    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -17070,7 +17070,7 @@
       <c r="AA533" s="2"/>
       <c r="AB533" s="2"/>
     </row>
-    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -17100,7 +17100,7 @@
       <c r="AA534" s="2"/>
       <c r="AB534" s="2"/>
     </row>
-    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -17130,7 +17130,7 @@
       <c r="AA535" s="2"/>
       <c r="AB535" s="2"/>
     </row>
-    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -17160,7 +17160,7 @@
       <c r="AA536" s="2"/>
       <c r="AB536" s="2"/>
     </row>
-    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -17190,7 +17190,7 @@
       <c r="AA537" s="2"/>
       <c r="AB537" s="2"/>
     </row>
-    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -17220,7 +17220,7 @@
       <c r="AA538" s="2"/>
       <c r="AB538" s="2"/>
     </row>
-    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -17250,7 +17250,7 @@
       <c r="AA539" s="2"/>
       <c r="AB539" s="2"/>
     </row>
-    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -17280,7 +17280,7 @@
       <c r="AA540" s="2"/>
       <c r="AB540" s="2"/>
     </row>
-    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -17310,7 +17310,7 @@
       <c r="AA541" s="2"/>
       <c r="AB541" s="2"/>
     </row>
-    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -17340,7 +17340,7 @@
       <c r="AA542" s="2"/>
       <c r="AB542" s="2"/>
     </row>
-    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -17370,7 +17370,7 @@
       <c r="AA543" s="2"/>
       <c r="AB543" s="2"/>
     </row>
-    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -17400,7 +17400,7 @@
       <c r="AA544" s="2"/>
       <c r="AB544" s="2"/>
     </row>
-    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -17430,7 +17430,7 @@
       <c r="AA545" s="2"/>
       <c r="AB545" s="2"/>
     </row>
-    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -17460,7 +17460,7 @@
       <c r="AA546" s="2"/>
       <c r="AB546" s="2"/>
     </row>
-    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -17490,7 +17490,7 @@
       <c r="AA547" s="2"/>
       <c r="AB547" s="2"/>
     </row>
-    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -17520,7 +17520,7 @@
       <c r="AA548" s="2"/>
       <c r="AB548" s="2"/>
     </row>
-    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -17550,7 +17550,7 @@
       <c r="AA549" s="2"/>
       <c r="AB549" s="2"/>
     </row>
-    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -17580,7 +17580,7 @@
       <c r="AA550" s="2"/>
       <c r="AB550" s="2"/>
     </row>
-    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -17610,7 +17610,7 @@
       <c r="AA551" s="2"/>
       <c r="AB551" s="2"/>
     </row>
-    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -17640,7 +17640,7 @@
       <c r="AA552" s="2"/>
       <c r="AB552" s="2"/>
     </row>
-    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -17670,7 +17670,7 @@
       <c r="AA553" s="2"/>
       <c r="AB553" s="2"/>
     </row>
-    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -17700,7 +17700,7 @@
       <c r="AA554" s="2"/>
       <c r="AB554" s="2"/>
     </row>
-    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -17730,7 +17730,7 @@
       <c r="AA555" s="2"/>
       <c r="AB555" s="2"/>
     </row>
-    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -17760,7 +17760,7 @@
       <c r="AA556" s="2"/>
       <c r="AB556" s="2"/>
     </row>
-    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -17790,7 +17790,7 @@
       <c r="AA557" s="2"/>
       <c r="AB557" s="2"/>
     </row>
-    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -17820,7 +17820,7 @@
       <c r="AA558" s="2"/>
       <c r="AB558" s="2"/>
     </row>
-    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -17850,7 +17850,7 @@
       <c r="AA559" s="2"/>
       <c r="AB559" s="2"/>
     </row>
-    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -17880,7 +17880,7 @@
       <c r="AA560" s="2"/>
       <c r="AB560" s="2"/>
     </row>
-    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -17910,7 +17910,7 @@
       <c r="AA561" s="2"/>
       <c r="AB561" s="2"/>
     </row>
-    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -17940,7 +17940,7 @@
       <c r="AA562" s="2"/>
       <c r="AB562" s="2"/>
     </row>
-    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -17970,7 +17970,7 @@
       <c r="AA563" s="2"/>
       <c r="AB563" s="2"/>
     </row>
-    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -18000,7 +18000,7 @@
       <c r="AA564" s="2"/>
       <c r="AB564" s="2"/>
     </row>
-    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -18030,7 +18030,7 @@
       <c r="AA565" s="2"/>
       <c r="AB565" s="2"/>
     </row>
-    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -18060,7 +18060,7 @@
       <c r="AA566" s="2"/>
       <c r="AB566" s="2"/>
     </row>
-    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -18090,7 +18090,7 @@
       <c r="AA567" s="2"/>
       <c r="AB567" s="2"/>
     </row>
-    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -18120,7 +18120,7 @@
       <c r="AA568" s="2"/>
       <c r="AB568" s="2"/>
     </row>
-    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -18150,7 +18150,7 @@
       <c r="AA569" s="2"/>
       <c r="AB569" s="2"/>
     </row>
-    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -18180,7 +18180,7 @@
       <c r="AA570" s="2"/>
       <c r="AB570" s="2"/>
     </row>
-    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -18210,7 +18210,7 @@
       <c r="AA571" s="2"/>
       <c r="AB571" s="2"/>
     </row>
-    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -18240,7 +18240,7 @@
       <c r="AA572" s="2"/>
       <c r="AB572" s="2"/>
     </row>
-    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -18270,7 +18270,7 @@
       <c r="AA573" s="2"/>
       <c r="AB573" s="2"/>
     </row>
-    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -18300,7 +18300,7 @@
       <c r="AA574" s="2"/>
       <c r="AB574" s="2"/>
     </row>
-    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -18330,7 +18330,7 @@
       <c r="AA575" s="2"/>
       <c r="AB575" s="2"/>
     </row>
-    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -18360,7 +18360,7 @@
       <c r="AA576" s="2"/>
       <c r="AB576" s="2"/>
     </row>
-    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -18390,7 +18390,7 @@
       <c r="AA577" s="2"/>
       <c r="AB577" s="2"/>
     </row>
-    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -18420,7 +18420,7 @@
       <c r="AA578" s="2"/>
       <c r="AB578" s="2"/>
     </row>
-    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -18450,7 +18450,7 @@
       <c r="AA579" s="2"/>
       <c r="AB579" s="2"/>
     </row>
-    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -18480,7 +18480,7 @@
       <c r="AA580" s="2"/>
       <c r="AB580" s="2"/>
     </row>
-    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -18510,7 +18510,7 @@
       <c r="AA581" s="2"/>
       <c r="AB581" s="2"/>
     </row>
-    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -18540,7 +18540,7 @@
       <c r="AA582" s="2"/>
       <c r="AB582" s="2"/>
     </row>
-    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -18570,7 +18570,7 @@
       <c r="AA583" s="2"/>
       <c r="AB583" s="2"/>
     </row>
-    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -18600,7 +18600,7 @@
       <c r="AA584" s="2"/>
       <c r="AB584" s="2"/>
     </row>
-    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -18630,7 +18630,7 @@
       <c r="AA585" s="2"/>
       <c r="AB585" s="2"/>
     </row>
-    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -18660,7 +18660,7 @@
       <c r="AA586" s="2"/>
       <c r="AB586" s="2"/>
     </row>
-    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -18690,7 +18690,7 @@
       <c r="AA587" s="2"/>
       <c r="AB587" s="2"/>
     </row>
-    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -18720,7 +18720,7 @@
       <c r="AA588" s="2"/>
       <c r="AB588" s="2"/>
     </row>
-    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -18750,7 +18750,7 @@
       <c r="AA589" s="2"/>
       <c r="AB589" s="2"/>
     </row>
-    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -18780,7 +18780,7 @@
       <c r="AA590" s="2"/>
       <c r="AB590" s="2"/>
     </row>
-    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -18810,7 +18810,7 @@
       <c r="AA591" s="2"/>
       <c r="AB591" s="2"/>
     </row>
-    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -18840,7 +18840,7 @@
       <c r="AA592" s="2"/>
       <c r="AB592" s="2"/>
     </row>
-    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -18870,7 +18870,7 @@
       <c r="AA593" s="2"/>
       <c r="AB593" s="2"/>
     </row>
-    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -18900,7 +18900,7 @@
       <c r="AA594" s="2"/>
       <c r="AB594" s="2"/>
     </row>
-    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -18930,7 +18930,7 @@
       <c r="AA595" s="2"/>
       <c r="AB595" s="2"/>
     </row>
-    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -18960,7 +18960,7 @@
       <c r="AA596" s="2"/>
       <c r="AB596" s="2"/>
     </row>
-    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -18990,7 +18990,7 @@
       <c r="AA597" s="2"/>
       <c r="AB597" s="2"/>
     </row>
-    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -19020,7 +19020,7 @@
       <c r="AA598" s="2"/>
       <c r="AB598" s="2"/>
     </row>
-    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -19050,7 +19050,7 @@
       <c r="AA599" s="2"/>
       <c r="AB599" s="2"/>
     </row>
-    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -19080,7 +19080,7 @@
       <c r="AA600" s="2"/>
       <c r="AB600" s="2"/>
     </row>
-    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -19110,7 +19110,7 @@
       <c r="AA601" s="2"/>
       <c r="AB601" s="2"/>
     </row>
-    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -19140,7 +19140,7 @@
       <c r="AA602" s="2"/>
       <c r="AB602" s="2"/>
     </row>
-    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -19170,7 +19170,7 @@
       <c r="AA603" s="2"/>
       <c r="AB603" s="2"/>
     </row>
-    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -19200,7 +19200,7 @@
       <c r="AA604" s="2"/>
       <c r="AB604" s="2"/>
     </row>
-    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -19230,7 +19230,7 @@
       <c r="AA605" s="2"/>
       <c r="AB605" s="2"/>
     </row>
-    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -19260,7 +19260,7 @@
       <c r="AA606" s="2"/>
       <c r="AB606" s="2"/>
     </row>
-    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -19290,7 +19290,7 @@
       <c r="AA607" s="2"/>
       <c r="AB607" s="2"/>
     </row>
-    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -19320,7 +19320,7 @@
       <c r="AA608" s="2"/>
       <c r="AB608" s="2"/>
     </row>
-    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -19350,7 +19350,7 @@
       <c r="AA609" s="2"/>
       <c r="AB609" s="2"/>
     </row>
-    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -19380,7 +19380,7 @@
       <c r="AA610" s="2"/>
       <c r="AB610" s="2"/>
     </row>
-    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -19410,7 +19410,7 @@
       <c r="AA611" s="2"/>
       <c r="AB611" s="2"/>
     </row>
-    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -19440,7 +19440,7 @@
       <c r="AA612" s="2"/>
       <c r="AB612" s="2"/>
     </row>
-    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -19470,7 +19470,7 @@
       <c r="AA613" s="2"/>
       <c r="AB613" s="2"/>
     </row>
-    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -19500,7 +19500,7 @@
       <c r="AA614" s="2"/>
       <c r="AB614" s="2"/>
     </row>
-    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -19530,7 +19530,7 @@
       <c r="AA615" s="2"/>
       <c r="AB615" s="2"/>
     </row>
-    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -19560,7 +19560,7 @@
       <c r="AA616" s="2"/>
       <c r="AB616" s="2"/>
     </row>
-    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -19590,7 +19590,7 @@
       <c r="AA617" s="2"/>
       <c r="AB617" s="2"/>
     </row>
-    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -19620,7 +19620,7 @@
       <c r="AA618" s="2"/>
       <c r="AB618" s="2"/>
     </row>
-    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -19650,7 +19650,7 @@
       <c r="AA619" s="2"/>
       <c r="AB619" s="2"/>
     </row>
-    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -19680,7 +19680,7 @@
       <c r="AA620" s="2"/>
       <c r="AB620" s="2"/>
     </row>
-    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -19710,7 +19710,7 @@
       <c r="AA621" s="2"/>
       <c r="AB621" s="2"/>
     </row>
-    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -19740,7 +19740,7 @@
       <c r="AA622" s="2"/>
       <c r="AB622" s="2"/>
     </row>
-    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -19770,7 +19770,7 @@
       <c r="AA623" s="2"/>
       <c r="AB623" s="2"/>
     </row>
-    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -19800,7 +19800,7 @@
       <c r="AA624" s="2"/>
       <c r="AB624" s="2"/>
     </row>
-    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -19830,7 +19830,7 @@
       <c r="AA625" s="2"/>
       <c r="AB625" s="2"/>
     </row>
-    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -19860,7 +19860,7 @@
       <c r="AA626" s="2"/>
       <c r="AB626" s="2"/>
     </row>
-    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -19890,7 +19890,7 @@
       <c r="AA627" s="2"/>
       <c r="AB627" s="2"/>
     </row>
-    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -19920,7 +19920,7 @@
       <c r="AA628" s="2"/>
       <c r="AB628" s="2"/>
     </row>
-    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -19950,7 +19950,7 @@
       <c r="AA629" s="2"/>
       <c r="AB629" s="2"/>
     </row>
-    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -19980,7 +19980,7 @@
       <c r="AA630" s="2"/>
       <c r="AB630" s="2"/>
     </row>
-    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -20010,7 +20010,7 @@
       <c r="AA631" s="2"/>
       <c r="AB631" s="2"/>
     </row>
-    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -20040,7 +20040,7 @@
       <c r="AA632" s="2"/>
       <c r="AB632" s="2"/>
     </row>
-    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -20070,7 +20070,7 @@
       <c r="AA633" s="2"/>
       <c r="AB633" s="2"/>
     </row>
-    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -20100,7 +20100,7 @@
       <c r="AA634" s="2"/>
       <c r="AB634" s="2"/>
     </row>
-    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -20130,7 +20130,7 @@
       <c r="AA635" s="2"/>
       <c r="AB635" s="2"/>
     </row>
-    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -20160,7 +20160,7 @@
       <c r="AA636" s="2"/>
       <c r="AB636" s="2"/>
     </row>
-    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -20190,7 +20190,7 @@
       <c r="AA637" s="2"/>
       <c r="AB637" s="2"/>
     </row>
-    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -20220,7 +20220,7 @@
       <c r="AA638" s="2"/>
       <c r="AB638" s="2"/>
     </row>
-    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -20250,7 +20250,7 @@
       <c r="AA639" s="2"/>
       <c r="AB639" s="2"/>
     </row>
-    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -20280,7 +20280,7 @@
       <c r="AA640" s="2"/>
       <c r="AB640" s="2"/>
     </row>
-    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -20310,7 +20310,7 @@
       <c r="AA641" s="2"/>
       <c r="AB641" s="2"/>
     </row>
-    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -20340,7 +20340,7 @@
       <c r="AA642" s="2"/>
       <c r="AB642" s="2"/>
     </row>
-    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -20370,7 +20370,7 @@
       <c r="AA643" s="2"/>
       <c r="AB643" s="2"/>
     </row>
-    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -20400,7 +20400,7 @@
       <c r="AA644" s="2"/>
       <c r="AB644" s="2"/>
     </row>
-    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -20430,7 +20430,7 @@
       <c r="AA645" s="2"/>
       <c r="AB645" s="2"/>
     </row>
-    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -20460,7 +20460,7 @@
       <c r="AA646" s="2"/>
       <c r="AB646" s="2"/>
     </row>
-    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -20490,7 +20490,7 @@
       <c r="AA647" s="2"/>
       <c r="AB647" s="2"/>
     </row>
-    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -20520,7 +20520,7 @@
       <c r="AA648" s="2"/>
       <c r="AB648" s="2"/>
     </row>
-    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -20550,7 +20550,7 @@
       <c r="AA649" s="2"/>
       <c r="AB649" s="2"/>
     </row>
-    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -20580,7 +20580,7 @@
       <c r="AA650" s="2"/>
       <c r="AB650" s="2"/>
     </row>
-    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -20610,7 +20610,7 @@
       <c r="AA651" s="2"/>
       <c r="AB651" s="2"/>
     </row>
-    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -20640,7 +20640,7 @@
       <c r="AA652" s="2"/>
       <c r="AB652" s="2"/>
     </row>
-    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -20670,7 +20670,7 @@
       <c r="AA653" s="2"/>
       <c r="AB653" s="2"/>
     </row>
-    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -20700,7 +20700,7 @@
       <c r="AA654" s="2"/>
       <c r="AB654" s="2"/>
     </row>
-    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -20730,7 +20730,7 @@
       <c r="AA655" s="2"/>
       <c r="AB655" s="2"/>
     </row>
-    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -20760,7 +20760,7 @@
       <c r="AA656" s="2"/>
       <c r="AB656" s="2"/>
     </row>
-    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -20790,7 +20790,7 @@
       <c r="AA657" s="2"/>
       <c r="AB657" s="2"/>
     </row>
-    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -20820,7 +20820,7 @@
       <c r="AA658" s="2"/>
       <c r="AB658" s="2"/>
     </row>
-    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -20850,7 +20850,7 @@
       <c r="AA659" s="2"/>
       <c r="AB659" s="2"/>
     </row>
-    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -20880,7 +20880,7 @@
       <c r="AA660" s="2"/>
       <c r="AB660" s="2"/>
     </row>
-    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -20910,7 +20910,7 @@
       <c r="AA661" s="2"/>
       <c r="AB661" s="2"/>
     </row>
-    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -20940,7 +20940,7 @@
       <c r="AA662" s="2"/>
       <c r="AB662" s="2"/>
     </row>
-    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -20970,7 +20970,7 @@
       <c r="AA663" s="2"/>
       <c r="AB663" s="2"/>
     </row>
-    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -21000,7 +21000,7 @@
       <c r="AA664" s="2"/>
       <c r="AB664" s="2"/>
     </row>
-    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -21030,7 +21030,7 @@
       <c r="AA665" s="2"/>
       <c r="AB665" s="2"/>
     </row>
-    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -21060,7 +21060,7 @@
       <c r="AA666" s="2"/>
       <c r="AB666" s="2"/>
     </row>
-    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -21090,7 +21090,7 @@
       <c r="AA667" s="2"/>
       <c r="AB667" s="2"/>
     </row>
-    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -21120,7 +21120,7 @@
       <c r="AA668" s="2"/>
       <c r="AB668" s="2"/>
     </row>
-    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -21150,7 +21150,7 @@
       <c r="AA669" s="2"/>
       <c r="AB669" s="2"/>
     </row>
-    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -21180,7 +21180,7 @@
       <c r="AA670" s="2"/>
       <c r="AB670" s="2"/>
     </row>
-    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -21210,7 +21210,7 @@
       <c r="AA671" s="2"/>
       <c r="AB671" s="2"/>
     </row>
-    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -21240,7 +21240,7 @@
       <c r="AA672" s="2"/>
       <c r="AB672" s="2"/>
     </row>
-    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -21270,7 +21270,7 @@
       <c r="AA673" s="2"/>
       <c r="AB673" s="2"/>
     </row>
-    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -21300,7 +21300,7 @@
       <c r="AA674" s="2"/>
       <c r="AB674" s="2"/>
     </row>
-    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -21330,7 +21330,7 @@
       <c r="AA675" s="2"/>
       <c r="AB675" s="2"/>
     </row>
-    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -21360,7 +21360,7 @@
       <c r="AA676" s="2"/>
       <c r="AB676" s="2"/>
     </row>
-    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -21390,7 +21390,7 @@
       <c r="AA677" s="2"/>
       <c r="AB677" s="2"/>
     </row>
-    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -21420,7 +21420,7 @@
       <c r="AA678" s="2"/>
       <c r="AB678" s="2"/>
     </row>
-    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -21450,7 +21450,7 @@
       <c r="AA679" s="2"/>
       <c r="AB679" s="2"/>
     </row>
-    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -21480,7 +21480,7 @@
       <c r="AA680" s="2"/>
       <c r="AB680" s="2"/>
     </row>
-    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -21510,7 +21510,7 @@
       <c r="AA681" s="2"/>
       <c r="AB681" s="2"/>
     </row>
-    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -21540,7 +21540,7 @@
       <c r="AA682" s="2"/>
       <c r="AB682" s="2"/>
     </row>
-    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -21570,7 +21570,7 @@
       <c r="AA683" s="2"/>
       <c r="AB683" s="2"/>
     </row>
-    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -21600,7 +21600,7 @@
       <c r="AA684" s="2"/>
       <c r="AB684" s="2"/>
     </row>
-    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -21630,7 +21630,7 @@
       <c r="AA685" s="2"/>
       <c r="AB685" s="2"/>
     </row>
-    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -21660,7 +21660,7 @@
       <c r="AA686" s="2"/>
       <c r="AB686" s="2"/>
     </row>
-    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -21690,7 +21690,7 @@
       <c r="AA687" s="2"/>
       <c r="AB687" s="2"/>
     </row>
-    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -21720,7 +21720,7 @@
       <c r="AA688" s="2"/>
       <c r="AB688" s="2"/>
     </row>
-    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -21750,7 +21750,7 @@
       <c r="AA689" s="2"/>
       <c r="AB689" s="2"/>
     </row>
-    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -21780,7 +21780,7 @@
       <c r="AA690" s="2"/>
       <c r="AB690" s="2"/>
     </row>
-    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -21810,7 +21810,7 @@
       <c r="AA691" s="2"/>
       <c r="AB691" s="2"/>
     </row>
-    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -21840,7 +21840,7 @@
       <c r="AA692" s="2"/>
       <c r="AB692" s="2"/>
     </row>
-    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -21870,7 +21870,7 @@
       <c r="AA693" s="2"/>
       <c r="AB693" s="2"/>
     </row>
-    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -21900,7 +21900,7 @@
       <c r="AA694" s="2"/>
       <c r="AB694" s="2"/>
     </row>
-    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -21930,7 +21930,7 @@
       <c r="AA695" s="2"/>
       <c r="AB695" s="2"/>
     </row>
-    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -21960,7 +21960,7 @@
       <c r="AA696" s="2"/>
       <c r="AB696" s="2"/>
     </row>
-    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -21990,7 +21990,7 @@
       <c r="AA697" s="2"/>
       <c r="AB697" s="2"/>
     </row>
-    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -22020,7 +22020,7 @@
       <c r="AA698" s="2"/>
       <c r="AB698" s="2"/>
     </row>
-    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -22050,7 +22050,7 @@
       <c r="AA699" s="2"/>
       <c r="AB699" s="2"/>
     </row>
-    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -22080,7 +22080,7 @@
       <c r="AA700" s="2"/>
       <c r="AB700" s="2"/>
     </row>
-    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -22110,7 +22110,7 @@
       <c r="AA701" s="2"/>
       <c r="AB701" s="2"/>
     </row>
-    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -22140,7 +22140,7 @@
       <c r="AA702" s="2"/>
       <c r="AB702" s="2"/>
     </row>
-    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -22170,7 +22170,7 @@
       <c r="AA703" s="2"/>
       <c r="AB703" s="2"/>
     </row>
-    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -22200,7 +22200,7 @@
       <c r="AA704" s="2"/>
       <c r="AB704" s="2"/>
     </row>
-    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -22230,7 +22230,7 @@
       <c r="AA705" s="2"/>
       <c r="AB705" s="2"/>
     </row>
-    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -22260,7 +22260,7 @@
       <c r="AA706" s="2"/>
       <c r="AB706" s="2"/>
     </row>
-    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -22290,7 +22290,7 @@
       <c r="AA707" s="2"/>
       <c r="AB707" s="2"/>
     </row>
-    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -22320,7 +22320,7 @@
       <c r="AA708" s="2"/>
       <c r="AB708" s="2"/>
     </row>
-    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -22350,7 +22350,7 @@
       <c r="AA709" s="2"/>
       <c r="AB709" s="2"/>
     </row>
-    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -22380,7 +22380,7 @@
       <c r="AA710" s="2"/>
       <c r="AB710" s="2"/>
     </row>
-    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -22410,7 +22410,7 @@
       <c r="AA711" s="2"/>
       <c r="AB711" s="2"/>
     </row>
-    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -22440,7 +22440,7 @@
       <c r="AA712" s="2"/>
       <c r="AB712" s="2"/>
     </row>
-    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -22470,7 +22470,7 @@
       <c r="AA713" s="2"/>
       <c r="AB713" s="2"/>
     </row>
-    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -22500,7 +22500,7 @@
       <c r="AA714" s="2"/>
       <c r="AB714" s="2"/>
     </row>
-    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -22530,7 +22530,7 @@
       <c r="AA715" s="2"/>
       <c r="AB715" s="2"/>
     </row>
-    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -22560,7 +22560,7 @@
       <c r="AA716" s="2"/>
       <c r="AB716" s="2"/>
     </row>
-    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -22590,7 +22590,7 @@
       <c r="AA717" s="2"/>
       <c r="AB717" s="2"/>
     </row>
-    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -22620,7 +22620,7 @@
       <c r="AA718" s="2"/>
       <c r="AB718" s="2"/>
     </row>
-    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -22650,7 +22650,7 @@
       <c r="AA719" s="2"/>
       <c r="AB719" s="2"/>
     </row>
-    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -22680,7 +22680,7 @@
       <c r="AA720" s="2"/>
       <c r="AB720" s="2"/>
     </row>
-    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -22710,7 +22710,7 @@
       <c r="AA721" s="2"/>
       <c r="AB721" s="2"/>
     </row>
-    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -22740,7 +22740,7 @@
       <c r="AA722" s="2"/>
       <c r="AB722" s="2"/>
     </row>
-    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -22770,7 +22770,7 @@
       <c r="AA723" s="2"/>
       <c r="AB723" s="2"/>
     </row>
-    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -22800,7 +22800,7 @@
       <c r="AA724" s="2"/>
       <c r="AB724" s="2"/>
     </row>
-    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -22830,7 +22830,7 @@
       <c r="AA725" s="2"/>
       <c r="AB725" s="2"/>
     </row>
-    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -22860,7 +22860,7 @@
       <c r="AA726" s="2"/>
       <c r="AB726" s="2"/>
     </row>
-    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -22890,7 +22890,7 @@
       <c r="AA727" s="2"/>
       <c r="AB727" s="2"/>
     </row>
-    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -22920,7 +22920,7 @@
       <c r="AA728" s="2"/>
       <c r="AB728" s="2"/>
     </row>
-    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -22950,7 +22950,7 @@
       <c r="AA729" s="2"/>
       <c r="AB729" s="2"/>
     </row>
-    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -22980,7 +22980,7 @@
       <c r="AA730" s="2"/>
       <c r="AB730" s="2"/>
     </row>
-    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -23010,7 +23010,7 @@
       <c r="AA731" s="2"/>
       <c r="AB731" s="2"/>
     </row>
-    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -23040,7 +23040,7 @@
       <c r="AA732" s="2"/>
       <c r="AB732" s="2"/>
     </row>
-    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -23070,7 +23070,7 @@
       <c r="AA733" s="2"/>
       <c r="AB733" s="2"/>
     </row>
-    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -23100,7 +23100,7 @@
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
     </row>
-    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -23130,7 +23130,7 @@
       <c r="AA735" s="2"/>
       <c r="AB735" s="2"/>
     </row>
-    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -23160,7 +23160,7 @@
       <c r="AA736" s="2"/>
       <c r="AB736" s="2"/>
     </row>
-    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -23190,7 +23190,7 @@
       <c r="AA737" s="2"/>
       <c r="AB737" s="2"/>
     </row>
-    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -23220,7 +23220,7 @@
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -23250,7 +23250,7 @@
       <c r="AA739" s="2"/>
       <c r="AB739" s="2"/>
     </row>
-    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -23280,7 +23280,7 @@
       <c r="AA740" s="2"/>
       <c r="AB740" s="2"/>
     </row>
-    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -23310,7 +23310,7 @@
       <c r="AA741" s="2"/>
       <c r="AB741" s="2"/>
     </row>
-    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -23340,7 +23340,7 @@
       <c r="AA742" s="2"/>
       <c r="AB742" s="2"/>
     </row>
-    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -23370,7 +23370,7 @@
       <c r="AA743" s="2"/>
       <c r="AB743" s="2"/>
     </row>
-    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -23400,7 +23400,7 @@
       <c r="AA744" s="2"/>
       <c r="AB744" s="2"/>
     </row>
-    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -23430,7 +23430,7 @@
       <c r="AA745" s="2"/>
       <c r="AB745" s="2"/>
     </row>
-    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -23460,7 +23460,7 @@
       <c r="AA746" s="2"/>
       <c r="AB746" s="2"/>
     </row>
-    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -23490,7 +23490,7 @@
       <c r="AA747" s="2"/>
       <c r="AB747" s="2"/>
     </row>
-    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -23520,7 +23520,7 @@
       <c r="AA748" s="2"/>
       <c r="AB748" s="2"/>
     </row>
-    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -23550,7 +23550,7 @@
       <c r="AA749" s="2"/>
       <c r="AB749" s="2"/>
     </row>
-    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -23580,7 +23580,7 @@
       <c r="AA750" s="2"/>
       <c r="AB750" s="2"/>
     </row>
-    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -23610,7 +23610,7 @@
       <c r="AA751" s="2"/>
       <c r="AB751" s="2"/>
     </row>
-    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -23640,7 +23640,7 @@
       <c r="AA752" s="2"/>
       <c r="AB752" s="2"/>
     </row>
-    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -23670,7 +23670,7 @@
       <c r="AA753" s="2"/>
       <c r="AB753" s="2"/>
     </row>
-    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -23700,7 +23700,7 @@
       <c r="AA754" s="2"/>
       <c r="AB754" s="2"/>
     </row>
-    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -23730,7 +23730,7 @@
       <c r="AA755" s="2"/>
       <c r="AB755" s="2"/>
     </row>
-    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -23760,7 +23760,7 @@
       <c r="AA756" s="2"/>
       <c r="AB756" s="2"/>
     </row>
-    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -23790,7 +23790,7 @@
       <c r="AA757" s="2"/>
       <c r="AB757" s="2"/>
     </row>
-    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -23820,7 +23820,7 @@
       <c r="AA758" s="2"/>
       <c r="AB758" s="2"/>
     </row>
-    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -23850,7 +23850,7 @@
       <c r="AA759" s="2"/>
       <c r="AB759" s="2"/>
     </row>
-    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -23880,7 +23880,7 @@
       <c r="AA760" s="2"/>
       <c r="AB760" s="2"/>
     </row>
-    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -23910,7 +23910,7 @@
       <c r="AA761" s="2"/>
       <c r="AB761" s="2"/>
     </row>
-    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -23940,7 +23940,7 @@
       <c r="AA762" s="2"/>
       <c r="AB762" s="2"/>
     </row>
-    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -23970,7 +23970,7 @@
       <c r="AA763" s="2"/>
       <c r="AB763" s="2"/>
     </row>
-    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -24000,7 +24000,7 @@
       <c r="AA764" s="2"/>
       <c r="AB764" s="2"/>
     </row>
-    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -24030,7 +24030,7 @@
       <c r="AA765" s="2"/>
       <c r="AB765" s="2"/>
     </row>
-    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -24060,7 +24060,7 @@
       <c r="AA766" s="2"/>
       <c r="AB766" s="2"/>
     </row>
-    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -24090,7 +24090,7 @@
       <c r="AA767" s="2"/>
       <c r="AB767" s="2"/>
     </row>
-    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -24120,7 +24120,7 @@
       <c r="AA768" s="2"/>
       <c r="AB768" s="2"/>
     </row>
-    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -24150,7 +24150,7 @@
       <c r="AA769" s="2"/>
       <c r="AB769" s="2"/>
     </row>
-    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -24180,7 +24180,7 @@
       <c r="AA770" s="2"/>
       <c r="AB770" s="2"/>
     </row>
-    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -24210,7 +24210,7 @@
       <c r="AA771" s="2"/>
       <c r="AB771" s="2"/>
     </row>
-    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -24240,7 +24240,7 @@
       <c r="AA772" s="2"/>
       <c r="AB772" s="2"/>
     </row>
-    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -24270,7 +24270,7 @@
       <c r="AA773" s="2"/>
       <c r="AB773" s="2"/>
     </row>
-    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -24300,7 +24300,7 @@
       <c r="AA774" s="2"/>
       <c r="AB774" s="2"/>
     </row>
-    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -24330,7 +24330,7 @@
       <c r="AA775" s="2"/>
       <c r="AB775" s="2"/>
     </row>
-    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -24360,7 +24360,7 @@
       <c r="AA776" s="2"/>
       <c r="AB776" s="2"/>
     </row>
-    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -24390,7 +24390,7 @@
       <c r="AA777" s="2"/>
       <c r="AB777" s="2"/>
     </row>
-    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -24420,7 +24420,7 @@
       <c r="AA778" s="2"/>
       <c r="AB778" s="2"/>
     </row>
-    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -24450,7 +24450,7 @@
       <c r="AA779" s="2"/>
       <c r="AB779" s="2"/>
     </row>
-    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -24480,7 +24480,7 @@
       <c r="AA780" s="2"/>
       <c r="AB780" s="2"/>
     </row>
-    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -24510,7 +24510,7 @@
       <c r="AA781" s="2"/>
       <c r="AB781" s="2"/>
     </row>
-    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -24540,7 +24540,7 @@
       <c r="AA782" s="2"/>
       <c r="AB782" s="2"/>
     </row>
-    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -24570,7 +24570,7 @@
       <c r="AA783" s="2"/>
       <c r="AB783" s="2"/>
     </row>
-    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -24600,7 +24600,7 @@
       <c r="AA784" s="2"/>
       <c r="AB784" s="2"/>
     </row>
-    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -24630,7 +24630,7 @@
       <c r="AA785" s="2"/>
       <c r="AB785" s="2"/>
     </row>
-    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -24660,7 +24660,7 @@
       <c r="AA786" s="2"/>
       <c r="AB786" s="2"/>
     </row>
-    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -24690,7 +24690,7 @@
       <c r="AA787" s="2"/>
       <c r="AB787" s="2"/>
     </row>
-    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -24720,7 +24720,7 @@
       <c r="AA788" s="2"/>
       <c r="AB788" s="2"/>
     </row>
-    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -24750,7 +24750,7 @@
       <c r="AA789" s="2"/>
       <c r="AB789" s="2"/>
     </row>
-    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -24780,7 +24780,7 @@
       <c r="AA790" s="2"/>
       <c r="AB790" s="2"/>
     </row>
-    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -24810,7 +24810,7 @@
       <c r="AA791" s="2"/>
       <c r="AB791" s="2"/>
     </row>
-    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -24840,7 +24840,7 @@
       <c r="AA792" s="2"/>
       <c r="AB792" s="2"/>
     </row>
-    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -24870,7 +24870,7 @@
       <c r="AA793" s="2"/>
       <c r="AB793" s="2"/>
     </row>
-    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -24900,7 +24900,7 @@
       <c r="AA794" s="2"/>
       <c r="AB794" s="2"/>
     </row>
-    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -24930,7 +24930,7 @@
       <c r="AA795" s="2"/>
       <c r="AB795" s="2"/>
     </row>
-    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -24960,7 +24960,7 @@
       <c r="AA796" s="2"/>
       <c r="AB796" s="2"/>
     </row>
-    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -24990,7 +24990,7 @@
       <c r="AA797" s="2"/>
       <c r="AB797" s="2"/>
     </row>
-    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -25020,7 +25020,7 @@
       <c r="AA798" s="2"/>
       <c r="AB798" s="2"/>
     </row>
-    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -25050,7 +25050,7 @@
       <c r="AA799" s="2"/>
       <c r="AB799" s="2"/>
     </row>
-    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -25080,7 +25080,7 @@
       <c r="AA800" s="2"/>
       <c r="AB800" s="2"/>
     </row>
-    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -25110,7 +25110,7 @@
       <c r="AA801" s="2"/>
       <c r="AB801" s="2"/>
     </row>
-    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -25140,7 +25140,7 @@
       <c r="AA802" s="2"/>
       <c r="AB802" s="2"/>
     </row>
-    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -25170,7 +25170,7 @@
       <c r="AA803" s="2"/>
       <c r="AB803" s="2"/>
     </row>
-    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -25200,7 +25200,7 @@
       <c r="AA804" s="2"/>
       <c r="AB804" s="2"/>
     </row>
-    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -25230,7 +25230,7 @@
       <c r="AA805" s="2"/>
       <c r="AB805" s="2"/>
     </row>
-    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -25260,7 +25260,7 @@
       <c r="AA806" s="2"/>
       <c r="AB806" s="2"/>
     </row>
-    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -25290,7 +25290,7 @@
       <c r="AA807" s="2"/>
       <c r="AB807" s="2"/>
     </row>
-    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -25320,7 +25320,7 @@
       <c r="AA808" s="2"/>
       <c r="AB808" s="2"/>
     </row>
-    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -25350,7 +25350,7 @@
       <c r="AA809" s="2"/>
       <c r="AB809" s="2"/>
     </row>
-    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -25380,7 +25380,7 @@
       <c r="AA810" s="2"/>
       <c r="AB810" s="2"/>
     </row>
-    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -25410,7 +25410,7 @@
       <c r="AA811" s="2"/>
       <c r="AB811" s="2"/>
     </row>
-    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -25440,7 +25440,7 @@
       <c r="AA812" s="2"/>
       <c r="AB812" s="2"/>
     </row>
-    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -25470,7 +25470,7 @@
       <c r="AA813" s="2"/>
       <c r="AB813" s="2"/>
     </row>
-    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -25500,7 +25500,7 @@
       <c r="AA814" s="2"/>
       <c r="AB814" s="2"/>
     </row>
-    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -25530,7 +25530,7 @@
       <c r="AA815" s="2"/>
       <c r="AB815" s="2"/>
     </row>
-    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -25560,7 +25560,7 @@
       <c r="AA816" s="2"/>
       <c r="AB816" s="2"/>
     </row>
-    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -25590,7 +25590,7 @@
       <c r="AA817" s="2"/>
       <c r="AB817" s="2"/>
     </row>
-    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -25620,7 +25620,7 @@
       <c r="AA818" s="2"/>
       <c r="AB818" s="2"/>
     </row>
-    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -25650,7 +25650,7 @@
       <c r="AA819" s="2"/>
       <c r="AB819" s="2"/>
     </row>
-    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -25680,7 +25680,7 @@
       <c r="AA820" s="2"/>
       <c r="AB820" s="2"/>
     </row>
-    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -25710,7 +25710,7 @@
       <c r="AA821" s="2"/>
       <c r="AB821" s="2"/>
     </row>
-    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -25740,7 +25740,7 @@
       <c r="AA822" s="2"/>
       <c r="AB822" s="2"/>
     </row>
-    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -25770,7 +25770,7 @@
       <c r="AA823" s="2"/>
       <c r="AB823" s="2"/>
     </row>
-    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -25800,7 +25800,7 @@
       <c r="AA824" s="2"/>
       <c r="AB824" s="2"/>
     </row>
-    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -25830,7 +25830,7 @@
       <c r="AA825" s="2"/>
       <c r="AB825" s="2"/>
     </row>
-    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -25860,7 +25860,7 @@
       <c r="AA826" s="2"/>
       <c r="AB826" s="2"/>
     </row>
-    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -25890,7 +25890,7 @@
       <c r="AA827" s="2"/>
       <c r="AB827" s="2"/>
     </row>
-    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -25920,7 +25920,7 @@
       <c r="AA828" s="2"/>
       <c r="AB828" s="2"/>
     </row>
-    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -25950,7 +25950,7 @@
       <c r="AA829" s="2"/>
       <c r="AB829" s="2"/>
     </row>
-    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -25980,7 +25980,7 @@
       <c r="AA830" s="2"/>
       <c r="AB830" s="2"/>
     </row>
-    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -26010,7 +26010,7 @@
       <c r="AA831" s="2"/>
       <c r="AB831" s="2"/>
     </row>
-    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -26040,7 +26040,7 @@
       <c r="AA832" s="2"/>
       <c r="AB832" s="2"/>
     </row>
-    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -26070,7 +26070,7 @@
       <c r="AA833" s="2"/>
       <c r="AB833" s="2"/>
     </row>
-    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -26100,7 +26100,7 @@
       <c r="AA834" s="2"/>
       <c r="AB834" s="2"/>
     </row>
-    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -26130,7 +26130,7 @@
       <c r="AA835" s="2"/>
       <c r="AB835" s="2"/>
     </row>
-    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -26160,7 +26160,7 @@
       <c r="AA836" s="2"/>
       <c r="AB836" s="2"/>
     </row>
-    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -26190,7 +26190,7 @@
       <c r="AA837" s="2"/>
       <c r="AB837" s="2"/>
     </row>
-    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -26220,7 +26220,7 @@
       <c r="AA838" s="2"/>
       <c r="AB838" s="2"/>
     </row>
-    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -26250,7 +26250,7 @@
       <c r="AA839" s="2"/>
       <c r="AB839" s="2"/>
     </row>
-    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -26280,7 +26280,7 @@
       <c r="AA840" s="2"/>
       <c r="AB840" s="2"/>
     </row>
-    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -26310,7 +26310,7 @@
       <c r="AA841" s="2"/>
       <c r="AB841" s="2"/>
     </row>
-    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -26340,7 +26340,7 @@
       <c r="AA842" s="2"/>
       <c r="AB842" s="2"/>
     </row>
-    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -26370,7 +26370,7 @@
       <c r="AA843" s="2"/>
       <c r="AB843" s="2"/>
     </row>
-    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -26400,7 +26400,7 @@
       <c r="AA844" s="2"/>
       <c r="AB844" s="2"/>
     </row>
-    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -26430,7 +26430,7 @@
       <c r="AA845" s="2"/>
       <c r="AB845" s="2"/>
     </row>
-    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -26460,7 +26460,7 @@
       <c r="AA846" s="2"/>
       <c r="AB846" s="2"/>
     </row>
-    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -26490,7 +26490,7 @@
       <c r="AA847" s="2"/>
       <c r="AB847" s="2"/>
     </row>
-    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -26520,7 +26520,7 @@
       <c r="AA848" s="2"/>
       <c r="AB848" s="2"/>
     </row>
-    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -26550,7 +26550,7 @@
       <c r="AA849" s="2"/>
       <c r="AB849" s="2"/>
     </row>
-    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -26580,7 +26580,7 @@
       <c r="AA850" s="2"/>
       <c r="AB850" s="2"/>
     </row>
-    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -26610,7 +26610,7 @@
       <c r="AA851" s="2"/>
       <c r="AB851" s="2"/>
     </row>
-    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -26640,7 +26640,7 @@
       <c r="AA852" s="2"/>
       <c r="AB852" s="2"/>
     </row>
-    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -26670,7 +26670,7 @@
       <c r="AA853" s="2"/>
       <c r="AB853" s="2"/>
     </row>
-    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -26700,7 +26700,7 @@
       <c r="AA854" s="2"/>
       <c r="AB854" s="2"/>
     </row>
-    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -26730,7 +26730,7 @@
       <c r="AA855" s="2"/>
       <c r="AB855" s="2"/>
     </row>
-    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -26760,7 +26760,7 @@
       <c r="AA856" s="2"/>
       <c r="AB856" s="2"/>
     </row>
-    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -26790,7 +26790,7 @@
       <c r="AA857" s="2"/>
       <c r="AB857" s="2"/>
     </row>
-    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -26820,7 +26820,7 @@
       <c r="AA858" s="2"/>
       <c r="AB858" s="2"/>
     </row>
-    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -26850,7 +26850,7 @@
       <c r="AA859" s="2"/>
       <c r="AB859" s="2"/>
     </row>
-    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -26880,7 +26880,7 @@
       <c r="AA860" s="2"/>
       <c r="AB860" s="2"/>
     </row>
-    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -26910,7 +26910,7 @@
       <c r="AA861" s="2"/>
       <c r="AB861" s="2"/>
     </row>
-    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -26940,7 +26940,7 @@
       <c r="AA862" s="2"/>
       <c r="AB862" s="2"/>
     </row>
-    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -26970,7 +26970,7 @@
       <c r="AA863" s="2"/>
       <c r="AB863" s="2"/>
     </row>
-    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -27000,7 +27000,7 @@
       <c r="AA864" s="2"/>
       <c r="AB864" s="2"/>
     </row>
-    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -27030,7 +27030,7 @@
       <c r="AA865" s="2"/>
       <c r="AB865" s="2"/>
     </row>
-    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -27060,7 +27060,7 @@
       <c r="AA866" s="2"/>
       <c r="AB866" s="2"/>
     </row>
-    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -27090,7 +27090,7 @@
       <c r="AA867" s="2"/>
       <c r="AB867" s="2"/>
     </row>
-    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -27120,7 +27120,7 @@
       <c r="AA868" s="2"/>
       <c r="AB868" s="2"/>
     </row>
-    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -27150,7 +27150,7 @@
       <c r="AA869" s="2"/>
       <c r="AB869" s="2"/>
     </row>
-    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -27180,7 +27180,7 @@
       <c r="AA870" s="2"/>
       <c r="AB870" s="2"/>
     </row>
-    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -27210,7 +27210,7 @@
       <c r="AA871" s="2"/>
       <c r="AB871" s="2"/>
     </row>
-    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -27240,7 +27240,7 @@
       <c r="AA872" s="2"/>
       <c r="AB872" s="2"/>
     </row>
-    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -27270,7 +27270,7 @@
       <c r="AA873" s="2"/>
       <c r="AB873" s="2"/>
     </row>
-    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -27300,7 +27300,7 @@
       <c r="AA874" s="2"/>
       <c r="AB874" s="2"/>
     </row>
-    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -27330,7 +27330,7 @@
       <c r="AA875" s="2"/>
       <c r="AB875" s="2"/>
     </row>
-    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -27360,7 +27360,7 @@
       <c r="AA876" s="2"/>
       <c r="AB876" s="2"/>
     </row>
-    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -27390,7 +27390,7 @@
       <c r="AA877" s="2"/>
       <c r="AB877" s="2"/>
     </row>
-    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -27420,7 +27420,7 @@
       <c r="AA878" s="2"/>
       <c r="AB878" s="2"/>
     </row>
-    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -27450,7 +27450,7 @@
       <c r="AA879" s="2"/>
       <c r="AB879" s="2"/>
     </row>
-    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -27480,7 +27480,7 @@
       <c r="AA880" s="2"/>
       <c r="AB880" s="2"/>
     </row>
-    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -27510,7 +27510,7 @@
       <c r="AA881" s="2"/>
       <c r="AB881" s="2"/>
     </row>
-    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -27540,7 +27540,7 @@
       <c r="AA882" s="2"/>
       <c r="AB882" s="2"/>
     </row>
-    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -27570,7 +27570,7 @@
       <c r="AA883" s="2"/>
       <c r="AB883" s="2"/>
     </row>
-    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -27600,7 +27600,7 @@
       <c r="AA884" s="2"/>
       <c r="AB884" s="2"/>
     </row>
-    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -27630,7 +27630,7 @@
       <c r="AA885" s="2"/>
       <c r="AB885" s="2"/>
     </row>
-    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -27660,7 +27660,7 @@
       <c r="AA886" s="2"/>
       <c r="AB886" s="2"/>
     </row>
-    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -27690,7 +27690,7 @@
       <c r="AA887" s="2"/>
       <c r="AB887" s="2"/>
     </row>
-    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -27720,7 +27720,7 @@
       <c r="AA888" s="2"/>
       <c r="AB888" s="2"/>
     </row>
-    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -27750,7 +27750,7 @@
       <c r="AA889" s="2"/>
       <c r="AB889" s="2"/>
     </row>
-    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -27780,7 +27780,7 @@
       <c r="AA890" s="2"/>
       <c r="AB890" s="2"/>
     </row>
-    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -27810,7 +27810,7 @@
       <c r="AA891" s="2"/>
       <c r="AB891" s="2"/>
     </row>
-    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -27840,7 +27840,7 @@
       <c r="AA892" s="2"/>
       <c r="AB892" s="2"/>
     </row>
-    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -27870,7 +27870,7 @@
       <c r="AA893" s="2"/>
       <c r="AB893" s="2"/>
     </row>
-    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -27900,7 +27900,7 @@
       <c r="AA894" s="2"/>
       <c r="AB894" s="2"/>
     </row>
-    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -27930,7 +27930,7 @@
       <c r="AA895" s="2"/>
       <c r="AB895" s="2"/>
     </row>
-    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -27960,7 +27960,7 @@
       <c r="AA896" s="2"/>
       <c r="AB896" s="2"/>
     </row>
-    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -27990,7 +27990,7 @@
       <c r="AA897" s="2"/>
       <c r="AB897" s="2"/>
     </row>
-    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -28020,7 +28020,7 @@
       <c r="AA898" s="2"/>
       <c r="AB898" s="2"/>
     </row>
-    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -28050,7 +28050,7 @@
       <c r="AA899" s="2"/>
       <c r="AB899" s="2"/>
     </row>
-    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -28080,7 +28080,7 @@
       <c r="AA900" s="2"/>
       <c r="AB900" s="2"/>
     </row>
-    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -28110,7 +28110,7 @@
       <c r="AA901" s="2"/>
       <c r="AB901" s="2"/>
     </row>
-    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -28140,7 +28140,7 @@
       <c r="AA902" s="2"/>
       <c r="AB902" s="2"/>
     </row>
-    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -28170,7 +28170,7 @@
       <c r="AA903" s="2"/>
       <c r="AB903" s="2"/>
     </row>
-    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -28200,7 +28200,7 @@
       <c r="AA904" s="2"/>
       <c r="AB904" s="2"/>
     </row>
-    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -28230,7 +28230,7 @@
       <c r="AA905" s="2"/>
       <c r="AB905" s="2"/>
     </row>
-    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -28260,7 +28260,7 @@
       <c r="AA906" s="2"/>
       <c r="AB906" s="2"/>
     </row>
-    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -28290,7 +28290,7 @@
       <c r="AA907" s="2"/>
       <c r="AB907" s="2"/>
     </row>
-    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -28320,7 +28320,7 @@
       <c r="AA908" s="2"/>
       <c r="AB908" s="2"/>
     </row>
-    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -28350,7 +28350,7 @@
       <c r="AA909" s="2"/>
       <c r="AB909" s="2"/>
     </row>
-    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -28380,7 +28380,7 @@
       <c r="AA910" s="2"/>
       <c r="AB910" s="2"/>
     </row>
-    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -28410,7 +28410,7 @@
       <c r="AA911" s="2"/>
       <c r="AB911" s="2"/>
     </row>
-    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -28440,7 +28440,7 @@
       <c r="AA912" s="2"/>
       <c r="AB912" s="2"/>
     </row>
-    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -28470,7 +28470,7 @@
       <c r="AA913" s="2"/>
       <c r="AB913" s="2"/>
     </row>
-    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -28500,7 +28500,7 @@
       <c r="AA914" s="2"/>
       <c r="AB914" s="2"/>
     </row>
-    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -28530,7 +28530,7 @@
       <c r="AA915" s="2"/>
       <c r="AB915" s="2"/>
     </row>
-    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -28560,7 +28560,7 @@
       <c r="AA916" s="2"/>
       <c r="AB916" s="2"/>
     </row>
-    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -28590,7 +28590,7 @@
       <c r="AA917" s="2"/>
       <c r="AB917" s="2"/>
     </row>
-    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -28620,7 +28620,7 @@
       <c r="AA918" s="2"/>
       <c r="AB918" s="2"/>
     </row>
-    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -28650,7 +28650,7 @@
       <c r="AA919" s="2"/>
       <c r="AB919" s="2"/>
     </row>
-    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -28680,7 +28680,7 @@
       <c r="AA920" s="2"/>
       <c r="AB920" s="2"/>
     </row>
-    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -28710,7 +28710,7 @@
       <c r="AA921" s="2"/>
       <c r="AB921" s="2"/>
     </row>
-    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -28740,7 +28740,7 @@
       <c r="AA922" s="2"/>
       <c r="AB922" s="2"/>
     </row>
-    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -28770,7 +28770,7 @@
       <c r="AA923" s="2"/>
       <c r="AB923" s="2"/>
     </row>
-    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -28800,7 +28800,7 @@
       <c r="AA924" s="2"/>
       <c r="AB924" s="2"/>
     </row>
-    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -28830,7 +28830,7 @@
       <c r="AA925" s="2"/>
       <c r="AB925" s="2"/>
     </row>
-    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -28860,7 +28860,7 @@
       <c r="AA926" s="2"/>
       <c r="AB926" s="2"/>
     </row>
-    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -28890,7 +28890,7 @@
       <c r="AA927" s="2"/>
       <c r="AB927" s="2"/>
     </row>
-    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -28920,7 +28920,7 @@
       <c r="AA928" s="2"/>
       <c r="AB928" s="2"/>
     </row>
-    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -28950,7 +28950,7 @@
       <c r="AA929" s="2"/>
       <c r="AB929" s="2"/>
     </row>
-    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -28980,7 +28980,7 @@
       <c r="AA930" s="2"/>
       <c r="AB930" s="2"/>
     </row>
-    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -29010,7 +29010,7 @@
       <c r="AA931" s="2"/>
       <c r="AB931" s="2"/>
     </row>
-    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -29040,7 +29040,7 @@
       <c r="AA932" s="2"/>
       <c r="AB932" s="2"/>
     </row>
-    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -29070,7 +29070,7 @@
       <c r="AA933" s="2"/>
       <c r="AB933" s="2"/>
     </row>
-    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -29100,7 +29100,7 @@
       <c r="AA934" s="2"/>
       <c r="AB934" s="2"/>
     </row>
-    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -29130,7 +29130,7 @@
       <c r="AA935" s="2"/>
       <c r="AB935" s="2"/>
     </row>
-    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -29160,7 +29160,7 @@
       <c r="AA936" s="2"/>
       <c r="AB936" s="2"/>
     </row>
-    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -29190,7 +29190,7 @@
       <c r="AA937" s="2"/>
       <c r="AB937" s="2"/>
     </row>
-    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -29220,7 +29220,7 @@
       <c r="AA938" s="2"/>
       <c r="AB938" s="2"/>
     </row>
-    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -29250,7 +29250,7 @@
       <c r="AA939" s="2"/>
       <c r="AB939" s="2"/>
     </row>
-    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -29280,7 +29280,7 @@
       <c r="AA940" s="2"/>
       <c r="AB940" s="2"/>
     </row>
-    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -29310,7 +29310,7 @@
       <c r="AA941" s="2"/>
       <c r="AB941" s="2"/>
     </row>
-    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -29340,7 +29340,7 @@
       <c r="AA942" s="2"/>
       <c r="AB942" s="2"/>
     </row>
-    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -29370,7 +29370,7 @@
       <c r="AA943" s="2"/>
       <c r="AB943" s="2"/>
     </row>
-    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -29400,7 +29400,7 @@
       <c r="AA944" s="2"/>
       <c r="AB944" s="2"/>
     </row>
-    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -29430,7 +29430,7 @@
       <c r="AA945" s="2"/>
       <c r="AB945" s="2"/>
     </row>
-    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -29460,7 +29460,7 @@
       <c r="AA946" s="2"/>
       <c r="AB946" s="2"/>
     </row>
-    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -29490,7 +29490,7 @@
       <c r="AA947" s="2"/>
       <c r="AB947" s="2"/>
     </row>
-    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -29520,7 +29520,7 @@
       <c r="AA948" s="2"/>
       <c r="AB948" s="2"/>
     </row>
-    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -29550,7 +29550,7 @@
       <c r="AA949" s="2"/>
       <c r="AB949" s="2"/>
     </row>
-    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -29580,7 +29580,7 @@
       <c r="AA950" s="2"/>
       <c r="AB950" s="2"/>
     </row>
-    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -29610,7 +29610,7 @@
       <c r="AA951" s="2"/>
       <c r="AB951" s="2"/>
     </row>
-    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -29640,7 +29640,7 @@
       <c r="AA952" s="2"/>
       <c r="AB952" s="2"/>
     </row>
-    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -29670,7 +29670,7 @@
       <c r="AA953" s="2"/>
       <c r="AB953" s="2"/>
     </row>
-    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -29700,7 +29700,7 @@
       <c r="AA954" s="2"/>
       <c r="AB954" s="2"/>
     </row>
-    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -29730,7 +29730,7 @@
       <c r="AA955" s="2"/>
       <c r="AB955" s="2"/>
     </row>
-    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -29760,7 +29760,7 @@
       <c r="AA956" s="2"/>
       <c r="AB956" s="2"/>
     </row>
-    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -29790,7 +29790,7 @@
       <c r="AA957" s="2"/>
       <c r="AB957" s="2"/>
     </row>
-    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -29820,7 +29820,7 @@
       <c r="AA958" s="2"/>
       <c r="AB958" s="2"/>
     </row>
-    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
@@ -29850,7 +29850,7 @@
       <c r="AA959" s="2"/>
       <c r="AB959" s="2"/>
     </row>
-    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
@@ -29880,7 +29880,7 @@
       <c r="AA960" s="2"/>
       <c r="AB960" s="2"/>
     </row>
-    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
@@ -29910,7 +29910,7 @@
       <c r="AA961" s="2"/>
       <c r="AB961" s="2"/>
     </row>
-    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
@@ -29940,7 +29940,7 @@
       <c r="AA962" s="2"/>
       <c r="AB962" s="2"/>
     </row>
-    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
@@ -29970,7 +29970,7 @@
       <c r="AA963" s="2"/>
       <c r="AB963" s="2"/>
     </row>
-    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
@@ -30000,7 +30000,7 @@
       <c r="AA964" s="2"/>
       <c r="AB964" s="2"/>
     </row>
-    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
@@ -30030,7 +30030,7 @@
       <c r="AA965" s="2"/>
       <c r="AB965" s="2"/>
     </row>
-    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
@@ -30060,7 +30060,7 @@
       <c r="AA966" s="2"/>
       <c r="AB966" s="2"/>
     </row>
-    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
@@ -30090,7 +30090,7 @@
       <c r="AA967" s="2"/>
       <c r="AB967" s="2"/>
     </row>
-    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
@@ -30120,7 +30120,7 @@
       <c r="AA968" s="2"/>
       <c r="AB968" s="2"/>
     </row>
-    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
@@ -30150,7 +30150,7 @@
       <c r="AA969" s="2"/>
       <c r="AB969" s="2"/>
     </row>
-    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
@@ -30180,7 +30180,7 @@
       <c r="AA970" s="2"/>
       <c r="AB970" s="2"/>
     </row>
-    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
@@ -30210,7 +30210,7 @@
       <c r="AA971" s="2"/>
       <c r="AB971" s="2"/>
     </row>
-    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
@@ -30240,7 +30240,7 @@
       <c r="AA972" s="2"/>
       <c r="AB972" s="2"/>
     </row>
-    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
@@ -30270,7 +30270,7 @@
       <c r="AA973" s="2"/>
       <c r="AB973" s="2"/>
     </row>
-    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
@@ -30300,7 +30300,7 @@
       <c r="AA974" s="2"/>
       <c r="AB974" s="2"/>
     </row>
-    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
@@ -30330,7 +30330,7 @@
       <c r="AA975" s="2"/>
       <c r="AB975" s="2"/>
     </row>
-    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
@@ -30360,7 +30360,7 @@
       <c r="AA976" s="2"/>
       <c r="AB976" s="2"/>
     </row>
-    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
@@ -30390,7 +30390,7 @@
       <c r="AA977" s="2"/>
       <c r="AB977" s="2"/>
     </row>
-    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
@@ -30420,7 +30420,7 @@
       <c r="AA978" s="2"/>
       <c r="AB978" s="2"/>
     </row>
-    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
@@ -30450,7 +30450,7 @@
       <c r="AA979" s="2"/>
       <c r="AB979" s="2"/>
     </row>
-    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
@@ -30480,7 +30480,7 @@
       <c r="AA980" s="2"/>
       <c r="AB980" s="2"/>
     </row>
-    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
@@ -30510,7 +30510,7 @@
       <c r="AA981" s="2"/>
       <c r="AB981" s="2"/>
     </row>
-    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
@@ -30540,7 +30540,7 @@
       <c r="AA982" s="2"/>
       <c r="AB982" s="2"/>
     </row>
-    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
@@ -30570,7 +30570,7 @@
       <c r="AA983" s="2"/>
       <c r="AB983" s="2"/>
     </row>
-    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
@@ -30600,7 +30600,7 @@
       <c r="AA984" s="2"/>
       <c r="AB984" s="2"/>
     </row>
-    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
@@ -30630,7 +30630,7 @@
       <c r="AA985" s="2"/>
       <c r="AB985" s="2"/>
     </row>
-    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
@@ -30660,7 +30660,7 @@
       <c r="AA986" s="2"/>
       <c r="AB986" s="2"/>
     </row>
-    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
@@ -30690,7 +30690,7 @@
       <c r="AA987" s="2"/>
       <c r="AB987" s="2"/>
     </row>
-    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
@@ -30720,7 +30720,7 @@
       <c r="AA988" s="2"/>
       <c r="AB988" s="2"/>
     </row>
-    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
@@ -30750,7 +30750,7 @@
       <c r="AA989" s="2"/>
       <c r="AB989" s="2"/>
     </row>
-    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
@@ -30780,7 +30780,7 @@
       <c r="AA990" s="2"/>
       <c r="AB990" s="2"/>
     </row>
-    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
@@ -30810,7 +30810,7 @@
       <c r="AA991" s="2"/>
       <c r="AB991" s="2"/>
     </row>
-    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
@@ -30840,7 +30840,7 @@
       <c r="AA992" s="2"/>
       <c r="AB992" s="2"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
@@ -30870,7 +30870,7 @@
       <c r="AA993" s="2"/>
       <c r="AB993" s="2"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
@@ -30900,7 +30900,7 @@
       <c r="AA994" s="2"/>
       <c r="AB994" s="2"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
@@ -30930,7 +30930,7 @@
       <c r="AA995" s="2"/>
       <c r="AB995" s="2"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
@@ -30960,7 +30960,7 @@
       <c r="AA996" s="2"/>
       <c r="AB996" s="2"/>
     </row>
-    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
@@ -30990,7 +30990,7 @@
       <c r="AA997" s="2"/>
       <c r="AB997" s="2"/>
     </row>
-    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
@@ -31020,7 +31020,7 @@
       <c r="AA998" s="2"/>
       <c r="AB998" s="2"/>
     </row>
-    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
@@ -31050,7 +31050,7 @@
       <c r="AA999" s="2"/>
       <c r="AB999" s="2"/>
     </row>
-    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
@@ -31080,7 +31080,7 @@
       <c r="AA1000" s="2"/>
       <c r="AB1000" s="2"/>
     </row>
-    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
@@ -31110,7 +31110,7 @@
       <c r="AA1001" s="2"/>
       <c r="AB1001" s="2"/>
     </row>
-    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="9"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
@@ -31140,7 +31140,7 @@
       <c r="AA1002" s="2"/>
       <c r="AB1002" s="2"/>
     </row>
-    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="9"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
@@ -31170,7 +31170,7 @@
       <c r="AA1003" s="2"/>
       <c r="AB1003" s="2"/>
     </row>
-    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="9"/>
       <c r="B1004" s="9"/>
       <c r="C1004" s="9"/>
@@ -31200,7 +31200,7 @@
       <c r="AA1004" s="2"/>
       <c r="AB1004" s="2"/>
     </row>
-    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="9"/>
       <c r="B1005" s="9"/>
       <c r="C1005" s="9"/>
@@ -31230,7 +31230,7 @@
       <c r="AA1005" s="2"/>
       <c r="AB1005" s="2"/>
     </row>
-    <row r="1006" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="9"/>
       <c r="B1006" s="9"/>
       <c r="C1006" s="9"/>
@@ -31278,17 +31278,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -31298,7 +31298,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -31318,7 +31318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="11"/>
       <c r="C3" s="15"/>
@@ -31326,7 +31326,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
@@ -31334,7 +31334,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
@@ -31342,10 +31342,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>12</v>
       </c>
@@ -31355,7 +31355,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>1</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>1</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>1</v>
       </c>
@@ -31415,7 +31415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -31423,7 +31423,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -31431,7 +31431,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -31439,7 +31439,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
@@ -31447,7 +31447,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
     </row>
   </sheetData>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT 1 BACKLOG" sheetId="2" r:id="rId2"/>
+    <sheet name="SPRINT 2 BACKLOG" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$4</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -772,11 +773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31163,8 +31164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31312,4 +31313,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>12</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -31319,8 +31319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31369,9 +31369,7 @@
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
-        <v>12</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="19" t="s">
         <v>53</v>
       </c>
@@ -31385,9 +31383,7 @@
       <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="19" t="s">
         <v>56</v>
       </c>
@@ -31401,9 +31397,7 @@
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="19" t="s">
         <v>54</v>
       </c>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -795,10 +795,10 @@
   <dimension ref="A1:AB1005"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31203,7 +31203,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="B3:F5"/>
+      <selection activeCell="E6" sqref="E6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31358,7 +31358,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -219,6 +219,63 @@
   </si>
   <si>
     <t>Create a card list</t>
+  </si>
+  <si>
+    <t>As an user i want to be able to look at the rules at any time, so I know what im supposed to do</t>
+  </si>
+  <si>
+    <t>As an user I want a playing field, so I am able to play the game</t>
+  </si>
+  <si>
+    <t>As an user I want to be able to quit the game at any time, so i can go do something else</t>
+  </si>
+  <si>
+    <t>As an User I want a settings tap, so I can turn off the music</t>
+  </si>
+  <si>
+    <t>As an user I want to have a card deck, so I can use cards in my turn</t>
+  </si>
+  <si>
+    <t>- make a tab with all the rules
+- Make a button in menu named "Rules"</t>
+  </si>
+  <si>
+    <t>- Place the Quit button on the playing field
+- let the Quit button go back to the menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Create a settings button in the menu
+- Create an option to shut down music
+- Create a "Back" button to go back to the menu </t>
+  </si>
+  <si>
+    <t>- Create a card list in a database or list
+- Give cards a value</t>
+  </si>
+  <si>
+    <t>- The rulebook is shown
+- The rulebook is readeble for the user
+- users can access the rules in game and in the menu</t>
+  </si>
+  <si>
+    <t>- Design a playing field
+- Implement playing field in code</t>
+  </si>
+  <si>
+    <t>- A proper playing field
+- playring field is shown on start game
+- Playing field goes down if clicked on Exit button</t>
+  </si>
+  <si>
+    <t>- Quit button goes to the menu
+- Quit button is visible for the user</t>
+  </si>
+  <si>
+    <t>- Settings button in Menu
+- Option to turn on/off music</t>
+  </si>
+  <si>
+    <t>- Cardlist in the database</t>
   </si>
 </sst>
 </file>
@@ -31358,7 +31415,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31401,80 +31458,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>8</v>
+      </c>
       <c r="E3" s="19" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>40</v>
+      </c>
       <c r="E4" s="19" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
       <c r="E5" s="19" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>17</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>27</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>As a user i want to see a menu as i start the game, so i can start a new game or exit the game</t>
   </si>
   <si>
-    <t>As an user I want buttons, so I can start and exit the game</t>
-  </si>
-  <si>
     <t>- A proper folder structure
 - Everybody in our group has excess to the git</t>
   </si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>- Cardlist in the database</t>
+  </si>
+  <si>
+    <t>As an user I want a menu with buttons, so I can start and exit the game</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1930,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>51</v>
@@ -31259,8 +31259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31328,7 +31328,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -31360,7 +31360,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31414,7 +31414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -31430,7 +31430,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -31463,7 +31463,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -31472,10 +31472,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
@@ -31483,7 +31483,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -31492,10 +31492,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
@@ -31503,7 +31503,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
@@ -31512,10 +31512,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -31523,7 +31523,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -31532,10 +31532,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -31543,7 +31543,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -31552,10 +31552,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\....HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admir\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
 - The buttons on the right positions</t>
   </si>
   <si>
-    <t>As a user i want to see a menu as i start the game, so i can start a new game or exit the game</t>
-  </si>
-  <si>
     <t>- A proper folder structure
 - Everybody in our group has excess to the git</t>
   </si>
@@ -218,19 +215,7 @@
     <t>Create a card list</t>
   </si>
   <si>
-    <t>As an user i want to be able to look at the rules at any time, so I know what im supposed to do</t>
-  </si>
-  <si>
     <t>As an user I want a playing field, so I am able to play the game</t>
-  </si>
-  <si>
-    <t>As an user I want to be able to quit the game at any time, so i can go do something else</t>
-  </si>
-  <si>
-    <t>As an User I want a settings tap, so I can turn off the music</t>
-  </si>
-  <si>
-    <t>As an user I want to have a card deck, so I can use cards in my turn</t>
   </si>
   <si>
     <t>- make a tab with all the rules
@@ -246,10 +231,6 @@
 - Create a "Back" button to go back to the menu </t>
   </si>
   <si>
-    <t>- Create a card list in a database or list
-- Give cards a value</t>
-  </si>
-  <si>
     <t>- The rulebook is shown
 - The rulebook is readeble for the user
 - users can access the rules in game and in the menu</t>
@@ -257,11 +238,6 @@
   <si>
     <t>- Design a playing field
 - Implement playing field in code</t>
-  </si>
-  <si>
-    <t>- A proper playing field
-- playring field is shown on start game
-- Playing field goes down if clicked on Exit button</t>
   </si>
   <si>
     <t>- Quit button goes to the menu
@@ -276,6 +252,30 @@
   </si>
   <si>
     <t>As an user I want a menu with buttons, so I can start and exit the game</t>
+  </si>
+  <si>
+    <t>As an user I want to see a menu when I start the game, so I can start a new game or exit the game</t>
+  </si>
+  <si>
+    <t>As an user I want to be able to look at the rules at any time, so I know what I'm supposed to do</t>
+  </si>
+  <si>
+    <t>As an user I want to be able to quit the game at any time when I am playing the game, so I can go do something else</t>
+  </si>
+  <si>
+    <t>As an User I want a settings tab, so I can turn off the music</t>
+  </si>
+  <si>
+    <t>As an user I want to have a card deck, so I can use cards in my turn when I am playing the game</t>
+  </si>
+  <si>
+    <t>- Create a card list in a database or list
+- Give a value to the cards</t>
+  </si>
+  <si>
+    <t>- A proper playing field
+- playing field is shown when pressing "start game"
+- Playing field goes away when pressing "Exit button"</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -858,19 +858,19 @@
       <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="85.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="28" width="8.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>43</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -1925,12 +1925,12 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>51</v>
@@ -1965,7 +1965,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1995,7 +1995,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2025,7 +2025,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2055,7 +2055,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2085,7 +2085,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2115,7 +2115,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2145,7 +2145,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2175,7 +2175,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2205,7 +2205,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2235,7 +2235,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2265,7 +2265,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2295,7 +2295,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2325,7 +2325,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2355,7 +2355,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2385,7 +2385,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2415,7 +2415,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2445,7 +2445,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2475,7 +2475,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2505,7 +2505,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2535,7 +2535,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2565,7 +2565,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2595,7 +2595,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2625,7 +2625,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2655,7 +2655,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2685,7 +2685,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2715,7 +2715,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2745,7 +2745,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2775,7 +2775,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2805,7 +2805,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2835,7 +2835,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2865,7 +2865,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2895,7 +2895,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2925,7 +2925,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2955,7 +2955,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2985,7 +2985,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3015,7 +3015,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3045,7 +3045,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3075,7 +3075,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3105,7 +3105,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3135,7 +3135,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3165,7 +3165,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3195,7 +3195,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3225,7 +3225,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3255,7 +3255,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3285,7 +3285,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3315,7 +3315,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3345,7 +3345,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3375,7 +3375,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3405,7 +3405,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3435,7 +3435,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3465,7 +3465,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3495,7 +3495,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3525,7 +3525,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3555,7 +3555,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3585,7 +3585,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3615,7 +3615,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3645,7 +3645,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3675,7 +3675,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3705,7 +3705,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3735,7 +3735,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -3765,7 +3765,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3795,7 +3795,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3825,7 +3825,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3855,7 +3855,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3885,7 +3885,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3915,7 +3915,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3945,7 +3945,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3975,7 +3975,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4005,7 +4005,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4035,7 +4035,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4065,7 +4065,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4095,7 +4095,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4125,7 +4125,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4155,7 +4155,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4185,7 +4185,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4215,7 +4215,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4245,7 +4245,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4275,7 +4275,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4305,7 +4305,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4335,7 +4335,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4365,7 +4365,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4395,7 +4395,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4425,7 +4425,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4455,7 +4455,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4485,7 +4485,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4515,7 +4515,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4545,7 +4545,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4575,7 +4575,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4605,7 +4605,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4635,7 +4635,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -4665,7 +4665,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -4695,7 +4695,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -4725,7 +4725,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -4755,7 +4755,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -4785,7 +4785,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -4815,7 +4815,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4845,7 +4845,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -4875,7 +4875,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -4905,7 +4905,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -4935,7 +4935,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -4965,7 +4965,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -4995,7 +4995,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5025,7 +5025,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5055,7 +5055,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5085,7 +5085,7 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5115,7 +5115,7 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5145,7 +5145,7 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5175,7 +5175,7 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5205,7 +5205,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5235,7 +5235,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -5265,7 +5265,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5295,7 +5295,7 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5325,7 +5325,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5355,7 +5355,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5385,7 +5385,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5415,7 +5415,7 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5445,7 +5445,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5475,7 +5475,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5505,7 +5505,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5535,7 +5535,7 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5565,7 +5565,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5595,7 +5595,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5625,7 +5625,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5655,7 +5655,7 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5685,7 +5685,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -5715,7 +5715,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5745,7 +5745,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -5775,7 +5775,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5805,7 +5805,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5835,7 +5835,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5865,7 +5865,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5895,7 +5895,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5925,7 +5925,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5955,7 +5955,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5985,7 +5985,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -6015,7 +6015,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -6045,7 +6045,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -6075,7 +6075,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -6105,7 +6105,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -6135,7 +6135,7 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6165,7 +6165,7 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6195,7 +6195,7 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6225,7 +6225,7 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6255,7 +6255,7 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -6285,7 +6285,7 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6315,7 +6315,7 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -6345,7 +6345,7 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6375,7 +6375,7 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6405,7 +6405,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6435,7 +6435,7 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6465,7 +6465,7 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6495,7 +6495,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6525,7 +6525,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6555,7 +6555,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6585,7 +6585,7 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6615,7 +6615,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6645,7 +6645,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6675,7 +6675,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6705,7 +6705,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6735,7 +6735,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6765,7 +6765,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6795,7 +6795,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6825,7 +6825,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6855,7 +6855,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6885,7 +6885,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6915,7 +6915,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6945,7 +6945,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6975,7 +6975,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -7005,7 +7005,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -7035,7 +7035,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -7065,7 +7065,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -7095,7 +7095,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -7125,7 +7125,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -7155,7 +7155,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7185,7 +7185,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -7215,7 +7215,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7245,7 +7245,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7275,7 +7275,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7305,7 +7305,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7335,7 +7335,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7365,7 +7365,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7395,7 +7395,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7425,7 +7425,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7455,7 +7455,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -7485,7 +7485,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7515,7 +7515,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -7545,7 +7545,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7575,7 +7575,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7605,7 +7605,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7635,7 +7635,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7665,7 +7665,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -7695,7 +7695,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7725,7 +7725,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7755,7 +7755,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7785,7 +7785,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7815,7 +7815,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7845,7 +7845,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7875,7 +7875,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7905,7 +7905,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7935,7 +7935,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -7965,7 +7965,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7995,7 +7995,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -8025,7 +8025,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -8055,7 +8055,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -8085,7 +8085,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -8115,7 +8115,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -8145,7 +8145,7 @@
       <c r="AA235" s="2"/>
       <c r="AB235" s="2"/>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -8175,7 +8175,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -8205,7 +8205,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -8235,7 +8235,7 @@
       <c r="AA238" s="2"/>
       <c r="AB238" s="2"/>
     </row>
-    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -8265,7 +8265,7 @@
       <c r="AA239" s="2"/>
       <c r="AB239" s="2"/>
     </row>
-    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -8295,7 +8295,7 @@
       <c r="AA240" s="2"/>
       <c r="AB240" s="2"/>
     </row>
-    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8325,7 +8325,7 @@
       <c r="AA241" s="2"/>
       <c r="AB241" s="2"/>
     </row>
-    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8355,7 +8355,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
     </row>
-    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8385,7 +8385,7 @@
       <c r="AA243" s="2"/>
       <c r="AB243" s="2"/>
     </row>
-    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -8415,7 +8415,7 @@
       <c r="AA244" s="2"/>
       <c r="AB244" s="2"/>
     </row>
-    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8445,7 +8445,7 @@
       <c r="AA245" s="2"/>
       <c r="AB245" s="2"/>
     </row>
-    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8475,7 +8475,7 @@
       <c r="AA246" s="2"/>
       <c r="AB246" s="2"/>
     </row>
-    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8505,7 +8505,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
     </row>
-    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -8535,7 +8535,7 @@
       <c r="AA248" s="2"/>
       <c r="AB248" s="2"/>
     </row>
-    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -8565,7 +8565,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
     </row>
-    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8595,7 +8595,7 @@
       <c r="AA250" s="2"/>
       <c r="AB250" s="2"/>
     </row>
-    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8625,7 +8625,7 @@
       <c r="AA251" s="2"/>
       <c r="AB251" s="2"/>
     </row>
-    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8655,7 +8655,7 @@
       <c r="AA252" s="2"/>
       <c r="AB252" s="2"/>
     </row>
-    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8685,7 +8685,7 @@
       <c r="AA253" s="2"/>
       <c r="AB253" s="2"/>
     </row>
-    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8715,7 +8715,7 @@
       <c r="AA254" s="2"/>
       <c r="AB254" s="2"/>
     </row>
-    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8745,7 +8745,7 @@
       <c r="AA255" s="2"/>
       <c r="AB255" s="2"/>
     </row>
-    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -8775,7 +8775,7 @@
       <c r="AA256" s="2"/>
       <c r="AB256" s="2"/>
     </row>
-    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8805,7 +8805,7 @@
       <c r="AA257" s="2"/>
       <c r="AB257" s="2"/>
     </row>
-    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8835,7 +8835,7 @@
       <c r="AA258" s="2"/>
       <c r="AB258" s="2"/>
     </row>
-    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -8865,7 +8865,7 @@
       <c r="AA259" s="2"/>
       <c r="AB259" s="2"/>
     </row>
-    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8895,7 +8895,7 @@
       <c r="AA260" s="2"/>
       <c r="AB260" s="2"/>
     </row>
-    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8925,7 +8925,7 @@
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
     </row>
-    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8955,7 +8955,7 @@
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
     </row>
-    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8985,7 +8985,7 @@
       <c r="AA263" s="2"/>
       <c r="AB263" s="2"/>
     </row>
-    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -9015,7 +9015,7 @@
       <c r="AA264" s="2"/>
       <c r="AB264" s="2"/>
     </row>
-    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -9045,7 +9045,7 @@
       <c r="AA265" s="2"/>
       <c r="AB265" s="2"/>
     </row>
-    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -9075,7 +9075,7 @@
       <c r="AA266" s="2"/>
       <c r="AB266" s="2"/>
     </row>
-    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -9105,7 +9105,7 @@
       <c r="AA267" s="2"/>
       <c r="AB267" s="2"/>
     </row>
-    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -9135,7 +9135,7 @@
       <c r="AA268" s="2"/>
       <c r="AB268" s="2"/>
     </row>
-    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -9165,7 +9165,7 @@
       <c r="AA269" s="2"/>
       <c r="AB269" s="2"/>
     </row>
-    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -9195,7 +9195,7 @@
       <c r="AA270" s="2"/>
       <c r="AB270" s="2"/>
     </row>
-    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -9225,7 +9225,7 @@
       <c r="AA271" s="2"/>
       <c r="AB271" s="2"/>
     </row>
-    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -9255,7 +9255,7 @@
       <c r="AA272" s="2"/>
       <c r="AB272" s="2"/>
     </row>
-    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -9285,7 +9285,7 @@
       <c r="AA273" s="2"/>
       <c r="AB273" s="2"/>
     </row>
-    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -9315,7 +9315,7 @@
       <c r="AA274" s="2"/>
       <c r="AB274" s="2"/>
     </row>
-    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -9345,7 +9345,7 @@
       <c r="AA275" s="2"/>
       <c r="AB275" s="2"/>
     </row>
-    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9375,7 +9375,7 @@
       <c r="AA276" s="2"/>
       <c r="AB276" s="2"/>
     </row>
-    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -9405,7 +9405,7 @@
       <c r="AA277" s="2"/>
       <c r="AB277" s="2"/>
     </row>
-    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -9435,7 +9435,7 @@
       <c r="AA278" s="2"/>
       <c r="AB278" s="2"/>
     </row>
-    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -9465,7 +9465,7 @@
       <c r="AA279" s="2"/>
       <c r="AB279" s="2"/>
     </row>
-    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -9495,7 +9495,7 @@
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
     </row>
-    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -9525,7 +9525,7 @@
       <c r="AA281" s="2"/>
       <c r="AB281" s="2"/>
     </row>
-    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9555,7 +9555,7 @@
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
     </row>
-    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -9585,7 +9585,7 @@
       <c r="AA283" s="2"/>
       <c r="AB283" s="2"/>
     </row>
-    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -9615,7 +9615,7 @@
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
     </row>
-    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9645,7 +9645,7 @@
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
     </row>
-    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9675,7 +9675,7 @@
       <c r="AA286" s="2"/>
       <c r="AB286" s="2"/>
     </row>
-    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9705,7 +9705,7 @@
       <c r="AA287" s="2"/>
       <c r="AB287" s="2"/>
     </row>
-    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9735,7 +9735,7 @@
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
     </row>
-    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9765,7 +9765,7 @@
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
     </row>
-    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9795,7 +9795,7 @@
       <c r="AA290" s="2"/>
       <c r="AB290" s="2"/>
     </row>
-    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9825,7 +9825,7 @@
       <c r="AA291" s="2"/>
       <c r="AB291" s="2"/>
     </row>
-    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9855,7 +9855,7 @@
       <c r="AA292" s="2"/>
       <c r="AB292" s="2"/>
     </row>
-    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9885,7 +9885,7 @@
       <c r="AA293" s="2"/>
       <c r="AB293" s="2"/>
     </row>
-    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -9915,7 +9915,7 @@
       <c r="AA294" s="2"/>
       <c r="AB294" s="2"/>
     </row>
-    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -9945,7 +9945,7 @@
       <c r="AA295" s="2"/>
       <c r="AB295" s="2"/>
     </row>
-    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -9975,7 +9975,7 @@
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
     </row>
-    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -10005,7 +10005,7 @@
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
     </row>
-    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -10035,7 +10035,7 @@
       <c r="AA298" s="2"/>
       <c r="AB298" s="2"/>
     </row>
-    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -10065,7 +10065,7 @@
       <c r="AA299" s="2"/>
       <c r="AB299" s="2"/>
     </row>
-    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -10095,7 +10095,7 @@
       <c r="AA300" s="2"/>
       <c r="AB300" s="2"/>
     </row>
-    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -10125,7 +10125,7 @@
       <c r="AA301" s="2"/>
       <c r="AB301" s="2"/>
     </row>
-    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -10155,7 +10155,7 @@
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
     </row>
-    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -10185,7 +10185,7 @@
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
     </row>
-    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -10215,7 +10215,7 @@
       <c r="AA304" s="2"/>
       <c r="AB304" s="2"/>
     </row>
-    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -10245,7 +10245,7 @@
       <c r="AA305" s="2"/>
       <c r="AB305" s="2"/>
     </row>
-    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -10275,7 +10275,7 @@
       <c r="AA306" s="2"/>
       <c r="AB306" s="2"/>
     </row>
-    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -10305,7 +10305,7 @@
       <c r="AA307" s="2"/>
       <c r="AB307" s="2"/>
     </row>
-    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -10335,7 +10335,7 @@
       <c r="AA308" s="2"/>
       <c r="AB308" s="2"/>
     </row>
-    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -10365,7 +10365,7 @@
       <c r="AA309" s="2"/>
       <c r="AB309" s="2"/>
     </row>
-    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -10395,7 +10395,7 @@
       <c r="AA310" s="2"/>
       <c r="AB310" s="2"/>
     </row>
-    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -10425,7 +10425,7 @@
       <c r="AA311" s="2"/>
       <c r="AB311" s="2"/>
     </row>
-    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -10455,7 +10455,7 @@
       <c r="AA312" s="2"/>
       <c r="AB312" s="2"/>
     </row>
-    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10485,7 +10485,7 @@
       <c r="AA313" s="2"/>
       <c r="AB313" s="2"/>
     </row>
-    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -10515,7 +10515,7 @@
       <c r="AA314" s="2"/>
       <c r="AB314" s="2"/>
     </row>
-    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10545,7 +10545,7 @@
       <c r="AA315" s="2"/>
       <c r="AB315" s="2"/>
     </row>
-    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10575,7 +10575,7 @@
       <c r="AA316" s="2"/>
       <c r="AB316" s="2"/>
     </row>
-    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10605,7 +10605,7 @@
       <c r="AA317" s="2"/>
       <c r="AB317" s="2"/>
     </row>
-    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10635,7 +10635,7 @@
       <c r="AA318" s="2"/>
       <c r="AB318" s="2"/>
     </row>
-    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10665,7 +10665,7 @@
       <c r="AA319" s="2"/>
       <c r="AB319" s="2"/>
     </row>
-    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10695,7 +10695,7 @@
       <c r="AA320" s="2"/>
       <c r="AB320" s="2"/>
     </row>
-    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10725,7 +10725,7 @@
       <c r="AA321" s="2"/>
       <c r="AB321" s="2"/>
     </row>
-    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10755,7 +10755,7 @@
       <c r="AA322" s="2"/>
       <c r="AB322" s="2"/>
     </row>
-    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10785,7 +10785,7 @@
       <c r="AA323" s="2"/>
       <c r="AB323" s="2"/>
     </row>
-    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10815,7 +10815,7 @@
       <c r="AA324" s="2"/>
       <c r="AB324" s="2"/>
     </row>
-    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10845,7 +10845,7 @@
       <c r="AA325" s="2"/>
       <c r="AB325" s="2"/>
     </row>
-    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10875,7 +10875,7 @@
       <c r="AA326" s="2"/>
       <c r="AB326" s="2"/>
     </row>
-    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10905,7 +10905,7 @@
       <c r="AA327" s="2"/>
       <c r="AB327" s="2"/>
     </row>
-    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10935,7 +10935,7 @@
       <c r="AA328" s="2"/>
       <c r="AB328" s="2"/>
     </row>
-    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10965,7 +10965,7 @@
       <c r="AA329" s="2"/>
       <c r="AB329" s="2"/>
     </row>
-    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10995,7 +10995,7 @@
       <c r="AA330" s="2"/>
       <c r="AB330" s="2"/>
     </row>
-    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -11025,7 +11025,7 @@
       <c r="AA331" s="2"/>
       <c r="AB331" s="2"/>
     </row>
-    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -11055,7 +11055,7 @@
       <c r="AA332" s="2"/>
       <c r="AB332" s="2"/>
     </row>
-    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -11085,7 +11085,7 @@
       <c r="AA333" s="2"/>
       <c r="AB333" s="2"/>
     </row>
-    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -11115,7 +11115,7 @@
       <c r="AA334" s="2"/>
       <c r="AB334" s="2"/>
     </row>
-    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -11145,7 +11145,7 @@
       <c r="AA335" s="2"/>
       <c r="AB335" s="2"/>
     </row>
-    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -11175,7 +11175,7 @@
       <c r="AA336" s="2"/>
       <c r="AB336" s="2"/>
     </row>
-    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -11205,7 +11205,7 @@
       <c r="AA337" s="2"/>
       <c r="AB337" s="2"/>
     </row>
-    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -11235,7 +11235,7 @@
       <c r="AA338" s="2"/>
       <c r="AB338" s="2"/>
     </row>
-    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -11265,7 +11265,7 @@
       <c r="AA339" s="2"/>
       <c r="AB339" s="2"/>
     </row>
-    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -11295,7 +11295,7 @@
       <c r="AA340" s="2"/>
       <c r="AB340" s="2"/>
     </row>
-    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -11325,7 +11325,7 @@
       <c r="AA341" s="2"/>
       <c r="AB341" s="2"/>
     </row>
-    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -11355,7 +11355,7 @@
       <c r="AA342" s="2"/>
       <c r="AB342" s="2"/>
     </row>
-    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -11385,7 +11385,7 @@
       <c r="AA343" s="2"/>
       <c r="AB343" s="2"/>
     </row>
-    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -11415,7 +11415,7 @@
       <c r="AA344" s="2"/>
       <c r="AB344" s="2"/>
     </row>
-    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -11445,7 +11445,7 @@
       <c r="AA345" s="2"/>
       <c r="AB345" s="2"/>
     </row>
-    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -11475,7 +11475,7 @@
       <c r="AA346" s="2"/>
       <c r="AB346" s="2"/>
     </row>
-    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -11505,7 +11505,7 @@
       <c r="AA347" s="2"/>
       <c r="AB347" s="2"/>
     </row>
-    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -11535,7 +11535,7 @@
       <c r="AA348" s="2"/>
       <c r="AB348" s="2"/>
     </row>
-    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -11565,7 +11565,7 @@
       <c r="AA349" s="2"/>
       <c r="AB349" s="2"/>
     </row>
-    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -11595,7 +11595,7 @@
       <c r="AA350" s="2"/>
       <c r="AB350" s="2"/>
     </row>
-    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11625,7 +11625,7 @@
       <c r="AA351" s="2"/>
       <c r="AB351" s="2"/>
     </row>
-    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11655,7 +11655,7 @@
       <c r="AA352" s="2"/>
       <c r="AB352" s="2"/>
     </row>
-    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11685,7 +11685,7 @@
       <c r="AA353" s="2"/>
       <c r="AB353" s="2"/>
     </row>
-    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11715,7 +11715,7 @@
       <c r="AA354" s="2"/>
       <c r="AB354" s="2"/>
     </row>
-    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11745,7 +11745,7 @@
       <c r="AA355" s="2"/>
       <c r="AB355" s="2"/>
     </row>
-    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11775,7 +11775,7 @@
       <c r="AA356" s="2"/>
       <c r="AB356" s="2"/>
     </row>
-    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11805,7 +11805,7 @@
       <c r="AA357" s="2"/>
       <c r="AB357" s="2"/>
     </row>
-    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11835,7 +11835,7 @@
       <c r="AA358" s="2"/>
       <c r="AB358" s="2"/>
     </row>
-    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11865,7 +11865,7 @@
       <c r="AA359" s="2"/>
       <c r="AB359" s="2"/>
     </row>
-    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11895,7 +11895,7 @@
       <c r="AA360" s="2"/>
       <c r="AB360" s="2"/>
     </row>
-    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11925,7 +11925,7 @@
       <c r="AA361" s="2"/>
       <c r="AB361" s="2"/>
     </row>
-    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11955,7 +11955,7 @@
       <c r="AA362" s="2"/>
       <c r="AB362" s="2"/>
     </row>
-    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11985,7 +11985,7 @@
       <c r="AA363" s="2"/>
       <c r="AB363" s="2"/>
     </row>
-    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -12015,7 +12015,7 @@
       <c r="AA364" s="2"/>
       <c r="AB364" s="2"/>
     </row>
-    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -12045,7 +12045,7 @@
       <c r="AA365" s="2"/>
       <c r="AB365" s="2"/>
     </row>
-    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -12075,7 +12075,7 @@
       <c r="AA366" s="2"/>
       <c r="AB366" s="2"/>
     </row>
-    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -12105,7 +12105,7 @@
       <c r="AA367" s="2"/>
       <c r="AB367" s="2"/>
     </row>
-    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -12135,7 +12135,7 @@
       <c r="AA368" s="2"/>
       <c r="AB368" s="2"/>
     </row>
-    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -12165,7 +12165,7 @@
       <c r="AA369" s="2"/>
       <c r="AB369" s="2"/>
     </row>
-    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -12195,7 +12195,7 @@
       <c r="AA370" s="2"/>
       <c r="AB370" s="2"/>
     </row>
-    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -12225,7 +12225,7 @@
       <c r="AA371" s="2"/>
       <c r="AB371" s="2"/>
     </row>
-    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -12255,7 +12255,7 @@
       <c r="AA372" s="2"/>
       <c r="AB372" s="2"/>
     </row>
-    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -12285,7 +12285,7 @@
       <c r="AA373" s="2"/>
       <c r="AB373" s="2"/>
     </row>
-    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -12315,7 +12315,7 @@
       <c r="AA374" s="2"/>
       <c r="AB374" s="2"/>
     </row>
-    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -12345,7 +12345,7 @@
       <c r="AA375" s="2"/>
       <c r="AB375" s="2"/>
     </row>
-    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -12375,7 +12375,7 @@
       <c r="AA376" s="2"/>
       <c r="AB376" s="2"/>
     </row>
-    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -12405,7 +12405,7 @@
       <c r="AA377" s="2"/>
       <c r="AB377" s="2"/>
     </row>
-    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -12435,7 +12435,7 @@
       <c r="AA378" s="2"/>
       <c r="AB378" s="2"/>
     </row>
-    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -12465,7 +12465,7 @@
       <c r="AA379" s="2"/>
       <c r="AB379" s="2"/>
     </row>
-    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -12495,7 +12495,7 @@
       <c r="AA380" s="2"/>
       <c r="AB380" s="2"/>
     </row>
-    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -12525,7 +12525,7 @@
       <c r="AA381" s="2"/>
       <c r="AB381" s="2"/>
     </row>
-    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -12555,7 +12555,7 @@
       <c r="AA382" s="2"/>
       <c r="AB382" s="2"/>
     </row>
-    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -12585,7 +12585,7 @@
       <c r="AA383" s="2"/>
       <c r="AB383" s="2"/>
     </row>
-    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -12615,7 +12615,7 @@
       <c r="AA384" s="2"/>
       <c r="AB384" s="2"/>
     </row>
-    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -12645,7 +12645,7 @@
       <c r="AA385" s="2"/>
       <c r="AB385" s="2"/>
     </row>
-    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -12675,7 +12675,7 @@
       <c r="AA386" s="2"/>
       <c r="AB386" s="2"/>
     </row>
-    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -12705,7 +12705,7 @@
       <c r="AA387" s="2"/>
       <c r="AB387" s="2"/>
     </row>
-    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -12735,7 +12735,7 @@
       <c r="AA388" s="2"/>
       <c r="AB388" s="2"/>
     </row>
-    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12765,7 +12765,7 @@
       <c r="AA389" s="2"/>
       <c r="AB389" s="2"/>
     </row>
-    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12795,7 +12795,7 @@
       <c r="AA390" s="2"/>
       <c r="AB390" s="2"/>
     </row>
-    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12825,7 +12825,7 @@
       <c r="AA391" s="2"/>
       <c r="AB391" s="2"/>
     </row>
-    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12855,7 +12855,7 @@
       <c r="AA392" s="2"/>
       <c r="AB392" s="2"/>
     </row>
-    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12885,7 +12885,7 @@
       <c r="AA393" s="2"/>
       <c r="AB393" s="2"/>
     </row>
-    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12915,7 +12915,7 @@
       <c r="AA394" s="2"/>
       <c r="AB394" s="2"/>
     </row>
-    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12945,7 +12945,7 @@
       <c r="AA395" s="2"/>
       <c r="AB395" s="2"/>
     </row>
-    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12975,7 +12975,7 @@
       <c r="AA396" s="2"/>
       <c r="AB396" s="2"/>
     </row>
-    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -13005,7 +13005,7 @@
       <c r="AA397" s="2"/>
       <c r="AB397" s="2"/>
     </row>
-    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -13035,7 +13035,7 @@
       <c r="AA398" s="2"/>
       <c r="AB398" s="2"/>
     </row>
-    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -13065,7 +13065,7 @@
       <c r="AA399" s="2"/>
       <c r="AB399" s="2"/>
     </row>
-    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -13095,7 +13095,7 @@
       <c r="AA400" s="2"/>
       <c r="AB400" s="2"/>
     </row>
-    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -13125,7 +13125,7 @@
       <c r="AA401" s="2"/>
       <c r="AB401" s="2"/>
     </row>
-    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -13155,7 +13155,7 @@
       <c r="AA402" s="2"/>
       <c r="AB402" s="2"/>
     </row>
-    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -13185,7 +13185,7 @@
       <c r="AA403" s="2"/>
       <c r="AB403" s="2"/>
     </row>
-    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -13215,7 +13215,7 @@
       <c r="AA404" s="2"/>
       <c r="AB404" s="2"/>
     </row>
-    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -13245,7 +13245,7 @@
       <c r="AA405" s="2"/>
       <c r="AB405" s="2"/>
     </row>
-    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -13275,7 +13275,7 @@
       <c r="AA406" s="2"/>
       <c r="AB406" s="2"/>
     </row>
-    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -13305,7 +13305,7 @@
       <c r="AA407" s="2"/>
       <c r="AB407" s="2"/>
     </row>
-    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -13335,7 +13335,7 @@
       <c r="AA408" s="2"/>
       <c r="AB408" s="2"/>
     </row>
-    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -13365,7 +13365,7 @@
       <c r="AA409" s="2"/>
       <c r="AB409" s="2"/>
     </row>
-    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -13395,7 +13395,7 @@
       <c r="AA410" s="2"/>
       <c r="AB410" s="2"/>
     </row>
-    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -13425,7 +13425,7 @@
       <c r="AA411" s="2"/>
       <c r="AB411" s="2"/>
     </row>
-    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -13455,7 +13455,7 @@
       <c r="AA412" s="2"/>
       <c r="AB412" s="2"/>
     </row>
-    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -13485,7 +13485,7 @@
       <c r="AA413" s="2"/>
       <c r="AB413" s="2"/>
     </row>
-    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -13515,7 +13515,7 @@
       <c r="AA414" s="2"/>
       <c r="AB414" s="2"/>
     </row>
-    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -13545,7 +13545,7 @@
       <c r="AA415" s="2"/>
       <c r="AB415" s="2"/>
     </row>
-    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -13575,7 +13575,7 @@
       <c r="AA416" s="2"/>
       <c r="AB416" s="2"/>
     </row>
-    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -13605,7 +13605,7 @@
       <c r="AA417" s="2"/>
       <c r="AB417" s="2"/>
     </row>
-    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -13635,7 +13635,7 @@
       <c r="AA418" s="2"/>
       <c r="AB418" s="2"/>
     </row>
-    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -13665,7 +13665,7 @@
       <c r="AA419" s="2"/>
       <c r="AB419" s="2"/>
     </row>
-    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -13695,7 +13695,7 @@
       <c r="AA420" s="2"/>
       <c r="AB420" s="2"/>
     </row>
-    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -13725,7 +13725,7 @@
       <c r="AA421" s="2"/>
       <c r="AB421" s="2"/>
     </row>
-    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -13755,7 +13755,7 @@
       <c r="AA422" s="2"/>
       <c r="AB422" s="2"/>
     </row>
-    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -13785,7 +13785,7 @@
       <c r="AA423" s="2"/>
       <c r="AB423" s="2"/>
     </row>
-    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -13815,7 +13815,7 @@
       <c r="AA424" s="2"/>
       <c r="AB424" s="2"/>
     </row>
-    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -13845,7 +13845,7 @@
       <c r="AA425" s="2"/>
       <c r="AB425" s="2"/>
     </row>
-    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -13875,7 +13875,7 @@
       <c r="AA426" s="2"/>
       <c r="AB426" s="2"/>
     </row>
-    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13905,7 +13905,7 @@
       <c r="AA427" s="2"/>
       <c r="AB427" s="2"/>
     </row>
-    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13935,7 +13935,7 @@
       <c r="AA428" s="2"/>
       <c r="AB428" s="2"/>
     </row>
-    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13965,7 +13965,7 @@
       <c r="AA429" s="2"/>
       <c r="AB429" s="2"/>
     </row>
-    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13995,7 +13995,7 @@
       <c r="AA430" s="2"/>
       <c r="AB430" s="2"/>
     </row>
-    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -14025,7 +14025,7 @@
       <c r="AA431" s="2"/>
       <c r="AB431" s="2"/>
     </row>
-    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -14055,7 +14055,7 @@
       <c r="AA432" s="2"/>
       <c r="AB432" s="2"/>
     </row>
-    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -14085,7 +14085,7 @@
       <c r="AA433" s="2"/>
       <c r="AB433" s="2"/>
     </row>
-    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -14115,7 +14115,7 @@
       <c r="AA434" s="2"/>
       <c r="AB434" s="2"/>
     </row>
-    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -14145,7 +14145,7 @@
       <c r="AA435" s="2"/>
       <c r="AB435" s="2"/>
     </row>
-    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -14175,7 +14175,7 @@
       <c r="AA436" s="2"/>
       <c r="AB436" s="2"/>
     </row>
-    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -14205,7 +14205,7 @@
       <c r="AA437" s="2"/>
       <c r="AB437" s="2"/>
     </row>
-    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -14235,7 +14235,7 @@
       <c r="AA438" s="2"/>
       <c r="AB438" s="2"/>
     </row>
-    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -14265,7 +14265,7 @@
       <c r="AA439" s="2"/>
       <c r="AB439" s="2"/>
     </row>
-    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -14295,7 +14295,7 @@
       <c r="AA440" s="2"/>
       <c r="AB440" s="2"/>
     </row>
-    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -14325,7 +14325,7 @@
       <c r="AA441" s="2"/>
       <c r="AB441" s="2"/>
     </row>
-    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -14355,7 +14355,7 @@
       <c r="AA442" s="2"/>
       <c r="AB442" s="2"/>
     </row>
-    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -14385,7 +14385,7 @@
       <c r="AA443" s="2"/>
       <c r="AB443" s="2"/>
     </row>
-    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -14415,7 +14415,7 @@
       <c r="AA444" s="2"/>
       <c r="AB444" s="2"/>
     </row>
-    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -14445,7 +14445,7 @@
       <c r="AA445" s="2"/>
       <c r="AB445" s="2"/>
     </row>
-    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -14475,7 +14475,7 @@
       <c r="AA446" s="2"/>
       <c r="AB446" s="2"/>
     </row>
-    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -14505,7 +14505,7 @@
       <c r="AA447" s="2"/>
       <c r="AB447" s="2"/>
     </row>
-    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -14535,7 +14535,7 @@
       <c r="AA448" s="2"/>
       <c r="AB448" s="2"/>
     </row>
-    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -14565,7 +14565,7 @@
       <c r="AA449" s="2"/>
       <c r="AB449" s="2"/>
     </row>
-    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -14595,7 +14595,7 @@
       <c r="AA450" s="2"/>
       <c r="AB450" s="2"/>
     </row>
-    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -14625,7 +14625,7 @@
       <c r="AA451" s="2"/>
       <c r="AB451" s="2"/>
     </row>
-    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -14655,7 +14655,7 @@
       <c r="AA452" s="2"/>
       <c r="AB452" s="2"/>
     </row>
-    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -14685,7 +14685,7 @@
       <c r="AA453" s="2"/>
       <c r="AB453" s="2"/>
     </row>
-    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -14715,7 +14715,7 @@
       <c r="AA454" s="2"/>
       <c r="AB454" s="2"/>
     </row>
-    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -14745,7 +14745,7 @@
       <c r="AA455" s="2"/>
       <c r="AB455" s="2"/>
     </row>
-    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -14775,7 +14775,7 @@
       <c r="AA456" s="2"/>
       <c r="AB456" s="2"/>
     </row>
-    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -14805,7 +14805,7 @@
       <c r="AA457" s="2"/>
       <c r="AB457" s="2"/>
     </row>
-    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -14835,7 +14835,7 @@
       <c r="AA458" s="2"/>
       <c r="AB458" s="2"/>
     </row>
-    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -14865,7 +14865,7 @@
       <c r="AA459" s="2"/>
       <c r="AB459" s="2"/>
     </row>
-    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -14895,7 +14895,7 @@
       <c r="AA460" s="2"/>
       <c r="AB460" s="2"/>
     </row>
-    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -14925,7 +14925,7 @@
       <c r="AA461" s="2"/>
       <c r="AB461" s="2"/>
     </row>
-    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -14955,7 +14955,7 @@
       <c r="AA462" s="2"/>
       <c r="AB462" s="2"/>
     </row>
-    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -14985,7 +14985,7 @@
       <c r="AA463" s="2"/>
       <c r="AB463" s="2"/>
     </row>
-    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -15015,7 +15015,7 @@
       <c r="AA464" s="2"/>
       <c r="AB464" s="2"/>
     </row>
-    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -15045,7 +15045,7 @@
       <c r="AA465" s="2"/>
       <c r="AB465" s="2"/>
     </row>
-    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -15075,7 +15075,7 @@
       <c r="AA466" s="2"/>
       <c r="AB466" s="2"/>
     </row>
-    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -15105,7 +15105,7 @@
       <c r="AA467" s="2"/>
       <c r="AB467" s="2"/>
     </row>
-    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -15135,7 +15135,7 @@
       <c r="AA468" s="2"/>
       <c r="AB468" s="2"/>
     </row>
-    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -15165,7 +15165,7 @@
       <c r="AA469" s="2"/>
       <c r="AB469" s="2"/>
     </row>
-    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -15195,7 +15195,7 @@
       <c r="AA470" s="2"/>
       <c r="AB470" s="2"/>
     </row>
-    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -15225,7 +15225,7 @@
       <c r="AA471" s="2"/>
       <c r="AB471" s="2"/>
     </row>
-    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -15255,7 +15255,7 @@
       <c r="AA472" s="2"/>
       <c r="AB472" s="2"/>
     </row>
-    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -15285,7 +15285,7 @@
       <c r="AA473" s="2"/>
       <c r="AB473" s="2"/>
     </row>
-    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -15315,7 +15315,7 @@
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
     </row>
-    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -15345,7 +15345,7 @@
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
     </row>
-    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -15375,7 +15375,7 @@
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
     </row>
-    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -15405,7 +15405,7 @@
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
     </row>
-    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -15435,7 +15435,7 @@
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
     </row>
-    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -15465,7 +15465,7 @@
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
     </row>
-    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -15495,7 +15495,7 @@
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
     </row>
-    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -15525,7 +15525,7 @@
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
     </row>
-    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -15555,7 +15555,7 @@
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
     </row>
-    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -15585,7 +15585,7 @@
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
     </row>
-    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -15615,7 +15615,7 @@
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
     </row>
-    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -15645,7 +15645,7 @@
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
     </row>
-    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -15675,7 +15675,7 @@
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
     </row>
-    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -15705,7 +15705,7 @@
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
     </row>
-    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -15735,7 +15735,7 @@
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
     </row>
-    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -15765,7 +15765,7 @@
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
     </row>
-    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -15795,7 +15795,7 @@
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
     </row>
-    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -15825,7 +15825,7 @@
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
     </row>
-    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -15855,7 +15855,7 @@
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
     </row>
-    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -15885,7 +15885,7 @@
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
     </row>
-    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -15915,7 +15915,7 @@
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
     </row>
-    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -15945,7 +15945,7 @@
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
     </row>
-    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -15975,7 +15975,7 @@
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
     </row>
-    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -16005,7 +16005,7 @@
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
     </row>
-    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -16035,7 +16035,7 @@
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
     </row>
-    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -16065,7 +16065,7 @@
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
     </row>
-    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -16095,7 +16095,7 @@
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
     </row>
-    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -16125,7 +16125,7 @@
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
     </row>
-    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -16155,7 +16155,7 @@
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
     </row>
-    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -16185,7 +16185,7 @@
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
     </row>
-    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -16215,7 +16215,7 @@
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
     </row>
-    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -16245,7 +16245,7 @@
       <c r="AA505" s="2"/>
       <c r="AB505" s="2"/>
     </row>
-    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -16275,7 +16275,7 @@
       <c r="AA506" s="2"/>
       <c r="AB506" s="2"/>
     </row>
-    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -16305,7 +16305,7 @@
       <c r="AA507" s="2"/>
       <c r="AB507" s="2"/>
     </row>
-    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -16335,7 +16335,7 @@
       <c r="AA508" s="2"/>
       <c r="AB508" s="2"/>
     </row>
-    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -16365,7 +16365,7 @@
       <c r="AA509" s="2"/>
       <c r="AB509" s="2"/>
     </row>
-    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -16395,7 +16395,7 @@
       <c r="AA510" s="2"/>
       <c r="AB510" s="2"/>
     </row>
-    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -16425,7 +16425,7 @@
       <c r="AA511" s="2"/>
       <c r="AB511" s="2"/>
     </row>
-    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -16455,7 +16455,7 @@
       <c r="AA512" s="2"/>
       <c r="AB512" s="2"/>
     </row>
-    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -16485,7 +16485,7 @@
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
     </row>
-    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -16515,7 +16515,7 @@
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
     </row>
-    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -16545,7 +16545,7 @@
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
     </row>
-    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -16575,7 +16575,7 @@
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
     </row>
-    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -16605,7 +16605,7 @@
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -16635,7 +16635,7 @@
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
     </row>
-    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -16665,7 +16665,7 @@
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
     </row>
-    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -16695,7 +16695,7 @@
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
     </row>
-    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -16725,7 +16725,7 @@
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
     </row>
-    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -16755,7 +16755,7 @@
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
     </row>
-    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -16785,7 +16785,7 @@
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
     </row>
-    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -16815,7 +16815,7 @@
       <c r="AA524" s="2"/>
       <c r="AB524" s="2"/>
     </row>
-    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -16845,7 +16845,7 @@
       <c r="AA525" s="2"/>
       <c r="AB525" s="2"/>
     </row>
-    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -16875,7 +16875,7 @@
       <c r="AA526" s="2"/>
       <c r="AB526" s="2"/>
     </row>
-    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -16905,7 +16905,7 @@
       <c r="AA527" s="2"/>
       <c r="AB527" s="2"/>
     </row>
-    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -16935,7 +16935,7 @@
       <c r="AA528" s="2"/>
       <c r="AB528" s="2"/>
     </row>
-    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -16965,7 +16965,7 @@
       <c r="AA529" s="2"/>
       <c r="AB529" s="2"/>
     </row>
-    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -16995,7 +16995,7 @@
       <c r="AA530" s="2"/>
       <c r="AB530" s="2"/>
     </row>
-    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -17025,7 +17025,7 @@
       <c r="AA531" s="2"/>
       <c r="AB531" s="2"/>
     </row>
-    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -17055,7 +17055,7 @@
       <c r="AA532" s="2"/>
       <c r="AB532" s="2"/>
     </row>
-    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -17085,7 +17085,7 @@
       <c r="AA533" s="2"/>
       <c r="AB533" s="2"/>
     </row>
-    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -17115,7 +17115,7 @@
       <c r="AA534" s="2"/>
       <c r="AB534" s="2"/>
     </row>
-    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -17145,7 +17145,7 @@
       <c r="AA535" s="2"/>
       <c r="AB535" s="2"/>
     </row>
-    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -17175,7 +17175,7 @@
       <c r="AA536" s="2"/>
       <c r="AB536" s="2"/>
     </row>
-    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -17205,7 +17205,7 @@
       <c r="AA537" s="2"/>
       <c r="AB537" s="2"/>
     </row>
-    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -17235,7 +17235,7 @@
       <c r="AA538" s="2"/>
       <c r="AB538" s="2"/>
     </row>
-    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -17265,7 +17265,7 @@
       <c r="AA539" s="2"/>
       <c r="AB539" s="2"/>
     </row>
-    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -17295,7 +17295,7 @@
       <c r="AA540" s="2"/>
       <c r="AB540" s="2"/>
     </row>
-    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -17325,7 +17325,7 @@
       <c r="AA541" s="2"/>
       <c r="AB541" s="2"/>
     </row>
-    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -17355,7 +17355,7 @@
       <c r="AA542" s="2"/>
       <c r="AB542" s="2"/>
     </row>
-    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -17385,7 +17385,7 @@
       <c r="AA543" s="2"/>
       <c r="AB543" s="2"/>
     </row>
-    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -17415,7 +17415,7 @@
       <c r="AA544" s="2"/>
       <c r="AB544" s="2"/>
     </row>
-    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -17445,7 +17445,7 @@
       <c r="AA545" s="2"/>
       <c r="AB545" s="2"/>
     </row>
-    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -17475,7 +17475,7 @@
       <c r="AA546" s="2"/>
       <c r="AB546" s="2"/>
     </row>
-    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -17505,7 +17505,7 @@
       <c r="AA547" s="2"/>
       <c r="AB547" s="2"/>
     </row>
-    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -17535,7 +17535,7 @@
       <c r="AA548" s="2"/>
       <c r="AB548" s="2"/>
     </row>
-    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -17565,7 +17565,7 @@
       <c r="AA549" s="2"/>
       <c r="AB549" s="2"/>
     </row>
-    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -17595,7 +17595,7 @@
       <c r="AA550" s="2"/>
       <c r="AB550" s="2"/>
     </row>
-    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -17625,7 +17625,7 @@
       <c r="AA551" s="2"/>
       <c r="AB551" s="2"/>
     </row>
-    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -17655,7 +17655,7 @@
       <c r="AA552" s="2"/>
       <c r="AB552" s="2"/>
     </row>
-    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -17685,7 +17685,7 @@
       <c r="AA553" s="2"/>
       <c r="AB553" s="2"/>
     </row>
-    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -17715,7 +17715,7 @@
       <c r="AA554" s="2"/>
       <c r="AB554" s="2"/>
     </row>
-    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -17745,7 +17745,7 @@
       <c r="AA555" s="2"/>
       <c r="AB555" s="2"/>
     </row>
-    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -17775,7 +17775,7 @@
       <c r="AA556" s="2"/>
       <c r="AB556" s="2"/>
     </row>
-    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -17805,7 +17805,7 @@
       <c r="AA557" s="2"/>
       <c r="AB557" s="2"/>
     </row>
-    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -17835,7 +17835,7 @@
       <c r="AA558" s="2"/>
       <c r="AB558" s="2"/>
     </row>
-    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -17865,7 +17865,7 @@
       <c r="AA559" s="2"/>
       <c r="AB559" s="2"/>
     </row>
-    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -17895,7 +17895,7 @@
       <c r="AA560" s="2"/>
       <c r="AB560" s="2"/>
     </row>
-    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -17925,7 +17925,7 @@
       <c r="AA561" s="2"/>
       <c r="AB561" s="2"/>
     </row>
-    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -17955,7 +17955,7 @@
       <c r="AA562" s="2"/>
       <c r="AB562" s="2"/>
     </row>
-    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -17985,7 +17985,7 @@
       <c r="AA563" s="2"/>
       <c r="AB563" s="2"/>
     </row>
-    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -18015,7 +18015,7 @@
       <c r="AA564" s="2"/>
       <c r="AB564" s="2"/>
     </row>
-    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -18045,7 +18045,7 @@
       <c r="AA565" s="2"/>
       <c r="AB565" s="2"/>
     </row>
-    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -18075,7 +18075,7 @@
       <c r="AA566" s="2"/>
       <c r="AB566" s="2"/>
     </row>
-    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -18105,7 +18105,7 @@
       <c r="AA567" s="2"/>
       <c r="AB567" s="2"/>
     </row>
-    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -18135,7 +18135,7 @@
       <c r="AA568" s="2"/>
       <c r="AB568" s="2"/>
     </row>
-    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -18165,7 +18165,7 @@
       <c r="AA569" s="2"/>
       <c r="AB569" s="2"/>
     </row>
-    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -18195,7 +18195,7 @@
       <c r="AA570" s="2"/>
       <c r="AB570" s="2"/>
     </row>
-    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -18225,7 +18225,7 @@
       <c r="AA571" s="2"/>
       <c r="AB571" s="2"/>
     </row>
-    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -18255,7 +18255,7 @@
       <c r="AA572" s="2"/>
       <c r="AB572" s="2"/>
     </row>
-    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -18285,7 +18285,7 @@
       <c r="AA573" s="2"/>
       <c r="AB573" s="2"/>
     </row>
-    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -18315,7 +18315,7 @@
       <c r="AA574" s="2"/>
       <c r="AB574" s="2"/>
     </row>
-    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -18345,7 +18345,7 @@
       <c r="AA575" s="2"/>
       <c r="AB575" s="2"/>
     </row>
-    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -18375,7 +18375,7 @@
       <c r="AA576" s="2"/>
       <c r="AB576" s="2"/>
     </row>
-    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -18405,7 +18405,7 @@
       <c r="AA577" s="2"/>
       <c r="AB577" s="2"/>
     </row>
-    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -18435,7 +18435,7 @@
       <c r="AA578" s="2"/>
       <c r="AB578" s="2"/>
     </row>
-    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -18465,7 +18465,7 @@
       <c r="AA579" s="2"/>
       <c r="AB579" s="2"/>
     </row>
-    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -18495,7 +18495,7 @@
       <c r="AA580" s="2"/>
       <c r="AB580" s="2"/>
     </row>
-    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -18525,7 +18525,7 @@
       <c r="AA581" s="2"/>
       <c r="AB581" s="2"/>
     </row>
-    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -18555,7 +18555,7 @@
       <c r="AA582" s="2"/>
       <c r="AB582" s="2"/>
     </row>
-    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -18585,7 +18585,7 @@
       <c r="AA583" s="2"/>
       <c r="AB583" s="2"/>
     </row>
-    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -18615,7 +18615,7 @@
       <c r="AA584" s="2"/>
       <c r="AB584" s="2"/>
     </row>
-    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -18645,7 +18645,7 @@
       <c r="AA585" s="2"/>
       <c r="AB585" s="2"/>
     </row>
-    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -18675,7 +18675,7 @@
       <c r="AA586" s="2"/>
       <c r="AB586" s="2"/>
     </row>
-    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -18705,7 +18705,7 @@
       <c r="AA587" s="2"/>
       <c r="AB587" s="2"/>
     </row>
-    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -18735,7 +18735,7 @@
       <c r="AA588" s="2"/>
       <c r="AB588" s="2"/>
     </row>
-    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -18765,7 +18765,7 @@
       <c r="AA589" s="2"/>
       <c r="AB589" s="2"/>
     </row>
-    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -18795,7 +18795,7 @@
       <c r="AA590" s="2"/>
       <c r="AB590" s="2"/>
     </row>
-    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -18825,7 +18825,7 @@
       <c r="AA591" s="2"/>
       <c r="AB591" s="2"/>
     </row>
-    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -18855,7 +18855,7 @@
       <c r="AA592" s="2"/>
       <c r="AB592" s="2"/>
     </row>
-    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -18885,7 +18885,7 @@
       <c r="AA593" s="2"/>
       <c r="AB593" s="2"/>
     </row>
-    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -18915,7 +18915,7 @@
       <c r="AA594" s="2"/>
       <c r="AB594" s="2"/>
     </row>
-    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -18945,7 +18945,7 @@
       <c r="AA595" s="2"/>
       <c r="AB595" s="2"/>
     </row>
-    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -18975,7 +18975,7 @@
       <c r="AA596" s="2"/>
       <c r="AB596" s="2"/>
     </row>
-    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -19005,7 +19005,7 @@
       <c r="AA597" s="2"/>
       <c r="AB597" s="2"/>
     </row>
-    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -19035,7 +19035,7 @@
       <c r="AA598" s="2"/>
       <c r="AB598" s="2"/>
     </row>
-    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -19065,7 +19065,7 @@
       <c r="AA599" s="2"/>
       <c r="AB599" s="2"/>
     </row>
-    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -19095,7 +19095,7 @@
       <c r="AA600" s="2"/>
       <c r="AB600" s="2"/>
     </row>
-    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -19125,7 +19125,7 @@
       <c r="AA601" s="2"/>
       <c r="AB601" s="2"/>
     </row>
-    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -19155,7 +19155,7 @@
       <c r="AA602" s="2"/>
       <c r="AB602" s="2"/>
     </row>
-    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -19185,7 +19185,7 @@
       <c r="AA603" s="2"/>
       <c r="AB603" s="2"/>
     </row>
-    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -19215,7 +19215,7 @@
       <c r="AA604" s="2"/>
       <c r="AB604" s="2"/>
     </row>
-    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -19245,7 +19245,7 @@
       <c r="AA605" s="2"/>
       <c r="AB605" s="2"/>
     </row>
-    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -19275,7 +19275,7 @@
       <c r="AA606" s="2"/>
       <c r="AB606" s="2"/>
     </row>
-    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -19305,7 +19305,7 @@
       <c r="AA607" s="2"/>
       <c r="AB607" s="2"/>
     </row>
-    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -19335,7 +19335,7 @@
       <c r="AA608" s="2"/>
       <c r="AB608" s="2"/>
     </row>
-    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -19365,7 +19365,7 @@
       <c r="AA609" s="2"/>
       <c r="AB609" s="2"/>
     </row>
-    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -19395,7 +19395,7 @@
       <c r="AA610" s="2"/>
       <c r="AB610" s="2"/>
     </row>
-    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -19425,7 +19425,7 @@
       <c r="AA611" s="2"/>
       <c r="AB611" s="2"/>
     </row>
-    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -19455,7 +19455,7 @@
       <c r="AA612" s="2"/>
       <c r="AB612" s="2"/>
     </row>
-    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -19485,7 +19485,7 @@
       <c r="AA613" s="2"/>
       <c r="AB613" s="2"/>
     </row>
-    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -19515,7 +19515,7 @@
       <c r="AA614" s="2"/>
       <c r="AB614" s="2"/>
     </row>
-    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -19545,7 +19545,7 @@
       <c r="AA615" s="2"/>
       <c r="AB615" s="2"/>
     </row>
-    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -19575,7 +19575,7 @@
       <c r="AA616" s="2"/>
       <c r="AB616" s="2"/>
     </row>
-    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -19605,7 +19605,7 @@
       <c r="AA617" s="2"/>
       <c r="AB617" s="2"/>
     </row>
-    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -19635,7 +19635,7 @@
       <c r="AA618" s="2"/>
       <c r="AB618" s="2"/>
     </row>
-    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -19665,7 +19665,7 @@
       <c r="AA619" s="2"/>
       <c r="AB619" s="2"/>
     </row>
-    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -19695,7 +19695,7 @@
       <c r="AA620" s="2"/>
       <c r="AB620" s="2"/>
     </row>
-    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -19725,7 +19725,7 @@
       <c r="AA621" s="2"/>
       <c r="AB621" s="2"/>
     </row>
-    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -19755,7 +19755,7 @@
       <c r="AA622" s="2"/>
       <c r="AB622" s="2"/>
     </row>
-    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -19785,7 +19785,7 @@
       <c r="AA623" s="2"/>
       <c r="AB623" s="2"/>
     </row>
-    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -19815,7 +19815,7 @@
       <c r="AA624" s="2"/>
       <c r="AB624" s="2"/>
     </row>
-    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -19845,7 +19845,7 @@
       <c r="AA625" s="2"/>
       <c r="AB625" s="2"/>
     </row>
-    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -19875,7 +19875,7 @@
       <c r="AA626" s="2"/>
       <c r="AB626" s="2"/>
     </row>
-    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -19905,7 +19905,7 @@
       <c r="AA627" s="2"/>
       <c r="AB627" s="2"/>
     </row>
-    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -19935,7 +19935,7 @@
       <c r="AA628" s="2"/>
       <c r="AB628" s="2"/>
     </row>
-    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -19965,7 +19965,7 @@
       <c r="AA629" s="2"/>
       <c r="AB629" s="2"/>
     </row>
-    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -19995,7 +19995,7 @@
       <c r="AA630" s="2"/>
       <c r="AB630" s="2"/>
     </row>
-    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -20025,7 +20025,7 @@
       <c r="AA631" s="2"/>
       <c r="AB631" s="2"/>
     </row>
-    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -20055,7 +20055,7 @@
       <c r="AA632" s="2"/>
       <c r="AB632" s="2"/>
     </row>
-    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -20085,7 +20085,7 @@
       <c r="AA633" s="2"/>
       <c r="AB633" s="2"/>
     </row>
-    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -20115,7 +20115,7 @@
       <c r="AA634" s="2"/>
       <c r="AB634" s="2"/>
     </row>
-    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -20145,7 +20145,7 @@
       <c r="AA635" s="2"/>
       <c r="AB635" s="2"/>
     </row>
-    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -20175,7 +20175,7 @@
       <c r="AA636" s="2"/>
       <c r="AB636" s="2"/>
     </row>
-    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -20205,7 +20205,7 @@
       <c r="AA637" s="2"/>
       <c r="AB637" s="2"/>
     </row>
-    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -20235,7 +20235,7 @@
       <c r="AA638" s="2"/>
       <c r="AB638" s="2"/>
     </row>
-    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -20265,7 +20265,7 @@
       <c r="AA639" s="2"/>
       <c r="AB639" s="2"/>
     </row>
-    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -20295,7 +20295,7 @@
       <c r="AA640" s="2"/>
       <c r="AB640" s="2"/>
     </row>
-    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -20325,7 +20325,7 @@
       <c r="AA641" s="2"/>
       <c r="AB641" s="2"/>
     </row>
-    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -20355,7 +20355,7 @@
       <c r="AA642" s="2"/>
       <c r="AB642" s="2"/>
     </row>
-    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -20385,7 +20385,7 @@
       <c r="AA643" s="2"/>
       <c r="AB643" s="2"/>
     </row>
-    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -20415,7 +20415,7 @@
       <c r="AA644" s="2"/>
       <c r="AB644" s="2"/>
     </row>
-    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -20445,7 +20445,7 @@
       <c r="AA645" s="2"/>
       <c r="AB645" s="2"/>
     </row>
-    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -20475,7 +20475,7 @@
       <c r="AA646" s="2"/>
       <c r="AB646" s="2"/>
     </row>
-    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -20505,7 +20505,7 @@
       <c r="AA647" s="2"/>
       <c r="AB647" s="2"/>
     </row>
-    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -20535,7 +20535,7 @@
       <c r="AA648" s="2"/>
       <c r="AB648" s="2"/>
     </row>
-    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -20565,7 +20565,7 @@
       <c r="AA649" s="2"/>
       <c r="AB649" s="2"/>
     </row>
-    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -20595,7 +20595,7 @@
       <c r="AA650" s="2"/>
       <c r="AB650" s="2"/>
     </row>
-    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -20625,7 +20625,7 @@
       <c r="AA651" s="2"/>
       <c r="AB651" s="2"/>
     </row>
-    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -20655,7 +20655,7 @@
       <c r="AA652" s="2"/>
       <c r="AB652" s="2"/>
     </row>
-    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -20685,7 +20685,7 @@
       <c r="AA653" s="2"/>
       <c r="AB653" s="2"/>
     </row>
-    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -20715,7 +20715,7 @@
       <c r="AA654" s="2"/>
       <c r="AB654" s="2"/>
     </row>
-    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -20745,7 +20745,7 @@
       <c r="AA655" s="2"/>
       <c r="AB655" s="2"/>
     </row>
-    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -20775,7 +20775,7 @@
       <c r="AA656" s="2"/>
       <c r="AB656" s="2"/>
     </row>
-    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -20805,7 +20805,7 @@
       <c r="AA657" s="2"/>
       <c r="AB657" s="2"/>
     </row>
-    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -20835,7 +20835,7 @@
       <c r="AA658" s="2"/>
       <c r="AB658" s="2"/>
     </row>
-    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -20865,7 +20865,7 @@
       <c r="AA659" s="2"/>
       <c r="AB659" s="2"/>
     </row>
-    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -20895,7 +20895,7 @@
       <c r="AA660" s="2"/>
       <c r="AB660" s="2"/>
     </row>
-    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -20925,7 +20925,7 @@
       <c r="AA661" s="2"/>
       <c r="AB661" s="2"/>
     </row>
-    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -20955,7 +20955,7 @@
       <c r="AA662" s="2"/>
       <c r="AB662" s="2"/>
     </row>
-    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -20985,7 +20985,7 @@
       <c r="AA663" s="2"/>
       <c r="AB663" s="2"/>
     </row>
-    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -21015,7 +21015,7 @@
       <c r="AA664" s="2"/>
       <c r="AB664" s="2"/>
     </row>
-    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -21045,7 +21045,7 @@
       <c r="AA665" s="2"/>
       <c r="AB665" s="2"/>
     </row>
-    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -21075,7 +21075,7 @@
       <c r="AA666" s="2"/>
       <c r="AB666" s="2"/>
     </row>
-    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -21105,7 +21105,7 @@
       <c r="AA667" s="2"/>
       <c r="AB667" s="2"/>
     </row>
-    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -21135,7 +21135,7 @@
       <c r="AA668" s="2"/>
       <c r="AB668" s="2"/>
     </row>
-    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -21165,7 +21165,7 @@
       <c r="AA669" s="2"/>
       <c r="AB669" s="2"/>
     </row>
-    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -21195,7 +21195,7 @@
       <c r="AA670" s="2"/>
       <c r="AB670" s="2"/>
     </row>
-    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -21225,7 +21225,7 @@
       <c r="AA671" s="2"/>
       <c r="AB671" s="2"/>
     </row>
-    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -21255,7 +21255,7 @@
       <c r="AA672" s="2"/>
       <c r="AB672" s="2"/>
     </row>
-    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -21285,7 +21285,7 @@
       <c r="AA673" s="2"/>
       <c r="AB673" s="2"/>
     </row>
-    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -21315,7 +21315,7 @@
       <c r="AA674" s="2"/>
       <c r="AB674" s="2"/>
     </row>
-    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -21345,7 +21345,7 @@
       <c r="AA675" s="2"/>
       <c r="AB675" s="2"/>
     </row>
-    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -21375,7 +21375,7 @@
       <c r="AA676" s="2"/>
       <c r="AB676" s="2"/>
     </row>
-    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -21405,7 +21405,7 @@
       <c r="AA677" s="2"/>
       <c r="AB677" s="2"/>
     </row>
-    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -21435,7 +21435,7 @@
       <c r="AA678" s="2"/>
       <c r="AB678" s="2"/>
     </row>
-    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -21465,7 +21465,7 @@
       <c r="AA679" s="2"/>
       <c r="AB679" s="2"/>
     </row>
-    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -21495,7 +21495,7 @@
       <c r="AA680" s="2"/>
       <c r="AB680" s="2"/>
     </row>
-    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -21525,7 +21525,7 @@
       <c r="AA681" s="2"/>
       <c r="AB681" s="2"/>
     </row>
-    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -21555,7 +21555,7 @@
       <c r="AA682" s="2"/>
       <c r="AB682" s="2"/>
     </row>
-    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -21585,7 +21585,7 @@
       <c r="AA683" s="2"/>
       <c r="AB683" s="2"/>
     </row>
-    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -21615,7 +21615,7 @@
       <c r="AA684" s="2"/>
       <c r="AB684" s="2"/>
     </row>
-    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -21645,7 +21645,7 @@
       <c r="AA685" s="2"/>
       <c r="AB685" s="2"/>
     </row>
-    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -21675,7 +21675,7 @@
       <c r="AA686" s="2"/>
       <c r="AB686" s="2"/>
     </row>
-    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -21705,7 +21705,7 @@
       <c r="AA687" s="2"/>
       <c r="AB687" s="2"/>
     </row>
-    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -21735,7 +21735,7 @@
       <c r="AA688" s="2"/>
       <c r="AB688" s="2"/>
     </row>
-    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -21765,7 +21765,7 @@
       <c r="AA689" s="2"/>
       <c r="AB689" s="2"/>
     </row>
-    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -21795,7 +21795,7 @@
       <c r="AA690" s="2"/>
       <c r="AB690" s="2"/>
     </row>
-    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -21825,7 +21825,7 @@
       <c r="AA691" s="2"/>
       <c r="AB691" s="2"/>
     </row>
-    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -21855,7 +21855,7 @@
       <c r="AA692" s="2"/>
       <c r="AB692" s="2"/>
     </row>
-    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -21885,7 +21885,7 @@
       <c r="AA693" s="2"/>
       <c r="AB693" s="2"/>
     </row>
-    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -21915,7 +21915,7 @@
       <c r="AA694" s="2"/>
       <c r="AB694" s="2"/>
     </row>
-    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -21945,7 +21945,7 @@
       <c r="AA695" s="2"/>
       <c r="AB695" s="2"/>
     </row>
-    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -21975,7 +21975,7 @@
       <c r="AA696" s="2"/>
       <c r="AB696" s="2"/>
     </row>
-    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -22005,7 +22005,7 @@
       <c r="AA697" s="2"/>
       <c r="AB697" s="2"/>
     </row>
-    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -22035,7 +22035,7 @@
       <c r="AA698" s="2"/>
       <c r="AB698" s="2"/>
     </row>
-    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -22065,7 +22065,7 @@
       <c r="AA699" s="2"/>
       <c r="AB699" s="2"/>
     </row>
-    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -22095,7 +22095,7 @@
       <c r="AA700" s="2"/>
       <c r="AB700" s="2"/>
     </row>
-    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -22125,7 +22125,7 @@
       <c r="AA701" s="2"/>
       <c r="AB701" s="2"/>
     </row>
-    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -22155,7 +22155,7 @@
       <c r="AA702" s="2"/>
       <c r="AB702" s="2"/>
     </row>
-    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -22185,7 +22185,7 @@
       <c r="AA703" s="2"/>
       <c r="AB703" s="2"/>
     </row>
-    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -22215,7 +22215,7 @@
       <c r="AA704" s="2"/>
       <c r="AB704" s="2"/>
     </row>
-    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -22245,7 +22245,7 @@
       <c r="AA705" s="2"/>
       <c r="AB705" s="2"/>
     </row>
-    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -22275,7 +22275,7 @@
       <c r="AA706" s="2"/>
       <c r="AB706" s="2"/>
     </row>
-    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -22305,7 +22305,7 @@
       <c r="AA707" s="2"/>
       <c r="AB707" s="2"/>
     </row>
-    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -22335,7 +22335,7 @@
       <c r="AA708" s="2"/>
       <c r="AB708" s="2"/>
     </row>
-    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -22365,7 +22365,7 @@
       <c r="AA709" s="2"/>
       <c r="AB709" s="2"/>
     </row>
-    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -22395,7 +22395,7 @@
       <c r="AA710" s="2"/>
       <c r="AB710" s="2"/>
     </row>
-    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -22425,7 +22425,7 @@
       <c r="AA711" s="2"/>
       <c r="AB711" s="2"/>
     </row>
-    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -22455,7 +22455,7 @@
       <c r="AA712" s="2"/>
       <c r="AB712" s="2"/>
     </row>
-    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -22485,7 +22485,7 @@
       <c r="AA713" s="2"/>
       <c r="AB713" s="2"/>
     </row>
-    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -22515,7 +22515,7 @@
       <c r="AA714" s="2"/>
       <c r="AB714" s="2"/>
     </row>
-    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -22545,7 +22545,7 @@
       <c r="AA715" s="2"/>
       <c r="AB715" s="2"/>
     </row>
-    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -22575,7 +22575,7 @@
       <c r="AA716" s="2"/>
       <c r="AB716" s="2"/>
     </row>
-    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -22605,7 +22605,7 @@
       <c r="AA717" s="2"/>
       <c r="AB717" s="2"/>
     </row>
-    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -22635,7 +22635,7 @@
       <c r="AA718" s="2"/>
       <c r="AB718" s="2"/>
     </row>
-    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -22665,7 +22665,7 @@
       <c r="AA719" s="2"/>
       <c r="AB719" s="2"/>
     </row>
-    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -22695,7 +22695,7 @@
       <c r="AA720" s="2"/>
       <c r="AB720" s="2"/>
     </row>
-    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -22725,7 +22725,7 @@
       <c r="AA721" s="2"/>
       <c r="AB721" s="2"/>
     </row>
-    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -22755,7 +22755,7 @@
       <c r="AA722" s="2"/>
       <c r="AB722" s="2"/>
     </row>
-    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -22785,7 +22785,7 @@
       <c r="AA723" s="2"/>
       <c r="AB723" s="2"/>
     </row>
-    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -22815,7 +22815,7 @@
       <c r="AA724" s="2"/>
       <c r="AB724" s="2"/>
     </row>
-    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -22845,7 +22845,7 @@
       <c r="AA725" s="2"/>
       <c r="AB725" s="2"/>
     </row>
-    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -22875,7 +22875,7 @@
       <c r="AA726" s="2"/>
       <c r="AB726" s="2"/>
     </row>
-    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -22905,7 +22905,7 @@
       <c r="AA727" s="2"/>
       <c r="AB727" s="2"/>
     </row>
-    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -22935,7 +22935,7 @@
       <c r="AA728" s="2"/>
       <c r="AB728" s="2"/>
     </row>
-    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -22965,7 +22965,7 @@
       <c r="AA729" s="2"/>
       <c r="AB729" s="2"/>
     </row>
-    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -22995,7 +22995,7 @@
       <c r="AA730" s="2"/>
       <c r="AB730" s="2"/>
     </row>
-    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -23025,7 +23025,7 @@
       <c r="AA731" s="2"/>
       <c r="AB731" s="2"/>
     </row>
-    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -23055,7 +23055,7 @@
       <c r="AA732" s="2"/>
       <c r="AB732" s="2"/>
     </row>
-    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -23085,7 +23085,7 @@
       <c r="AA733" s="2"/>
       <c r="AB733" s="2"/>
     </row>
-    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -23115,7 +23115,7 @@
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
     </row>
-    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -23145,7 +23145,7 @@
       <c r="AA735" s="2"/>
       <c r="AB735" s="2"/>
     </row>
-    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -23175,7 +23175,7 @@
       <c r="AA736" s="2"/>
       <c r="AB736" s="2"/>
     </row>
-    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -23205,7 +23205,7 @@
       <c r="AA737" s="2"/>
       <c r="AB737" s="2"/>
     </row>
-    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -23235,7 +23235,7 @@
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -23265,7 +23265,7 @@
       <c r="AA739" s="2"/>
       <c r="AB739" s="2"/>
     </row>
-    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -23295,7 +23295,7 @@
       <c r="AA740" s="2"/>
       <c r="AB740" s="2"/>
     </row>
-    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -23325,7 +23325,7 @@
       <c r="AA741" s="2"/>
       <c r="AB741" s="2"/>
     </row>
-    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -23355,7 +23355,7 @@
       <c r="AA742" s="2"/>
       <c r="AB742" s="2"/>
     </row>
-    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -23385,7 +23385,7 @@
       <c r="AA743" s="2"/>
       <c r="AB743" s="2"/>
     </row>
-    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -23415,7 +23415,7 @@
       <c r="AA744" s="2"/>
       <c r="AB744" s="2"/>
     </row>
-    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -23445,7 +23445,7 @@
       <c r="AA745" s="2"/>
       <c r="AB745" s="2"/>
     </row>
-    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -23475,7 +23475,7 @@
       <c r="AA746" s="2"/>
       <c r="AB746" s="2"/>
     </row>
-    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -23505,7 +23505,7 @@
       <c r="AA747" s="2"/>
       <c r="AB747" s="2"/>
     </row>
-    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -23535,7 +23535,7 @@
       <c r="AA748" s="2"/>
       <c r="AB748" s="2"/>
     </row>
-    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -23565,7 +23565,7 @@
       <c r="AA749" s="2"/>
       <c r="AB749" s="2"/>
     </row>
-    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -23595,7 +23595,7 @@
       <c r="AA750" s="2"/>
       <c r="AB750" s="2"/>
     </row>
-    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -23625,7 +23625,7 @@
       <c r="AA751" s="2"/>
       <c r="AB751" s="2"/>
     </row>
-    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -23655,7 +23655,7 @@
       <c r="AA752" s="2"/>
       <c r="AB752" s="2"/>
     </row>
-    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -23685,7 +23685,7 @@
       <c r="AA753" s="2"/>
       <c r="AB753" s="2"/>
     </row>
-    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -23715,7 +23715,7 @@
       <c r="AA754" s="2"/>
       <c r="AB754" s="2"/>
     </row>
-    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -23745,7 +23745,7 @@
       <c r="AA755" s="2"/>
       <c r="AB755" s="2"/>
     </row>
-    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -23775,7 +23775,7 @@
       <c r="AA756" s="2"/>
       <c r="AB756" s="2"/>
     </row>
-    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -23805,7 +23805,7 @@
       <c r="AA757" s="2"/>
       <c r="AB757" s="2"/>
     </row>
-    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -23835,7 +23835,7 @@
       <c r="AA758" s="2"/>
       <c r="AB758" s="2"/>
     </row>
-    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -23865,7 +23865,7 @@
       <c r="AA759" s="2"/>
       <c r="AB759" s="2"/>
     </row>
-    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -23895,7 +23895,7 @@
       <c r="AA760" s="2"/>
       <c r="AB760" s="2"/>
     </row>
-    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -23925,7 +23925,7 @@
       <c r="AA761" s="2"/>
       <c r="AB761" s="2"/>
     </row>
-    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -23955,7 +23955,7 @@
       <c r="AA762" s="2"/>
       <c r="AB762" s="2"/>
     </row>
-    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -23985,7 +23985,7 @@
       <c r="AA763" s="2"/>
       <c r="AB763" s="2"/>
     </row>
-    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -24015,7 +24015,7 @@
       <c r="AA764" s="2"/>
       <c r="AB764" s="2"/>
     </row>
-    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -24045,7 +24045,7 @@
       <c r="AA765" s="2"/>
       <c r="AB765" s="2"/>
     </row>
-    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -24075,7 +24075,7 @@
       <c r="AA766" s="2"/>
       <c r="AB766" s="2"/>
     </row>
-    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -24105,7 +24105,7 @@
       <c r="AA767" s="2"/>
       <c r="AB767" s="2"/>
     </row>
-    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -24135,7 +24135,7 @@
       <c r="AA768" s="2"/>
       <c r="AB768" s="2"/>
     </row>
-    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -24165,7 +24165,7 @@
       <c r="AA769" s="2"/>
       <c r="AB769" s="2"/>
     </row>
-    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -24195,7 +24195,7 @@
       <c r="AA770" s="2"/>
       <c r="AB770" s="2"/>
     </row>
-    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -24225,7 +24225,7 @@
       <c r="AA771" s="2"/>
       <c r="AB771" s="2"/>
     </row>
-    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -24255,7 +24255,7 @@
       <c r="AA772" s="2"/>
       <c r="AB772" s="2"/>
     </row>
-    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -24285,7 +24285,7 @@
       <c r="AA773" s="2"/>
       <c r="AB773" s="2"/>
     </row>
-    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -24315,7 +24315,7 @@
       <c r="AA774" s="2"/>
       <c r="AB774" s="2"/>
     </row>
-    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -24345,7 +24345,7 @@
       <c r="AA775" s="2"/>
       <c r="AB775" s="2"/>
     </row>
-    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -24375,7 +24375,7 @@
       <c r="AA776" s="2"/>
       <c r="AB776" s="2"/>
     </row>
-    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -24405,7 +24405,7 @@
       <c r="AA777" s="2"/>
       <c r="AB777" s="2"/>
     </row>
-    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -24435,7 +24435,7 @@
       <c r="AA778" s="2"/>
       <c r="AB778" s="2"/>
     </row>
-    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -24465,7 +24465,7 @@
       <c r="AA779" s="2"/>
       <c r="AB779" s="2"/>
     </row>
-    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -24495,7 +24495,7 @@
       <c r="AA780" s="2"/>
       <c r="AB780" s="2"/>
     </row>
-    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -24525,7 +24525,7 @@
       <c r="AA781" s="2"/>
       <c r="AB781" s="2"/>
     </row>
-    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -24555,7 +24555,7 @@
       <c r="AA782" s="2"/>
       <c r="AB782" s="2"/>
     </row>
-    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -24585,7 +24585,7 @@
       <c r="AA783" s="2"/>
       <c r="AB783" s="2"/>
     </row>
-    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -24615,7 +24615,7 @@
       <c r="AA784" s="2"/>
       <c r="AB784" s="2"/>
     </row>
-    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -24645,7 +24645,7 @@
       <c r="AA785" s="2"/>
       <c r="AB785" s="2"/>
     </row>
-    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -24675,7 +24675,7 @@
       <c r="AA786" s="2"/>
       <c r="AB786" s="2"/>
     </row>
-    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -24705,7 +24705,7 @@
       <c r="AA787" s="2"/>
       <c r="AB787" s="2"/>
     </row>
-    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -24735,7 +24735,7 @@
       <c r="AA788" s="2"/>
       <c r="AB788" s="2"/>
     </row>
-    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -24765,7 +24765,7 @@
       <c r="AA789" s="2"/>
       <c r="AB789" s="2"/>
     </row>
-    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -24795,7 +24795,7 @@
       <c r="AA790" s="2"/>
       <c r="AB790" s="2"/>
     </row>
-    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -24825,7 +24825,7 @@
       <c r="AA791" s="2"/>
       <c r="AB791" s="2"/>
     </row>
-    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -24855,7 +24855,7 @@
       <c r="AA792" s="2"/>
       <c r="AB792" s="2"/>
     </row>
-    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -24885,7 +24885,7 @@
       <c r="AA793" s="2"/>
       <c r="AB793" s="2"/>
     </row>
-    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -24915,7 +24915,7 @@
       <c r="AA794" s="2"/>
       <c r="AB794" s="2"/>
     </row>
-    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -24945,7 +24945,7 @@
       <c r="AA795" s="2"/>
       <c r="AB795" s="2"/>
     </row>
-    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -24975,7 +24975,7 @@
       <c r="AA796" s="2"/>
       <c r="AB796" s="2"/>
     </row>
-    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -25005,7 +25005,7 @@
       <c r="AA797" s="2"/>
       <c r="AB797" s="2"/>
     </row>
-    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -25035,7 +25035,7 @@
       <c r="AA798" s="2"/>
       <c r="AB798" s="2"/>
     </row>
-    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -25065,7 +25065,7 @@
       <c r="AA799" s="2"/>
       <c r="AB799" s="2"/>
     </row>
-    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -25095,7 +25095,7 @@
       <c r="AA800" s="2"/>
       <c r="AB800" s="2"/>
     </row>
-    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -25125,7 +25125,7 @@
       <c r="AA801" s="2"/>
       <c r="AB801" s="2"/>
     </row>
-    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -25155,7 +25155,7 @@
       <c r="AA802" s="2"/>
       <c r="AB802" s="2"/>
     </row>
-    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -25185,7 +25185,7 @@
       <c r="AA803" s="2"/>
       <c r="AB803" s="2"/>
     </row>
-    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -25215,7 +25215,7 @@
       <c r="AA804" s="2"/>
       <c r="AB804" s="2"/>
     </row>
-    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -25245,7 +25245,7 @@
       <c r="AA805" s="2"/>
       <c r="AB805" s="2"/>
     </row>
-    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -25275,7 +25275,7 @@
       <c r="AA806" s="2"/>
       <c r="AB806" s="2"/>
     </row>
-    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -25305,7 +25305,7 @@
       <c r="AA807" s="2"/>
       <c r="AB807" s="2"/>
     </row>
-    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -25335,7 +25335,7 @@
       <c r="AA808" s="2"/>
       <c r="AB808" s="2"/>
     </row>
-    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -25365,7 +25365,7 @@
       <c r="AA809" s="2"/>
       <c r="AB809" s="2"/>
     </row>
-    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -25395,7 +25395,7 @@
       <c r="AA810" s="2"/>
       <c r="AB810" s="2"/>
     </row>
-    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -25425,7 +25425,7 @@
       <c r="AA811" s="2"/>
       <c r="AB811" s="2"/>
     </row>
-    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -25455,7 +25455,7 @@
       <c r="AA812" s="2"/>
       <c r="AB812" s="2"/>
     </row>
-    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -25485,7 +25485,7 @@
       <c r="AA813" s="2"/>
       <c r="AB813" s="2"/>
     </row>
-    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -25515,7 +25515,7 @@
       <c r="AA814" s="2"/>
       <c r="AB814" s="2"/>
     </row>
-    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -25545,7 +25545,7 @@
       <c r="AA815" s="2"/>
       <c r="AB815" s="2"/>
     </row>
-    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -25575,7 +25575,7 @@
       <c r="AA816" s="2"/>
       <c r="AB816" s="2"/>
     </row>
-    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -25605,7 +25605,7 @@
       <c r="AA817" s="2"/>
       <c r="AB817" s="2"/>
     </row>
-    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -25635,7 +25635,7 @@
       <c r="AA818" s="2"/>
       <c r="AB818" s="2"/>
     </row>
-    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -25665,7 +25665,7 @@
       <c r="AA819" s="2"/>
       <c r="AB819" s="2"/>
     </row>
-    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -25695,7 +25695,7 @@
       <c r="AA820" s="2"/>
       <c r="AB820" s="2"/>
     </row>
-    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -25725,7 +25725,7 @@
       <c r="AA821" s="2"/>
       <c r="AB821" s="2"/>
     </row>
-    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -25755,7 +25755,7 @@
       <c r="AA822" s="2"/>
       <c r="AB822" s="2"/>
     </row>
-    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -25785,7 +25785,7 @@
       <c r="AA823" s="2"/>
       <c r="AB823" s="2"/>
     </row>
-    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -25815,7 +25815,7 @@
       <c r="AA824" s="2"/>
       <c r="AB824" s="2"/>
     </row>
-    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -25845,7 +25845,7 @@
       <c r="AA825" s="2"/>
       <c r="AB825" s="2"/>
     </row>
-    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -25875,7 +25875,7 @@
       <c r="AA826" s="2"/>
       <c r="AB826" s="2"/>
     </row>
-    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -25905,7 +25905,7 @@
       <c r="AA827" s="2"/>
       <c r="AB827" s="2"/>
     </row>
-    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -25935,7 +25935,7 @@
       <c r="AA828" s="2"/>
       <c r="AB828" s="2"/>
     </row>
-    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -25965,7 +25965,7 @@
       <c r="AA829" s="2"/>
       <c r="AB829" s="2"/>
     </row>
-    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -25995,7 +25995,7 @@
       <c r="AA830" s="2"/>
       <c r="AB830" s="2"/>
     </row>
-    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -26025,7 +26025,7 @@
       <c r="AA831" s="2"/>
       <c r="AB831" s="2"/>
     </row>
-    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -26055,7 +26055,7 @@
       <c r="AA832" s="2"/>
       <c r="AB832" s="2"/>
     </row>
-    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -26085,7 +26085,7 @@
       <c r="AA833" s="2"/>
       <c r="AB833" s="2"/>
     </row>
-    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -26115,7 +26115,7 @@
       <c r="AA834" s="2"/>
       <c r="AB834" s="2"/>
     </row>
-    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -26145,7 +26145,7 @@
       <c r="AA835" s="2"/>
       <c r="AB835" s="2"/>
     </row>
-    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -26175,7 +26175,7 @@
       <c r="AA836" s="2"/>
       <c r="AB836" s="2"/>
     </row>
-    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -26205,7 +26205,7 @@
       <c r="AA837" s="2"/>
       <c r="AB837" s="2"/>
     </row>
-    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -26235,7 +26235,7 @@
       <c r="AA838" s="2"/>
       <c r="AB838" s="2"/>
     </row>
-    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -26265,7 +26265,7 @@
       <c r="AA839" s="2"/>
       <c r="AB839" s="2"/>
     </row>
-    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -26295,7 +26295,7 @@
       <c r="AA840" s="2"/>
       <c r="AB840" s="2"/>
     </row>
-    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -26325,7 +26325,7 @@
       <c r="AA841" s="2"/>
       <c r="AB841" s="2"/>
     </row>
-    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -26355,7 +26355,7 @@
       <c r="AA842" s="2"/>
       <c r="AB842" s="2"/>
     </row>
-    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -26385,7 +26385,7 @@
       <c r="AA843" s="2"/>
       <c r="AB843" s="2"/>
     </row>
-    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -26415,7 +26415,7 @@
       <c r="AA844" s="2"/>
       <c r="AB844" s="2"/>
     </row>
-    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -26445,7 +26445,7 @@
       <c r="AA845" s="2"/>
       <c r="AB845" s="2"/>
     </row>
-    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -26475,7 +26475,7 @@
       <c r="AA846" s="2"/>
       <c r="AB846" s="2"/>
     </row>
-    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -26505,7 +26505,7 @@
       <c r="AA847" s="2"/>
       <c r="AB847" s="2"/>
     </row>
-    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -26535,7 +26535,7 @@
       <c r="AA848" s="2"/>
       <c r="AB848" s="2"/>
     </row>
-    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -26565,7 +26565,7 @@
       <c r="AA849" s="2"/>
       <c r="AB849" s="2"/>
     </row>
-    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -26595,7 +26595,7 @@
       <c r="AA850" s="2"/>
       <c r="AB850" s="2"/>
     </row>
-    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -26625,7 +26625,7 @@
       <c r="AA851" s="2"/>
       <c r="AB851" s="2"/>
     </row>
-    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -26655,7 +26655,7 @@
       <c r="AA852" s="2"/>
       <c r="AB852" s="2"/>
     </row>
-    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -26685,7 +26685,7 @@
       <c r="AA853" s="2"/>
       <c r="AB853" s="2"/>
     </row>
-    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -26715,7 +26715,7 @@
       <c r="AA854" s="2"/>
       <c r="AB854" s="2"/>
     </row>
-    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -26745,7 +26745,7 @@
       <c r="AA855" s="2"/>
       <c r="AB855" s="2"/>
     </row>
-    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -26775,7 +26775,7 @@
       <c r="AA856" s="2"/>
       <c r="AB856" s="2"/>
     </row>
-    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -26805,7 +26805,7 @@
       <c r="AA857" s="2"/>
       <c r="AB857" s="2"/>
     </row>
-    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -26835,7 +26835,7 @@
       <c r="AA858" s="2"/>
       <c r="AB858" s="2"/>
     </row>
-    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -26865,7 +26865,7 @@
       <c r="AA859" s="2"/>
       <c r="AB859" s="2"/>
     </row>
-    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -26895,7 +26895,7 @@
       <c r="AA860" s="2"/>
       <c r="AB860" s="2"/>
     </row>
-    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -26925,7 +26925,7 @@
       <c r="AA861" s="2"/>
       <c r="AB861" s="2"/>
     </row>
-    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -26955,7 +26955,7 @@
       <c r="AA862" s="2"/>
       <c r="AB862" s="2"/>
     </row>
-    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -26985,7 +26985,7 @@
       <c r="AA863" s="2"/>
       <c r="AB863" s="2"/>
     </row>
-    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -27015,7 +27015,7 @@
       <c r="AA864" s="2"/>
       <c r="AB864" s="2"/>
     </row>
-    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -27045,7 +27045,7 @@
       <c r="AA865" s="2"/>
       <c r="AB865" s="2"/>
     </row>
-    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -27075,7 +27075,7 @@
       <c r="AA866" s="2"/>
       <c r="AB866" s="2"/>
     </row>
-    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -27105,7 +27105,7 @@
       <c r="AA867" s="2"/>
       <c r="AB867" s="2"/>
     </row>
-    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -27135,7 +27135,7 @@
       <c r="AA868" s="2"/>
       <c r="AB868" s="2"/>
     </row>
-    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -27165,7 +27165,7 @@
       <c r="AA869" s="2"/>
       <c r="AB869" s="2"/>
     </row>
-    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -27195,7 +27195,7 @@
       <c r="AA870" s="2"/>
       <c r="AB870" s="2"/>
     </row>
-    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -27225,7 +27225,7 @@
       <c r="AA871" s="2"/>
       <c r="AB871" s="2"/>
     </row>
-    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -27255,7 +27255,7 @@
       <c r="AA872" s="2"/>
       <c r="AB872" s="2"/>
     </row>
-    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -27285,7 +27285,7 @@
       <c r="AA873" s="2"/>
       <c r="AB873" s="2"/>
     </row>
-    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -27315,7 +27315,7 @@
       <c r="AA874" s="2"/>
       <c r="AB874" s="2"/>
     </row>
-    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -27345,7 +27345,7 @@
       <c r="AA875" s="2"/>
       <c r="AB875" s="2"/>
     </row>
-    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -27375,7 +27375,7 @@
       <c r="AA876" s="2"/>
       <c r="AB876" s="2"/>
     </row>
-    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -27405,7 +27405,7 @@
       <c r="AA877" s="2"/>
       <c r="AB877" s="2"/>
     </row>
-    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -27435,7 +27435,7 @@
       <c r="AA878" s="2"/>
       <c r="AB878" s="2"/>
     </row>
-    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -27465,7 +27465,7 @@
       <c r="AA879" s="2"/>
       <c r="AB879" s="2"/>
     </row>
-    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -27495,7 +27495,7 @@
       <c r="AA880" s="2"/>
       <c r="AB880" s="2"/>
     </row>
-    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -27525,7 +27525,7 @@
       <c r="AA881" s="2"/>
       <c r="AB881" s="2"/>
     </row>
-    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -27555,7 +27555,7 @@
       <c r="AA882" s="2"/>
       <c r="AB882" s="2"/>
     </row>
-    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -27585,7 +27585,7 @@
       <c r="AA883" s="2"/>
       <c r="AB883" s="2"/>
     </row>
-    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -27615,7 +27615,7 @@
       <c r="AA884" s="2"/>
       <c r="AB884" s="2"/>
     </row>
-    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -27645,7 +27645,7 @@
       <c r="AA885" s="2"/>
       <c r="AB885" s="2"/>
     </row>
-    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -27675,7 +27675,7 @@
       <c r="AA886" s="2"/>
       <c r="AB886" s="2"/>
     </row>
-    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -27705,7 +27705,7 @@
       <c r="AA887" s="2"/>
       <c r="AB887" s="2"/>
     </row>
-    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -27735,7 +27735,7 @@
       <c r="AA888" s="2"/>
       <c r="AB888" s="2"/>
     </row>
-    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -27765,7 +27765,7 @@
       <c r="AA889" s="2"/>
       <c r="AB889" s="2"/>
     </row>
-    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -27795,7 +27795,7 @@
       <c r="AA890" s="2"/>
       <c r="AB890" s="2"/>
     </row>
-    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -27825,7 +27825,7 @@
       <c r="AA891" s="2"/>
       <c r="AB891" s="2"/>
     </row>
-    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -27855,7 +27855,7 @@
       <c r="AA892" s="2"/>
       <c r="AB892" s="2"/>
     </row>
-    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -27885,7 +27885,7 @@
       <c r="AA893" s="2"/>
       <c r="AB893" s="2"/>
     </row>
-    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -27915,7 +27915,7 @@
       <c r="AA894" s="2"/>
       <c r="AB894" s="2"/>
     </row>
-    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -27945,7 +27945,7 @@
       <c r="AA895" s="2"/>
       <c r="AB895" s="2"/>
     </row>
-    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -27975,7 +27975,7 @@
       <c r="AA896" s="2"/>
       <c r="AB896" s="2"/>
     </row>
-    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -28005,7 +28005,7 @@
       <c r="AA897" s="2"/>
       <c r="AB897" s="2"/>
     </row>
-    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -28035,7 +28035,7 @@
       <c r="AA898" s="2"/>
       <c r="AB898" s="2"/>
     </row>
-    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -28065,7 +28065,7 @@
       <c r="AA899" s="2"/>
       <c r="AB899" s="2"/>
     </row>
-    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -28095,7 +28095,7 @@
       <c r="AA900" s="2"/>
       <c r="AB900" s="2"/>
     </row>
-    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -28125,7 +28125,7 @@
       <c r="AA901" s="2"/>
       <c r="AB901" s="2"/>
     </row>
-    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -28155,7 +28155,7 @@
       <c r="AA902" s="2"/>
       <c r="AB902" s="2"/>
     </row>
-    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -28185,7 +28185,7 @@
       <c r="AA903" s="2"/>
       <c r="AB903" s="2"/>
     </row>
-    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -28215,7 +28215,7 @@
       <c r="AA904" s="2"/>
       <c r="AB904" s="2"/>
     </row>
-    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -28245,7 +28245,7 @@
       <c r="AA905" s="2"/>
       <c r="AB905" s="2"/>
     </row>
-    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -28275,7 +28275,7 @@
       <c r="AA906" s="2"/>
       <c r="AB906" s="2"/>
     </row>
-    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -28305,7 +28305,7 @@
       <c r="AA907" s="2"/>
       <c r="AB907" s="2"/>
     </row>
-    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -28335,7 +28335,7 @@
       <c r="AA908" s="2"/>
       <c r="AB908" s="2"/>
     </row>
-    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -28365,7 +28365,7 @@
       <c r="AA909" s="2"/>
       <c r="AB909" s="2"/>
     </row>
-    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -28395,7 +28395,7 @@
       <c r="AA910" s="2"/>
       <c r="AB910" s="2"/>
     </row>
-    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -28425,7 +28425,7 @@
       <c r="AA911" s="2"/>
       <c r="AB911" s="2"/>
     </row>
-    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -28455,7 +28455,7 @@
       <c r="AA912" s="2"/>
       <c r="AB912" s="2"/>
     </row>
-    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -28485,7 +28485,7 @@
       <c r="AA913" s="2"/>
       <c r="AB913" s="2"/>
     </row>
-    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -28515,7 +28515,7 @@
       <c r="AA914" s="2"/>
       <c r="AB914" s="2"/>
     </row>
-    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -28545,7 +28545,7 @@
       <c r="AA915" s="2"/>
       <c r="AB915" s="2"/>
     </row>
-    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -28575,7 +28575,7 @@
       <c r="AA916" s="2"/>
       <c r="AB916" s="2"/>
     </row>
-    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -28605,7 +28605,7 @@
       <c r="AA917" s="2"/>
       <c r="AB917" s="2"/>
     </row>
-    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -28635,7 +28635,7 @@
       <c r="AA918" s="2"/>
       <c r="AB918" s="2"/>
     </row>
-    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -28665,7 +28665,7 @@
       <c r="AA919" s="2"/>
       <c r="AB919" s="2"/>
     </row>
-    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -28695,7 +28695,7 @@
       <c r="AA920" s="2"/>
       <c r="AB920" s="2"/>
     </row>
-    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -28725,7 +28725,7 @@
       <c r="AA921" s="2"/>
       <c r="AB921" s="2"/>
     </row>
-    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -28755,7 +28755,7 @@
       <c r="AA922" s="2"/>
       <c r="AB922" s="2"/>
     </row>
-    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -28785,7 +28785,7 @@
       <c r="AA923" s="2"/>
       <c r="AB923" s="2"/>
     </row>
-    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -28815,7 +28815,7 @@
       <c r="AA924" s="2"/>
       <c r="AB924" s="2"/>
     </row>
-    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -28845,7 +28845,7 @@
       <c r="AA925" s="2"/>
       <c r="AB925" s="2"/>
     </row>
-    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -28875,7 +28875,7 @@
       <c r="AA926" s="2"/>
       <c r="AB926" s="2"/>
     </row>
-    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -28905,7 +28905,7 @@
       <c r="AA927" s="2"/>
       <c r="AB927" s="2"/>
     </row>
-    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -28935,7 +28935,7 @@
       <c r="AA928" s="2"/>
       <c r="AB928" s="2"/>
     </row>
-    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -28965,7 +28965,7 @@
       <c r="AA929" s="2"/>
       <c r="AB929" s="2"/>
     </row>
-    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -28995,7 +28995,7 @@
       <c r="AA930" s="2"/>
       <c r="AB930" s="2"/>
     </row>
-    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -29025,7 +29025,7 @@
       <c r="AA931" s="2"/>
       <c r="AB931" s="2"/>
     </row>
-    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -29055,7 +29055,7 @@
       <c r="AA932" s="2"/>
       <c r="AB932" s="2"/>
     </row>
-    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -29085,7 +29085,7 @@
       <c r="AA933" s="2"/>
       <c r="AB933" s="2"/>
     </row>
-    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -29115,7 +29115,7 @@
       <c r="AA934" s="2"/>
       <c r="AB934" s="2"/>
     </row>
-    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -29145,7 +29145,7 @@
       <c r="AA935" s="2"/>
       <c r="AB935" s="2"/>
     </row>
-    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -29175,7 +29175,7 @@
       <c r="AA936" s="2"/>
       <c r="AB936" s="2"/>
     </row>
-    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -29205,7 +29205,7 @@
       <c r="AA937" s="2"/>
       <c r="AB937" s="2"/>
     </row>
-    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -29235,7 +29235,7 @@
       <c r="AA938" s="2"/>
       <c r="AB938" s="2"/>
     </row>
-    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -29265,7 +29265,7 @@
       <c r="AA939" s="2"/>
       <c r="AB939" s="2"/>
     </row>
-    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -29295,7 +29295,7 @@
       <c r="AA940" s="2"/>
       <c r="AB940" s="2"/>
     </row>
-    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -29325,7 +29325,7 @@
       <c r="AA941" s="2"/>
       <c r="AB941" s="2"/>
     </row>
-    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -29355,7 +29355,7 @@
       <c r="AA942" s="2"/>
       <c r="AB942" s="2"/>
     </row>
-    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -29385,7 +29385,7 @@
       <c r="AA943" s="2"/>
       <c r="AB943" s="2"/>
     </row>
-    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -29415,7 +29415,7 @@
       <c r="AA944" s="2"/>
       <c r="AB944" s="2"/>
     </row>
-    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -29445,7 +29445,7 @@
       <c r="AA945" s="2"/>
       <c r="AB945" s="2"/>
     </row>
-    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -29475,7 +29475,7 @@
       <c r="AA946" s="2"/>
       <c r="AB946" s="2"/>
     </row>
-    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -29505,7 +29505,7 @@
       <c r="AA947" s="2"/>
       <c r="AB947" s="2"/>
     </row>
-    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -29535,7 +29535,7 @@
       <c r="AA948" s="2"/>
       <c r="AB948" s="2"/>
     </row>
-    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -29565,7 +29565,7 @@
       <c r="AA949" s="2"/>
       <c r="AB949" s="2"/>
     </row>
-    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -29595,7 +29595,7 @@
       <c r="AA950" s="2"/>
       <c r="AB950" s="2"/>
     </row>
-    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -29625,7 +29625,7 @@
       <c r="AA951" s="2"/>
       <c r="AB951" s="2"/>
     </row>
-    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -29655,7 +29655,7 @@
       <c r="AA952" s="2"/>
       <c r="AB952" s="2"/>
     </row>
-    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -29685,7 +29685,7 @@
       <c r="AA953" s="2"/>
       <c r="AB953" s="2"/>
     </row>
-    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -29715,7 +29715,7 @@
       <c r="AA954" s="2"/>
       <c r="AB954" s="2"/>
     </row>
-    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -29745,7 +29745,7 @@
       <c r="AA955" s="2"/>
       <c r="AB955" s="2"/>
     </row>
-    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -29775,7 +29775,7 @@
       <c r="AA956" s="2"/>
       <c r="AB956" s="2"/>
     </row>
-    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -29805,7 +29805,7 @@
       <c r="AA957" s="2"/>
       <c r="AB957" s="2"/>
     </row>
-    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -29835,7 +29835,7 @@
       <c r="AA958" s="2"/>
       <c r="AB958" s="2"/>
     </row>
-    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
@@ -29865,7 +29865,7 @@
       <c r="AA959" s="2"/>
       <c r="AB959" s="2"/>
     </row>
-    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
@@ -29895,7 +29895,7 @@
       <c r="AA960" s="2"/>
       <c r="AB960" s="2"/>
     </row>
-    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
@@ -29925,7 +29925,7 @@
       <c r="AA961" s="2"/>
       <c r="AB961" s="2"/>
     </row>
-    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
@@ -29955,7 +29955,7 @@
       <c r="AA962" s="2"/>
       <c r="AB962" s="2"/>
     </row>
-    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
@@ -29985,7 +29985,7 @@
       <c r="AA963" s="2"/>
       <c r="AB963" s="2"/>
     </row>
-    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
@@ -30015,7 +30015,7 @@
       <c r="AA964" s="2"/>
       <c r="AB964" s="2"/>
     </row>
-    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
@@ -30045,7 +30045,7 @@
       <c r="AA965" s="2"/>
       <c r="AB965" s="2"/>
     </row>
-    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
@@ -30075,7 +30075,7 @@
       <c r="AA966" s="2"/>
       <c r="AB966" s="2"/>
     </row>
-    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
@@ -30105,7 +30105,7 @@
       <c r="AA967" s="2"/>
       <c r="AB967" s="2"/>
     </row>
-    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
@@ -30135,7 +30135,7 @@
       <c r="AA968" s="2"/>
       <c r="AB968" s="2"/>
     </row>
-    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
@@ -30165,7 +30165,7 @@
       <c r="AA969" s="2"/>
       <c r="AB969" s="2"/>
     </row>
-    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
@@ -30195,7 +30195,7 @@
       <c r="AA970" s="2"/>
       <c r="AB970" s="2"/>
     </row>
-    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
@@ -30225,7 +30225,7 @@
       <c r="AA971" s="2"/>
       <c r="AB971" s="2"/>
     </row>
-    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
@@ -30255,7 +30255,7 @@
       <c r="AA972" s="2"/>
       <c r="AB972" s="2"/>
     </row>
-    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
@@ -30285,7 +30285,7 @@
       <c r="AA973" s="2"/>
       <c r="AB973" s="2"/>
     </row>
-    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
@@ -30315,7 +30315,7 @@
       <c r="AA974" s="2"/>
       <c r="AB974" s="2"/>
     </row>
-    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
@@ -30345,7 +30345,7 @@
       <c r="AA975" s="2"/>
       <c r="AB975" s="2"/>
     </row>
-    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
@@ -30375,7 +30375,7 @@
       <c r="AA976" s="2"/>
       <c r="AB976" s="2"/>
     </row>
-    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
@@ -30405,7 +30405,7 @@
       <c r="AA977" s="2"/>
       <c r="AB977" s="2"/>
     </row>
-    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
@@ -30435,7 +30435,7 @@
       <c r="AA978" s="2"/>
       <c r="AB978" s="2"/>
     </row>
-    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
@@ -30465,7 +30465,7 @@
       <c r="AA979" s="2"/>
       <c r="AB979" s="2"/>
     </row>
-    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
@@ -30495,7 +30495,7 @@
       <c r="AA980" s="2"/>
       <c r="AB980" s="2"/>
     </row>
-    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
@@ -30525,7 +30525,7 @@
       <c r="AA981" s="2"/>
       <c r="AB981" s="2"/>
     </row>
-    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
@@ -30555,7 +30555,7 @@
       <c r="AA982" s="2"/>
       <c r="AB982" s="2"/>
     </row>
-    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
@@ -30585,7 +30585,7 @@
       <c r="AA983" s="2"/>
       <c r="AB983" s="2"/>
     </row>
-    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
@@ -30615,7 +30615,7 @@
       <c r="AA984" s="2"/>
       <c r="AB984" s="2"/>
     </row>
-    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
@@ -30645,7 +30645,7 @@
       <c r="AA985" s="2"/>
       <c r="AB985" s="2"/>
     </row>
-    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
@@ -30675,7 +30675,7 @@
       <c r="AA986" s="2"/>
       <c r="AB986" s="2"/>
     </row>
-    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
@@ -30705,7 +30705,7 @@
       <c r="AA987" s="2"/>
       <c r="AB987" s="2"/>
     </row>
-    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
@@ -30735,7 +30735,7 @@
       <c r="AA988" s="2"/>
       <c r="AB988" s="2"/>
     </row>
-    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
@@ -30765,7 +30765,7 @@
       <c r="AA989" s="2"/>
       <c r="AB989" s="2"/>
     </row>
-    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
@@ -30795,7 +30795,7 @@
       <c r="AA990" s="2"/>
       <c r="AB990" s="2"/>
     </row>
-    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
@@ -30825,7 +30825,7 @@
       <c r="AA991" s="2"/>
       <c r="AB991" s="2"/>
     </row>
-    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
@@ -30855,7 +30855,7 @@
       <c r="AA992" s="2"/>
       <c r="AB992" s="2"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
@@ -30885,7 +30885,7 @@
       <c r="AA993" s="2"/>
       <c r="AB993" s="2"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
@@ -30915,7 +30915,7 @@
       <c r="AA994" s="2"/>
       <c r="AB994" s="2"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
@@ -30945,7 +30945,7 @@
       <c r="AA995" s="2"/>
       <c r="AB995" s="2"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
@@ -30975,7 +30975,7 @@
       <c r="AA996" s="2"/>
       <c r="AB996" s="2"/>
     </row>
-    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
@@ -31005,7 +31005,7 @@
       <c r="AA997" s="2"/>
       <c r="AB997" s="2"/>
     </row>
-    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
@@ -31035,7 +31035,7 @@
       <c r="AA998" s="2"/>
       <c r="AB998" s="2"/>
     </row>
-    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
@@ -31065,7 +31065,7 @@
       <c r="AA999" s="2"/>
       <c r="AB999" s="2"/>
     </row>
-    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
@@ -31095,7 +31095,7 @@
       <c r="AA1000" s="2"/>
       <c r="AB1000" s="2"/>
     </row>
-    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
@@ -31125,7 +31125,7 @@
       <c r="AA1001" s="2"/>
       <c r="AB1001" s="2"/>
     </row>
-    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="9"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
@@ -31155,7 +31155,7 @@
       <c r="AA1002" s="2"/>
       <c r="AB1002" s="2"/>
     </row>
-    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="9"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
@@ -31185,7 +31185,7 @@
       <c r="AA1003" s="2"/>
       <c r="AB1003" s="2"/>
     </row>
-    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="9"/>
       <c r="B1004" s="9"/>
       <c r="C1004" s="9"/>
@@ -31215,7 +31215,7 @@
       <c r="AA1004" s="2"/>
       <c r="AB1004" s="2"/>
     </row>
-    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="9"/>
       <c r="B1005" s="9"/>
       <c r="C1005" s="9"/>
@@ -31259,21 +31259,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -31283,7 +31283,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -31303,12 +31303,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -31323,12 +31323,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -31343,7 +31343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>26</v>
       </c>
@@ -31360,13 +31360,13 @@
         <v>54</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -31374,7 +31374,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -31382,7 +31382,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -31390,7 +31390,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -31398,7 +31398,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
     </row>
   </sheetData>
@@ -31414,23 +31414,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -31438,7 +31438,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -31458,12 +31458,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -31472,18 +31472,18 @@
         <v>8</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -31492,18 +31492,18 @@
         <v>40</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
@@ -31512,18 +31512,18 @@
         <v>5</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="68.400000000000006" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>17</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -31532,18 +31532,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>27</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -31552,10 +31552,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admir\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\....HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -858,19 +858,19 @@
       <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="85.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="85.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="28" width="8.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="28" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>43</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1995,7 +1995,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2025,7 +2025,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2055,7 +2055,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2085,7 +2085,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2115,7 +2115,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2145,7 +2145,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2175,7 +2175,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2205,7 +2205,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2235,7 +2235,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2265,7 +2265,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2295,7 +2295,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2325,7 +2325,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2355,7 +2355,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2385,7 +2385,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2415,7 +2415,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2445,7 +2445,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2475,7 +2475,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2505,7 +2505,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2535,7 +2535,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2565,7 +2565,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2595,7 +2595,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2625,7 +2625,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2655,7 +2655,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2685,7 +2685,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2715,7 +2715,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2745,7 +2745,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2775,7 +2775,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2805,7 +2805,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2835,7 +2835,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2865,7 +2865,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2895,7 +2895,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2925,7 +2925,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2955,7 +2955,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2985,7 +2985,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3015,7 +3015,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3045,7 +3045,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3075,7 +3075,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3105,7 +3105,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3135,7 +3135,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3165,7 +3165,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3195,7 +3195,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3225,7 +3225,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3255,7 +3255,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3285,7 +3285,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3315,7 +3315,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3345,7 +3345,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3375,7 +3375,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3405,7 +3405,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3435,7 +3435,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3465,7 +3465,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3495,7 +3495,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3525,7 +3525,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3555,7 +3555,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3585,7 +3585,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3615,7 +3615,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3645,7 +3645,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3675,7 +3675,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3705,7 +3705,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3735,7 +3735,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -3765,7 +3765,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3795,7 +3795,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3825,7 +3825,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3855,7 +3855,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3885,7 +3885,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3915,7 +3915,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3945,7 +3945,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3975,7 +3975,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4005,7 +4005,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4035,7 +4035,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4065,7 +4065,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4095,7 +4095,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4125,7 +4125,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4155,7 +4155,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4185,7 +4185,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4215,7 +4215,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4245,7 +4245,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4275,7 +4275,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4305,7 +4305,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4335,7 +4335,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4365,7 +4365,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4395,7 +4395,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4425,7 +4425,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4455,7 +4455,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4485,7 +4485,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4515,7 +4515,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4545,7 +4545,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4575,7 +4575,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4605,7 +4605,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4635,7 +4635,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -4665,7 +4665,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -4695,7 +4695,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -4725,7 +4725,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -4755,7 +4755,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -4785,7 +4785,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -4815,7 +4815,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4845,7 +4845,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -4875,7 +4875,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -4905,7 +4905,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -4935,7 +4935,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -4965,7 +4965,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -4995,7 +4995,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5025,7 +5025,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5055,7 +5055,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5085,7 +5085,7 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5115,7 +5115,7 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5145,7 +5145,7 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5175,7 +5175,7 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5205,7 +5205,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5235,7 +5235,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -5265,7 +5265,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5295,7 +5295,7 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5325,7 +5325,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5355,7 +5355,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5385,7 +5385,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5415,7 +5415,7 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5445,7 +5445,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5475,7 +5475,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5505,7 +5505,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5535,7 +5535,7 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5565,7 +5565,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5595,7 +5595,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5625,7 +5625,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5655,7 +5655,7 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5685,7 +5685,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -5715,7 +5715,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5745,7 +5745,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -5775,7 +5775,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5805,7 +5805,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5835,7 +5835,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5865,7 +5865,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5895,7 +5895,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5925,7 +5925,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5955,7 +5955,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5985,7 +5985,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -6015,7 +6015,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -6045,7 +6045,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -6075,7 +6075,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -6105,7 +6105,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -6135,7 +6135,7 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6165,7 +6165,7 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6195,7 +6195,7 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6225,7 +6225,7 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6255,7 +6255,7 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -6285,7 +6285,7 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6315,7 +6315,7 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -6345,7 +6345,7 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6375,7 +6375,7 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6405,7 +6405,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6435,7 +6435,7 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6465,7 +6465,7 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6495,7 +6495,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6525,7 +6525,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6555,7 +6555,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6585,7 +6585,7 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6615,7 +6615,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6645,7 +6645,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6675,7 +6675,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6705,7 +6705,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6735,7 +6735,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6765,7 +6765,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6795,7 +6795,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6825,7 +6825,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6855,7 +6855,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6885,7 +6885,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6915,7 +6915,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6945,7 +6945,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6975,7 +6975,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -7005,7 +7005,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -7035,7 +7035,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -7065,7 +7065,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -7095,7 +7095,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -7125,7 +7125,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -7155,7 +7155,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7185,7 +7185,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -7215,7 +7215,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7245,7 +7245,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7275,7 +7275,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7305,7 +7305,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7335,7 +7335,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7365,7 +7365,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7395,7 +7395,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7425,7 +7425,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7455,7 +7455,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -7485,7 +7485,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7515,7 +7515,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -7545,7 +7545,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7575,7 +7575,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7605,7 +7605,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7635,7 +7635,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7665,7 +7665,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -7695,7 +7695,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7725,7 +7725,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7755,7 +7755,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7785,7 +7785,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7815,7 +7815,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7845,7 +7845,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7875,7 +7875,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7905,7 +7905,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7935,7 +7935,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -7965,7 +7965,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7995,7 +7995,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -8025,7 +8025,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -8055,7 +8055,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -8085,7 +8085,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -8115,7 +8115,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -8145,7 +8145,7 @@
       <c r="AA235" s="2"/>
       <c r="AB235" s="2"/>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -8175,7 +8175,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -8205,7 +8205,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -8235,7 +8235,7 @@
       <c r="AA238" s="2"/>
       <c r="AB238" s="2"/>
     </row>
-    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -8265,7 +8265,7 @@
       <c r="AA239" s="2"/>
       <c r="AB239" s="2"/>
     </row>
-    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -8295,7 +8295,7 @@
       <c r="AA240" s="2"/>
       <c r="AB240" s="2"/>
     </row>
-    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8325,7 +8325,7 @@
       <c r="AA241" s="2"/>
       <c r="AB241" s="2"/>
     </row>
-    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8355,7 +8355,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
     </row>
-    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8385,7 +8385,7 @@
       <c r="AA243" s="2"/>
       <c r="AB243" s="2"/>
     </row>
-    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -8415,7 +8415,7 @@
       <c r="AA244" s="2"/>
       <c r="AB244" s="2"/>
     </row>
-    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8445,7 +8445,7 @@
       <c r="AA245" s="2"/>
       <c r="AB245" s="2"/>
     </row>
-    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8475,7 +8475,7 @@
       <c r="AA246" s="2"/>
       <c r="AB246" s="2"/>
     </row>
-    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8505,7 +8505,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
     </row>
-    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -8535,7 +8535,7 @@
       <c r="AA248" s="2"/>
       <c r="AB248" s="2"/>
     </row>
-    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -8565,7 +8565,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
     </row>
-    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8595,7 +8595,7 @@
       <c r="AA250" s="2"/>
       <c r="AB250" s="2"/>
     </row>
-    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8625,7 +8625,7 @@
       <c r="AA251" s="2"/>
       <c r="AB251" s="2"/>
     </row>
-    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8655,7 +8655,7 @@
       <c r="AA252" s="2"/>
       <c r="AB252" s="2"/>
     </row>
-    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8685,7 +8685,7 @@
       <c r="AA253" s="2"/>
       <c r="AB253" s="2"/>
     </row>
-    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8715,7 +8715,7 @@
       <c r="AA254" s="2"/>
       <c r="AB254" s="2"/>
     </row>
-    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8745,7 +8745,7 @@
       <c r="AA255" s="2"/>
       <c r="AB255" s="2"/>
     </row>
-    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -8775,7 +8775,7 @@
       <c r="AA256" s="2"/>
       <c r="AB256" s="2"/>
     </row>
-    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8805,7 +8805,7 @@
       <c r="AA257" s="2"/>
       <c r="AB257" s="2"/>
     </row>
-    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8835,7 +8835,7 @@
       <c r="AA258" s="2"/>
       <c r="AB258" s="2"/>
     </row>
-    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -8865,7 +8865,7 @@
       <c r="AA259" s="2"/>
       <c r="AB259" s="2"/>
     </row>
-    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8895,7 +8895,7 @@
       <c r="AA260" s="2"/>
       <c r="AB260" s="2"/>
     </row>
-    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8925,7 +8925,7 @@
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
     </row>
-    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8955,7 +8955,7 @@
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
     </row>
-    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8985,7 +8985,7 @@
       <c r="AA263" s="2"/>
       <c r="AB263" s="2"/>
     </row>
-    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -9015,7 +9015,7 @@
       <c r="AA264" s="2"/>
       <c r="AB264" s="2"/>
     </row>
-    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -9045,7 +9045,7 @@
       <c r="AA265" s="2"/>
       <c r="AB265" s="2"/>
     </row>
-    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -9075,7 +9075,7 @@
       <c r="AA266" s="2"/>
       <c r="AB266" s="2"/>
     </row>
-    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -9105,7 +9105,7 @@
       <c r="AA267" s="2"/>
       <c r="AB267" s="2"/>
     </row>
-    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -9135,7 +9135,7 @@
       <c r="AA268" s="2"/>
       <c r="AB268" s="2"/>
     </row>
-    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -9165,7 +9165,7 @@
       <c r="AA269" s="2"/>
       <c r="AB269" s="2"/>
     </row>
-    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -9195,7 +9195,7 @@
       <c r="AA270" s="2"/>
       <c r="AB270" s="2"/>
     </row>
-    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -9225,7 +9225,7 @@
       <c r="AA271" s="2"/>
       <c r="AB271" s="2"/>
     </row>
-    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -9255,7 +9255,7 @@
       <c r="AA272" s="2"/>
       <c r="AB272" s="2"/>
     </row>
-    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -9285,7 +9285,7 @@
       <c r="AA273" s="2"/>
       <c r="AB273" s="2"/>
     </row>
-    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -9315,7 +9315,7 @@
       <c r="AA274" s="2"/>
       <c r="AB274" s="2"/>
     </row>
-    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -9345,7 +9345,7 @@
       <c r="AA275" s="2"/>
       <c r="AB275" s="2"/>
     </row>
-    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9375,7 +9375,7 @@
       <c r="AA276" s="2"/>
       <c r="AB276" s="2"/>
     </row>
-    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -9405,7 +9405,7 @@
       <c r="AA277" s="2"/>
       <c r="AB277" s="2"/>
     </row>
-    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -9435,7 +9435,7 @@
       <c r="AA278" s="2"/>
       <c r="AB278" s="2"/>
     </row>
-    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -9465,7 +9465,7 @@
       <c r="AA279" s="2"/>
       <c r="AB279" s="2"/>
     </row>
-    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -9495,7 +9495,7 @@
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
     </row>
-    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -9525,7 +9525,7 @@
       <c r="AA281" s="2"/>
       <c r="AB281" s="2"/>
     </row>
-    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9555,7 +9555,7 @@
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
     </row>
-    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -9585,7 +9585,7 @@
       <c r="AA283" s="2"/>
       <c r="AB283" s="2"/>
     </row>
-    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -9615,7 +9615,7 @@
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
     </row>
-    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9645,7 +9645,7 @@
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
     </row>
-    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9675,7 +9675,7 @@
       <c r="AA286" s="2"/>
       <c r="AB286" s="2"/>
     </row>
-    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9705,7 +9705,7 @@
       <c r="AA287" s="2"/>
       <c r="AB287" s="2"/>
     </row>
-    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9735,7 +9735,7 @@
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
     </row>
-    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9765,7 +9765,7 @@
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
     </row>
-    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9795,7 +9795,7 @@
       <c r="AA290" s="2"/>
       <c r="AB290" s="2"/>
     </row>
-    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9825,7 +9825,7 @@
       <c r="AA291" s="2"/>
       <c r="AB291" s="2"/>
     </row>
-    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9855,7 +9855,7 @@
       <c r="AA292" s="2"/>
       <c r="AB292" s="2"/>
     </row>
-    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9885,7 +9885,7 @@
       <c r="AA293" s="2"/>
       <c r="AB293" s="2"/>
     </row>
-    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -9915,7 +9915,7 @@
       <c r="AA294" s="2"/>
       <c r="AB294" s="2"/>
     </row>
-    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -9945,7 +9945,7 @@
       <c r="AA295" s="2"/>
       <c r="AB295" s="2"/>
     </row>
-    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -9975,7 +9975,7 @@
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
     </row>
-    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -10005,7 +10005,7 @@
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
     </row>
-    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -10035,7 +10035,7 @@
       <c r="AA298" s="2"/>
       <c r="AB298" s="2"/>
     </row>
-    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -10065,7 +10065,7 @@
       <c r="AA299" s="2"/>
       <c r="AB299" s="2"/>
     </row>
-    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -10095,7 +10095,7 @@
       <c r="AA300" s="2"/>
       <c r="AB300" s="2"/>
     </row>
-    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -10125,7 +10125,7 @@
       <c r="AA301" s="2"/>
       <c r="AB301" s="2"/>
     </row>
-    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -10155,7 +10155,7 @@
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
     </row>
-    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -10185,7 +10185,7 @@
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
     </row>
-    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -10215,7 +10215,7 @@
       <c r="AA304" s="2"/>
       <c r="AB304" s="2"/>
     </row>
-    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -10245,7 +10245,7 @@
       <c r="AA305" s="2"/>
       <c r="AB305" s="2"/>
     </row>
-    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -10275,7 +10275,7 @@
       <c r="AA306" s="2"/>
       <c r="AB306" s="2"/>
     </row>
-    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -10305,7 +10305,7 @@
       <c r="AA307" s="2"/>
       <c r="AB307" s="2"/>
     </row>
-    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -10335,7 +10335,7 @@
       <c r="AA308" s="2"/>
       <c r="AB308" s="2"/>
     </row>
-    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -10365,7 +10365,7 @@
       <c r="AA309" s="2"/>
       <c r="AB309" s="2"/>
     </row>
-    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -10395,7 +10395,7 @@
       <c r="AA310" s="2"/>
       <c r="AB310" s="2"/>
     </row>
-    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -10425,7 +10425,7 @@
       <c r="AA311" s="2"/>
       <c r="AB311" s="2"/>
     </row>
-    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -10455,7 +10455,7 @@
       <c r="AA312" s="2"/>
       <c r="AB312" s="2"/>
     </row>
-    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10485,7 +10485,7 @@
       <c r="AA313" s="2"/>
       <c r="AB313" s="2"/>
     </row>
-    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -10515,7 +10515,7 @@
       <c r="AA314" s="2"/>
       <c r="AB314" s="2"/>
     </row>
-    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10545,7 +10545,7 @@
       <c r="AA315" s="2"/>
       <c r="AB315" s="2"/>
     </row>
-    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10575,7 +10575,7 @@
       <c r="AA316" s="2"/>
       <c r="AB316" s="2"/>
     </row>
-    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10605,7 +10605,7 @@
       <c r="AA317" s="2"/>
       <c r="AB317" s="2"/>
     </row>
-    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10635,7 +10635,7 @@
       <c r="AA318" s="2"/>
       <c r="AB318" s="2"/>
     </row>
-    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10665,7 +10665,7 @@
       <c r="AA319" s="2"/>
       <c r="AB319" s="2"/>
     </row>
-    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10695,7 +10695,7 @@
       <c r="AA320" s="2"/>
       <c r="AB320" s="2"/>
     </row>
-    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10725,7 +10725,7 @@
       <c r="AA321" s="2"/>
       <c r="AB321" s="2"/>
     </row>
-    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10755,7 +10755,7 @@
       <c r="AA322" s="2"/>
       <c r="AB322" s="2"/>
     </row>
-    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10785,7 +10785,7 @@
       <c r="AA323" s="2"/>
       <c r="AB323" s="2"/>
     </row>
-    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10815,7 +10815,7 @@
       <c r="AA324" s="2"/>
       <c r="AB324" s="2"/>
     </row>
-    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10845,7 +10845,7 @@
       <c r="AA325" s="2"/>
       <c r="AB325" s="2"/>
     </row>
-    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10875,7 +10875,7 @@
       <c r="AA326" s="2"/>
       <c r="AB326" s="2"/>
     </row>
-    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10905,7 +10905,7 @@
       <c r="AA327" s="2"/>
       <c r="AB327" s="2"/>
     </row>
-    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10935,7 +10935,7 @@
       <c r="AA328" s="2"/>
       <c r="AB328" s="2"/>
     </row>
-    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10965,7 +10965,7 @@
       <c r="AA329" s="2"/>
       <c r="AB329" s="2"/>
     </row>
-    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10995,7 +10995,7 @@
       <c r="AA330" s="2"/>
       <c r="AB330" s="2"/>
     </row>
-    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -11025,7 +11025,7 @@
       <c r="AA331" s="2"/>
       <c r="AB331" s="2"/>
     </row>
-    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -11055,7 +11055,7 @@
       <c r="AA332" s="2"/>
       <c r="AB332" s="2"/>
     </row>
-    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -11085,7 +11085,7 @@
       <c r="AA333" s="2"/>
       <c r="AB333" s="2"/>
     </row>
-    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -11115,7 +11115,7 @@
       <c r="AA334" s="2"/>
       <c r="AB334" s="2"/>
     </row>
-    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -11145,7 +11145,7 @@
       <c r="AA335" s="2"/>
       <c r="AB335" s="2"/>
     </row>
-    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -11175,7 +11175,7 @@
       <c r="AA336" s="2"/>
       <c r="AB336" s="2"/>
     </row>
-    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -11205,7 +11205,7 @@
       <c r="AA337" s="2"/>
       <c r="AB337" s="2"/>
     </row>
-    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -11235,7 +11235,7 @@
       <c r="AA338" s="2"/>
       <c r="AB338" s="2"/>
     </row>
-    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -11265,7 +11265,7 @@
       <c r="AA339" s="2"/>
       <c r="AB339" s="2"/>
     </row>
-    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -11295,7 +11295,7 @@
       <c r="AA340" s="2"/>
       <c r="AB340" s="2"/>
     </row>
-    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -11325,7 +11325,7 @@
       <c r="AA341" s="2"/>
       <c r="AB341" s="2"/>
     </row>
-    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -11355,7 +11355,7 @@
       <c r="AA342" s="2"/>
       <c r="AB342" s="2"/>
     </row>
-    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -11385,7 +11385,7 @@
       <c r="AA343" s="2"/>
       <c r="AB343" s="2"/>
     </row>
-    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -11415,7 +11415,7 @@
       <c r="AA344" s="2"/>
       <c r="AB344" s="2"/>
     </row>
-    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -11445,7 +11445,7 @@
       <c r="AA345" s="2"/>
       <c r="AB345" s="2"/>
     </row>
-    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -11475,7 +11475,7 @@
       <c r="AA346" s="2"/>
       <c r="AB346" s="2"/>
     </row>
-    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -11505,7 +11505,7 @@
       <c r="AA347" s="2"/>
       <c r="AB347" s="2"/>
     </row>
-    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -11535,7 +11535,7 @@
       <c r="AA348" s="2"/>
       <c r="AB348" s="2"/>
     </row>
-    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -11565,7 +11565,7 @@
       <c r="AA349" s="2"/>
       <c r="AB349" s="2"/>
     </row>
-    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -11595,7 +11595,7 @@
       <c r="AA350" s="2"/>
       <c r="AB350" s="2"/>
     </row>
-    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11625,7 +11625,7 @@
       <c r="AA351" s="2"/>
       <c r="AB351" s="2"/>
     </row>
-    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11655,7 +11655,7 @@
       <c r="AA352" s="2"/>
       <c r="AB352" s="2"/>
     </row>
-    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11685,7 +11685,7 @@
       <c r="AA353" s="2"/>
       <c r="AB353" s="2"/>
     </row>
-    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11715,7 +11715,7 @@
       <c r="AA354" s="2"/>
       <c r="AB354" s="2"/>
     </row>
-    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11745,7 +11745,7 @@
       <c r="AA355" s="2"/>
       <c r="AB355" s="2"/>
     </row>
-    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11775,7 +11775,7 @@
       <c r="AA356" s="2"/>
       <c r="AB356" s="2"/>
     </row>
-    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11805,7 +11805,7 @@
       <c r="AA357" s="2"/>
       <c r="AB357" s="2"/>
     </row>
-    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11835,7 +11835,7 @@
       <c r="AA358" s="2"/>
       <c r="AB358" s="2"/>
     </row>
-    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11865,7 +11865,7 @@
       <c r="AA359" s="2"/>
       <c r="AB359" s="2"/>
     </row>
-    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11895,7 +11895,7 @@
       <c r="AA360" s="2"/>
       <c r="AB360" s="2"/>
     </row>
-    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11925,7 +11925,7 @@
       <c r="AA361" s="2"/>
       <c r="AB361" s="2"/>
     </row>
-    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11955,7 +11955,7 @@
       <c r="AA362" s="2"/>
       <c r="AB362" s="2"/>
     </row>
-    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11985,7 +11985,7 @@
       <c r="AA363" s="2"/>
       <c r="AB363" s="2"/>
     </row>
-    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -12015,7 +12015,7 @@
       <c r="AA364" s="2"/>
       <c r="AB364" s="2"/>
     </row>
-    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -12045,7 +12045,7 @@
       <c r="AA365" s="2"/>
       <c r="AB365" s="2"/>
     </row>
-    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -12075,7 +12075,7 @@
       <c r="AA366" s="2"/>
       <c r="AB366" s="2"/>
     </row>
-    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -12105,7 +12105,7 @@
       <c r="AA367" s="2"/>
       <c r="AB367" s="2"/>
     </row>
-    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -12135,7 +12135,7 @@
       <c r="AA368" s="2"/>
       <c r="AB368" s="2"/>
     </row>
-    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -12165,7 +12165,7 @@
       <c r="AA369" s="2"/>
       <c r="AB369" s="2"/>
     </row>
-    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -12195,7 +12195,7 @@
       <c r="AA370" s="2"/>
       <c r="AB370" s="2"/>
     </row>
-    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -12225,7 +12225,7 @@
       <c r="AA371" s="2"/>
       <c r="AB371" s="2"/>
     </row>
-    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -12255,7 +12255,7 @@
       <c r="AA372" s="2"/>
       <c r="AB372" s="2"/>
     </row>
-    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -12285,7 +12285,7 @@
       <c r="AA373" s="2"/>
       <c r="AB373" s="2"/>
     </row>
-    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -12315,7 +12315,7 @@
       <c r="AA374" s="2"/>
       <c r="AB374" s="2"/>
     </row>
-    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -12345,7 +12345,7 @@
       <c r="AA375" s="2"/>
       <c r="AB375" s="2"/>
     </row>
-    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -12375,7 +12375,7 @@
       <c r="AA376" s="2"/>
       <c r="AB376" s="2"/>
     </row>
-    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -12405,7 +12405,7 @@
       <c r="AA377" s="2"/>
       <c r="AB377" s="2"/>
     </row>
-    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -12435,7 +12435,7 @@
       <c r="AA378" s="2"/>
       <c r="AB378" s="2"/>
     </row>
-    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -12465,7 +12465,7 @@
       <c r="AA379" s="2"/>
       <c r="AB379" s="2"/>
     </row>
-    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -12495,7 +12495,7 @@
       <c r="AA380" s="2"/>
       <c r="AB380" s="2"/>
     </row>
-    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -12525,7 +12525,7 @@
       <c r="AA381" s="2"/>
       <c r="AB381" s="2"/>
     </row>
-    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -12555,7 +12555,7 @@
       <c r="AA382" s="2"/>
       <c r="AB382" s="2"/>
     </row>
-    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -12585,7 +12585,7 @@
       <c r="AA383" s="2"/>
       <c r="AB383" s="2"/>
     </row>
-    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -12615,7 +12615,7 @@
       <c r="AA384" s="2"/>
       <c r="AB384" s="2"/>
     </row>
-    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -12645,7 +12645,7 @@
       <c r="AA385" s="2"/>
       <c r="AB385" s="2"/>
     </row>
-    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -12675,7 +12675,7 @@
       <c r="AA386" s="2"/>
       <c r="AB386" s="2"/>
     </row>
-    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -12705,7 +12705,7 @@
       <c r="AA387" s="2"/>
       <c r="AB387" s="2"/>
     </row>
-    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -12735,7 +12735,7 @@
       <c r="AA388" s="2"/>
       <c r="AB388" s="2"/>
     </row>
-    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12765,7 +12765,7 @@
       <c r="AA389" s="2"/>
       <c r="AB389" s="2"/>
     </row>
-    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12795,7 +12795,7 @@
       <c r="AA390" s="2"/>
       <c r="AB390" s="2"/>
     </row>
-    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12825,7 +12825,7 @@
       <c r="AA391" s="2"/>
       <c r="AB391" s="2"/>
     </row>
-    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12855,7 +12855,7 @@
       <c r="AA392" s="2"/>
       <c r="AB392" s="2"/>
     </row>
-    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12885,7 +12885,7 @@
       <c r="AA393" s="2"/>
       <c r="AB393" s="2"/>
     </row>
-    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12915,7 +12915,7 @@
       <c r="AA394" s="2"/>
       <c r="AB394" s="2"/>
     </row>
-    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12945,7 +12945,7 @@
       <c r="AA395" s="2"/>
       <c r="AB395" s="2"/>
     </row>
-    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12975,7 +12975,7 @@
       <c r="AA396" s="2"/>
       <c r="AB396" s="2"/>
     </row>
-    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -13005,7 +13005,7 @@
       <c r="AA397" s="2"/>
       <c r="AB397" s="2"/>
     </row>
-    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -13035,7 +13035,7 @@
       <c r="AA398" s="2"/>
       <c r="AB398" s="2"/>
     </row>
-    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -13065,7 +13065,7 @@
       <c r="AA399" s="2"/>
       <c r="AB399" s="2"/>
     </row>
-    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -13095,7 +13095,7 @@
       <c r="AA400" s="2"/>
       <c r="AB400" s="2"/>
     </row>
-    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -13125,7 +13125,7 @@
       <c r="AA401" s="2"/>
       <c r="AB401" s="2"/>
     </row>
-    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -13155,7 +13155,7 @@
       <c r="AA402" s="2"/>
       <c r="AB402" s="2"/>
     </row>
-    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -13185,7 +13185,7 @@
       <c r="AA403" s="2"/>
       <c r="AB403" s="2"/>
     </row>
-    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -13215,7 +13215,7 @@
       <c r="AA404" s="2"/>
       <c r="AB404" s="2"/>
     </row>
-    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -13245,7 +13245,7 @@
       <c r="AA405" s="2"/>
       <c r="AB405" s="2"/>
     </row>
-    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -13275,7 +13275,7 @@
       <c r="AA406" s="2"/>
       <c r="AB406" s="2"/>
     </row>
-    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -13305,7 +13305,7 @@
       <c r="AA407" s="2"/>
       <c r="AB407" s="2"/>
     </row>
-    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -13335,7 +13335,7 @@
       <c r="AA408" s="2"/>
       <c r="AB408" s="2"/>
     </row>
-    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -13365,7 +13365,7 @@
       <c r="AA409" s="2"/>
       <c r="AB409" s="2"/>
     </row>
-    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -13395,7 +13395,7 @@
       <c r="AA410" s="2"/>
       <c r="AB410" s="2"/>
     </row>
-    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -13425,7 +13425,7 @@
       <c r="AA411" s="2"/>
       <c r="AB411" s="2"/>
     </row>
-    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -13455,7 +13455,7 @@
       <c r="AA412" s="2"/>
       <c r="AB412" s="2"/>
     </row>
-    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -13485,7 +13485,7 @@
       <c r="AA413" s="2"/>
       <c r="AB413" s="2"/>
     </row>
-    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -13515,7 +13515,7 @@
       <c r="AA414" s="2"/>
       <c r="AB414" s="2"/>
     </row>
-    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -13545,7 +13545,7 @@
       <c r="AA415" s="2"/>
       <c r="AB415" s="2"/>
     </row>
-    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -13575,7 +13575,7 @@
       <c r="AA416" s="2"/>
       <c r="AB416" s="2"/>
     </row>
-    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -13605,7 +13605,7 @@
       <c r="AA417" s="2"/>
       <c r="AB417" s="2"/>
     </row>
-    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -13635,7 +13635,7 @@
       <c r="AA418" s="2"/>
       <c r="AB418" s="2"/>
     </row>
-    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -13665,7 +13665,7 @@
       <c r="AA419" s="2"/>
       <c r="AB419" s="2"/>
     </row>
-    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -13695,7 +13695,7 @@
       <c r="AA420" s="2"/>
       <c r="AB420" s="2"/>
     </row>
-    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -13725,7 +13725,7 @@
       <c r="AA421" s="2"/>
       <c r="AB421" s="2"/>
     </row>
-    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -13755,7 +13755,7 @@
       <c r="AA422" s="2"/>
       <c r="AB422" s="2"/>
     </row>
-    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -13785,7 +13785,7 @@
       <c r="AA423" s="2"/>
       <c r="AB423" s="2"/>
     </row>
-    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -13815,7 +13815,7 @@
       <c r="AA424" s="2"/>
       <c r="AB424" s="2"/>
     </row>
-    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -13845,7 +13845,7 @@
       <c r="AA425" s="2"/>
       <c r="AB425" s="2"/>
     </row>
-    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -13875,7 +13875,7 @@
       <c r="AA426" s="2"/>
       <c r="AB426" s="2"/>
     </row>
-    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13905,7 +13905,7 @@
       <c r="AA427" s="2"/>
       <c r="AB427" s="2"/>
     </row>
-    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13935,7 +13935,7 @@
       <c r="AA428" s="2"/>
       <c r="AB428" s="2"/>
     </row>
-    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13965,7 +13965,7 @@
       <c r="AA429" s="2"/>
       <c r="AB429" s="2"/>
     </row>
-    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13995,7 +13995,7 @@
       <c r="AA430" s="2"/>
       <c r="AB430" s="2"/>
     </row>
-    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -14025,7 +14025,7 @@
       <c r="AA431" s="2"/>
       <c r="AB431" s="2"/>
     </row>
-    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -14055,7 +14055,7 @@
       <c r="AA432" s="2"/>
       <c r="AB432" s="2"/>
     </row>
-    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -14085,7 +14085,7 @@
       <c r="AA433" s="2"/>
       <c r="AB433" s="2"/>
     </row>
-    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -14115,7 +14115,7 @@
       <c r="AA434" s="2"/>
       <c r="AB434" s="2"/>
     </row>
-    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -14145,7 +14145,7 @@
       <c r="AA435" s="2"/>
       <c r="AB435" s="2"/>
     </row>
-    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -14175,7 +14175,7 @@
       <c r="AA436" s="2"/>
       <c r="AB436" s="2"/>
     </row>
-    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -14205,7 +14205,7 @@
       <c r="AA437" s="2"/>
       <c r="AB437" s="2"/>
     </row>
-    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -14235,7 +14235,7 @@
       <c r="AA438" s="2"/>
       <c r="AB438" s="2"/>
     </row>
-    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -14265,7 +14265,7 @@
       <c r="AA439" s="2"/>
       <c r="AB439" s="2"/>
     </row>
-    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -14295,7 +14295,7 @@
       <c r="AA440" s="2"/>
       <c r="AB440" s="2"/>
     </row>
-    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -14325,7 +14325,7 @@
       <c r="AA441" s="2"/>
       <c r="AB441" s="2"/>
     </row>
-    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -14355,7 +14355,7 @@
       <c r="AA442" s="2"/>
       <c r="AB442" s="2"/>
     </row>
-    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -14385,7 +14385,7 @@
       <c r="AA443" s="2"/>
       <c r="AB443" s="2"/>
     </row>
-    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -14415,7 +14415,7 @@
       <c r="AA444" s="2"/>
       <c r="AB444" s="2"/>
     </row>
-    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -14445,7 +14445,7 @@
       <c r="AA445" s="2"/>
       <c r="AB445" s="2"/>
     </row>
-    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -14475,7 +14475,7 @@
       <c r="AA446" s="2"/>
       <c r="AB446" s="2"/>
     </row>
-    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -14505,7 +14505,7 @@
       <c r="AA447" s="2"/>
       <c r="AB447" s="2"/>
     </row>
-    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -14535,7 +14535,7 @@
       <c r="AA448" s="2"/>
       <c r="AB448" s="2"/>
     </row>
-    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -14565,7 +14565,7 @@
       <c r="AA449" s="2"/>
       <c r="AB449" s="2"/>
     </row>
-    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -14595,7 +14595,7 @@
       <c r="AA450" s="2"/>
       <c r="AB450" s="2"/>
     </row>
-    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -14625,7 +14625,7 @@
       <c r="AA451" s="2"/>
       <c r="AB451" s="2"/>
     </row>
-    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -14655,7 +14655,7 @@
       <c r="AA452" s="2"/>
       <c r="AB452" s="2"/>
     </row>
-    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -14685,7 +14685,7 @@
       <c r="AA453" s="2"/>
       <c r="AB453" s="2"/>
     </row>
-    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -14715,7 +14715,7 @@
       <c r="AA454" s="2"/>
       <c r="AB454" s="2"/>
     </row>
-    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -14745,7 +14745,7 @@
       <c r="AA455" s="2"/>
       <c r="AB455" s="2"/>
     </row>
-    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -14775,7 +14775,7 @@
       <c r="AA456" s="2"/>
       <c r="AB456" s="2"/>
     </row>
-    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -14805,7 +14805,7 @@
       <c r="AA457" s="2"/>
       <c r="AB457" s="2"/>
     </row>
-    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -14835,7 +14835,7 @@
       <c r="AA458" s="2"/>
       <c r="AB458" s="2"/>
     </row>
-    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -14865,7 +14865,7 @@
       <c r="AA459" s="2"/>
       <c r="AB459" s="2"/>
     </row>
-    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -14895,7 +14895,7 @@
       <c r="AA460" s="2"/>
       <c r="AB460" s="2"/>
     </row>
-    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -14925,7 +14925,7 @@
       <c r="AA461" s="2"/>
       <c r="AB461" s="2"/>
     </row>
-    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -14955,7 +14955,7 @@
       <c r="AA462" s="2"/>
       <c r="AB462" s="2"/>
     </row>
-    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -14985,7 +14985,7 @@
       <c r="AA463" s="2"/>
       <c r="AB463" s="2"/>
     </row>
-    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -15015,7 +15015,7 @@
       <c r="AA464" s="2"/>
       <c r="AB464" s="2"/>
     </row>
-    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -15045,7 +15045,7 @@
       <c r="AA465" s="2"/>
       <c r="AB465" s="2"/>
     </row>
-    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -15075,7 +15075,7 @@
       <c r="AA466" s="2"/>
       <c r="AB466" s="2"/>
     </row>
-    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -15105,7 +15105,7 @@
       <c r="AA467" s="2"/>
       <c r="AB467" s="2"/>
     </row>
-    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -15135,7 +15135,7 @@
       <c r="AA468" s="2"/>
       <c r="AB468" s="2"/>
     </row>
-    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -15165,7 +15165,7 @@
       <c r="AA469" s="2"/>
       <c r="AB469" s="2"/>
     </row>
-    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -15195,7 +15195,7 @@
       <c r="AA470" s="2"/>
       <c r="AB470" s="2"/>
     </row>
-    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -15225,7 +15225,7 @@
       <c r="AA471" s="2"/>
       <c r="AB471" s="2"/>
     </row>
-    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -15255,7 +15255,7 @@
       <c r="AA472" s="2"/>
       <c r="AB472" s="2"/>
     </row>
-    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -15285,7 +15285,7 @@
       <c r="AA473" s="2"/>
       <c r="AB473" s="2"/>
     </row>
-    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -15315,7 +15315,7 @@
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
     </row>
-    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -15345,7 +15345,7 @@
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
     </row>
-    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -15375,7 +15375,7 @@
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
     </row>
-    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -15405,7 +15405,7 @@
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
     </row>
-    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -15435,7 +15435,7 @@
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
     </row>
-    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -15465,7 +15465,7 @@
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
     </row>
-    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -15495,7 +15495,7 @@
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
     </row>
-    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -15525,7 +15525,7 @@
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
     </row>
-    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -15555,7 +15555,7 @@
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
     </row>
-    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -15585,7 +15585,7 @@
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
     </row>
-    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -15615,7 +15615,7 @@
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
     </row>
-    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -15645,7 +15645,7 @@
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
     </row>
-    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -15675,7 +15675,7 @@
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
     </row>
-    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -15705,7 +15705,7 @@
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
     </row>
-    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -15735,7 +15735,7 @@
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
     </row>
-    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -15765,7 +15765,7 @@
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
     </row>
-    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -15795,7 +15795,7 @@
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
     </row>
-    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -15825,7 +15825,7 @@
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
     </row>
-    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -15855,7 +15855,7 @@
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
     </row>
-    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -15885,7 +15885,7 @@
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
     </row>
-    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -15915,7 +15915,7 @@
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
     </row>
-    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -15945,7 +15945,7 @@
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
     </row>
-    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -15975,7 +15975,7 @@
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
     </row>
-    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -16005,7 +16005,7 @@
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
     </row>
-    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -16035,7 +16035,7 @@
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
     </row>
-    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -16065,7 +16065,7 @@
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
     </row>
-    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -16095,7 +16095,7 @@
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
     </row>
-    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -16125,7 +16125,7 @@
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
     </row>
-    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -16155,7 +16155,7 @@
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
     </row>
-    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -16185,7 +16185,7 @@
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
     </row>
-    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -16215,7 +16215,7 @@
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
     </row>
-    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -16245,7 +16245,7 @@
       <c r="AA505" s="2"/>
       <c r="AB505" s="2"/>
     </row>
-    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -16275,7 +16275,7 @@
       <c r="AA506" s="2"/>
       <c r="AB506" s="2"/>
     </row>
-    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -16305,7 +16305,7 @@
       <c r="AA507" s="2"/>
       <c r="AB507" s="2"/>
     </row>
-    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -16335,7 +16335,7 @@
       <c r="AA508" s="2"/>
       <c r="AB508" s="2"/>
     </row>
-    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -16365,7 +16365,7 @@
       <c r="AA509" s="2"/>
       <c r="AB509" s="2"/>
     </row>
-    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -16395,7 +16395,7 @@
       <c r="AA510" s="2"/>
       <c r="AB510" s="2"/>
     </row>
-    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -16425,7 +16425,7 @@
       <c r="AA511" s="2"/>
       <c r="AB511" s="2"/>
     </row>
-    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -16455,7 +16455,7 @@
       <c r="AA512" s="2"/>
       <c r="AB512" s="2"/>
     </row>
-    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -16485,7 +16485,7 @@
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
     </row>
-    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -16515,7 +16515,7 @@
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
     </row>
-    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -16545,7 +16545,7 @@
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
     </row>
-    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -16575,7 +16575,7 @@
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
     </row>
-    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -16605,7 +16605,7 @@
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -16635,7 +16635,7 @@
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
     </row>
-    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -16665,7 +16665,7 @@
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
     </row>
-    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -16695,7 +16695,7 @@
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
     </row>
-    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -16725,7 +16725,7 @@
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
     </row>
-    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -16755,7 +16755,7 @@
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
     </row>
-    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -16785,7 +16785,7 @@
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
     </row>
-    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -16815,7 +16815,7 @@
       <c r="AA524" s="2"/>
       <c r="AB524" s="2"/>
     </row>
-    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -16845,7 +16845,7 @@
       <c r="AA525" s="2"/>
       <c r="AB525" s="2"/>
     </row>
-    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -16875,7 +16875,7 @@
       <c r="AA526" s="2"/>
       <c r="AB526" s="2"/>
     </row>
-    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -16905,7 +16905,7 @@
       <c r="AA527" s="2"/>
       <c r="AB527" s="2"/>
     </row>
-    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -16935,7 +16935,7 @@
       <c r="AA528" s="2"/>
       <c r="AB528" s="2"/>
     </row>
-    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -16965,7 +16965,7 @@
       <c r="AA529" s="2"/>
       <c r="AB529" s="2"/>
     </row>
-    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -16995,7 +16995,7 @@
       <c r="AA530" s="2"/>
       <c r="AB530" s="2"/>
     </row>
-    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -17025,7 +17025,7 @@
       <c r="AA531" s="2"/>
       <c r="AB531" s="2"/>
     </row>
-    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -17055,7 +17055,7 @@
       <c r="AA532" s="2"/>
       <c r="AB532" s="2"/>
     </row>
-    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -17085,7 +17085,7 @@
       <c r="AA533" s="2"/>
       <c r="AB533" s="2"/>
     </row>
-    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -17115,7 +17115,7 @@
       <c r="AA534" s="2"/>
       <c r="AB534" s="2"/>
     </row>
-    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -17145,7 +17145,7 @@
       <c r="AA535" s="2"/>
       <c r="AB535" s="2"/>
     </row>
-    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -17175,7 +17175,7 @@
       <c r="AA536" s="2"/>
       <c r="AB536" s="2"/>
     </row>
-    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -17205,7 +17205,7 @@
       <c r="AA537" s="2"/>
       <c r="AB537" s="2"/>
     </row>
-    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -17235,7 +17235,7 @@
       <c r="AA538" s="2"/>
       <c r="AB538" s="2"/>
     </row>
-    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -17265,7 +17265,7 @@
       <c r="AA539" s="2"/>
       <c r="AB539" s="2"/>
     </row>
-    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -17295,7 +17295,7 @@
       <c r="AA540" s="2"/>
       <c r="AB540" s="2"/>
     </row>
-    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -17325,7 +17325,7 @@
       <c r="AA541" s="2"/>
       <c r="AB541" s="2"/>
     </row>
-    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -17355,7 +17355,7 @@
       <c r="AA542" s="2"/>
       <c r="AB542" s="2"/>
     </row>
-    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -17385,7 +17385,7 @@
       <c r="AA543" s="2"/>
       <c r="AB543" s="2"/>
     </row>
-    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -17415,7 +17415,7 @@
       <c r="AA544" s="2"/>
       <c r="AB544" s="2"/>
     </row>
-    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -17445,7 +17445,7 @@
       <c r="AA545" s="2"/>
       <c r="AB545" s="2"/>
     </row>
-    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -17475,7 +17475,7 @@
       <c r="AA546" s="2"/>
       <c r="AB546" s="2"/>
     </row>
-    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -17505,7 +17505,7 @@
       <c r="AA547" s="2"/>
       <c r="AB547" s="2"/>
     </row>
-    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -17535,7 +17535,7 @@
       <c r="AA548" s="2"/>
       <c r="AB548" s="2"/>
     </row>
-    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -17565,7 +17565,7 @@
       <c r="AA549" s="2"/>
       <c r="AB549" s="2"/>
     </row>
-    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -17595,7 +17595,7 @@
       <c r="AA550" s="2"/>
       <c r="AB550" s="2"/>
     </row>
-    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -17625,7 +17625,7 @@
       <c r="AA551" s="2"/>
       <c r="AB551" s="2"/>
     </row>
-    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -17655,7 +17655,7 @@
       <c r="AA552" s="2"/>
       <c r="AB552" s="2"/>
     </row>
-    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -17685,7 +17685,7 @@
       <c r="AA553" s="2"/>
       <c r="AB553" s="2"/>
     </row>
-    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -17715,7 +17715,7 @@
       <c r="AA554" s="2"/>
       <c r="AB554" s="2"/>
     </row>
-    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -17745,7 +17745,7 @@
       <c r="AA555" s="2"/>
       <c r="AB555" s="2"/>
     </row>
-    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -17775,7 +17775,7 @@
       <c r="AA556" s="2"/>
       <c r="AB556" s="2"/>
     </row>
-    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -17805,7 +17805,7 @@
       <c r="AA557" s="2"/>
       <c r="AB557" s="2"/>
     </row>
-    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -17835,7 +17835,7 @@
       <c r="AA558" s="2"/>
       <c r="AB558" s="2"/>
     </row>
-    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -17865,7 +17865,7 @@
       <c r="AA559" s="2"/>
       <c r="AB559" s="2"/>
     </row>
-    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -17895,7 +17895,7 @@
       <c r="AA560" s="2"/>
       <c r="AB560" s="2"/>
     </row>
-    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -17925,7 +17925,7 @@
       <c r="AA561" s="2"/>
       <c r="AB561" s="2"/>
     </row>
-    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -17955,7 +17955,7 @@
       <c r="AA562" s="2"/>
       <c r="AB562" s="2"/>
     </row>
-    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -17985,7 +17985,7 @@
       <c r="AA563" s="2"/>
       <c r="AB563" s="2"/>
     </row>
-    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -18015,7 +18015,7 @@
       <c r="AA564" s="2"/>
       <c r="AB564" s="2"/>
     </row>
-    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -18045,7 +18045,7 @@
       <c r="AA565" s="2"/>
       <c r="AB565" s="2"/>
     </row>
-    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -18075,7 +18075,7 @@
       <c r="AA566" s="2"/>
       <c r="AB566" s="2"/>
     </row>
-    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -18105,7 +18105,7 @@
       <c r="AA567" s="2"/>
       <c r="AB567" s="2"/>
     </row>
-    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -18135,7 +18135,7 @@
       <c r="AA568" s="2"/>
       <c r="AB568" s="2"/>
     </row>
-    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -18165,7 +18165,7 @@
       <c r="AA569" s="2"/>
       <c r="AB569" s="2"/>
     </row>
-    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -18195,7 +18195,7 @@
       <c r="AA570" s="2"/>
       <c r="AB570" s="2"/>
     </row>
-    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -18225,7 +18225,7 @@
       <c r="AA571" s="2"/>
       <c r="AB571" s="2"/>
     </row>
-    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -18255,7 +18255,7 @@
       <c r="AA572" s="2"/>
       <c r="AB572" s="2"/>
     </row>
-    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -18285,7 +18285,7 @@
       <c r="AA573" s="2"/>
       <c r="AB573" s="2"/>
     </row>
-    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -18315,7 +18315,7 @@
       <c r="AA574" s="2"/>
       <c r="AB574" s="2"/>
     </row>
-    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -18345,7 +18345,7 @@
       <c r="AA575" s="2"/>
       <c r="AB575" s="2"/>
     </row>
-    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -18375,7 +18375,7 @@
       <c r="AA576" s="2"/>
       <c r="AB576" s="2"/>
     </row>
-    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -18405,7 +18405,7 @@
       <c r="AA577" s="2"/>
       <c r="AB577" s="2"/>
     </row>
-    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -18435,7 +18435,7 @@
       <c r="AA578" s="2"/>
       <c r="AB578" s="2"/>
     </row>
-    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -18465,7 +18465,7 @@
       <c r="AA579" s="2"/>
       <c r="AB579" s="2"/>
     </row>
-    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -18495,7 +18495,7 @@
       <c r="AA580" s="2"/>
       <c r="AB580" s="2"/>
     </row>
-    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -18525,7 +18525,7 @@
       <c r="AA581" s="2"/>
       <c r="AB581" s="2"/>
     </row>
-    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -18555,7 +18555,7 @@
       <c r="AA582" s="2"/>
       <c r="AB582" s="2"/>
     </row>
-    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -18585,7 +18585,7 @@
       <c r="AA583" s="2"/>
       <c r="AB583" s="2"/>
     </row>
-    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -18615,7 +18615,7 @@
       <c r="AA584" s="2"/>
       <c r="AB584" s="2"/>
     </row>
-    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -18645,7 +18645,7 @@
       <c r="AA585" s="2"/>
       <c r="AB585" s="2"/>
     </row>
-    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -18675,7 +18675,7 @@
       <c r="AA586" s="2"/>
       <c r="AB586" s="2"/>
     </row>
-    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -18705,7 +18705,7 @@
       <c r="AA587" s="2"/>
       <c r="AB587" s="2"/>
     </row>
-    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -18735,7 +18735,7 @@
       <c r="AA588" s="2"/>
       <c r="AB588" s="2"/>
     </row>
-    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -18765,7 +18765,7 @@
       <c r="AA589" s="2"/>
       <c r="AB589" s="2"/>
     </row>
-    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -18795,7 +18795,7 @@
       <c r="AA590" s="2"/>
       <c r="AB590" s="2"/>
     </row>
-    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -18825,7 +18825,7 @@
       <c r="AA591" s="2"/>
       <c r="AB591" s="2"/>
     </row>
-    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -18855,7 +18855,7 @@
       <c r="AA592" s="2"/>
       <c r="AB592" s="2"/>
     </row>
-    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -18885,7 +18885,7 @@
       <c r="AA593" s="2"/>
       <c r="AB593" s="2"/>
     </row>
-    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -18915,7 +18915,7 @@
       <c r="AA594" s="2"/>
       <c r="AB594" s="2"/>
     </row>
-    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -18945,7 +18945,7 @@
       <c r="AA595" s="2"/>
       <c r="AB595" s="2"/>
     </row>
-    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -18975,7 +18975,7 @@
       <c r="AA596" s="2"/>
       <c r="AB596" s="2"/>
     </row>
-    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -19005,7 +19005,7 @@
       <c r="AA597" s="2"/>
       <c r="AB597" s="2"/>
     </row>
-    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -19035,7 +19035,7 @@
       <c r="AA598" s="2"/>
       <c r="AB598" s="2"/>
     </row>
-    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -19065,7 +19065,7 @@
       <c r="AA599" s="2"/>
       <c r="AB599" s="2"/>
     </row>
-    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -19095,7 +19095,7 @@
       <c r="AA600" s="2"/>
       <c r="AB600" s="2"/>
     </row>
-    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -19125,7 +19125,7 @@
       <c r="AA601" s="2"/>
       <c r="AB601" s="2"/>
     </row>
-    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -19155,7 +19155,7 @@
       <c r="AA602" s="2"/>
       <c r="AB602" s="2"/>
     </row>
-    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -19185,7 +19185,7 @@
       <c r="AA603" s="2"/>
       <c r="AB603" s="2"/>
     </row>
-    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -19215,7 +19215,7 @@
       <c r="AA604" s="2"/>
       <c r="AB604" s="2"/>
     </row>
-    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -19245,7 +19245,7 @@
       <c r="AA605" s="2"/>
       <c r="AB605" s="2"/>
     </row>
-    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -19275,7 +19275,7 @@
       <c r="AA606" s="2"/>
       <c r="AB606" s="2"/>
     </row>
-    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -19305,7 +19305,7 @@
       <c r="AA607" s="2"/>
       <c r="AB607" s="2"/>
     </row>
-    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -19335,7 +19335,7 @@
       <c r="AA608" s="2"/>
       <c r="AB608" s="2"/>
     </row>
-    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -19365,7 +19365,7 @@
       <c r="AA609" s="2"/>
       <c r="AB609" s="2"/>
     </row>
-    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -19395,7 +19395,7 @@
       <c r="AA610" s="2"/>
       <c r="AB610" s="2"/>
     </row>
-    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -19425,7 +19425,7 @@
       <c r="AA611" s="2"/>
       <c r="AB611" s="2"/>
     </row>
-    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -19455,7 +19455,7 @@
       <c r="AA612" s="2"/>
       <c r="AB612" s="2"/>
     </row>
-    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -19485,7 +19485,7 @@
       <c r="AA613" s="2"/>
       <c r="AB613" s="2"/>
     </row>
-    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -19515,7 +19515,7 @@
       <c r="AA614" s="2"/>
       <c r="AB614" s="2"/>
     </row>
-    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -19545,7 +19545,7 @@
       <c r="AA615" s="2"/>
       <c r="AB615" s="2"/>
     </row>
-    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -19575,7 +19575,7 @@
       <c r="AA616" s="2"/>
       <c r="AB616" s="2"/>
     </row>
-    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -19605,7 +19605,7 @@
       <c r="AA617" s="2"/>
       <c r="AB617" s="2"/>
     </row>
-    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -19635,7 +19635,7 @@
       <c r="AA618" s="2"/>
       <c r="AB618" s="2"/>
     </row>
-    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -19665,7 +19665,7 @@
       <c r="AA619" s="2"/>
       <c r="AB619" s="2"/>
     </row>
-    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -19695,7 +19695,7 @@
       <c r="AA620" s="2"/>
       <c r="AB620" s="2"/>
     </row>
-    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -19725,7 +19725,7 @@
       <c r="AA621" s="2"/>
       <c r="AB621" s="2"/>
     </row>
-    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -19755,7 +19755,7 @@
       <c r="AA622" s="2"/>
       <c r="AB622" s="2"/>
     </row>
-    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -19785,7 +19785,7 @@
       <c r="AA623" s="2"/>
       <c r="AB623" s="2"/>
     </row>
-    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -19815,7 +19815,7 @@
       <c r="AA624" s="2"/>
       <c r="AB624" s="2"/>
     </row>
-    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -19845,7 +19845,7 @@
       <c r="AA625" s="2"/>
       <c r="AB625" s="2"/>
     </row>
-    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -19875,7 +19875,7 @@
       <c r="AA626" s="2"/>
       <c r="AB626" s="2"/>
     </row>
-    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -19905,7 +19905,7 @@
       <c r="AA627" s="2"/>
       <c r="AB627" s="2"/>
     </row>
-    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -19935,7 +19935,7 @@
       <c r="AA628" s="2"/>
       <c r="AB628" s="2"/>
     </row>
-    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -19965,7 +19965,7 @@
       <c r="AA629" s="2"/>
       <c r="AB629" s="2"/>
     </row>
-    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -19995,7 +19995,7 @@
       <c r="AA630" s="2"/>
       <c r="AB630" s="2"/>
     </row>
-    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -20025,7 +20025,7 @@
       <c r="AA631" s="2"/>
       <c r="AB631" s="2"/>
     </row>
-    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -20055,7 +20055,7 @@
       <c r="AA632" s="2"/>
       <c r="AB632" s="2"/>
     </row>
-    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -20085,7 +20085,7 @@
       <c r="AA633" s="2"/>
       <c r="AB633" s="2"/>
     </row>
-    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -20115,7 +20115,7 @@
       <c r="AA634" s="2"/>
       <c r="AB634" s="2"/>
     </row>
-    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -20145,7 +20145,7 @@
       <c r="AA635" s="2"/>
       <c r="AB635" s="2"/>
     </row>
-    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -20175,7 +20175,7 @@
       <c r="AA636" s="2"/>
       <c r="AB636" s="2"/>
     </row>
-    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -20205,7 +20205,7 @@
       <c r="AA637" s="2"/>
       <c r="AB637" s="2"/>
     </row>
-    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -20235,7 +20235,7 @@
       <c r="AA638" s="2"/>
       <c r="AB638" s="2"/>
     </row>
-    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -20265,7 +20265,7 @@
       <c r="AA639" s="2"/>
       <c r="AB639" s="2"/>
     </row>
-    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -20295,7 +20295,7 @@
       <c r="AA640" s="2"/>
       <c r="AB640" s="2"/>
     </row>
-    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -20325,7 +20325,7 @@
       <c r="AA641" s="2"/>
       <c r="AB641" s="2"/>
     </row>
-    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -20355,7 +20355,7 @@
       <c r="AA642" s="2"/>
       <c r="AB642" s="2"/>
     </row>
-    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -20385,7 +20385,7 @@
       <c r="AA643" s="2"/>
       <c r="AB643" s="2"/>
     </row>
-    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -20415,7 +20415,7 @@
       <c r="AA644" s="2"/>
       <c r="AB644" s="2"/>
     </row>
-    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -20445,7 +20445,7 @@
       <c r="AA645" s="2"/>
       <c r="AB645" s="2"/>
     </row>
-    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -20475,7 +20475,7 @@
       <c r="AA646" s="2"/>
       <c r="AB646" s="2"/>
     </row>
-    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -20505,7 +20505,7 @@
       <c r="AA647" s="2"/>
       <c r="AB647" s="2"/>
     </row>
-    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -20535,7 +20535,7 @@
       <c r="AA648" s="2"/>
       <c r="AB648" s="2"/>
     </row>
-    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -20565,7 +20565,7 @@
       <c r="AA649" s="2"/>
       <c r="AB649" s="2"/>
     </row>
-    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -20595,7 +20595,7 @@
       <c r="AA650" s="2"/>
       <c r="AB650" s="2"/>
     </row>
-    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -20625,7 +20625,7 @@
       <c r="AA651" s="2"/>
       <c r="AB651" s="2"/>
     </row>
-    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -20655,7 +20655,7 @@
       <c r="AA652" s="2"/>
       <c r="AB652" s="2"/>
     </row>
-    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -20685,7 +20685,7 @@
       <c r="AA653" s="2"/>
       <c r="AB653" s="2"/>
     </row>
-    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -20715,7 +20715,7 @@
       <c r="AA654" s="2"/>
       <c r="AB654" s="2"/>
     </row>
-    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -20745,7 +20745,7 @@
       <c r="AA655" s="2"/>
       <c r="AB655" s="2"/>
     </row>
-    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -20775,7 +20775,7 @@
       <c r="AA656" s="2"/>
       <c r="AB656" s="2"/>
     </row>
-    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -20805,7 +20805,7 @@
       <c r="AA657" s="2"/>
       <c r="AB657" s="2"/>
     </row>
-    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -20835,7 +20835,7 @@
       <c r="AA658" s="2"/>
       <c r="AB658" s="2"/>
     </row>
-    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -20865,7 +20865,7 @@
       <c r="AA659" s="2"/>
       <c r="AB659" s="2"/>
     </row>
-    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -20895,7 +20895,7 @@
       <c r="AA660" s="2"/>
       <c r="AB660" s="2"/>
     </row>
-    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -20925,7 +20925,7 @@
       <c r="AA661" s="2"/>
       <c r="AB661" s="2"/>
     </row>
-    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -20955,7 +20955,7 @@
       <c r="AA662" s="2"/>
       <c r="AB662" s="2"/>
     </row>
-    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -20985,7 +20985,7 @@
       <c r="AA663" s="2"/>
       <c r="AB663" s="2"/>
     </row>
-    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -21015,7 +21015,7 @@
       <c r="AA664" s="2"/>
       <c r="AB664" s="2"/>
     </row>
-    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -21045,7 +21045,7 @@
       <c r="AA665" s="2"/>
       <c r="AB665" s="2"/>
     </row>
-    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -21075,7 +21075,7 @@
       <c r="AA666" s="2"/>
       <c r="AB666" s="2"/>
     </row>
-    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -21105,7 +21105,7 @@
       <c r="AA667" s="2"/>
       <c r="AB667" s="2"/>
     </row>
-    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -21135,7 +21135,7 @@
       <c r="AA668" s="2"/>
       <c r="AB668" s="2"/>
     </row>
-    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -21165,7 +21165,7 @@
       <c r="AA669" s="2"/>
       <c r="AB669" s="2"/>
     </row>
-    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -21195,7 +21195,7 @@
       <c r="AA670" s="2"/>
       <c r="AB670" s="2"/>
     </row>
-    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -21225,7 +21225,7 @@
       <c r="AA671" s="2"/>
       <c r="AB671" s="2"/>
     </row>
-    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -21255,7 +21255,7 @@
       <c r="AA672" s="2"/>
       <c r="AB672" s="2"/>
     </row>
-    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -21285,7 +21285,7 @@
       <c r="AA673" s="2"/>
       <c r="AB673" s="2"/>
     </row>
-    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -21315,7 +21315,7 @@
       <c r="AA674" s="2"/>
       <c r="AB674" s="2"/>
     </row>
-    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -21345,7 +21345,7 @@
       <c r="AA675" s="2"/>
       <c r="AB675" s="2"/>
     </row>
-    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -21375,7 +21375,7 @@
       <c r="AA676" s="2"/>
       <c r="AB676" s="2"/>
     </row>
-    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -21405,7 +21405,7 @@
       <c r="AA677" s="2"/>
       <c r="AB677" s="2"/>
     </row>
-    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -21435,7 +21435,7 @@
       <c r="AA678" s="2"/>
       <c r="AB678" s="2"/>
     </row>
-    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -21465,7 +21465,7 @@
       <c r="AA679" s="2"/>
       <c r="AB679" s="2"/>
     </row>
-    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -21495,7 +21495,7 @@
       <c r="AA680" s="2"/>
       <c r="AB680" s="2"/>
     </row>
-    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -21525,7 +21525,7 @@
       <c r="AA681" s="2"/>
       <c r="AB681" s="2"/>
     </row>
-    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -21555,7 +21555,7 @@
       <c r="AA682" s="2"/>
       <c r="AB682" s="2"/>
     </row>
-    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -21585,7 +21585,7 @@
       <c r="AA683" s="2"/>
       <c r="AB683" s="2"/>
     </row>
-    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -21615,7 +21615,7 @@
       <c r="AA684" s="2"/>
       <c r="AB684" s="2"/>
     </row>
-    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -21645,7 +21645,7 @@
       <c r="AA685" s="2"/>
       <c r="AB685" s="2"/>
     </row>
-    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -21675,7 +21675,7 @@
       <c r="AA686" s="2"/>
       <c r="AB686" s="2"/>
     </row>
-    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -21705,7 +21705,7 @@
       <c r="AA687" s="2"/>
       <c r="AB687" s="2"/>
     </row>
-    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -21735,7 +21735,7 @@
       <c r="AA688" s="2"/>
       <c r="AB688" s="2"/>
     </row>
-    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -21765,7 +21765,7 @@
       <c r="AA689" s="2"/>
       <c r="AB689" s="2"/>
     </row>
-    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -21795,7 +21795,7 @@
       <c r="AA690" s="2"/>
       <c r="AB690" s="2"/>
     </row>
-    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -21825,7 +21825,7 @@
       <c r="AA691" s="2"/>
       <c r="AB691" s="2"/>
     </row>
-    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -21855,7 +21855,7 @@
       <c r="AA692" s="2"/>
       <c r="AB692" s="2"/>
     </row>
-    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -21885,7 +21885,7 @@
       <c r="AA693" s="2"/>
       <c r="AB693" s="2"/>
     </row>
-    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -21915,7 +21915,7 @@
       <c r="AA694" s="2"/>
       <c r="AB694" s="2"/>
     </row>
-    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -21945,7 +21945,7 @@
       <c r="AA695" s="2"/>
       <c r="AB695" s="2"/>
     </row>
-    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -21975,7 +21975,7 @@
       <c r="AA696" s="2"/>
       <c r="AB696" s="2"/>
     </row>
-    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -22005,7 +22005,7 @@
       <c r="AA697" s="2"/>
       <c r="AB697" s="2"/>
     </row>
-    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -22035,7 +22035,7 @@
       <c r="AA698" s="2"/>
       <c r="AB698" s="2"/>
     </row>
-    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -22065,7 +22065,7 @@
       <c r="AA699" s="2"/>
       <c r="AB699" s="2"/>
     </row>
-    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -22095,7 +22095,7 @@
       <c r="AA700" s="2"/>
       <c r="AB700" s="2"/>
     </row>
-    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -22125,7 +22125,7 @@
       <c r="AA701" s="2"/>
       <c r="AB701" s="2"/>
     </row>
-    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -22155,7 +22155,7 @@
       <c r="AA702" s="2"/>
       <c r="AB702" s="2"/>
     </row>
-    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -22185,7 +22185,7 @@
       <c r="AA703" s="2"/>
       <c r="AB703" s="2"/>
     </row>
-    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -22215,7 +22215,7 @@
       <c r="AA704" s="2"/>
       <c r="AB704" s="2"/>
     </row>
-    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -22245,7 +22245,7 @@
       <c r="AA705" s="2"/>
       <c r="AB705" s="2"/>
     </row>
-    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -22275,7 +22275,7 @@
       <c r="AA706" s="2"/>
       <c r="AB706" s="2"/>
     </row>
-    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -22305,7 +22305,7 @@
       <c r="AA707" s="2"/>
       <c r="AB707" s="2"/>
     </row>
-    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -22335,7 +22335,7 @@
       <c r="AA708" s="2"/>
       <c r="AB708" s="2"/>
     </row>
-    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -22365,7 +22365,7 @@
       <c r="AA709" s="2"/>
       <c r="AB709" s="2"/>
     </row>
-    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -22395,7 +22395,7 @@
       <c r="AA710" s="2"/>
       <c r="AB710" s="2"/>
     </row>
-    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -22425,7 +22425,7 @@
       <c r="AA711" s="2"/>
       <c r="AB711" s="2"/>
     </row>
-    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -22455,7 +22455,7 @@
       <c r="AA712" s="2"/>
       <c r="AB712" s="2"/>
     </row>
-    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -22485,7 +22485,7 @@
       <c r="AA713" s="2"/>
       <c r="AB713" s="2"/>
     </row>
-    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -22515,7 +22515,7 @@
       <c r="AA714" s="2"/>
       <c r="AB714" s="2"/>
     </row>
-    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -22545,7 +22545,7 @@
       <c r="AA715" s="2"/>
       <c r="AB715" s="2"/>
     </row>
-    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -22575,7 +22575,7 @@
       <c r="AA716" s="2"/>
       <c r="AB716" s="2"/>
     </row>
-    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -22605,7 +22605,7 @@
       <c r="AA717" s="2"/>
       <c r="AB717" s="2"/>
     </row>
-    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -22635,7 +22635,7 @@
       <c r="AA718" s="2"/>
       <c r="AB718" s="2"/>
     </row>
-    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -22665,7 +22665,7 @@
       <c r="AA719" s="2"/>
       <c r="AB719" s="2"/>
     </row>
-    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -22695,7 +22695,7 @@
       <c r="AA720" s="2"/>
       <c r="AB720" s="2"/>
     </row>
-    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -22725,7 +22725,7 @@
       <c r="AA721" s="2"/>
       <c r="AB721" s="2"/>
     </row>
-    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -22755,7 +22755,7 @@
       <c r="AA722" s="2"/>
       <c r="AB722" s="2"/>
     </row>
-    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -22785,7 +22785,7 @@
       <c r="AA723" s="2"/>
       <c r="AB723" s="2"/>
     </row>
-    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -22815,7 +22815,7 @@
       <c r="AA724" s="2"/>
       <c r="AB724" s="2"/>
     </row>
-    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -22845,7 +22845,7 @@
       <c r="AA725" s="2"/>
       <c r="AB725" s="2"/>
     </row>
-    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -22875,7 +22875,7 @@
       <c r="AA726" s="2"/>
       <c r="AB726" s="2"/>
     </row>
-    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -22905,7 +22905,7 @@
       <c r="AA727" s="2"/>
       <c r="AB727" s="2"/>
     </row>
-    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -22935,7 +22935,7 @@
       <c r="AA728" s="2"/>
       <c r="AB728" s="2"/>
     </row>
-    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -22965,7 +22965,7 @@
       <c r="AA729" s="2"/>
       <c r="AB729" s="2"/>
     </row>
-    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -22995,7 +22995,7 @@
       <c r="AA730" s="2"/>
       <c r="AB730" s="2"/>
     </row>
-    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -23025,7 +23025,7 @@
       <c r="AA731" s="2"/>
       <c r="AB731" s="2"/>
     </row>
-    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -23055,7 +23055,7 @@
       <c r="AA732" s="2"/>
       <c r="AB732" s="2"/>
     </row>
-    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -23085,7 +23085,7 @@
       <c r="AA733" s="2"/>
       <c r="AB733" s="2"/>
     </row>
-    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -23115,7 +23115,7 @@
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
     </row>
-    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -23145,7 +23145,7 @@
       <c r="AA735" s="2"/>
       <c r="AB735" s="2"/>
     </row>
-    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -23175,7 +23175,7 @@
       <c r="AA736" s="2"/>
       <c r="AB736" s="2"/>
     </row>
-    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -23205,7 +23205,7 @@
       <c r="AA737" s="2"/>
       <c r="AB737" s="2"/>
     </row>
-    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -23235,7 +23235,7 @@
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -23265,7 +23265,7 @@
       <c r="AA739" s="2"/>
       <c r="AB739" s="2"/>
     </row>
-    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -23295,7 +23295,7 @@
       <c r="AA740" s="2"/>
       <c r="AB740" s="2"/>
     </row>
-    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -23325,7 +23325,7 @@
       <c r="AA741" s="2"/>
       <c r="AB741" s="2"/>
     </row>
-    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -23355,7 +23355,7 @@
       <c r="AA742" s="2"/>
       <c r="AB742" s="2"/>
     </row>
-    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -23385,7 +23385,7 @@
       <c r="AA743" s="2"/>
       <c r="AB743" s="2"/>
     </row>
-    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -23415,7 +23415,7 @@
       <c r="AA744" s="2"/>
       <c r="AB744" s="2"/>
     </row>
-    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -23445,7 +23445,7 @@
       <c r="AA745" s="2"/>
       <c r="AB745" s="2"/>
     </row>
-    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -23475,7 +23475,7 @@
       <c r="AA746" s="2"/>
       <c r="AB746" s="2"/>
     </row>
-    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -23505,7 +23505,7 @@
       <c r="AA747" s="2"/>
       <c r="AB747" s="2"/>
     </row>
-    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -23535,7 +23535,7 @@
       <c r="AA748" s="2"/>
       <c r="AB748" s="2"/>
     </row>
-    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -23565,7 +23565,7 @@
       <c r="AA749" s="2"/>
       <c r="AB749" s="2"/>
     </row>
-    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -23595,7 +23595,7 @@
       <c r="AA750" s="2"/>
       <c r="AB750" s="2"/>
     </row>
-    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -23625,7 +23625,7 @@
       <c r="AA751" s="2"/>
       <c r="AB751" s="2"/>
     </row>
-    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -23655,7 +23655,7 @@
       <c r="AA752" s="2"/>
       <c r="AB752" s="2"/>
     </row>
-    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -23685,7 +23685,7 @@
       <c r="AA753" s="2"/>
       <c r="AB753" s="2"/>
     </row>
-    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -23715,7 +23715,7 @@
       <c r="AA754" s="2"/>
       <c r="AB754" s="2"/>
     </row>
-    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -23745,7 +23745,7 @@
       <c r="AA755" s="2"/>
       <c r="AB755" s="2"/>
     </row>
-    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -23775,7 +23775,7 @@
       <c r="AA756" s="2"/>
       <c r="AB756" s="2"/>
     </row>
-    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -23805,7 +23805,7 @@
       <c r="AA757" s="2"/>
       <c r="AB757" s="2"/>
     </row>
-    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -23835,7 +23835,7 @@
       <c r="AA758" s="2"/>
       <c r="AB758" s="2"/>
     </row>
-    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -23865,7 +23865,7 @@
       <c r="AA759" s="2"/>
       <c r="AB759" s="2"/>
     </row>
-    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -23895,7 +23895,7 @@
       <c r="AA760" s="2"/>
       <c r="AB760" s="2"/>
     </row>
-    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -23925,7 +23925,7 @@
       <c r="AA761" s="2"/>
       <c r="AB761" s="2"/>
     </row>
-    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -23955,7 +23955,7 @@
       <c r="AA762" s="2"/>
       <c r="AB762" s="2"/>
     </row>
-    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -23985,7 +23985,7 @@
       <c r="AA763" s="2"/>
       <c r="AB763" s="2"/>
     </row>
-    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -24015,7 +24015,7 @@
       <c r="AA764" s="2"/>
       <c r="AB764" s="2"/>
     </row>
-    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -24045,7 +24045,7 @@
       <c r="AA765" s="2"/>
       <c r="AB765" s="2"/>
     </row>
-    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -24075,7 +24075,7 @@
       <c r="AA766" s="2"/>
       <c r="AB766" s="2"/>
     </row>
-    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -24105,7 +24105,7 @@
       <c r="AA767" s="2"/>
       <c r="AB767" s="2"/>
     </row>
-    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -24135,7 +24135,7 @@
       <c r="AA768" s="2"/>
       <c r="AB768" s="2"/>
     </row>
-    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -24165,7 +24165,7 @@
       <c r="AA769" s="2"/>
       <c r="AB769" s="2"/>
     </row>
-    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -24195,7 +24195,7 @@
       <c r="AA770" s="2"/>
       <c r="AB770" s="2"/>
     </row>
-    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -24225,7 +24225,7 @@
       <c r="AA771" s="2"/>
       <c r="AB771" s="2"/>
     </row>
-    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -24255,7 +24255,7 @@
       <c r="AA772" s="2"/>
       <c r="AB772" s="2"/>
     </row>
-    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -24285,7 +24285,7 @@
       <c r="AA773" s="2"/>
       <c r="AB773" s="2"/>
     </row>
-    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -24315,7 +24315,7 @@
       <c r="AA774" s="2"/>
       <c r="AB774" s="2"/>
     </row>
-    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -24345,7 +24345,7 @@
       <c r="AA775" s="2"/>
       <c r="AB775" s="2"/>
     </row>
-    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -24375,7 +24375,7 @@
       <c r="AA776" s="2"/>
       <c r="AB776" s="2"/>
     </row>
-    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -24405,7 +24405,7 @@
       <c r="AA777" s="2"/>
       <c r="AB777" s="2"/>
     </row>
-    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -24435,7 +24435,7 @@
       <c r="AA778" s="2"/>
       <c r="AB778" s="2"/>
     </row>
-    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -24465,7 +24465,7 @@
       <c r="AA779" s="2"/>
       <c r="AB779" s="2"/>
     </row>
-    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -24495,7 +24495,7 @@
       <c r="AA780" s="2"/>
       <c r="AB780" s="2"/>
     </row>
-    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -24525,7 +24525,7 @@
       <c r="AA781" s="2"/>
       <c r="AB781" s="2"/>
     </row>
-    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -24555,7 +24555,7 @@
       <c r="AA782" s="2"/>
       <c r="AB782" s="2"/>
     </row>
-    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -24585,7 +24585,7 @@
       <c r="AA783" s="2"/>
       <c r="AB783" s="2"/>
     </row>
-    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -24615,7 +24615,7 @@
       <c r="AA784" s="2"/>
       <c r="AB784" s="2"/>
     </row>
-    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -24645,7 +24645,7 @@
       <c r="AA785" s="2"/>
       <c r="AB785" s="2"/>
     </row>
-    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -24675,7 +24675,7 @@
       <c r="AA786" s="2"/>
       <c r="AB786" s="2"/>
     </row>
-    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -24705,7 +24705,7 @@
       <c r="AA787" s="2"/>
       <c r="AB787" s="2"/>
     </row>
-    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -24735,7 +24735,7 @@
       <c r="AA788" s="2"/>
       <c r="AB788" s="2"/>
     </row>
-    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -24765,7 +24765,7 @@
       <c r="AA789" s="2"/>
       <c r="AB789" s="2"/>
     </row>
-    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -24795,7 +24795,7 @@
       <c r="AA790" s="2"/>
       <c r="AB790" s="2"/>
     </row>
-    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -24825,7 +24825,7 @@
       <c r="AA791" s="2"/>
       <c r="AB791" s="2"/>
     </row>
-    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -24855,7 +24855,7 @@
       <c r="AA792" s="2"/>
       <c r="AB792" s="2"/>
     </row>
-    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -24885,7 +24885,7 @@
       <c r="AA793" s="2"/>
       <c r="AB793" s="2"/>
     </row>
-    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -24915,7 +24915,7 @@
       <c r="AA794" s="2"/>
       <c r="AB794" s="2"/>
     </row>
-    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -24945,7 +24945,7 @@
       <c r="AA795" s="2"/>
       <c r="AB795" s="2"/>
     </row>
-    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -24975,7 +24975,7 @@
       <c r="AA796" s="2"/>
       <c r="AB796" s="2"/>
     </row>
-    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -25005,7 +25005,7 @@
       <c r="AA797" s="2"/>
       <c r="AB797" s="2"/>
     </row>
-    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -25035,7 +25035,7 @@
       <c r="AA798" s="2"/>
       <c r="AB798" s="2"/>
     </row>
-    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -25065,7 +25065,7 @@
       <c r="AA799" s="2"/>
       <c r="AB799" s="2"/>
     </row>
-    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -25095,7 +25095,7 @@
       <c r="AA800" s="2"/>
       <c r="AB800" s="2"/>
     </row>
-    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -25125,7 +25125,7 @@
       <c r="AA801" s="2"/>
       <c r="AB801" s="2"/>
     </row>
-    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -25155,7 +25155,7 @@
       <c r="AA802" s="2"/>
       <c r="AB802" s="2"/>
     </row>
-    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -25185,7 +25185,7 @@
       <c r="AA803" s="2"/>
       <c r="AB803" s="2"/>
     </row>
-    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -25215,7 +25215,7 @@
       <c r="AA804" s="2"/>
       <c r="AB804" s="2"/>
     </row>
-    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -25245,7 +25245,7 @@
       <c r="AA805" s="2"/>
       <c r="AB805" s="2"/>
     </row>
-    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -25275,7 +25275,7 @@
       <c r="AA806" s="2"/>
       <c r="AB806" s="2"/>
     </row>
-    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -25305,7 +25305,7 @@
       <c r="AA807" s="2"/>
       <c r="AB807" s="2"/>
     </row>
-    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -25335,7 +25335,7 @@
       <c r="AA808" s="2"/>
       <c r="AB808" s="2"/>
     </row>
-    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -25365,7 +25365,7 @@
       <c r="AA809" s="2"/>
       <c r="AB809" s="2"/>
     </row>
-    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -25395,7 +25395,7 @@
       <c r="AA810" s="2"/>
       <c r="AB810" s="2"/>
     </row>
-    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -25425,7 +25425,7 @@
       <c r="AA811" s="2"/>
       <c r="AB811" s="2"/>
     </row>
-    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -25455,7 +25455,7 @@
       <c r="AA812" s="2"/>
       <c r="AB812" s="2"/>
     </row>
-    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -25485,7 +25485,7 @@
       <c r="AA813" s="2"/>
       <c r="AB813" s="2"/>
     </row>
-    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -25515,7 +25515,7 @@
       <c r="AA814" s="2"/>
       <c r="AB814" s="2"/>
     </row>
-    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -25545,7 +25545,7 @@
       <c r="AA815" s="2"/>
       <c r="AB815" s="2"/>
     </row>
-    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -25575,7 +25575,7 @@
       <c r="AA816" s="2"/>
       <c r="AB816" s="2"/>
     </row>
-    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -25605,7 +25605,7 @@
       <c r="AA817" s="2"/>
       <c r="AB817" s="2"/>
     </row>
-    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -25635,7 +25635,7 @@
       <c r="AA818" s="2"/>
       <c r="AB818" s="2"/>
     </row>
-    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -25665,7 +25665,7 @@
       <c r="AA819" s="2"/>
       <c r="AB819" s="2"/>
     </row>
-    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -25695,7 +25695,7 @@
       <c r="AA820" s="2"/>
       <c r="AB820" s="2"/>
     </row>
-    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -25725,7 +25725,7 @@
       <c r="AA821" s="2"/>
       <c r="AB821" s="2"/>
     </row>
-    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -25755,7 +25755,7 @@
       <c r="AA822" s="2"/>
       <c r="AB822" s="2"/>
     </row>
-    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -25785,7 +25785,7 @@
       <c r="AA823" s="2"/>
       <c r="AB823" s="2"/>
     </row>
-    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -25815,7 +25815,7 @@
       <c r="AA824" s="2"/>
       <c r="AB824" s="2"/>
     </row>
-    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -25845,7 +25845,7 @@
       <c r="AA825" s="2"/>
       <c r="AB825" s="2"/>
     </row>
-    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -25875,7 +25875,7 @@
       <c r="AA826" s="2"/>
       <c r="AB826" s="2"/>
     </row>
-    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -25905,7 +25905,7 @@
       <c r="AA827" s="2"/>
       <c r="AB827" s="2"/>
     </row>
-    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -25935,7 +25935,7 @@
       <c r="AA828" s="2"/>
       <c r="AB828" s="2"/>
     </row>
-    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -25965,7 +25965,7 @@
       <c r="AA829" s="2"/>
       <c r="AB829" s="2"/>
     </row>
-    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -25995,7 +25995,7 @@
       <c r="AA830" s="2"/>
       <c r="AB830" s="2"/>
     </row>
-    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -26025,7 +26025,7 @@
       <c r="AA831" s="2"/>
       <c r="AB831" s="2"/>
     </row>
-    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -26055,7 +26055,7 @@
       <c r="AA832" s="2"/>
       <c r="AB832" s="2"/>
     </row>
-    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -26085,7 +26085,7 @@
       <c r="AA833" s="2"/>
       <c r="AB833" s="2"/>
     </row>
-    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -26115,7 +26115,7 @@
       <c r="AA834" s="2"/>
       <c r="AB834" s="2"/>
     </row>
-    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -26145,7 +26145,7 @@
       <c r="AA835" s="2"/>
       <c r="AB835" s="2"/>
     </row>
-    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -26175,7 +26175,7 @@
       <c r="AA836" s="2"/>
       <c r="AB836" s="2"/>
     </row>
-    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -26205,7 +26205,7 @@
       <c r="AA837" s="2"/>
       <c r="AB837" s="2"/>
     </row>
-    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -26235,7 +26235,7 @@
       <c r="AA838" s="2"/>
       <c r="AB838" s="2"/>
     </row>
-    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -26265,7 +26265,7 @@
       <c r="AA839" s="2"/>
       <c r="AB839" s="2"/>
     </row>
-    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -26295,7 +26295,7 @@
       <c r="AA840" s="2"/>
       <c r="AB840" s="2"/>
     </row>
-    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -26325,7 +26325,7 @@
       <c r="AA841" s="2"/>
       <c r="AB841" s="2"/>
     </row>
-    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -26355,7 +26355,7 @@
       <c r="AA842" s="2"/>
       <c r="AB842" s="2"/>
     </row>
-    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -26385,7 +26385,7 @@
       <c r="AA843" s="2"/>
       <c r="AB843" s="2"/>
     </row>
-    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -26415,7 +26415,7 @@
       <c r="AA844" s="2"/>
       <c r="AB844" s="2"/>
     </row>
-    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -26445,7 +26445,7 @@
       <c r="AA845" s="2"/>
       <c r="AB845" s="2"/>
     </row>
-    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -26475,7 +26475,7 @@
       <c r="AA846" s="2"/>
       <c r="AB846" s="2"/>
     </row>
-    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -26505,7 +26505,7 @@
       <c r="AA847" s="2"/>
       <c r="AB847" s="2"/>
     </row>
-    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -26535,7 +26535,7 @@
       <c r="AA848" s="2"/>
       <c r="AB848" s="2"/>
     </row>
-    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -26565,7 +26565,7 @@
       <c r="AA849" s="2"/>
       <c r="AB849" s="2"/>
     </row>
-    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -26595,7 +26595,7 @@
       <c r="AA850" s="2"/>
       <c r="AB850" s="2"/>
     </row>
-    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -26625,7 +26625,7 @@
       <c r="AA851" s="2"/>
       <c r="AB851" s="2"/>
     </row>
-    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -26655,7 +26655,7 @@
       <c r="AA852" s="2"/>
       <c r="AB852" s="2"/>
     </row>
-    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -26685,7 +26685,7 @@
       <c r="AA853" s="2"/>
       <c r="AB853" s="2"/>
     </row>
-    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -26715,7 +26715,7 @@
       <c r="AA854" s="2"/>
       <c r="AB854" s="2"/>
     </row>
-    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -26745,7 +26745,7 @@
       <c r="AA855" s="2"/>
       <c r="AB855" s="2"/>
     </row>
-    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -26775,7 +26775,7 @@
       <c r="AA856" s="2"/>
       <c r="AB856" s="2"/>
     </row>
-    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -26805,7 +26805,7 @@
       <c r="AA857" s="2"/>
       <c r="AB857" s="2"/>
     </row>
-    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -26835,7 +26835,7 @@
       <c r="AA858" s="2"/>
       <c r="AB858" s="2"/>
     </row>
-    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -26865,7 +26865,7 @@
       <c r="AA859" s="2"/>
       <c r="AB859" s="2"/>
     </row>
-    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -26895,7 +26895,7 @@
       <c r="AA860" s="2"/>
       <c r="AB860" s="2"/>
     </row>
-    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -26925,7 +26925,7 @@
       <c r="AA861" s="2"/>
       <c r="AB861" s="2"/>
     </row>
-    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -26955,7 +26955,7 @@
       <c r="AA862" s="2"/>
       <c r="AB862" s="2"/>
     </row>
-    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -26985,7 +26985,7 @@
       <c r="AA863" s="2"/>
       <c r="AB863" s="2"/>
     </row>
-    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -27015,7 +27015,7 @@
       <c r="AA864" s="2"/>
       <c r="AB864" s="2"/>
     </row>
-    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -27045,7 +27045,7 @@
       <c r="AA865" s="2"/>
       <c r="AB865" s="2"/>
     </row>
-    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -27075,7 +27075,7 @@
       <c r="AA866" s="2"/>
       <c r="AB866" s="2"/>
     </row>
-    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -27105,7 +27105,7 @@
       <c r="AA867" s="2"/>
       <c r="AB867" s="2"/>
     </row>
-    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -27135,7 +27135,7 @@
       <c r="AA868" s="2"/>
       <c r="AB868" s="2"/>
     </row>
-    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -27165,7 +27165,7 @@
       <c r="AA869" s="2"/>
       <c r="AB869" s="2"/>
     </row>
-    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -27195,7 +27195,7 @@
       <c r="AA870" s="2"/>
       <c r="AB870" s="2"/>
     </row>
-    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -27225,7 +27225,7 @@
       <c r="AA871" s="2"/>
       <c r="AB871" s="2"/>
     </row>
-    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -27255,7 +27255,7 @@
       <c r="AA872" s="2"/>
       <c r="AB872" s="2"/>
     </row>
-    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -27285,7 +27285,7 @@
       <c r="AA873" s="2"/>
       <c r="AB873" s="2"/>
     </row>
-    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -27315,7 +27315,7 @@
       <c r="AA874" s="2"/>
       <c r="AB874" s="2"/>
     </row>
-    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -27345,7 +27345,7 @@
       <c r="AA875" s="2"/>
       <c r="AB875" s="2"/>
     </row>
-    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -27375,7 +27375,7 @@
       <c r="AA876" s="2"/>
       <c r="AB876" s="2"/>
     </row>
-    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -27405,7 +27405,7 @@
       <c r="AA877" s="2"/>
       <c r="AB877" s="2"/>
     </row>
-    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -27435,7 +27435,7 @@
       <c r="AA878" s="2"/>
       <c r="AB878" s="2"/>
     </row>
-    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -27465,7 +27465,7 @@
       <c r="AA879" s="2"/>
       <c r="AB879" s="2"/>
     </row>
-    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -27495,7 +27495,7 @@
       <c r="AA880" s="2"/>
       <c r="AB880" s="2"/>
     </row>
-    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -27525,7 +27525,7 @@
       <c r="AA881" s="2"/>
       <c r="AB881" s="2"/>
     </row>
-    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -27555,7 +27555,7 @@
       <c r="AA882" s="2"/>
       <c r="AB882" s="2"/>
     </row>
-    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -27585,7 +27585,7 @@
       <c r="AA883" s="2"/>
       <c r="AB883" s="2"/>
     </row>
-    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -27615,7 +27615,7 @@
       <c r="AA884" s="2"/>
       <c r="AB884" s="2"/>
     </row>
-    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -27645,7 +27645,7 @@
       <c r="AA885" s="2"/>
       <c r="AB885" s="2"/>
     </row>
-    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -27675,7 +27675,7 @@
       <c r="AA886" s="2"/>
       <c r="AB886" s="2"/>
     </row>
-    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -27705,7 +27705,7 @@
       <c r="AA887" s="2"/>
       <c r="AB887" s="2"/>
     </row>
-    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -27735,7 +27735,7 @@
       <c r="AA888" s="2"/>
       <c r="AB888" s="2"/>
     </row>
-    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -27765,7 +27765,7 @@
       <c r="AA889" s="2"/>
       <c r="AB889" s="2"/>
     </row>
-    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -27795,7 +27795,7 @@
       <c r="AA890" s="2"/>
       <c r="AB890" s="2"/>
     </row>
-    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -27825,7 +27825,7 @@
       <c r="AA891" s="2"/>
       <c r="AB891" s="2"/>
     </row>
-    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -27855,7 +27855,7 @@
       <c r="AA892" s="2"/>
       <c r="AB892" s="2"/>
     </row>
-    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -27885,7 +27885,7 @@
       <c r="AA893" s="2"/>
       <c r="AB893" s="2"/>
     </row>
-    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -27915,7 +27915,7 @@
       <c r="AA894" s="2"/>
       <c r="AB894" s="2"/>
     </row>
-    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -27945,7 +27945,7 @@
       <c r="AA895" s="2"/>
       <c r="AB895" s="2"/>
     </row>
-    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -27975,7 +27975,7 @@
       <c r="AA896" s="2"/>
       <c r="AB896" s="2"/>
     </row>
-    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -28005,7 +28005,7 @@
       <c r="AA897" s="2"/>
       <c r="AB897" s="2"/>
     </row>
-    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -28035,7 +28035,7 @@
       <c r="AA898" s="2"/>
       <c r="AB898" s="2"/>
     </row>
-    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -28065,7 +28065,7 @@
       <c r="AA899" s="2"/>
       <c r="AB899" s="2"/>
     </row>
-    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -28095,7 +28095,7 @@
       <c r="AA900" s="2"/>
       <c r="AB900" s="2"/>
     </row>
-    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -28125,7 +28125,7 @@
       <c r="AA901" s="2"/>
       <c r="AB901" s="2"/>
     </row>
-    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -28155,7 +28155,7 @@
       <c r="AA902" s="2"/>
       <c r="AB902" s="2"/>
     </row>
-    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -28185,7 +28185,7 @@
       <c r="AA903" s="2"/>
       <c r="AB903" s="2"/>
     </row>
-    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -28215,7 +28215,7 @@
       <c r="AA904" s="2"/>
       <c r="AB904" s="2"/>
     </row>
-    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -28245,7 +28245,7 @@
       <c r="AA905" s="2"/>
       <c r="AB905" s="2"/>
     </row>
-    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -28275,7 +28275,7 @@
       <c r="AA906" s="2"/>
       <c r="AB906" s="2"/>
     </row>
-    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -28305,7 +28305,7 @@
       <c r="AA907" s="2"/>
       <c r="AB907" s="2"/>
     </row>
-    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -28335,7 +28335,7 @@
       <c r="AA908" s="2"/>
       <c r="AB908" s="2"/>
     </row>
-    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -28365,7 +28365,7 @@
       <c r="AA909" s="2"/>
       <c r="AB909" s="2"/>
     </row>
-    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -28395,7 +28395,7 @@
       <c r="AA910" s="2"/>
       <c r="AB910" s="2"/>
     </row>
-    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -28425,7 +28425,7 @@
       <c r="AA911" s="2"/>
       <c r="AB911" s="2"/>
     </row>
-    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -28455,7 +28455,7 @@
       <c r="AA912" s="2"/>
       <c r="AB912" s="2"/>
     </row>
-    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -28485,7 +28485,7 @@
       <c r="AA913" s="2"/>
       <c r="AB913" s="2"/>
     </row>
-    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -28515,7 +28515,7 @@
       <c r="AA914" s="2"/>
       <c r="AB914" s="2"/>
     </row>
-    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -28545,7 +28545,7 @@
       <c r="AA915" s="2"/>
       <c r="AB915" s="2"/>
     </row>
-    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -28575,7 +28575,7 @@
       <c r="AA916" s="2"/>
       <c r="AB916" s="2"/>
     </row>
-    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -28605,7 +28605,7 @@
       <c r="AA917" s="2"/>
       <c r="AB917" s="2"/>
     </row>
-    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -28635,7 +28635,7 @@
       <c r="AA918" s="2"/>
       <c r="AB918" s="2"/>
     </row>
-    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -28665,7 +28665,7 @@
       <c r="AA919" s="2"/>
       <c r="AB919" s="2"/>
     </row>
-    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -28695,7 +28695,7 @@
       <c r="AA920" s="2"/>
       <c r="AB920" s="2"/>
     </row>
-    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -28725,7 +28725,7 @@
       <c r="AA921" s="2"/>
       <c r="AB921" s="2"/>
     </row>
-    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -28755,7 +28755,7 @@
       <c r="AA922" s="2"/>
       <c r="AB922" s="2"/>
     </row>
-    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -28785,7 +28785,7 @@
       <c r="AA923" s="2"/>
       <c r="AB923" s="2"/>
     </row>
-    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -28815,7 +28815,7 @@
       <c r="AA924" s="2"/>
       <c r="AB924" s="2"/>
     </row>
-    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -28845,7 +28845,7 @@
       <c r="AA925" s="2"/>
       <c r="AB925" s="2"/>
     </row>
-    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -28875,7 +28875,7 @@
       <c r="AA926" s="2"/>
       <c r="AB926" s="2"/>
     </row>
-    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -28905,7 +28905,7 @@
       <c r="AA927" s="2"/>
       <c r="AB927" s="2"/>
     </row>
-    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -28935,7 +28935,7 @@
       <c r="AA928" s="2"/>
       <c r="AB928" s="2"/>
     </row>
-    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -28965,7 +28965,7 @@
       <c r="AA929" s="2"/>
       <c r="AB929" s="2"/>
     </row>
-    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -28995,7 +28995,7 @@
       <c r="AA930" s="2"/>
       <c r="AB930" s="2"/>
     </row>
-    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -29025,7 +29025,7 @@
       <c r="AA931" s="2"/>
       <c r="AB931" s="2"/>
     </row>
-    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -29055,7 +29055,7 @@
       <c r="AA932" s="2"/>
       <c r="AB932" s="2"/>
     </row>
-    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -29085,7 +29085,7 @@
       <c r="AA933" s="2"/>
       <c r="AB933" s="2"/>
     </row>
-    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -29115,7 +29115,7 @@
       <c r="AA934" s="2"/>
       <c r="AB934" s="2"/>
     </row>
-    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -29145,7 +29145,7 @@
       <c r="AA935" s="2"/>
       <c r="AB935" s="2"/>
     </row>
-    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -29175,7 +29175,7 @@
       <c r="AA936" s="2"/>
       <c r="AB936" s="2"/>
     </row>
-    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -29205,7 +29205,7 @@
       <c r="AA937" s="2"/>
       <c r="AB937" s="2"/>
     </row>
-    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -29235,7 +29235,7 @@
       <c r="AA938" s="2"/>
       <c r="AB938" s="2"/>
     </row>
-    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -29265,7 +29265,7 @@
       <c r="AA939" s="2"/>
       <c r="AB939" s="2"/>
     </row>
-    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -29295,7 +29295,7 @@
       <c r="AA940" s="2"/>
       <c r="AB940" s="2"/>
     </row>
-    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -29325,7 +29325,7 @@
       <c r="AA941" s="2"/>
       <c r="AB941" s="2"/>
     </row>
-    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -29355,7 +29355,7 @@
       <c r="AA942" s="2"/>
       <c r="AB942" s="2"/>
     </row>
-    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -29385,7 +29385,7 @@
       <c r="AA943" s="2"/>
       <c r="AB943" s="2"/>
     </row>
-    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -29415,7 +29415,7 @@
       <c r="AA944" s="2"/>
       <c r="AB944" s="2"/>
     </row>
-    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -29445,7 +29445,7 @@
       <c r="AA945" s="2"/>
       <c r="AB945" s="2"/>
     </row>
-    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -29475,7 +29475,7 @@
       <c r="AA946" s="2"/>
       <c r="AB946" s="2"/>
     </row>
-    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -29505,7 +29505,7 @@
       <c r="AA947" s="2"/>
       <c r="AB947" s="2"/>
     </row>
-    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -29535,7 +29535,7 @@
       <c r="AA948" s="2"/>
       <c r="AB948" s="2"/>
     </row>
-    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -29565,7 +29565,7 @@
       <c r="AA949" s="2"/>
       <c r="AB949" s="2"/>
     </row>
-    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -29595,7 +29595,7 @@
       <c r="AA950" s="2"/>
       <c r="AB950" s="2"/>
     </row>
-    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -29625,7 +29625,7 @@
       <c r="AA951" s="2"/>
       <c r="AB951" s="2"/>
     </row>
-    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -29655,7 +29655,7 @@
       <c r="AA952" s="2"/>
       <c r="AB952" s="2"/>
     </row>
-    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -29685,7 +29685,7 @@
       <c r="AA953" s="2"/>
       <c r="AB953" s="2"/>
     </row>
-    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -29715,7 +29715,7 @@
       <c r="AA954" s="2"/>
       <c r="AB954" s="2"/>
     </row>
-    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -29745,7 +29745,7 @@
       <c r="AA955" s="2"/>
       <c r="AB955" s="2"/>
     </row>
-    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -29775,7 +29775,7 @@
       <c r="AA956" s="2"/>
       <c r="AB956" s="2"/>
     </row>
-    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -29805,7 +29805,7 @@
       <c r="AA957" s="2"/>
       <c r="AB957" s="2"/>
     </row>
-    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -29835,7 +29835,7 @@
       <c r="AA958" s="2"/>
       <c r="AB958" s="2"/>
     </row>
-    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
@@ -29865,7 +29865,7 @@
       <c r="AA959" s="2"/>
       <c r="AB959" s="2"/>
     </row>
-    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
@@ -29895,7 +29895,7 @@
       <c r="AA960" s="2"/>
       <c r="AB960" s="2"/>
     </row>
-    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
@@ -29925,7 +29925,7 @@
       <c r="AA961" s="2"/>
       <c r="AB961" s="2"/>
     </row>
-    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
@@ -29955,7 +29955,7 @@
       <c r="AA962" s="2"/>
       <c r="AB962" s="2"/>
     </row>
-    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
@@ -29985,7 +29985,7 @@
       <c r="AA963" s="2"/>
       <c r="AB963" s="2"/>
     </row>
-    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
@@ -30015,7 +30015,7 @@
       <c r="AA964" s="2"/>
       <c r="AB964" s="2"/>
     </row>
-    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
@@ -30045,7 +30045,7 @@
       <c r="AA965" s="2"/>
       <c r="AB965" s="2"/>
     </row>
-    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
@@ -30075,7 +30075,7 @@
       <c r="AA966" s="2"/>
       <c r="AB966" s="2"/>
     </row>
-    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
@@ -30105,7 +30105,7 @@
       <c r="AA967" s="2"/>
       <c r="AB967" s="2"/>
     </row>
-    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
@@ -30135,7 +30135,7 @@
       <c r="AA968" s="2"/>
       <c r="AB968" s="2"/>
     </row>
-    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
@@ -30165,7 +30165,7 @@
       <c r="AA969" s="2"/>
       <c r="AB969" s="2"/>
     </row>
-    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
@@ -30195,7 +30195,7 @@
       <c r="AA970" s="2"/>
       <c r="AB970" s="2"/>
     </row>
-    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
@@ -30225,7 +30225,7 @@
       <c r="AA971" s="2"/>
       <c r="AB971" s="2"/>
     </row>
-    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
@@ -30255,7 +30255,7 @@
       <c r="AA972" s="2"/>
       <c r="AB972" s="2"/>
     </row>
-    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
@@ -30285,7 +30285,7 @@
       <c r="AA973" s="2"/>
       <c r="AB973" s="2"/>
     </row>
-    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
@@ -30315,7 +30315,7 @@
       <c r="AA974" s="2"/>
       <c r="AB974" s="2"/>
     </row>
-    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
@@ -30345,7 +30345,7 @@
       <c r="AA975" s="2"/>
       <c r="AB975" s="2"/>
     </row>
-    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
@@ -30375,7 +30375,7 @@
       <c r="AA976" s="2"/>
       <c r="AB976" s="2"/>
     </row>
-    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
@@ -30405,7 +30405,7 @@
       <c r="AA977" s="2"/>
       <c r="AB977" s="2"/>
     </row>
-    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
@@ -30435,7 +30435,7 @@
       <c r="AA978" s="2"/>
       <c r="AB978" s="2"/>
     </row>
-    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
@@ -30465,7 +30465,7 @@
       <c r="AA979" s="2"/>
       <c r="AB979" s="2"/>
     </row>
-    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
@@ -30495,7 +30495,7 @@
       <c r="AA980" s="2"/>
       <c r="AB980" s="2"/>
     </row>
-    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
@@ -30525,7 +30525,7 @@
       <c r="AA981" s="2"/>
       <c r="AB981" s="2"/>
     </row>
-    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
@@ -30555,7 +30555,7 @@
       <c r="AA982" s="2"/>
       <c r="AB982" s="2"/>
     </row>
-    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
@@ -30585,7 +30585,7 @@
       <c r="AA983" s="2"/>
       <c r="AB983" s="2"/>
     </row>
-    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
@@ -30615,7 +30615,7 @@
       <c r="AA984" s="2"/>
       <c r="AB984" s="2"/>
     </row>
-    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
@@ -30645,7 +30645,7 @@
       <c r="AA985" s="2"/>
       <c r="AB985" s="2"/>
     </row>
-    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
@@ -30675,7 +30675,7 @@
       <c r="AA986" s="2"/>
       <c r="AB986" s="2"/>
     </row>
-    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
@@ -30705,7 +30705,7 @@
       <c r="AA987" s="2"/>
       <c r="AB987" s="2"/>
     </row>
-    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
@@ -30735,7 +30735,7 @@
       <c r="AA988" s="2"/>
       <c r="AB988" s="2"/>
     </row>
-    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
@@ -30765,7 +30765,7 @@
       <c r="AA989" s="2"/>
       <c r="AB989" s="2"/>
     </row>
-    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
@@ -30795,7 +30795,7 @@
       <c r="AA990" s="2"/>
       <c r="AB990" s="2"/>
     </row>
-    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
@@ -30825,7 +30825,7 @@
       <c r="AA991" s="2"/>
       <c r="AB991" s="2"/>
     </row>
-    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
@@ -30855,7 +30855,7 @@
       <c r="AA992" s="2"/>
       <c r="AB992" s="2"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
@@ -30885,7 +30885,7 @@
       <c r="AA993" s="2"/>
       <c r="AB993" s="2"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
@@ -30915,7 +30915,7 @@
       <c r="AA994" s="2"/>
       <c r="AB994" s="2"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
@@ -30945,7 +30945,7 @@
       <c r="AA995" s="2"/>
       <c r="AB995" s="2"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
@@ -30975,7 +30975,7 @@
       <c r="AA996" s="2"/>
       <c r="AB996" s="2"/>
     </row>
-    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
@@ -31005,7 +31005,7 @@
       <c r="AA997" s="2"/>
       <c r="AB997" s="2"/>
     </row>
-    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
@@ -31035,7 +31035,7 @@
       <c r="AA998" s="2"/>
       <c r="AB998" s="2"/>
     </row>
-    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
@@ -31065,7 +31065,7 @@
       <c r="AA999" s="2"/>
       <c r="AB999" s="2"/>
     </row>
-    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
@@ -31095,7 +31095,7 @@
       <c r="AA1000" s="2"/>
       <c r="AB1000" s="2"/>
     </row>
-    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
@@ -31125,7 +31125,7 @@
       <c r="AA1001" s="2"/>
       <c r="AB1001" s="2"/>
     </row>
-    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="9"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
@@ -31155,7 +31155,7 @@
       <c r="AA1002" s="2"/>
       <c r="AB1002" s="2"/>
     </row>
-    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="9"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
@@ -31185,7 +31185,7 @@
       <c r="AA1003" s="2"/>
       <c r="AB1003" s="2"/>
     </row>
-    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="9"/>
       <c r="B1004" s="9"/>
       <c r="C1004" s="9"/>
@@ -31215,7 +31215,7 @@
       <c r="AA1004" s="2"/>
       <c r="AB1004" s="2"/>
     </row>
-    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="9"/>
       <c r="B1005" s="9"/>
       <c r="C1005" s="9"/>
@@ -31263,17 +31263,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -31283,7 +31283,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -31303,7 +31303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -31323,7 +31323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -31343,7 +31343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>26</v>
       </c>
@@ -31363,10 +31363,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -31374,7 +31374,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -31382,7 +31382,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -31390,7 +31390,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -31398,7 +31398,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
   </sheetData>
@@ -31415,20 +31415,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>59</v>
       </c>
@@ -31438,7 +31438,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -31498,7 +31498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -31518,7 +31518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>17</v>
       </c>
@@ -31538,7 +31538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>27</v>
       </c>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\....HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admir\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -858,19 +858,19 @@
       <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="85.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="28" width="8.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>43</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1995,7 +1995,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2025,7 +2025,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2055,7 +2055,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2085,7 +2085,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2115,7 +2115,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2145,7 +2145,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2175,7 +2175,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2205,7 +2205,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2235,7 +2235,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2265,7 +2265,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2295,7 +2295,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2325,7 +2325,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2355,7 +2355,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2385,7 +2385,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2415,7 +2415,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2445,7 +2445,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2475,7 +2475,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2505,7 +2505,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2535,7 +2535,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2565,7 +2565,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2595,7 +2595,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2625,7 +2625,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2655,7 +2655,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2685,7 +2685,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2715,7 +2715,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2745,7 +2745,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2775,7 +2775,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2805,7 +2805,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2835,7 +2835,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2865,7 +2865,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2895,7 +2895,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2925,7 +2925,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2955,7 +2955,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2985,7 +2985,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3015,7 +3015,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3045,7 +3045,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3075,7 +3075,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3105,7 +3105,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3135,7 +3135,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3165,7 +3165,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3195,7 +3195,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3225,7 +3225,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3255,7 +3255,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3285,7 +3285,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3315,7 +3315,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3345,7 +3345,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3375,7 +3375,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3405,7 +3405,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3435,7 +3435,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3465,7 +3465,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3495,7 +3495,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3525,7 +3525,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3555,7 +3555,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3585,7 +3585,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3615,7 +3615,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3645,7 +3645,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3675,7 +3675,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3705,7 +3705,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3735,7 +3735,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -3765,7 +3765,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3795,7 +3795,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3825,7 +3825,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3855,7 +3855,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3885,7 +3885,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3915,7 +3915,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3945,7 +3945,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3975,7 +3975,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4005,7 +4005,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4035,7 +4035,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4065,7 +4065,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4095,7 +4095,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4125,7 +4125,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4155,7 +4155,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4185,7 +4185,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4215,7 +4215,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4245,7 +4245,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4275,7 +4275,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4305,7 +4305,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4335,7 +4335,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4365,7 +4365,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4395,7 +4395,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4425,7 +4425,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4455,7 +4455,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4485,7 +4485,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4515,7 +4515,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4545,7 +4545,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4575,7 +4575,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4605,7 +4605,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4635,7 +4635,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -4665,7 +4665,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -4695,7 +4695,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -4725,7 +4725,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -4755,7 +4755,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -4785,7 +4785,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -4815,7 +4815,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4845,7 +4845,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -4875,7 +4875,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -4905,7 +4905,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -4935,7 +4935,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -4965,7 +4965,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -4995,7 +4995,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5025,7 +5025,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5055,7 +5055,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5085,7 +5085,7 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5115,7 +5115,7 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5145,7 +5145,7 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5175,7 +5175,7 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5205,7 +5205,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5235,7 +5235,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -5265,7 +5265,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5295,7 +5295,7 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5325,7 +5325,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5355,7 +5355,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5385,7 +5385,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5415,7 +5415,7 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5445,7 +5445,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5475,7 +5475,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5505,7 +5505,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5535,7 +5535,7 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5565,7 +5565,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5595,7 +5595,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5625,7 +5625,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5655,7 +5655,7 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5685,7 +5685,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -5715,7 +5715,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5745,7 +5745,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -5775,7 +5775,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5805,7 +5805,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5835,7 +5835,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5865,7 +5865,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5895,7 +5895,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5925,7 +5925,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5955,7 +5955,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5985,7 +5985,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -6015,7 +6015,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -6045,7 +6045,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -6075,7 +6075,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -6105,7 +6105,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -6135,7 +6135,7 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6165,7 +6165,7 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6195,7 +6195,7 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6225,7 +6225,7 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6255,7 +6255,7 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -6285,7 +6285,7 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6315,7 +6315,7 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -6345,7 +6345,7 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6375,7 +6375,7 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6405,7 +6405,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6435,7 +6435,7 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6465,7 +6465,7 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6495,7 +6495,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6525,7 +6525,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6555,7 +6555,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6585,7 +6585,7 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6615,7 +6615,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6645,7 +6645,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6675,7 +6675,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6705,7 +6705,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6735,7 +6735,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6765,7 +6765,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6795,7 +6795,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6825,7 +6825,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6855,7 +6855,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6885,7 +6885,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6915,7 +6915,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6945,7 +6945,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6975,7 +6975,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -7005,7 +7005,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -7035,7 +7035,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -7065,7 +7065,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -7095,7 +7095,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -7125,7 +7125,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -7155,7 +7155,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7185,7 +7185,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -7215,7 +7215,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7245,7 +7245,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7275,7 +7275,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7305,7 +7305,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7335,7 +7335,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7365,7 +7365,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7395,7 +7395,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7425,7 +7425,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7455,7 +7455,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -7485,7 +7485,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7515,7 +7515,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -7545,7 +7545,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7575,7 +7575,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7605,7 +7605,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7635,7 +7635,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7665,7 +7665,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -7695,7 +7695,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7725,7 +7725,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7755,7 +7755,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7785,7 +7785,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7815,7 +7815,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7845,7 +7845,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7875,7 +7875,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7905,7 +7905,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7935,7 +7935,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -7965,7 +7965,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7995,7 +7995,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -8025,7 +8025,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -8055,7 +8055,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -8085,7 +8085,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -8115,7 +8115,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -8145,7 +8145,7 @@
       <c r="AA235" s="2"/>
       <c r="AB235" s="2"/>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -8175,7 +8175,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -8205,7 +8205,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -8235,7 +8235,7 @@
       <c r="AA238" s="2"/>
       <c r="AB238" s="2"/>
     </row>
-    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -8265,7 +8265,7 @@
       <c r="AA239" s="2"/>
       <c r="AB239" s="2"/>
     </row>
-    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -8295,7 +8295,7 @@
       <c r="AA240" s="2"/>
       <c r="AB240" s="2"/>
     </row>
-    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8325,7 +8325,7 @@
       <c r="AA241" s="2"/>
       <c r="AB241" s="2"/>
     </row>
-    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8355,7 +8355,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
     </row>
-    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8385,7 +8385,7 @@
       <c r="AA243" s="2"/>
       <c r="AB243" s="2"/>
     </row>
-    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -8415,7 +8415,7 @@
       <c r="AA244" s="2"/>
       <c r="AB244" s="2"/>
     </row>
-    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8445,7 +8445,7 @@
       <c r="AA245" s="2"/>
       <c r="AB245" s="2"/>
     </row>
-    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8475,7 +8475,7 @@
       <c r="AA246" s="2"/>
       <c r="AB246" s="2"/>
     </row>
-    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8505,7 +8505,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
     </row>
-    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -8535,7 +8535,7 @@
       <c r="AA248" s="2"/>
       <c r="AB248" s="2"/>
     </row>
-    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -8565,7 +8565,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
     </row>
-    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8595,7 +8595,7 @@
       <c r="AA250" s="2"/>
       <c r="AB250" s="2"/>
     </row>
-    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8625,7 +8625,7 @@
       <c r="AA251" s="2"/>
       <c r="AB251" s="2"/>
     </row>
-    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8655,7 +8655,7 @@
       <c r="AA252" s="2"/>
       <c r="AB252" s="2"/>
     </row>
-    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8685,7 +8685,7 @@
       <c r="AA253" s="2"/>
       <c r="AB253" s="2"/>
     </row>
-    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8715,7 +8715,7 @@
       <c r="AA254" s="2"/>
       <c r="AB254" s="2"/>
     </row>
-    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8745,7 +8745,7 @@
       <c r="AA255" s="2"/>
       <c r="AB255" s="2"/>
     </row>
-    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -8775,7 +8775,7 @@
       <c r="AA256" s="2"/>
       <c r="AB256" s="2"/>
     </row>
-    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8805,7 +8805,7 @@
       <c r="AA257" s="2"/>
       <c r="AB257" s="2"/>
     </row>
-    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8835,7 +8835,7 @@
       <c r="AA258" s="2"/>
       <c r="AB258" s="2"/>
     </row>
-    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -8865,7 +8865,7 @@
       <c r="AA259" s="2"/>
       <c r="AB259" s="2"/>
     </row>
-    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8895,7 +8895,7 @@
       <c r="AA260" s="2"/>
       <c r="AB260" s="2"/>
     </row>
-    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8925,7 +8925,7 @@
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
     </row>
-    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8955,7 +8955,7 @@
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
     </row>
-    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8985,7 +8985,7 @@
       <c r="AA263" s="2"/>
       <c r="AB263" s="2"/>
     </row>
-    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -9015,7 +9015,7 @@
       <c r="AA264" s="2"/>
       <c r="AB264" s="2"/>
     </row>
-    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -9045,7 +9045,7 @@
       <c r="AA265" s="2"/>
       <c r="AB265" s="2"/>
     </row>
-    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -9075,7 +9075,7 @@
       <c r="AA266" s="2"/>
       <c r="AB266" s="2"/>
     </row>
-    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -9105,7 +9105,7 @@
       <c r="AA267" s="2"/>
       <c r="AB267" s="2"/>
     </row>
-    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -9135,7 +9135,7 @@
       <c r="AA268" s="2"/>
       <c r="AB268" s="2"/>
     </row>
-    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -9165,7 +9165,7 @@
       <c r="AA269" s="2"/>
       <c r="AB269" s="2"/>
     </row>
-    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -9195,7 +9195,7 @@
       <c r="AA270" s="2"/>
       <c r="AB270" s="2"/>
     </row>
-    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -9225,7 +9225,7 @@
       <c r="AA271" s="2"/>
       <c r="AB271" s="2"/>
     </row>
-    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -9255,7 +9255,7 @@
       <c r="AA272" s="2"/>
       <c r="AB272" s="2"/>
     </row>
-    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -9285,7 +9285,7 @@
       <c r="AA273" s="2"/>
       <c r="AB273" s="2"/>
     </row>
-    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -9315,7 +9315,7 @@
       <c r="AA274" s="2"/>
       <c r="AB274" s="2"/>
     </row>
-    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -9345,7 +9345,7 @@
       <c r="AA275" s="2"/>
       <c r="AB275" s="2"/>
     </row>
-    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9375,7 +9375,7 @@
       <c r="AA276" s="2"/>
       <c r="AB276" s="2"/>
     </row>
-    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -9405,7 +9405,7 @@
       <c r="AA277" s="2"/>
       <c r="AB277" s="2"/>
     </row>
-    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -9435,7 +9435,7 @@
       <c r="AA278" s="2"/>
       <c r="AB278" s="2"/>
     </row>
-    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -9465,7 +9465,7 @@
       <c r="AA279" s="2"/>
       <c r="AB279" s="2"/>
     </row>
-    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -9495,7 +9495,7 @@
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
     </row>
-    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -9525,7 +9525,7 @@
       <c r="AA281" s="2"/>
       <c r="AB281" s="2"/>
     </row>
-    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9555,7 +9555,7 @@
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
     </row>
-    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -9585,7 +9585,7 @@
       <c r="AA283" s="2"/>
       <c r="AB283" s="2"/>
     </row>
-    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -9615,7 +9615,7 @@
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
     </row>
-    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9645,7 +9645,7 @@
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
     </row>
-    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9675,7 +9675,7 @@
       <c r="AA286" s="2"/>
       <c r="AB286" s="2"/>
     </row>
-    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9705,7 +9705,7 @@
       <c r="AA287" s="2"/>
       <c r="AB287" s="2"/>
     </row>
-    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9735,7 +9735,7 @@
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
     </row>
-    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9765,7 +9765,7 @@
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
     </row>
-    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9795,7 +9795,7 @@
       <c r="AA290" s="2"/>
       <c r="AB290" s="2"/>
     </row>
-    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9825,7 +9825,7 @@
       <c r="AA291" s="2"/>
       <c r="AB291" s="2"/>
     </row>
-    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9855,7 +9855,7 @@
       <c r="AA292" s="2"/>
       <c r="AB292" s="2"/>
     </row>
-    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9885,7 +9885,7 @@
       <c r="AA293" s="2"/>
       <c r="AB293" s="2"/>
     </row>
-    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -9915,7 +9915,7 @@
       <c r="AA294" s="2"/>
       <c r="AB294" s="2"/>
     </row>
-    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -9945,7 +9945,7 @@
       <c r="AA295" s="2"/>
       <c r="AB295" s="2"/>
     </row>
-    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -9975,7 +9975,7 @@
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
     </row>
-    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -10005,7 +10005,7 @@
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
     </row>
-    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -10035,7 +10035,7 @@
       <c r="AA298" s="2"/>
       <c r="AB298" s="2"/>
     </row>
-    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -10065,7 +10065,7 @@
       <c r="AA299" s="2"/>
       <c r="AB299" s="2"/>
     </row>
-    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -10095,7 +10095,7 @@
       <c r="AA300" s="2"/>
       <c r="AB300" s="2"/>
     </row>
-    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -10125,7 +10125,7 @@
       <c r="AA301" s="2"/>
       <c r="AB301" s="2"/>
     </row>
-    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -10155,7 +10155,7 @@
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
     </row>
-    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -10185,7 +10185,7 @@
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
     </row>
-    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -10215,7 +10215,7 @@
       <c r="AA304" s="2"/>
       <c r="AB304" s="2"/>
     </row>
-    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -10245,7 +10245,7 @@
       <c r="AA305" s="2"/>
       <c r="AB305" s="2"/>
     </row>
-    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -10275,7 +10275,7 @@
       <c r="AA306" s="2"/>
       <c r="AB306" s="2"/>
     </row>
-    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -10305,7 +10305,7 @@
       <c r="AA307" s="2"/>
       <c r="AB307" s="2"/>
     </row>
-    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -10335,7 +10335,7 @@
       <c r="AA308" s="2"/>
       <c r="AB308" s="2"/>
     </row>
-    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -10365,7 +10365,7 @@
       <c r="AA309" s="2"/>
       <c r="AB309" s="2"/>
     </row>
-    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -10395,7 +10395,7 @@
       <c r="AA310" s="2"/>
       <c r="AB310" s="2"/>
     </row>
-    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -10425,7 +10425,7 @@
       <c r="AA311" s="2"/>
       <c r="AB311" s="2"/>
     </row>
-    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -10455,7 +10455,7 @@
       <c r="AA312" s="2"/>
       <c r="AB312" s="2"/>
     </row>
-    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10485,7 +10485,7 @@
       <c r="AA313" s="2"/>
       <c r="AB313" s="2"/>
     </row>
-    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -10515,7 +10515,7 @@
       <c r="AA314" s="2"/>
       <c r="AB314" s="2"/>
     </row>
-    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10545,7 +10545,7 @@
       <c r="AA315" s="2"/>
       <c r="AB315" s="2"/>
     </row>
-    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10575,7 +10575,7 @@
       <c r="AA316" s="2"/>
       <c r="AB316" s="2"/>
     </row>
-    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10605,7 +10605,7 @@
       <c r="AA317" s="2"/>
       <c r="AB317" s="2"/>
     </row>
-    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10635,7 +10635,7 @@
       <c r="AA318" s="2"/>
       <c r="AB318" s="2"/>
     </row>
-    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10665,7 +10665,7 @@
       <c r="AA319" s="2"/>
       <c r="AB319" s="2"/>
     </row>
-    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10695,7 +10695,7 @@
       <c r="AA320" s="2"/>
       <c r="AB320" s="2"/>
     </row>
-    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10725,7 +10725,7 @@
       <c r="AA321" s="2"/>
       <c r="AB321" s="2"/>
     </row>
-    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10755,7 +10755,7 @@
       <c r="AA322" s="2"/>
       <c r="AB322" s="2"/>
     </row>
-    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10785,7 +10785,7 @@
       <c r="AA323" s="2"/>
       <c r="AB323" s="2"/>
     </row>
-    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10815,7 +10815,7 @@
       <c r="AA324" s="2"/>
       <c r="AB324" s="2"/>
     </row>
-    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10845,7 +10845,7 @@
       <c r="AA325" s="2"/>
       <c r="AB325" s="2"/>
     </row>
-    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10875,7 +10875,7 @@
       <c r="AA326" s="2"/>
       <c r="AB326" s="2"/>
     </row>
-    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10905,7 +10905,7 @@
       <c r="AA327" s="2"/>
       <c r="AB327" s="2"/>
     </row>
-    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10935,7 +10935,7 @@
       <c r="AA328" s="2"/>
       <c r="AB328" s="2"/>
     </row>
-    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10965,7 +10965,7 @@
       <c r="AA329" s="2"/>
       <c r="AB329" s="2"/>
     </row>
-    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10995,7 +10995,7 @@
       <c r="AA330" s="2"/>
       <c r="AB330" s="2"/>
     </row>
-    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -11025,7 +11025,7 @@
       <c r="AA331" s="2"/>
       <c r="AB331" s="2"/>
     </row>
-    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -11055,7 +11055,7 @@
       <c r="AA332" s="2"/>
       <c r="AB332" s="2"/>
     </row>
-    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -11085,7 +11085,7 @@
       <c r="AA333" s="2"/>
       <c r="AB333" s="2"/>
     </row>
-    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -11115,7 +11115,7 @@
       <c r="AA334" s="2"/>
       <c r="AB334" s="2"/>
     </row>
-    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -11145,7 +11145,7 @@
       <c r="AA335" s="2"/>
       <c r="AB335" s="2"/>
     </row>
-    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -11175,7 +11175,7 @@
       <c r="AA336" s="2"/>
       <c r="AB336" s="2"/>
     </row>
-    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -11205,7 +11205,7 @@
       <c r="AA337" s="2"/>
       <c r="AB337" s="2"/>
     </row>
-    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -11235,7 +11235,7 @@
       <c r="AA338" s="2"/>
       <c r="AB338" s="2"/>
     </row>
-    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -11265,7 +11265,7 @@
       <c r="AA339" s="2"/>
       <c r="AB339" s="2"/>
     </row>
-    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -11295,7 +11295,7 @@
       <c r="AA340" s="2"/>
       <c r="AB340" s="2"/>
     </row>
-    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -11325,7 +11325,7 @@
       <c r="AA341" s="2"/>
       <c r="AB341" s="2"/>
     </row>
-    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -11355,7 +11355,7 @@
       <c r="AA342" s="2"/>
       <c r="AB342" s="2"/>
     </row>
-    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -11385,7 +11385,7 @@
       <c r="AA343" s="2"/>
       <c r="AB343" s="2"/>
     </row>
-    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -11415,7 +11415,7 @@
       <c r="AA344" s="2"/>
       <c r="AB344" s="2"/>
     </row>
-    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -11445,7 +11445,7 @@
       <c r="AA345" s="2"/>
       <c r="AB345" s="2"/>
     </row>
-    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -11475,7 +11475,7 @@
       <c r="AA346" s="2"/>
       <c r="AB346" s="2"/>
     </row>
-    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -11505,7 +11505,7 @@
       <c r="AA347" s="2"/>
       <c r="AB347" s="2"/>
     </row>
-    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -11535,7 +11535,7 @@
       <c r="AA348" s="2"/>
       <c r="AB348" s="2"/>
     </row>
-    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -11565,7 +11565,7 @@
       <c r="AA349" s="2"/>
       <c r="AB349" s="2"/>
     </row>
-    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -11595,7 +11595,7 @@
       <c r="AA350" s="2"/>
       <c r="AB350" s="2"/>
     </row>
-    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11625,7 +11625,7 @@
       <c r="AA351" s="2"/>
       <c r="AB351" s="2"/>
     </row>
-    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11655,7 +11655,7 @@
       <c r="AA352" s="2"/>
       <c r="AB352" s="2"/>
     </row>
-    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11685,7 +11685,7 @@
       <c r="AA353" s="2"/>
       <c r="AB353" s="2"/>
     </row>
-    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11715,7 +11715,7 @@
       <c r="AA354" s="2"/>
       <c r="AB354" s="2"/>
     </row>
-    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11745,7 +11745,7 @@
       <c r="AA355" s="2"/>
       <c r="AB355" s="2"/>
     </row>
-    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11775,7 +11775,7 @@
       <c r="AA356" s="2"/>
       <c r="AB356" s="2"/>
     </row>
-    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11805,7 +11805,7 @@
       <c r="AA357" s="2"/>
       <c r="AB357" s="2"/>
     </row>
-    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11835,7 +11835,7 @@
       <c r="AA358" s="2"/>
       <c r="AB358" s="2"/>
     </row>
-    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11865,7 +11865,7 @@
       <c r="AA359" s="2"/>
       <c r="AB359" s="2"/>
     </row>
-    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11895,7 +11895,7 @@
       <c r="AA360" s="2"/>
       <c r="AB360" s="2"/>
     </row>
-    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11925,7 +11925,7 @@
       <c r="AA361" s="2"/>
       <c r="AB361" s="2"/>
     </row>
-    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11955,7 +11955,7 @@
       <c r="AA362" s="2"/>
       <c r="AB362" s="2"/>
     </row>
-    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11985,7 +11985,7 @@
       <c r="AA363" s="2"/>
       <c r="AB363" s="2"/>
     </row>
-    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -12015,7 +12015,7 @@
       <c r="AA364" s="2"/>
       <c r="AB364" s="2"/>
     </row>
-    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -12045,7 +12045,7 @@
       <c r="AA365" s="2"/>
       <c r="AB365" s="2"/>
     </row>
-    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -12075,7 +12075,7 @@
       <c r="AA366" s="2"/>
       <c r="AB366" s="2"/>
     </row>
-    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -12105,7 +12105,7 @@
       <c r="AA367" s="2"/>
       <c r="AB367" s="2"/>
     </row>
-    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -12135,7 +12135,7 @@
       <c r="AA368" s="2"/>
       <c r="AB368" s="2"/>
     </row>
-    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -12165,7 +12165,7 @@
       <c r="AA369" s="2"/>
       <c r="AB369" s="2"/>
     </row>
-    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -12195,7 +12195,7 @@
       <c r="AA370" s="2"/>
       <c r="AB370" s="2"/>
     </row>
-    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -12225,7 +12225,7 @@
       <c r="AA371" s="2"/>
       <c r="AB371" s="2"/>
     </row>
-    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -12255,7 +12255,7 @@
       <c r="AA372" s="2"/>
       <c r="AB372" s="2"/>
     </row>
-    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -12285,7 +12285,7 @@
       <c r="AA373" s="2"/>
       <c r="AB373" s="2"/>
     </row>
-    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -12315,7 +12315,7 @@
       <c r="AA374" s="2"/>
       <c r="AB374" s="2"/>
     </row>
-    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -12345,7 +12345,7 @@
       <c r="AA375" s="2"/>
       <c r="AB375" s="2"/>
     </row>
-    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -12375,7 +12375,7 @@
       <c r="AA376" s="2"/>
       <c r="AB376" s="2"/>
     </row>
-    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -12405,7 +12405,7 @@
       <c r="AA377" s="2"/>
       <c r="AB377" s="2"/>
     </row>
-    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -12435,7 +12435,7 @@
       <c r="AA378" s="2"/>
       <c r="AB378" s="2"/>
     </row>
-    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -12465,7 +12465,7 @@
       <c r="AA379" s="2"/>
       <c r="AB379" s="2"/>
     </row>
-    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -12495,7 +12495,7 @@
       <c r="AA380" s="2"/>
       <c r="AB380" s="2"/>
     </row>
-    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -12525,7 +12525,7 @@
       <c r="AA381" s="2"/>
       <c r="AB381" s="2"/>
     </row>
-    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -12555,7 +12555,7 @@
       <c r="AA382" s="2"/>
       <c r="AB382" s="2"/>
     </row>
-    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -12585,7 +12585,7 @@
       <c r="AA383" s="2"/>
       <c r="AB383" s="2"/>
     </row>
-    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -12615,7 +12615,7 @@
       <c r="AA384" s="2"/>
       <c r="AB384" s="2"/>
     </row>
-    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -12645,7 +12645,7 @@
       <c r="AA385" s="2"/>
       <c r="AB385" s="2"/>
     </row>
-    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -12675,7 +12675,7 @@
       <c r="AA386" s="2"/>
       <c r="AB386" s="2"/>
     </row>
-    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -12705,7 +12705,7 @@
       <c r="AA387" s="2"/>
       <c r="AB387" s="2"/>
     </row>
-    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -12735,7 +12735,7 @@
       <c r="AA388" s="2"/>
       <c r="AB388" s="2"/>
     </row>
-    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12765,7 +12765,7 @@
       <c r="AA389" s="2"/>
       <c r="AB389" s="2"/>
     </row>
-    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12795,7 +12795,7 @@
       <c r="AA390" s="2"/>
       <c r="AB390" s="2"/>
     </row>
-    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12825,7 +12825,7 @@
       <c r="AA391" s="2"/>
       <c r="AB391" s="2"/>
     </row>
-    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12855,7 +12855,7 @@
       <c r="AA392" s="2"/>
       <c r="AB392" s="2"/>
     </row>
-    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12885,7 +12885,7 @@
       <c r="AA393" s="2"/>
       <c r="AB393" s="2"/>
     </row>
-    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12915,7 +12915,7 @@
       <c r="AA394" s="2"/>
       <c r="AB394" s="2"/>
     </row>
-    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12945,7 +12945,7 @@
       <c r="AA395" s="2"/>
       <c r="AB395" s="2"/>
     </row>
-    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12975,7 +12975,7 @@
       <c r="AA396" s="2"/>
       <c r="AB396" s="2"/>
     </row>
-    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -13005,7 +13005,7 @@
       <c r="AA397" s="2"/>
       <c r="AB397" s="2"/>
     </row>
-    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -13035,7 +13035,7 @@
       <c r="AA398" s="2"/>
       <c r="AB398" s="2"/>
     </row>
-    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -13065,7 +13065,7 @@
       <c r="AA399" s="2"/>
       <c r="AB399" s="2"/>
     </row>
-    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -13095,7 +13095,7 @@
       <c r="AA400" s="2"/>
       <c r="AB400" s="2"/>
     </row>
-    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -13125,7 +13125,7 @@
       <c r="AA401" s="2"/>
       <c r="AB401" s="2"/>
     </row>
-    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -13155,7 +13155,7 @@
       <c r="AA402" s="2"/>
       <c r="AB402" s="2"/>
     </row>
-    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -13185,7 +13185,7 @@
       <c r="AA403" s="2"/>
       <c r="AB403" s="2"/>
     </row>
-    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -13215,7 +13215,7 @@
       <c r="AA404" s="2"/>
       <c r="AB404" s="2"/>
     </row>
-    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -13245,7 +13245,7 @@
       <c r="AA405" s="2"/>
       <c r="AB405" s="2"/>
     </row>
-    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -13275,7 +13275,7 @@
       <c r="AA406" s="2"/>
       <c r="AB406" s="2"/>
     </row>
-    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -13305,7 +13305,7 @@
       <c r="AA407" s="2"/>
       <c r="AB407" s="2"/>
     </row>
-    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -13335,7 +13335,7 @@
       <c r="AA408" s="2"/>
       <c r="AB408" s="2"/>
     </row>
-    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -13365,7 +13365,7 @@
       <c r="AA409" s="2"/>
       <c r="AB409" s="2"/>
     </row>
-    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -13395,7 +13395,7 @@
       <c r="AA410" s="2"/>
       <c r="AB410" s="2"/>
     </row>
-    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -13425,7 +13425,7 @@
       <c r="AA411" s="2"/>
       <c r="AB411" s="2"/>
     </row>
-    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -13455,7 +13455,7 @@
       <c r="AA412" s="2"/>
       <c r="AB412" s="2"/>
     </row>
-    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -13485,7 +13485,7 @@
       <c r="AA413" s="2"/>
       <c r="AB413" s="2"/>
     </row>
-    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -13515,7 +13515,7 @@
       <c r="AA414" s="2"/>
       <c r="AB414" s="2"/>
     </row>
-    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -13545,7 +13545,7 @@
       <c r="AA415" s="2"/>
       <c r="AB415" s="2"/>
     </row>
-    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -13575,7 +13575,7 @@
       <c r="AA416" s="2"/>
       <c r="AB416" s="2"/>
     </row>
-    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -13605,7 +13605,7 @@
       <c r="AA417" s="2"/>
       <c r="AB417" s="2"/>
     </row>
-    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -13635,7 +13635,7 @@
       <c r="AA418" s="2"/>
       <c r="AB418" s="2"/>
     </row>
-    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -13665,7 +13665,7 @@
       <c r="AA419" s="2"/>
       <c r="AB419" s="2"/>
     </row>
-    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -13695,7 +13695,7 @@
       <c r="AA420" s="2"/>
       <c r="AB420" s="2"/>
     </row>
-    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -13725,7 +13725,7 @@
       <c r="AA421" s="2"/>
       <c r="AB421" s="2"/>
     </row>
-    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -13755,7 +13755,7 @@
       <c r="AA422" s="2"/>
       <c r="AB422" s="2"/>
     </row>
-    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -13785,7 +13785,7 @@
       <c r="AA423" s="2"/>
       <c r="AB423" s="2"/>
     </row>
-    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -13815,7 +13815,7 @@
       <c r="AA424" s="2"/>
       <c r="AB424" s="2"/>
     </row>
-    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -13845,7 +13845,7 @@
       <c r="AA425" s="2"/>
       <c r="AB425" s="2"/>
     </row>
-    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -13875,7 +13875,7 @@
       <c r="AA426" s="2"/>
       <c r="AB426" s="2"/>
     </row>
-    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13905,7 +13905,7 @@
       <c r="AA427" s="2"/>
       <c r="AB427" s="2"/>
     </row>
-    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13935,7 +13935,7 @@
       <c r="AA428" s="2"/>
       <c r="AB428" s="2"/>
     </row>
-    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13965,7 +13965,7 @@
       <c r="AA429" s="2"/>
       <c r="AB429" s="2"/>
     </row>
-    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13995,7 +13995,7 @@
       <c r="AA430" s="2"/>
       <c r="AB430" s="2"/>
     </row>
-    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -14025,7 +14025,7 @@
       <c r="AA431" s="2"/>
       <c r="AB431" s="2"/>
     </row>
-    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -14055,7 +14055,7 @@
       <c r="AA432" s="2"/>
       <c r="AB432" s="2"/>
     </row>
-    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -14085,7 +14085,7 @@
       <c r="AA433" s="2"/>
       <c r="AB433" s="2"/>
     </row>
-    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -14115,7 +14115,7 @@
       <c r="AA434" s="2"/>
       <c r="AB434" s="2"/>
     </row>
-    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -14145,7 +14145,7 @@
       <c r="AA435" s="2"/>
       <c r="AB435" s="2"/>
     </row>
-    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -14175,7 +14175,7 @@
       <c r="AA436" s="2"/>
       <c r="AB436" s="2"/>
     </row>
-    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -14205,7 +14205,7 @@
       <c r="AA437" s="2"/>
       <c r="AB437" s="2"/>
     </row>
-    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -14235,7 +14235,7 @@
       <c r="AA438" s="2"/>
       <c r="AB438" s="2"/>
     </row>
-    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -14265,7 +14265,7 @@
       <c r="AA439" s="2"/>
       <c r="AB439" s="2"/>
     </row>
-    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -14295,7 +14295,7 @@
       <c r="AA440" s="2"/>
       <c r="AB440" s="2"/>
     </row>
-    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -14325,7 +14325,7 @@
       <c r="AA441" s="2"/>
       <c r="AB441" s="2"/>
     </row>
-    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -14355,7 +14355,7 @@
       <c r="AA442" s="2"/>
       <c r="AB442" s="2"/>
     </row>
-    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -14385,7 +14385,7 @@
       <c r="AA443" s="2"/>
       <c r="AB443" s="2"/>
     </row>
-    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -14415,7 +14415,7 @@
       <c r="AA444" s="2"/>
       <c r="AB444" s="2"/>
     </row>
-    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -14445,7 +14445,7 @@
       <c r="AA445" s="2"/>
       <c r="AB445" s="2"/>
     </row>
-    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -14475,7 +14475,7 @@
       <c r="AA446" s="2"/>
       <c r="AB446" s="2"/>
     </row>
-    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -14505,7 +14505,7 @@
       <c r="AA447" s="2"/>
       <c r="AB447" s="2"/>
     </row>
-    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -14535,7 +14535,7 @@
       <c r="AA448" s="2"/>
       <c r="AB448" s="2"/>
     </row>
-    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -14565,7 +14565,7 @@
       <c r="AA449" s="2"/>
       <c r="AB449" s="2"/>
     </row>
-    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -14595,7 +14595,7 @@
       <c r="AA450" s="2"/>
       <c r="AB450" s="2"/>
     </row>
-    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -14625,7 +14625,7 @@
       <c r="AA451" s="2"/>
       <c r="AB451" s="2"/>
     </row>
-    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -14655,7 +14655,7 @@
       <c r="AA452" s="2"/>
       <c r="AB452" s="2"/>
     </row>
-    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -14685,7 +14685,7 @@
       <c r="AA453" s="2"/>
       <c r="AB453" s="2"/>
     </row>
-    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -14715,7 +14715,7 @@
       <c r="AA454" s="2"/>
       <c r="AB454" s="2"/>
     </row>
-    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -14745,7 +14745,7 @@
       <c r="AA455" s="2"/>
       <c r="AB455" s="2"/>
     </row>
-    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -14775,7 +14775,7 @@
       <c r="AA456" s="2"/>
       <c r="AB456" s="2"/>
     </row>
-    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -14805,7 +14805,7 @@
       <c r="AA457" s="2"/>
       <c r="AB457" s="2"/>
     </row>
-    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -14835,7 +14835,7 @@
       <c r="AA458" s="2"/>
       <c r="AB458" s="2"/>
     </row>
-    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -14865,7 +14865,7 @@
       <c r="AA459" s="2"/>
       <c r="AB459" s="2"/>
     </row>
-    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -14895,7 +14895,7 @@
       <c r="AA460" s="2"/>
       <c r="AB460" s="2"/>
     </row>
-    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -14925,7 +14925,7 @@
       <c r="AA461" s="2"/>
       <c r="AB461" s="2"/>
     </row>
-    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -14955,7 +14955,7 @@
       <c r="AA462" s="2"/>
       <c r="AB462" s="2"/>
     </row>
-    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -14985,7 +14985,7 @@
       <c r="AA463" s="2"/>
       <c r="AB463" s="2"/>
     </row>
-    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -15015,7 +15015,7 @@
       <c r="AA464" s="2"/>
       <c r="AB464" s="2"/>
     </row>
-    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -15045,7 +15045,7 @@
       <c r="AA465" s="2"/>
       <c r="AB465" s="2"/>
     </row>
-    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -15075,7 +15075,7 @@
       <c r="AA466" s="2"/>
       <c r="AB466" s="2"/>
     </row>
-    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -15105,7 +15105,7 @@
       <c r="AA467" s="2"/>
       <c r="AB467" s="2"/>
     </row>
-    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -15135,7 +15135,7 @@
       <c r="AA468" s="2"/>
       <c r="AB468" s="2"/>
     </row>
-    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -15165,7 +15165,7 @@
       <c r="AA469" s="2"/>
       <c r="AB469" s="2"/>
     </row>
-    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -15195,7 +15195,7 @@
       <c r="AA470" s="2"/>
       <c r="AB470" s="2"/>
     </row>
-    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -15225,7 +15225,7 @@
       <c r="AA471" s="2"/>
       <c r="AB471" s="2"/>
     </row>
-    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -15255,7 +15255,7 @@
       <c r="AA472" s="2"/>
       <c r="AB472" s="2"/>
     </row>
-    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -15285,7 +15285,7 @@
       <c r="AA473" s="2"/>
       <c r="AB473" s="2"/>
     </row>
-    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -15315,7 +15315,7 @@
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
     </row>
-    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -15345,7 +15345,7 @@
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
     </row>
-    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -15375,7 +15375,7 @@
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
     </row>
-    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -15405,7 +15405,7 @@
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
     </row>
-    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -15435,7 +15435,7 @@
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
     </row>
-    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -15465,7 +15465,7 @@
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
     </row>
-    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -15495,7 +15495,7 @@
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
     </row>
-    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -15525,7 +15525,7 @@
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
     </row>
-    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -15555,7 +15555,7 @@
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
     </row>
-    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -15585,7 +15585,7 @@
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
     </row>
-    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -15615,7 +15615,7 @@
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
     </row>
-    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -15645,7 +15645,7 @@
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
     </row>
-    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -15675,7 +15675,7 @@
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
     </row>
-    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -15705,7 +15705,7 @@
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
     </row>
-    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -15735,7 +15735,7 @@
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
     </row>
-    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -15765,7 +15765,7 @@
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
     </row>
-    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -15795,7 +15795,7 @@
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
     </row>
-    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -15825,7 +15825,7 @@
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
     </row>
-    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -15855,7 +15855,7 @@
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
     </row>
-    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -15885,7 +15885,7 @@
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
     </row>
-    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -15915,7 +15915,7 @@
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
     </row>
-    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -15945,7 +15945,7 @@
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
     </row>
-    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -15975,7 +15975,7 @@
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
     </row>
-    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -16005,7 +16005,7 @@
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
     </row>
-    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -16035,7 +16035,7 @@
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
     </row>
-    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -16065,7 +16065,7 @@
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
     </row>
-    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -16095,7 +16095,7 @@
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
     </row>
-    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -16125,7 +16125,7 @@
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
     </row>
-    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -16155,7 +16155,7 @@
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
     </row>
-    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -16185,7 +16185,7 @@
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
     </row>
-    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -16215,7 +16215,7 @@
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
     </row>
-    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -16245,7 +16245,7 @@
       <c r="AA505" s="2"/>
       <c r="AB505" s="2"/>
     </row>
-    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -16275,7 +16275,7 @@
       <c r="AA506" s="2"/>
       <c r="AB506" s="2"/>
     </row>
-    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -16305,7 +16305,7 @@
       <c r="AA507" s="2"/>
       <c r="AB507" s="2"/>
     </row>
-    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -16335,7 +16335,7 @@
       <c r="AA508" s="2"/>
       <c r="AB508" s="2"/>
     </row>
-    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -16365,7 +16365,7 @@
       <c r="AA509" s="2"/>
       <c r="AB509" s="2"/>
     </row>
-    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -16395,7 +16395,7 @@
       <c r="AA510" s="2"/>
       <c r="AB510" s="2"/>
     </row>
-    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -16425,7 +16425,7 @@
       <c r="AA511" s="2"/>
       <c r="AB511" s="2"/>
     </row>
-    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -16455,7 +16455,7 @@
       <c r="AA512" s="2"/>
       <c r="AB512" s="2"/>
     </row>
-    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -16485,7 +16485,7 @@
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
     </row>
-    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -16515,7 +16515,7 @@
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
     </row>
-    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -16545,7 +16545,7 @@
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
     </row>
-    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -16575,7 +16575,7 @@
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
     </row>
-    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -16605,7 +16605,7 @@
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -16635,7 +16635,7 @@
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
     </row>
-    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -16665,7 +16665,7 @@
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
     </row>
-    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -16695,7 +16695,7 @@
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
     </row>
-    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -16725,7 +16725,7 @@
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
     </row>
-    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -16755,7 +16755,7 @@
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
     </row>
-    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -16785,7 +16785,7 @@
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
     </row>
-    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -16815,7 +16815,7 @@
       <c r="AA524" s="2"/>
       <c r="AB524" s="2"/>
     </row>
-    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -16845,7 +16845,7 @@
       <c r="AA525" s="2"/>
       <c r="AB525" s="2"/>
     </row>
-    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -16875,7 +16875,7 @@
       <c r="AA526" s="2"/>
       <c r="AB526" s="2"/>
     </row>
-    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -16905,7 +16905,7 @@
       <c r="AA527" s="2"/>
       <c r="AB527" s="2"/>
     </row>
-    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -16935,7 +16935,7 @@
       <c r="AA528" s="2"/>
       <c r="AB528" s="2"/>
     </row>
-    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -16965,7 +16965,7 @@
       <c r="AA529" s="2"/>
       <c r="AB529" s="2"/>
     </row>
-    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -16995,7 +16995,7 @@
       <c r="AA530" s="2"/>
       <c r="AB530" s="2"/>
     </row>
-    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -17025,7 +17025,7 @@
       <c r="AA531" s="2"/>
       <c r="AB531" s="2"/>
     </row>
-    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -17055,7 +17055,7 @@
       <c r="AA532" s="2"/>
       <c r="AB532" s="2"/>
     </row>
-    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -17085,7 +17085,7 @@
       <c r="AA533" s="2"/>
       <c r="AB533" s="2"/>
     </row>
-    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -17115,7 +17115,7 @@
       <c r="AA534" s="2"/>
       <c r="AB534" s="2"/>
     </row>
-    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -17145,7 +17145,7 @@
       <c r="AA535" s="2"/>
       <c r="AB535" s="2"/>
     </row>
-    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -17175,7 +17175,7 @@
       <c r="AA536" s="2"/>
       <c r="AB536" s="2"/>
     </row>
-    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -17205,7 +17205,7 @@
       <c r="AA537" s="2"/>
       <c r="AB537" s="2"/>
     </row>
-    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -17235,7 +17235,7 @@
       <c r="AA538" s="2"/>
       <c r="AB538" s="2"/>
     </row>
-    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -17265,7 +17265,7 @@
       <c r="AA539" s="2"/>
       <c r="AB539" s="2"/>
     </row>
-    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -17295,7 +17295,7 @@
       <c r="AA540" s="2"/>
       <c r="AB540" s="2"/>
     </row>
-    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -17325,7 +17325,7 @@
       <c r="AA541" s="2"/>
       <c r="AB541" s="2"/>
     </row>
-    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -17355,7 +17355,7 @@
       <c r="AA542" s="2"/>
       <c r="AB542" s="2"/>
     </row>
-    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -17385,7 +17385,7 @@
       <c r="AA543" s="2"/>
       <c r="AB543" s="2"/>
     </row>
-    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -17415,7 +17415,7 @@
       <c r="AA544" s="2"/>
       <c r="AB544" s="2"/>
     </row>
-    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -17445,7 +17445,7 @@
       <c r="AA545" s="2"/>
       <c r="AB545" s="2"/>
     </row>
-    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -17475,7 +17475,7 @@
       <c r="AA546" s="2"/>
       <c r="AB546" s="2"/>
     </row>
-    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -17505,7 +17505,7 @@
       <c r="AA547" s="2"/>
       <c r="AB547" s="2"/>
     </row>
-    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -17535,7 +17535,7 @@
       <c r="AA548" s="2"/>
       <c r="AB548" s="2"/>
     </row>
-    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -17565,7 +17565,7 @@
       <c r="AA549" s="2"/>
       <c r="AB549" s="2"/>
     </row>
-    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -17595,7 +17595,7 @@
       <c r="AA550" s="2"/>
       <c r="AB550" s="2"/>
     </row>
-    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -17625,7 +17625,7 @@
       <c r="AA551" s="2"/>
       <c r="AB551" s="2"/>
     </row>
-    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -17655,7 +17655,7 @@
       <c r="AA552" s="2"/>
       <c r="AB552" s="2"/>
     </row>
-    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -17685,7 +17685,7 @@
       <c r="AA553" s="2"/>
       <c r="AB553" s="2"/>
     </row>
-    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -17715,7 +17715,7 @@
       <c r="AA554" s="2"/>
       <c r="AB554" s="2"/>
     </row>
-    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -17745,7 +17745,7 @@
       <c r="AA555" s="2"/>
       <c r="AB555" s="2"/>
     </row>
-    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -17775,7 +17775,7 @@
       <c r="AA556" s="2"/>
       <c r="AB556" s="2"/>
     </row>
-    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -17805,7 +17805,7 @@
       <c r="AA557" s="2"/>
       <c r="AB557" s="2"/>
     </row>
-    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -17835,7 +17835,7 @@
       <c r="AA558" s="2"/>
       <c r="AB558" s="2"/>
     </row>
-    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -17865,7 +17865,7 @@
       <c r="AA559" s="2"/>
       <c r="AB559" s="2"/>
     </row>
-    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -17895,7 +17895,7 @@
       <c r="AA560" s="2"/>
       <c r="AB560" s="2"/>
     </row>
-    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -17925,7 +17925,7 @@
       <c r="AA561" s="2"/>
       <c r="AB561" s="2"/>
     </row>
-    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -17955,7 +17955,7 @@
       <c r="AA562" s="2"/>
       <c r="AB562" s="2"/>
     </row>
-    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -17985,7 +17985,7 @@
       <c r="AA563" s="2"/>
       <c r="AB563" s="2"/>
     </row>
-    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -18015,7 +18015,7 @@
       <c r="AA564" s="2"/>
       <c r="AB564" s="2"/>
     </row>
-    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -18045,7 +18045,7 @@
       <c r="AA565" s="2"/>
       <c r="AB565" s="2"/>
     </row>
-    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -18075,7 +18075,7 @@
       <c r="AA566" s="2"/>
       <c r="AB566" s="2"/>
     </row>
-    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -18105,7 +18105,7 @@
       <c r="AA567" s="2"/>
       <c r="AB567" s="2"/>
     </row>
-    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -18135,7 +18135,7 @@
       <c r="AA568" s="2"/>
       <c r="AB568" s="2"/>
     </row>
-    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -18165,7 +18165,7 @@
       <c r="AA569" s="2"/>
       <c r="AB569" s="2"/>
     </row>
-    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -18195,7 +18195,7 @@
       <c r="AA570" s="2"/>
       <c r="AB570" s="2"/>
     </row>
-    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -18225,7 +18225,7 @@
       <c r="AA571" s="2"/>
       <c r="AB571" s="2"/>
     </row>
-    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -18255,7 +18255,7 @@
       <c r="AA572" s="2"/>
       <c r="AB572" s="2"/>
     </row>
-    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -18285,7 +18285,7 @@
       <c r="AA573" s="2"/>
       <c r="AB573" s="2"/>
     </row>
-    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -18315,7 +18315,7 @@
       <c r="AA574" s="2"/>
       <c r="AB574" s="2"/>
     </row>
-    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -18345,7 +18345,7 @@
       <c r="AA575" s="2"/>
       <c r="AB575" s="2"/>
     </row>
-    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -18375,7 +18375,7 @@
       <c r="AA576" s="2"/>
       <c r="AB576" s="2"/>
     </row>
-    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -18405,7 +18405,7 @@
       <c r="AA577" s="2"/>
       <c r="AB577" s="2"/>
     </row>
-    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -18435,7 +18435,7 @@
       <c r="AA578" s="2"/>
       <c r="AB578" s="2"/>
     </row>
-    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -18465,7 +18465,7 @@
       <c r="AA579" s="2"/>
       <c r="AB579" s="2"/>
     </row>
-    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -18495,7 +18495,7 @@
       <c r="AA580" s="2"/>
       <c r="AB580" s="2"/>
     </row>
-    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -18525,7 +18525,7 @@
       <c r="AA581" s="2"/>
       <c r="AB581" s="2"/>
     </row>
-    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -18555,7 +18555,7 @@
       <c r="AA582" s="2"/>
       <c r="AB582" s="2"/>
     </row>
-    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -18585,7 +18585,7 @@
       <c r="AA583" s="2"/>
       <c r="AB583" s="2"/>
     </row>
-    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -18615,7 +18615,7 @@
       <c r="AA584" s="2"/>
       <c r="AB584" s="2"/>
     </row>
-    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -18645,7 +18645,7 @@
       <c r="AA585" s="2"/>
       <c r="AB585" s="2"/>
     </row>
-    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -18675,7 +18675,7 @@
       <c r="AA586" s="2"/>
       <c r="AB586" s="2"/>
     </row>
-    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -18705,7 +18705,7 @@
       <c r="AA587" s="2"/>
       <c r="AB587" s="2"/>
     </row>
-    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -18735,7 +18735,7 @@
       <c r="AA588" s="2"/>
       <c r="AB588" s="2"/>
     </row>
-    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -18765,7 +18765,7 @@
       <c r="AA589" s="2"/>
       <c r="AB589" s="2"/>
     </row>
-    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -18795,7 +18795,7 @@
       <c r="AA590" s="2"/>
       <c r="AB590" s="2"/>
     </row>
-    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -18825,7 +18825,7 @@
       <c r="AA591" s="2"/>
       <c r="AB591" s="2"/>
     </row>
-    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -18855,7 +18855,7 @@
       <c r="AA592" s="2"/>
       <c r="AB592" s="2"/>
     </row>
-    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -18885,7 +18885,7 @@
       <c r="AA593" s="2"/>
       <c r="AB593" s="2"/>
     </row>
-    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -18915,7 +18915,7 @@
       <c r="AA594" s="2"/>
       <c r="AB594" s="2"/>
     </row>
-    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -18945,7 +18945,7 @@
       <c r="AA595" s="2"/>
       <c r="AB595" s="2"/>
     </row>
-    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -18975,7 +18975,7 @@
       <c r="AA596" s="2"/>
       <c r="AB596" s="2"/>
     </row>
-    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -19005,7 +19005,7 @@
       <c r="AA597" s="2"/>
       <c r="AB597" s="2"/>
     </row>
-    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -19035,7 +19035,7 @@
       <c r="AA598" s="2"/>
       <c r="AB598" s="2"/>
     </row>
-    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -19065,7 +19065,7 @@
       <c r="AA599" s="2"/>
       <c r="AB599" s="2"/>
     </row>
-    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -19095,7 +19095,7 @@
       <c r="AA600" s="2"/>
       <c r="AB600" s="2"/>
     </row>
-    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -19125,7 +19125,7 @@
       <c r="AA601" s="2"/>
       <c r="AB601" s="2"/>
     </row>
-    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -19155,7 +19155,7 @@
       <c r="AA602" s="2"/>
       <c r="AB602" s="2"/>
     </row>
-    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -19185,7 +19185,7 @@
       <c r="AA603" s="2"/>
       <c r="AB603" s="2"/>
     </row>
-    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -19215,7 +19215,7 @@
       <c r="AA604" s="2"/>
       <c r="AB604" s="2"/>
     </row>
-    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -19245,7 +19245,7 @@
       <c r="AA605" s="2"/>
       <c r="AB605" s="2"/>
     </row>
-    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -19275,7 +19275,7 @@
       <c r="AA606" s="2"/>
       <c r="AB606" s="2"/>
     </row>
-    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -19305,7 +19305,7 @@
       <c r="AA607" s="2"/>
       <c r="AB607" s="2"/>
     </row>
-    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -19335,7 +19335,7 @@
       <c r="AA608" s="2"/>
       <c r="AB608" s="2"/>
     </row>
-    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -19365,7 +19365,7 @@
       <c r="AA609" s="2"/>
       <c r="AB609" s="2"/>
     </row>
-    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -19395,7 +19395,7 @@
       <c r="AA610" s="2"/>
       <c r="AB610" s="2"/>
     </row>
-    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -19425,7 +19425,7 @@
       <c r="AA611" s="2"/>
       <c r="AB611" s="2"/>
     </row>
-    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -19455,7 +19455,7 @@
       <c r="AA612" s="2"/>
       <c r="AB612" s="2"/>
     </row>
-    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -19485,7 +19485,7 @@
       <c r="AA613" s="2"/>
       <c r="AB613" s="2"/>
     </row>
-    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -19515,7 +19515,7 @@
       <c r="AA614" s="2"/>
       <c r="AB614" s="2"/>
     </row>
-    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -19545,7 +19545,7 @@
       <c r="AA615" s="2"/>
       <c r="AB615" s="2"/>
     </row>
-    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -19575,7 +19575,7 @@
       <c r="AA616" s="2"/>
       <c r="AB616" s="2"/>
     </row>
-    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -19605,7 +19605,7 @@
       <c r="AA617" s="2"/>
       <c r="AB617" s="2"/>
     </row>
-    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -19635,7 +19635,7 @@
       <c r="AA618" s="2"/>
       <c r="AB618" s="2"/>
     </row>
-    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -19665,7 +19665,7 @@
       <c r="AA619" s="2"/>
       <c r="AB619" s="2"/>
     </row>
-    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -19695,7 +19695,7 @@
       <c r="AA620" s="2"/>
       <c r="AB620" s="2"/>
     </row>
-    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -19725,7 +19725,7 @@
       <c r="AA621" s="2"/>
       <c r="AB621" s="2"/>
     </row>
-    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -19755,7 +19755,7 @@
       <c r="AA622" s="2"/>
       <c r="AB622" s="2"/>
     </row>
-    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -19785,7 +19785,7 @@
       <c r="AA623" s="2"/>
       <c r="AB623" s="2"/>
     </row>
-    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -19815,7 +19815,7 @@
       <c r="AA624" s="2"/>
       <c r="AB624" s="2"/>
     </row>
-    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -19845,7 +19845,7 @@
       <c r="AA625" s="2"/>
       <c r="AB625" s="2"/>
     </row>
-    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -19875,7 +19875,7 @@
       <c r="AA626" s="2"/>
       <c r="AB626" s="2"/>
     </row>
-    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -19905,7 +19905,7 @@
       <c r="AA627" s="2"/>
       <c r="AB627" s="2"/>
     </row>
-    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -19935,7 +19935,7 @@
       <c r="AA628" s="2"/>
       <c r="AB628" s="2"/>
     </row>
-    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -19965,7 +19965,7 @@
       <c r="AA629" s="2"/>
       <c r="AB629" s="2"/>
     </row>
-    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -19995,7 +19995,7 @@
       <c r="AA630" s="2"/>
       <c r="AB630" s="2"/>
     </row>
-    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -20025,7 +20025,7 @@
       <c r="AA631" s="2"/>
       <c r="AB631" s="2"/>
     </row>
-    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -20055,7 +20055,7 @@
       <c r="AA632" s="2"/>
       <c r="AB632" s="2"/>
     </row>
-    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -20085,7 +20085,7 @@
       <c r="AA633" s="2"/>
       <c r="AB633" s="2"/>
     </row>
-    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -20115,7 +20115,7 @@
       <c r="AA634" s="2"/>
       <c r="AB634" s="2"/>
     </row>
-    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -20145,7 +20145,7 @@
       <c r="AA635" s="2"/>
       <c r="AB635" s="2"/>
     </row>
-    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -20175,7 +20175,7 @@
       <c r="AA636" s="2"/>
       <c r="AB636" s="2"/>
     </row>
-    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -20205,7 +20205,7 @@
       <c r="AA637" s="2"/>
       <c r="AB637" s="2"/>
     </row>
-    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -20235,7 +20235,7 @@
       <c r="AA638" s="2"/>
       <c r="AB638" s="2"/>
     </row>
-    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -20265,7 +20265,7 @@
       <c r="AA639" s="2"/>
       <c r="AB639" s="2"/>
     </row>
-    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -20295,7 +20295,7 @@
       <c r="AA640" s="2"/>
       <c r="AB640" s="2"/>
     </row>
-    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -20325,7 +20325,7 @@
       <c r="AA641" s="2"/>
       <c r="AB641" s="2"/>
     </row>
-    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -20355,7 +20355,7 @@
       <c r="AA642" s="2"/>
       <c r="AB642" s="2"/>
     </row>
-    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -20385,7 +20385,7 @@
       <c r="AA643" s="2"/>
       <c r="AB643" s="2"/>
     </row>
-    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -20415,7 +20415,7 @@
       <c r="AA644" s="2"/>
       <c r="AB644" s="2"/>
     </row>
-    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -20445,7 +20445,7 @@
       <c r="AA645" s="2"/>
       <c r="AB645" s="2"/>
     </row>
-    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -20475,7 +20475,7 @@
       <c r="AA646" s="2"/>
       <c r="AB646" s="2"/>
     </row>
-    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -20505,7 +20505,7 @@
       <c r="AA647" s="2"/>
       <c r="AB647" s="2"/>
     </row>
-    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -20535,7 +20535,7 @@
       <c r="AA648" s="2"/>
       <c r="AB648" s="2"/>
     </row>
-    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -20565,7 +20565,7 @@
       <c r="AA649" s="2"/>
       <c r="AB649" s="2"/>
     </row>
-    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -20595,7 +20595,7 @@
       <c r="AA650" s="2"/>
       <c r="AB650" s="2"/>
     </row>
-    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -20625,7 +20625,7 @@
       <c r="AA651" s="2"/>
       <c r="AB651" s="2"/>
     </row>
-    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -20655,7 +20655,7 @@
       <c r="AA652" s="2"/>
       <c r="AB652" s="2"/>
     </row>
-    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -20685,7 +20685,7 @@
       <c r="AA653" s="2"/>
       <c r="AB653" s="2"/>
     </row>
-    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -20715,7 +20715,7 @@
       <c r="AA654" s="2"/>
       <c r="AB654" s="2"/>
     </row>
-    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -20745,7 +20745,7 @@
       <c r="AA655" s="2"/>
       <c r="AB655" s="2"/>
     </row>
-    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -20775,7 +20775,7 @@
       <c r="AA656" s="2"/>
       <c r="AB656" s="2"/>
     </row>
-    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -20805,7 +20805,7 @@
       <c r="AA657" s="2"/>
       <c r="AB657" s="2"/>
     </row>
-    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -20835,7 +20835,7 @@
       <c r="AA658" s="2"/>
       <c r="AB658" s="2"/>
     </row>
-    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -20865,7 +20865,7 @@
       <c r="AA659" s="2"/>
       <c r="AB659" s="2"/>
     </row>
-    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -20895,7 +20895,7 @@
       <c r="AA660" s="2"/>
       <c r="AB660" s="2"/>
     </row>
-    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -20925,7 +20925,7 @@
       <c r="AA661" s="2"/>
       <c r="AB661" s="2"/>
     </row>
-    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -20955,7 +20955,7 @@
       <c r="AA662" s="2"/>
       <c r="AB662" s="2"/>
     </row>
-    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -20985,7 +20985,7 @@
       <c r="AA663" s="2"/>
       <c r="AB663" s="2"/>
     </row>
-    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -21015,7 +21015,7 @@
       <c r="AA664" s="2"/>
       <c r="AB664" s="2"/>
     </row>
-    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -21045,7 +21045,7 @@
       <c r="AA665" s="2"/>
       <c r="AB665" s="2"/>
     </row>
-    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -21075,7 +21075,7 @@
       <c r="AA666" s="2"/>
       <c r="AB666" s="2"/>
     </row>
-    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -21105,7 +21105,7 @@
       <c r="AA667" s="2"/>
       <c r="AB667" s="2"/>
     </row>
-    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -21135,7 +21135,7 @@
       <c r="AA668" s="2"/>
       <c r="AB668" s="2"/>
     </row>
-    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -21165,7 +21165,7 @@
       <c r="AA669" s="2"/>
       <c r="AB669" s="2"/>
     </row>
-    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -21195,7 +21195,7 @@
       <c r="AA670" s="2"/>
       <c r="AB670" s="2"/>
     </row>
-    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -21225,7 +21225,7 @@
       <c r="AA671" s="2"/>
       <c r="AB671" s="2"/>
     </row>
-    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -21255,7 +21255,7 @@
       <c r="AA672" s="2"/>
       <c r="AB672" s="2"/>
     </row>
-    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -21285,7 +21285,7 @@
       <c r="AA673" s="2"/>
       <c r="AB673" s="2"/>
     </row>
-    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -21315,7 +21315,7 @@
       <c r="AA674" s="2"/>
       <c r="AB674" s="2"/>
     </row>
-    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -21345,7 +21345,7 @@
       <c r="AA675" s="2"/>
       <c r="AB675" s="2"/>
     </row>
-    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -21375,7 +21375,7 @@
       <c r="AA676" s="2"/>
       <c r="AB676" s="2"/>
     </row>
-    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -21405,7 +21405,7 @@
       <c r="AA677" s="2"/>
       <c r="AB677" s="2"/>
     </row>
-    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -21435,7 +21435,7 @@
       <c r="AA678" s="2"/>
       <c r="AB678" s="2"/>
     </row>
-    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -21465,7 +21465,7 @@
       <c r="AA679" s="2"/>
       <c r="AB679" s="2"/>
     </row>
-    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -21495,7 +21495,7 @@
       <c r="AA680" s="2"/>
       <c r="AB680" s="2"/>
     </row>
-    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -21525,7 +21525,7 @@
       <c r="AA681" s="2"/>
       <c r="AB681" s="2"/>
     </row>
-    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -21555,7 +21555,7 @@
       <c r="AA682" s="2"/>
       <c r="AB682" s="2"/>
     </row>
-    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -21585,7 +21585,7 @@
       <c r="AA683" s="2"/>
       <c r="AB683" s="2"/>
     </row>
-    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -21615,7 +21615,7 @@
       <c r="AA684" s="2"/>
       <c r="AB684" s="2"/>
     </row>
-    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -21645,7 +21645,7 @@
       <c r="AA685" s="2"/>
       <c r="AB685" s="2"/>
     </row>
-    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -21675,7 +21675,7 @@
       <c r="AA686" s="2"/>
       <c r="AB686" s="2"/>
     </row>
-    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -21705,7 +21705,7 @@
       <c r="AA687" s="2"/>
       <c r="AB687" s="2"/>
     </row>
-    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -21735,7 +21735,7 @@
       <c r="AA688" s="2"/>
       <c r="AB688" s="2"/>
     </row>
-    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -21765,7 +21765,7 @@
       <c r="AA689" s="2"/>
       <c r="AB689" s="2"/>
     </row>
-    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -21795,7 +21795,7 @@
       <c r="AA690" s="2"/>
       <c r="AB690" s="2"/>
     </row>
-    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -21825,7 +21825,7 @@
       <c r="AA691" s="2"/>
       <c r="AB691" s="2"/>
     </row>
-    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -21855,7 +21855,7 @@
       <c r="AA692" s="2"/>
       <c r="AB692" s="2"/>
     </row>
-    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -21885,7 +21885,7 @@
       <c r="AA693" s="2"/>
       <c r="AB693" s="2"/>
     </row>
-    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -21915,7 +21915,7 @@
       <c r="AA694" s="2"/>
       <c r="AB694" s="2"/>
     </row>
-    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -21945,7 +21945,7 @@
       <c r="AA695" s="2"/>
       <c r="AB695" s="2"/>
     </row>
-    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -21975,7 +21975,7 @@
       <c r="AA696" s="2"/>
       <c r="AB696" s="2"/>
     </row>
-    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -22005,7 +22005,7 @@
       <c r="AA697" s="2"/>
       <c r="AB697" s="2"/>
     </row>
-    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -22035,7 +22035,7 @@
       <c r="AA698" s="2"/>
       <c r="AB698" s="2"/>
     </row>
-    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -22065,7 +22065,7 @@
       <c r="AA699" s="2"/>
       <c r="AB699" s="2"/>
     </row>
-    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -22095,7 +22095,7 @@
       <c r="AA700" s="2"/>
       <c r="AB700" s="2"/>
     </row>
-    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -22125,7 +22125,7 @@
       <c r="AA701" s="2"/>
       <c r="AB701" s="2"/>
     </row>
-    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -22155,7 +22155,7 @@
       <c r="AA702" s="2"/>
       <c r="AB702" s="2"/>
     </row>
-    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -22185,7 +22185,7 @@
       <c r="AA703" s="2"/>
       <c r="AB703" s="2"/>
     </row>
-    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -22215,7 +22215,7 @@
       <c r="AA704" s="2"/>
       <c r="AB704" s="2"/>
     </row>
-    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -22245,7 +22245,7 @@
       <c r="AA705" s="2"/>
       <c r="AB705" s="2"/>
     </row>
-    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -22275,7 +22275,7 @@
       <c r="AA706" s="2"/>
       <c r="AB706" s="2"/>
     </row>
-    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -22305,7 +22305,7 @@
       <c r="AA707" s="2"/>
       <c r="AB707" s="2"/>
     </row>
-    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -22335,7 +22335,7 @@
       <c r="AA708" s="2"/>
       <c r="AB708" s="2"/>
     </row>
-    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -22365,7 +22365,7 @@
       <c r="AA709" s="2"/>
       <c r="AB709" s="2"/>
     </row>
-    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -22395,7 +22395,7 @@
       <c r="AA710" s="2"/>
       <c r="AB710" s="2"/>
     </row>
-    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -22425,7 +22425,7 @@
       <c r="AA711" s="2"/>
       <c r="AB711" s="2"/>
     </row>
-    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -22455,7 +22455,7 @@
       <c r="AA712" s="2"/>
       <c r="AB712" s="2"/>
     </row>
-    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -22485,7 +22485,7 @@
       <c r="AA713" s="2"/>
       <c r="AB713" s="2"/>
     </row>
-    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -22515,7 +22515,7 @@
       <c r="AA714" s="2"/>
       <c r="AB714" s="2"/>
     </row>
-    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -22545,7 +22545,7 @@
       <c r="AA715" s="2"/>
       <c r="AB715" s="2"/>
     </row>
-    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -22575,7 +22575,7 @@
       <c r="AA716" s="2"/>
       <c r="AB716" s="2"/>
     </row>
-    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -22605,7 +22605,7 @@
       <c r="AA717" s="2"/>
       <c r="AB717" s="2"/>
     </row>
-    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -22635,7 +22635,7 @@
       <c r="AA718" s="2"/>
       <c r="AB718" s="2"/>
     </row>
-    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -22665,7 +22665,7 @@
       <c r="AA719" s="2"/>
       <c r="AB719" s="2"/>
     </row>
-    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -22695,7 +22695,7 @@
       <c r="AA720" s="2"/>
       <c r="AB720" s="2"/>
     </row>
-    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -22725,7 +22725,7 @@
       <c r="AA721" s="2"/>
       <c r="AB721" s="2"/>
     </row>
-    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -22755,7 +22755,7 @@
       <c r="AA722" s="2"/>
       <c r="AB722" s="2"/>
     </row>
-    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -22785,7 +22785,7 @@
       <c r="AA723" s="2"/>
       <c r="AB723" s="2"/>
     </row>
-    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -22815,7 +22815,7 @@
       <c r="AA724" s="2"/>
       <c r="AB724" s="2"/>
     </row>
-    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -22845,7 +22845,7 @@
       <c r="AA725" s="2"/>
       <c r="AB725" s="2"/>
     </row>
-    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -22875,7 +22875,7 @@
       <c r="AA726" s="2"/>
       <c r="AB726" s="2"/>
     </row>
-    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -22905,7 +22905,7 @@
       <c r="AA727" s="2"/>
       <c r="AB727" s="2"/>
     </row>
-    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -22935,7 +22935,7 @@
       <c r="AA728" s="2"/>
       <c r="AB728" s="2"/>
     </row>
-    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -22965,7 +22965,7 @@
       <c r="AA729" s="2"/>
       <c r="AB729" s="2"/>
     </row>
-    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -22995,7 +22995,7 @@
       <c r="AA730" s="2"/>
       <c r="AB730" s="2"/>
     </row>
-    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -23025,7 +23025,7 @@
       <c r="AA731" s="2"/>
       <c r="AB731" s="2"/>
     </row>
-    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -23055,7 +23055,7 @@
       <c r="AA732" s="2"/>
       <c r="AB732" s="2"/>
     </row>
-    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -23085,7 +23085,7 @@
       <c r="AA733" s="2"/>
       <c r="AB733" s="2"/>
     </row>
-    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -23115,7 +23115,7 @@
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
     </row>
-    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -23145,7 +23145,7 @@
       <c r="AA735" s="2"/>
       <c r="AB735" s="2"/>
     </row>
-    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -23175,7 +23175,7 @@
       <c r="AA736" s="2"/>
       <c r="AB736" s="2"/>
     </row>
-    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -23205,7 +23205,7 @@
       <c r="AA737" s="2"/>
       <c r="AB737" s="2"/>
     </row>
-    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -23235,7 +23235,7 @@
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -23265,7 +23265,7 @@
       <c r="AA739" s="2"/>
       <c r="AB739" s="2"/>
     </row>
-    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -23295,7 +23295,7 @@
       <c r="AA740" s="2"/>
       <c r="AB740" s="2"/>
     </row>
-    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -23325,7 +23325,7 @@
       <c r="AA741" s="2"/>
       <c r="AB741" s="2"/>
     </row>
-    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -23355,7 +23355,7 @@
       <c r="AA742" s="2"/>
       <c r="AB742" s="2"/>
     </row>
-    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -23385,7 +23385,7 @@
       <c r="AA743" s="2"/>
       <c r="AB743" s="2"/>
     </row>
-    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -23415,7 +23415,7 @@
       <c r="AA744" s="2"/>
       <c r="AB744" s="2"/>
     </row>
-    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -23445,7 +23445,7 @@
       <c r="AA745" s="2"/>
       <c r="AB745" s="2"/>
     </row>
-    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -23475,7 +23475,7 @@
       <c r="AA746" s="2"/>
       <c r="AB746" s="2"/>
     </row>
-    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -23505,7 +23505,7 @@
       <c r="AA747" s="2"/>
       <c r="AB747" s="2"/>
     </row>
-    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -23535,7 +23535,7 @@
       <c r="AA748" s="2"/>
       <c r="AB748" s="2"/>
     </row>
-    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -23565,7 +23565,7 @@
       <c r="AA749" s="2"/>
       <c r="AB749" s="2"/>
     </row>
-    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -23595,7 +23595,7 @@
       <c r="AA750" s="2"/>
       <c r="AB750" s="2"/>
     </row>
-    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -23625,7 +23625,7 @@
       <c r="AA751" s="2"/>
       <c r="AB751" s="2"/>
     </row>
-    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -23655,7 +23655,7 @@
       <c r="AA752" s="2"/>
       <c r="AB752" s="2"/>
     </row>
-    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -23685,7 +23685,7 @@
       <c r="AA753" s="2"/>
       <c r="AB753" s="2"/>
     </row>
-    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -23715,7 +23715,7 @@
       <c r="AA754" s="2"/>
       <c r="AB754" s="2"/>
     </row>
-    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -23745,7 +23745,7 @@
       <c r="AA755" s="2"/>
       <c r="AB755" s="2"/>
     </row>
-    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -23775,7 +23775,7 @@
       <c r="AA756" s="2"/>
       <c r="AB756" s="2"/>
     </row>
-    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -23805,7 +23805,7 @@
       <c r="AA757" s="2"/>
       <c r="AB757" s="2"/>
     </row>
-    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -23835,7 +23835,7 @@
       <c r="AA758" s="2"/>
       <c r="AB758" s="2"/>
     </row>
-    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -23865,7 +23865,7 @@
       <c r="AA759" s="2"/>
       <c r="AB759" s="2"/>
     </row>
-    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -23895,7 +23895,7 @@
       <c r="AA760" s="2"/>
       <c r="AB760" s="2"/>
     </row>
-    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -23925,7 +23925,7 @@
       <c r="AA761" s="2"/>
       <c r="AB761" s="2"/>
     </row>
-    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -23955,7 +23955,7 @@
       <c r="AA762" s="2"/>
       <c r="AB762" s="2"/>
     </row>
-    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -23985,7 +23985,7 @@
       <c r="AA763" s="2"/>
       <c r="AB763" s="2"/>
     </row>
-    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -24015,7 +24015,7 @@
       <c r="AA764" s="2"/>
       <c r="AB764" s="2"/>
     </row>
-    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -24045,7 +24045,7 @@
       <c r="AA765" s="2"/>
       <c r="AB765" s="2"/>
     </row>
-    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -24075,7 +24075,7 @@
       <c r="AA766" s="2"/>
       <c r="AB766" s="2"/>
     </row>
-    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -24105,7 +24105,7 @@
       <c r="AA767" s="2"/>
       <c r="AB767" s="2"/>
     </row>
-    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -24135,7 +24135,7 @@
       <c r="AA768" s="2"/>
       <c r="AB768" s="2"/>
     </row>
-    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -24165,7 +24165,7 @@
       <c r="AA769" s="2"/>
       <c r="AB769" s="2"/>
     </row>
-    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -24195,7 +24195,7 @@
       <c r="AA770" s="2"/>
       <c r="AB770" s="2"/>
     </row>
-    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -24225,7 +24225,7 @@
       <c r="AA771" s="2"/>
       <c r="AB771" s="2"/>
     </row>
-    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -24255,7 +24255,7 @@
       <c r="AA772" s="2"/>
       <c r="AB772" s="2"/>
     </row>
-    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -24285,7 +24285,7 @@
       <c r="AA773" s="2"/>
       <c r="AB773" s="2"/>
     </row>
-    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -24315,7 +24315,7 @@
       <c r="AA774" s="2"/>
       <c r="AB774" s="2"/>
     </row>
-    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -24345,7 +24345,7 @@
       <c r="AA775" s="2"/>
       <c r="AB775" s="2"/>
     </row>
-    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -24375,7 +24375,7 @@
       <c r="AA776" s="2"/>
       <c r="AB776" s="2"/>
     </row>
-    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -24405,7 +24405,7 @@
       <c r="AA777" s="2"/>
       <c r="AB777" s="2"/>
     </row>
-    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -24435,7 +24435,7 @@
       <c r="AA778" s="2"/>
       <c r="AB778" s="2"/>
     </row>
-    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -24465,7 +24465,7 @@
       <c r="AA779" s="2"/>
       <c r="AB779" s="2"/>
     </row>
-    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -24495,7 +24495,7 @@
       <c r="AA780" s="2"/>
       <c r="AB780" s="2"/>
     </row>
-    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -24525,7 +24525,7 @@
       <c r="AA781" s="2"/>
       <c r="AB781" s="2"/>
     </row>
-    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -24555,7 +24555,7 @@
       <c r="AA782" s="2"/>
       <c r="AB782" s="2"/>
     </row>
-    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -24585,7 +24585,7 @@
       <c r="AA783" s="2"/>
       <c r="AB783" s="2"/>
     </row>
-    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -24615,7 +24615,7 @@
       <c r="AA784" s="2"/>
       <c r="AB784" s="2"/>
     </row>
-    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -24645,7 +24645,7 @@
       <c r="AA785" s="2"/>
       <c r="AB785" s="2"/>
     </row>
-    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -24675,7 +24675,7 @@
       <c r="AA786" s="2"/>
       <c r="AB786" s="2"/>
     </row>
-    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -24705,7 +24705,7 @@
       <c r="AA787" s="2"/>
       <c r="AB787" s="2"/>
     </row>
-    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -24735,7 +24735,7 @@
       <c r="AA788" s="2"/>
       <c r="AB788" s="2"/>
     </row>
-    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -24765,7 +24765,7 @@
       <c r="AA789" s="2"/>
       <c r="AB789" s="2"/>
     </row>
-    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -24795,7 +24795,7 @@
       <c r="AA790" s="2"/>
       <c r="AB790" s="2"/>
     </row>
-    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -24825,7 +24825,7 @@
       <c r="AA791" s="2"/>
       <c r="AB791" s="2"/>
     </row>
-    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -24855,7 +24855,7 @@
       <c r="AA792" s="2"/>
       <c r="AB792" s="2"/>
     </row>
-    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -24885,7 +24885,7 @@
       <c r="AA793" s="2"/>
       <c r="AB793" s="2"/>
     </row>
-    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -24915,7 +24915,7 @@
       <c r="AA794" s="2"/>
       <c r="AB794" s="2"/>
     </row>
-    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -24945,7 +24945,7 @@
       <c r="AA795" s="2"/>
       <c r="AB795" s="2"/>
     </row>
-    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -24975,7 +24975,7 @@
       <c r="AA796" s="2"/>
       <c r="AB796" s="2"/>
     </row>
-    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -25005,7 +25005,7 @@
       <c r="AA797" s="2"/>
       <c r="AB797" s="2"/>
     </row>
-    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -25035,7 +25035,7 @@
       <c r="AA798" s="2"/>
       <c r="AB798" s="2"/>
     </row>
-    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -25065,7 +25065,7 @@
       <c r="AA799" s="2"/>
       <c r="AB799" s="2"/>
     </row>
-    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -25095,7 +25095,7 @@
       <c r="AA800" s="2"/>
       <c r="AB800" s="2"/>
     </row>
-    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -25125,7 +25125,7 @@
       <c r="AA801" s="2"/>
       <c r="AB801" s="2"/>
     </row>
-    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -25155,7 +25155,7 @@
       <c r="AA802" s="2"/>
       <c r="AB802" s="2"/>
     </row>
-    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -25185,7 +25185,7 @@
       <c r="AA803" s="2"/>
       <c r="AB803" s="2"/>
     </row>
-    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -25215,7 +25215,7 @@
       <c r="AA804" s="2"/>
       <c r="AB804" s="2"/>
     </row>
-    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -25245,7 +25245,7 @@
       <c r="AA805" s="2"/>
       <c r="AB805" s="2"/>
     </row>
-    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -25275,7 +25275,7 @@
       <c r="AA806" s="2"/>
       <c r="AB806" s="2"/>
     </row>
-    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -25305,7 +25305,7 @@
       <c r="AA807" s="2"/>
       <c r="AB807" s="2"/>
     </row>
-    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -25335,7 +25335,7 @@
       <c r="AA808" s="2"/>
       <c r="AB808" s="2"/>
     </row>
-    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -25365,7 +25365,7 @@
       <c r="AA809" s="2"/>
       <c r="AB809" s="2"/>
     </row>
-    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -25395,7 +25395,7 @@
       <c r="AA810" s="2"/>
       <c r="AB810" s="2"/>
     </row>
-    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -25425,7 +25425,7 @@
       <c r="AA811" s="2"/>
       <c r="AB811" s="2"/>
     </row>
-    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -25455,7 +25455,7 @@
       <c r="AA812" s="2"/>
       <c r="AB812" s="2"/>
     </row>
-    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -25485,7 +25485,7 @@
       <c r="AA813" s="2"/>
       <c r="AB813" s="2"/>
     </row>
-    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -25515,7 +25515,7 @@
       <c r="AA814" s="2"/>
       <c r="AB814" s="2"/>
     </row>
-    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -25545,7 +25545,7 @@
       <c r="AA815" s="2"/>
       <c r="AB815" s="2"/>
     </row>
-    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -25575,7 +25575,7 @@
       <c r="AA816" s="2"/>
       <c r="AB816" s="2"/>
     </row>
-    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -25605,7 +25605,7 @@
       <c r="AA817" s="2"/>
       <c r="AB817" s="2"/>
     </row>
-    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -25635,7 +25635,7 @@
       <c r="AA818" s="2"/>
       <c r="AB818" s="2"/>
     </row>
-    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -25665,7 +25665,7 @@
       <c r="AA819" s="2"/>
       <c r="AB819" s="2"/>
     </row>
-    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -25695,7 +25695,7 @@
       <c r="AA820" s="2"/>
       <c r="AB820" s="2"/>
     </row>
-    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -25725,7 +25725,7 @@
       <c r="AA821" s="2"/>
       <c r="AB821" s="2"/>
     </row>
-    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -25755,7 +25755,7 @@
       <c r="AA822" s="2"/>
       <c r="AB822" s="2"/>
     </row>
-    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -25785,7 +25785,7 @@
       <c r="AA823" s="2"/>
       <c r="AB823" s="2"/>
     </row>
-    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -25815,7 +25815,7 @@
       <c r="AA824" s="2"/>
       <c r="AB824" s="2"/>
     </row>
-    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -25845,7 +25845,7 @@
       <c r="AA825" s="2"/>
       <c r="AB825" s="2"/>
     </row>
-    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -25875,7 +25875,7 @@
       <c r="AA826" s="2"/>
       <c r="AB826" s="2"/>
     </row>
-    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -25905,7 +25905,7 @@
       <c r="AA827" s="2"/>
       <c r="AB827" s="2"/>
     </row>
-    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -25935,7 +25935,7 @@
       <c r="AA828" s="2"/>
       <c r="AB828" s="2"/>
     </row>
-    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -25965,7 +25965,7 @@
       <c r="AA829" s="2"/>
       <c r="AB829" s="2"/>
     </row>
-    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -25995,7 +25995,7 @@
       <c r="AA830" s="2"/>
       <c r="AB830" s="2"/>
     </row>
-    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -26025,7 +26025,7 @@
       <c r="AA831" s="2"/>
       <c r="AB831" s="2"/>
     </row>
-    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -26055,7 +26055,7 @@
       <c r="AA832" s="2"/>
       <c r="AB832" s="2"/>
     </row>
-    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -26085,7 +26085,7 @@
       <c r="AA833" s="2"/>
       <c r="AB833" s="2"/>
     </row>
-    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -26115,7 +26115,7 @@
       <c r="AA834" s="2"/>
       <c r="AB834" s="2"/>
     </row>
-    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -26145,7 +26145,7 @@
       <c r="AA835" s="2"/>
       <c r="AB835" s="2"/>
     </row>
-    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -26175,7 +26175,7 @@
       <c r="AA836" s="2"/>
       <c r="AB836" s="2"/>
     </row>
-    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -26205,7 +26205,7 @@
       <c r="AA837" s="2"/>
       <c r="AB837" s="2"/>
     </row>
-    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -26235,7 +26235,7 @@
       <c r="AA838" s="2"/>
       <c r="AB838" s="2"/>
     </row>
-    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -26265,7 +26265,7 @@
       <c r="AA839" s="2"/>
       <c r="AB839" s="2"/>
     </row>
-    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -26295,7 +26295,7 @@
       <c r="AA840" s="2"/>
       <c r="AB840" s="2"/>
     </row>
-    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -26325,7 +26325,7 @@
       <c r="AA841" s="2"/>
       <c r="AB841" s="2"/>
     </row>
-    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -26355,7 +26355,7 @@
       <c r="AA842" s="2"/>
       <c r="AB842" s="2"/>
     </row>
-    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -26385,7 +26385,7 @@
       <c r="AA843" s="2"/>
       <c r="AB843" s="2"/>
     </row>
-    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -26415,7 +26415,7 @@
       <c r="AA844" s="2"/>
       <c r="AB844" s="2"/>
     </row>
-    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -26445,7 +26445,7 @@
       <c r="AA845" s="2"/>
       <c r="AB845" s="2"/>
     </row>
-    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -26475,7 +26475,7 @@
       <c r="AA846" s="2"/>
       <c r="AB846" s="2"/>
     </row>
-    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -26505,7 +26505,7 @@
       <c r="AA847" s="2"/>
       <c r="AB847" s="2"/>
     </row>
-    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -26535,7 +26535,7 @@
       <c r="AA848" s="2"/>
       <c r="AB848" s="2"/>
     </row>
-    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -26565,7 +26565,7 @@
       <c r="AA849" s="2"/>
       <c r="AB849" s="2"/>
     </row>
-    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -26595,7 +26595,7 @@
       <c r="AA850" s="2"/>
       <c r="AB850" s="2"/>
     </row>
-    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -26625,7 +26625,7 @@
       <c r="AA851" s="2"/>
       <c r="AB851" s="2"/>
     </row>
-    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -26655,7 +26655,7 @@
       <c r="AA852" s="2"/>
       <c r="AB852" s="2"/>
     </row>
-    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -26685,7 +26685,7 @@
       <c r="AA853" s="2"/>
       <c r="AB853" s="2"/>
     </row>
-    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -26715,7 +26715,7 @@
       <c r="AA854" s="2"/>
       <c r="AB854" s="2"/>
     </row>
-    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -26745,7 +26745,7 @@
       <c r="AA855" s="2"/>
       <c r="AB855" s="2"/>
     </row>
-    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -26775,7 +26775,7 @@
       <c r="AA856" s="2"/>
       <c r="AB856" s="2"/>
     </row>
-    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -26805,7 +26805,7 @@
       <c r="AA857" s="2"/>
       <c r="AB857" s="2"/>
     </row>
-    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -26835,7 +26835,7 @@
       <c r="AA858" s="2"/>
       <c r="AB858" s="2"/>
     </row>
-    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -26865,7 +26865,7 @@
       <c r="AA859" s="2"/>
       <c r="AB859" s="2"/>
     </row>
-    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -26895,7 +26895,7 @@
       <c r="AA860" s="2"/>
       <c r="AB860" s="2"/>
     </row>
-    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -26925,7 +26925,7 @@
       <c r="AA861" s="2"/>
       <c r="AB861" s="2"/>
     </row>
-    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -26955,7 +26955,7 @@
       <c r="AA862" s="2"/>
       <c r="AB862" s="2"/>
     </row>
-    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -26985,7 +26985,7 @@
       <c r="AA863" s="2"/>
       <c r="AB863" s="2"/>
     </row>
-    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -27015,7 +27015,7 @@
       <c r="AA864" s="2"/>
       <c r="AB864" s="2"/>
     </row>
-    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -27045,7 +27045,7 @@
       <c r="AA865" s="2"/>
       <c r="AB865" s="2"/>
     </row>
-    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -27075,7 +27075,7 @@
       <c r="AA866" s="2"/>
       <c r="AB866" s="2"/>
     </row>
-    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -27105,7 +27105,7 @@
       <c r="AA867" s="2"/>
       <c r="AB867" s="2"/>
     </row>
-    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -27135,7 +27135,7 @@
       <c r="AA868" s="2"/>
       <c r="AB868" s="2"/>
     </row>
-    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -27165,7 +27165,7 @@
       <c r="AA869" s="2"/>
       <c r="AB869" s="2"/>
     </row>
-    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -27195,7 +27195,7 @@
       <c r="AA870" s="2"/>
       <c r="AB870" s="2"/>
     </row>
-    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -27225,7 +27225,7 @@
       <c r="AA871" s="2"/>
       <c r="AB871" s="2"/>
     </row>
-    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -27255,7 +27255,7 @@
       <c r="AA872" s="2"/>
       <c r="AB872" s="2"/>
     </row>
-    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -27285,7 +27285,7 @@
       <c r="AA873" s="2"/>
       <c r="AB873" s="2"/>
     </row>
-    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -27315,7 +27315,7 @@
       <c r="AA874" s="2"/>
       <c r="AB874" s="2"/>
     </row>
-    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -27345,7 +27345,7 @@
       <c r="AA875" s="2"/>
       <c r="AB875" s="2"/>
     </row>
-    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -27375,7 +27375,7 @@
       <c r="AA876" s="2"/>
       <c r="AB876" s="2"/>
     </row>
-    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -27405,7 +27405,7 @@
       <c r="AA877" s="2"/>
       <c r="AB877" s="2"/>
     </row>
-    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -27435,7 +27435,7 @@
       <c r="AA878" s="2"/>
       <c r="AB878" s="2"/>
     </row>
-    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -27465,7 +27465,7 @@
       <c r="AA879" s="2"/>
       <c r="AB879" s="2"/>
     </row>
-    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -27495,7 +27495,7 @@
       <c r="AA880" s="2"/>
       <c r="AB880" s="2"/>
     </row>
-    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -27525,7 +27525,7 @@
       <c r="AA881" s="2"/>
       <c r="AB881" s="2"/>
     </row>
-    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -27555,7 +27555,7 @@
       <c r="AA882" s="2"/>
       <c r="AB882" s="2"/>
     </row>
-    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -27585,7 +27585,7 @@
       <c r="AA883" s="2"/>
       <c r="AB883" s="2"/>
     </row>
-    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -27615,7 +27615,7 @@
       <c r="AA884" s="2"/>
       <c r="AB884" s="2"/>
     </row>
-    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -27645,7 +27645,7 @@
       <c r="AA885" s="2"/>
       <c r="AB885" s="2"/>
     </row>
-    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -27675,7 +27675,7 @@
       <c r="AA886" s="2"/>
       <c r="AB886" s="2"/>
     </row>
-    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -27705,7 +27705,7 @@
       <c r="AA887" s="2"/>
       <c r="AB887" s="2"/>
     </row>
-    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -27735,7 +27735,7 @@
       <c r="AA888" s="2"/>
       <c r="AB888" s="2"/>
     </row>
-    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -27765,7 +27765,7 @@
       <c r="AA889" s="2"/>
       <c r="AB889" s="2"/>
     </row>
-    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -27795,7 +27795,7 @@
       <c r="AA890" s="2"/>
       <c r="AB890" s="2"/>
     </row>
-    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -27825,7 +27825,7 @@
       <c r="AA891" s="2"/>
       <c r="AB891" s="2"/>
     </row>
-    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -27855,7 +27855,7 @@
       <c r="AA892" s="2"/>
       <c r="AB892" s="2"/>
     </row>
-    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -27885,7 +27885,7 @@
       <c r="AA893" s="2"/>
       <c r="AB893" s="2"/>
     </row>
-    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -27915,7 +27915,7 @@
       <c r="AA894" s="2"/>
       <c r="AB894" s="2"/>
     </row>
-    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -27945,7 +27945,7 @@
       <c r="AA895" s="2"/>
       <c r="AB895" s="2"/>
     </row>
-    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -27975,7 +27975,7 @@
       <c r="AA896" s="2"/>
       <c r="AB896" s="2"/>
     </row>
-    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -28005,7 +28005,7 @@
       <c r="AA897" s="2"/>
       <c r="AB897" s="2"/>
     </row>
-    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -28035,7 +28035,7 @@
       <c r="AA898" s="2"/>
       <c r="AB898" s="2"/>
     </row>
-    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -28065,7 +28065,7 @@
       <c r="AA899" s="2"/>
       <c r="AB899" s="2"/>
     </row>
-    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -28095,7 +28095,7 @@
       <c r="AA900" s="2"/>
       <c r="AB900" s="2"/>
     </row>
-    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -28125,7 +28125,7 @@
       <c r="AA901" s="2"/>
       <c r="AB901" s="2"/>
     </row>
-    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -28155,7 +28155,7 @@
       <c r="AA902" s="2"/>
       <c r="AB902" s="2"/>
     </row>
-    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -28185,7 +28185,7 @@
       <c r="AA903" s="2"/>
       <c r="AB903" s="2"/>
     </row>
-    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -28215,7 +28215,7 @@
       <c r="AA904" s="2"/>
       <c r="AB904" s="2"/>
     </row>
-    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -28245,7 +28245,7 @@
       <c r="AA905" s="2"/>
       <c r="AB905" s="2"/>
     </row>
-    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -28275,7 +28275,7 @@
       <c r="AA906" s="2"/>
       <c r="AB906" s="2"/>
     </row>
-    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -28305,7 +28305,7 @@
       <c r="AA907" s="2"/>
       <c r="AB907" s="2"/>
     </row>
-    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -28335,7 +28335,7 @@
       <c r="AA908" s="2"/>
       <c r="AB908" s="2"/>
     </row>
-    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -28365,7 +28365,7 @@
       <c r="AA909" s="2"/>
       <c r="AB909" s="2"/>
     </row>
-    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -28395,7 +28395,7 @@
       <c r="AA910" s="2"/>
       <c r="AB910" s="2"/>
     </row>
-    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -28425,7 +28425,7 @@
       <c r="AA911" s="2"/>
       <c r="AB911" s="2"/>
     </row>
-    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -28455,7 +28455,7 @@
       <c r="AA912" s="2"/>
       <c r="AB912" s="2"/>
     </row>
-    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -28485,7 +28485,7 @@
       <c r="AA913" s="2"/>
       <c r="AB913" s="2"/>
     </row>
-    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -28515,7 +28515,7 @@
       <c r="AA914" s="2"/>
       <c r="AB914" s="2"/>
     </row>
-    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -28545,7 +28545,7 @@
       <c r="AA915" s="2"/>
       <c r="AB915" s="2"/>
     </row>
-    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -28575,7 +28575,7 @@
       <c r="AA916" s="2"/>
       <c r="AB916" s="2"/>
     </row>
-    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -28605,7 +28605,7 @@
       <c r="AA917" s="2"/>
       <c r="AB917" s="2"/>
     </row>
-    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -28635,7 +28635,7 @@
       <c r="AA918" s="2"/>
       <c r="AB918" s="2"/>
     </row>
-    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -28665,7 +28665,7 @@
       <c r="AA919" s="2"/>
       <c r="AB919" s="2"/>
     </row>
-    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -28695,7 +28695,7 @@
       <c r="AA920" s="2"/>
       <c r="AB920" s="2"/>
     </row>
-    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -28725,7 +28725,7 @@
       <c r="AA921" s="2"/>
       <c r="AB921" s="2"/>
     </row>
-    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -28755,7 +28755,7 @@
       <c r="AA922" s="2"/>
       <c r="AB922" s="2"/>
     </row>
-    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -28785,7 +28785,7 @@
       <c r="AA923" s="2"/>
       <c r="AB923" s="2"/>
     </row>
-    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -28815,7 +28815,7 @@
       <c r="AA924" s="2"/>
       <c r="AB924" s="2"/>
     </row>
-    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -28845,7 +28845,7 @@
       <c r="AA925" s="2"/>
       <c r="AB925" s="2"/>
     </row>
-    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -28875,7 +28875,7 @@
       <c r="AA926" s="2"/>
       <c r="AB926" s="2"/>
     </row>
-    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -28905,7 +28905,7 @@
       <c r="AA927" s="2"/>
       <c r="AB927" s="2"/>
     </row>
-    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -28935,7 +28935,7 @@
       <c r="AA928" s="2"/>
       <c r="AB928" s="2"/>
     </row>
-    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -28965,7 +28965,7 @@
       <c r="AA929" s="2"/>
       <c r="AB929" s="2"/>
     </row>
-    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -28995,7 +28995,7 @@
       <c r="AA930" s="2"/>
       <c r="AB930" s="2"/>
     </row>
-    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -29025,7 +29025,7 @@
       <c r="AA931" s="2"/>
       <c r="AB931" s="2"/>
     </row>
-    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -29055,7 +29055,7 @@
       <c r="AA932" s="2"/>
       <c r="AB932" s="2"/>
     </row>
-    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -29085,7 +29085,7 @@
       <c r="AA933" s="2"/>
       <c r="AB933" s="2"/>
     </row>
-    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -29115,7 +29115,7 @@
       <c r="AA934" s="2"/>
       <c r="AB934" s="2"/>
     </row>
-    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -29145,7 +29145,7 @@
       <c r="AA935" s="2"/>
       <c r="AB935" s="2"/>
     </row>
-    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -29175,7 +29175,7 @@
       <c r="AA936" s="2"/>
       <c r="AB936" s="2"/>
     </row>
-    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -29205,7 +29205,7 @@
       <c r="AA937" s="2"/>
       <c r="AB937" s="2"/>
     </row>
-    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -29235,7 +29235,7 @@
       <c r="AA938" s="2"/>
       <c r="AB938" s="2"/>
     </row>
-    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -29265,7 +29265,7 @@
       <c r="AA939" s="2"/>
       <c r="AB939" s="2"/>
     </row>
-    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -29295,7 +29295,7 @@
       <c r="AA940" s="2"/>
       <c r="AB940" s="2"/>
     </row>
-    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -29325,7 +29325,7 @@
       <c r="AA941" s="2"/>
       <c r="AB941" s="2"/>
     </row>
-    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -29355,7 +29355,7 @@
       <c r="AA942" s="2"/>
       <c r="AB942" s="2"/>
     </row>
-    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -29385,7 +29385,7 @@
       <c r="AA943" s="2"/>
       <c r="AB943" s="2"/>
     </row>
-    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -29415,7 +29415,7 @@
       <c r="AA944" s="2"/>
       <c r="AB944" s="2"/>
     </row>
-    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -29445,7 +29445,7 @@
       <c r="AA945" s="2"/>
       <c r="AB945" s="2"/>
     </row>
-    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -29475,7 +29475,7 @@
       <c r="AA946" s="2"/>
       <c r="AB946" s="2"/>
     </row>
-    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -29505,7 +29505,7 @@
       <c r="AA947" s="2"/>
       <c r="AB947" s="2"/>
     </row>
-    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -29535,7 +29535,7 @@
       <c r="AA948" s="2"/>
       <c r="AB948" s="2"/>
     </row>
-    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -29565,7 +29565,7 @@
       <c r="AA949" s="2"/>
       <c r="AB949" s="2"/>
     </row>
-    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -29595,7 +29595,7 @@
       <c r="AA950" s="2"/>
       <c r="AB950" s="2"/>
     </row>
-    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -29625,7 +29625,7 @@
       <c r="AA951" s="2"/>
       <c r="AB951" s="2"/>
     </row>
-    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -29655,7 +29655,7 @@
       <c r="AA952" s="2"/>
       <c r="AB952" s="2"/>
     </row>
-    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -29685,7 +29685,7 @@
       <c r="AA953" s="2"/>
       <c r="AB953" s="2"/>
     </row>
-    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -29715,7 +29715,7 @@
       <c r="AA954" s="2"/>
       <c r="AB954" s="2"/>
     </row>
-    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -29745,7 +29745,7 @@
       <c r="AA955" s="2"/>
       <c r="AB955" s="2"/>
     </row>
-    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -29775,7 +29775,7 @@
       <c r="AA956" s="2"/>
       <c r="AB956" s="2"/>
     </row>
-    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -29805,7 +29805,7 @@
       <c r="AA957" s="2"/>
       <c r="AB957" s="2"/>
     </row>
-    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -29835,7 +29835,7 @@
       <c r="AA958" s="2"/>
       <c r="AB958" s="2"/>
     </row>
-    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
@@ -29865,7 +29865,7 @@
       <c r="AA959" s="2"/>
       <c r="AB959" s="2"/>
     </row>
-    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
@@ -29895,7 +29895,7 @@
       <c r="AA960" s="2"/>
       <c r="AB960" s="2"/>
     </row>
-    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
@@ -29925,7 +29925,7 @@
       <c r="AA961" s="2"/>
       <c r="AB961" s="2"/>
     </row>
-    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
@@ -29955,7 +29955,7 @@
       <c r="AA962" s="2"/>
       <c r="AB962" s="2"/>
     </row>
-    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
@@ -29985,7 +29985,7 @@
       <c r="AA963" s="2"/>
       <c r="AB963" s="2"/>
     </row>
-    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
@@ -30015,7 +30015,7 @@
       <c r="AA964" s="2"/>
       <c r="AB964" s="2"/>
     </row>
-    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
@@ -30045,7 +30045,7 @@
       <c r="AA965" s="2"/>
       <c r="AB965" s="2"/>
     </row>
-    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
@@ -30075,7 +30075,7 @@
       <c r="AA966" s="2"/>
       <c r="AB966" s="2"/>
     </row>
-    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
@@ -30105,7 +30105,7 @@
       <c r="AA967" s="2"/>
       <c r="AB967" s="2"/>
     </row>
-    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
@@ -30135,7 +30135,7 @@
       <c r="AA968" s="2"/>
       <c r="AB968" s="2"/>
     </row>
-    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
@@ -30165,7 +30165,7 @@
       <c r="AA969" s="2"/>
       <c r="AB969" s="2"/>
     </row>
-    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
@@ -30195,7 +30195,7 @@
       <c r="AA970" s="2"/>
       <c r="AB970" s="2"/>
     </row>
-    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
@@ -30225,7 +30225,7 @@
       <c r="AA971" s="2"/>
       <c r="AB971" s="2"/>
     </row>
-    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
@@ -30255,7 +30255,7 @@
       <c r="AA972" s="2"/>
       <c r="AB972" s="2"/>
     </row>
-    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
@@ -30285,7 +30285,7 @@
       <c r="AA973" s="2"/>
       <c r="AB973" s="2"/>
     </row>
-    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
@@ -30315,7 +30315,7 @@
       <c r="AA974" s="2"/>
       <c r="AB974" s="2"/>
     </row>
-    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
@@ -30345,7 +30345,7 @@
       <c r="AA975" s="2"/>
       <c r="AB975" s="2"/>
     </row>
-    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
@@ -30375,7 +30375,7 @@
       <c r="AA976" s="2"/>
       <c r="AB976" s="2"/>
     </row>
-    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
@@ -30405,7 +30405,7 @@
       <c r="AA977" s="2"/>
       <c r="AB977" s="2"/>
     </row>
-    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
@@ -30435,7 +30435,7 @@
       <c r="AA978" s="2"/>
       <c r="AB978" s="2"/>
     </row>
-    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
@@ -30465,7 +30465,7 @@
       <c r="AA979" s="2"/>
       <c r="AB979" s="2"/>
     </row>
-    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
@@ -30495,7 +30495,7 @@
       <c r="AA980" s="2"/>
       <c r="AB980" s="2"/>
     </row>
-    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
@@ -30525,7 +30525,7 @@
       <c r="AA981" s="2"/>
       <c r="AB981" s="2"/>
     </row>
-    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
@@ -30555,7 +30555,7 @@
       <c r="AA982" s="2"/>
       <c r="AB982" s="2"/>
     </row>
-    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
@@ -30585,7 +30585,7 @@
       <c r="AA983" s="2"/>
       <c r="AB983" s="2"/>
     </row>
-    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
@@ -30615,7 +30615,7 @@
       <c r="AA984" s="2"/>
       <c r="AB984" s="2"/>
     </row>
-    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
@@ -30645,7 +30645,7 @@
       <c r="AA985" s="2"/>
       <c r="AB985" s="2"/>
     </row>
-    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
@@ -30675,7 +30675,7 @@
       <c r="AA986" s="2"/>
       <c r="AB986" s="2"/>
     </row>
-    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
@@ -30705,7 +30705,7 @@
       <c r="AA987" s="2"/>
       <c r="AB987" s="2"/>
     </row>
-    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
@@ -30735,7 +30735,7 @@
       <c r="AA988" s="2"/>
       <c r="AB988" s="2"/>
     </row>
-    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
@@ -30765,7 +30765,7 @@
       <c r="AA989" s="2"/>
       <c r="AB989" s="2"/>
     </row>
-    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
@@ -30795,7 +30795,7 @@
       <c r="AA990" s="2"/>
       <c r="AB990" s="2"/>
     </row>
-    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
@@ -30825,7 +30825,7 @@
       <c r="AA991" s="2"/>
       <c r="AB991" s="2"/>
     </row>
-    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
@@ -30855,7 +30855,7 @@
       <c r="AA992" s="2"/>
       <c r="AB992" s="2"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
@@ -30885,7 +30885,7 @@
       <c r="AA993" s="2"/>
       <c r="AB993" s="2"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
@@ -30915,7 +30915,7 @@
       <c r="AA994" s="2"/>
       <c r="AB994" s="2"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
@@ -30945,7 +30945,7 @@
       <c r="AA995" s="2"/>
       <c r="AB995" s="2"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
@@ -30975,7 +30975,7 @@
       <c r="AA996" s="2"/>
       <c r="AB996" s="2"/>
     </row>
-    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
@@ -31005,7 +31005,7 @@
       <c r="AA997" s="2"/>
       <c r="AB997" s="2"/>
     </row>
-    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
@@ -31035,7 +31035,7 @@
       <c r="AA998" s="2"/>
       <c r="AB998" s="2"/>
     </row>
-    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
@@ -31065,7 +31065,7 @@
       <c r="AA999" s="2"/>
       <c r="AB999" s="2"/>
     </row>
-    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
@@ -31095,7 +31095,7 @@
       <c r="AA1000" s="2"/>
       <c r="AB1000" s="2"/>
     </row>
-    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
@@ -31125,7 +31125,7 @@
       <c r="AA1001" s="2"/>
       <c r="AB1001" s="2"/>
     </row>
-    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="9"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
@@ -31155,7 +31155,7 @@
       <c r="AA1002" s="2"/>
       <c r="AB1002" s="2"/>
     </row>
-    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="9"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
@@ -31185,7 +31185,7 @@
       <c r="AA1003" s="2"/>
       <c r="AB1003" s="2"/>
     </row>
-    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="9"/>
       <c r="B1004" s="9"/>
       <c r="C1004" s="9"/>
@@ -31215,7 +31215,7 @@
       <c r="AA1004" s="2"/>
       <c r="AB1004" s="2"/>
     </row>
-    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="9"/>
       <c r="B1005" s="9"/>
       <c r="C1005" s="9"/>
@@ -31263,17 +31263,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -31283,7 +31283,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -31303,7 +31303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -31323,7 +31323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -31343,7 +31343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>26</v>
       </c>
@@ -31363,10 +31363,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -31374,7 +31374,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -31382,7 +31382,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -31390,7 +31390,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -31398,7 +31398,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
     </row>
   </sheetData>
@@ -31415,20 +31415,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>59</v>
       </c>
@@ -31438,7 +31438,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -31498,7 +31498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -31518,7 +31518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="68.400000000000006" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>17</v>
       </c>
@@ -31538,7 +31538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>27</v>
       </c>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -639,6 +639,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -652,16 +662,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -979,10 +979,10 @@
   <dimension ref="A1:AI1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -998,10 +998,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1121,11 +1121,11 @@
       <c r="G3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="27"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="2"/>
@@ -1172,11 +1172,11 @@
       <c r="G4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="28"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1217,7 +1217,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="30"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="17" t="s">
         <v>52</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="K5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1268,8 +1268,8 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="30"/>
-      <c r="L6" s="29"/>
+      <c r="H6" s="25"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1287,7 +1287,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="17" t="s">
         <v>52</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="K7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="27"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1338,11 +1338,11 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17" t="s">
         <v>52</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="17" t="s">
         <v>52</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="K9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1438,11 +1438,11 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="17" t="s">
         <v>52</v>
       </c>
@@ -1487,11 +1487,11 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="17" t="s">
         <v>52</v>
       </c>
@@ -1536,11 +1536,11 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="17" t="s">
         <v>52</v>
       </c>
@@ -1585,11 +1585,11 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="17" t="s">
         <v>52</v>
       </c>
@@ -1634,11 +1634,11 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="28"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="17" t="s">
         <v>52</v>
       </c>
@@ -1683,11 +1683,11 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="28"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="17" t="s">
         <v>52</v>
       </c>
@@ -1732,11 +1732,11 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="28"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1777,11 +1777,11 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="28"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1822,11 +1822,11 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="28"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1867,7 +1867,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="17" t="s">
         <v>52</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="K19" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="27"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1918,11 +1918,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="28"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1963,11 +1963,11 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2008,11 +2008,11 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2053,11 +2053,11 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2098,11 +2098,11 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="28"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2143,11 +2143,11 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2188,11 +2188,11 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="28"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2233,11 +2233,11 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="28"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="28"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2284,11 +2284,11 @@
       <c r="G28" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="28"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2329,17 +2329,17 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="28"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="17" t="s">
         <v>52</v>
       </c>
       <c r="J29" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L29" s="27"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2380,7 +2380,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="28"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="17" t="s">
         <v>52</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="K30" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L30" s="27"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -38519,10 +38519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -38683,12 +38683,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -38868,12 +38868,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -38853,8 +38853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="110">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -979,10 +979,10 @@
   <dimension ref="A1:AI1005"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,9 +991,14 @@
     <col min="2" max="2" width="85.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="8" width="7" customWidth="1"/>
-    <col min="9" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="21" width="11.44140625" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="11.44140625" customWidth="1"/>
     <col min="22" max="35" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1347,9 +1352,11 @@
         <v>52</v>
       </c>
       <c r="N8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1447,9 +1454,11 @@
         <v>52</v>
       </c>
       <c r="N10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1496,9 +1505,11 @@
         <v>52</v>
       </c>
       <c r="N11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1545,9 +1556,11 @@
         <v>52</v>
       </c>
       <c r="N12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1594,9 +1607,11 @@
         <v>52</v>
       </c>
       <c r="N13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1643,9 +1658,11 @@
         <v>52</v>
       </c>
       <c r="N14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1692,9 +1709,11 @@
         <v>52</v>
       </c>
       <c r="N15" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -38854,7 +38873,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
